--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
@@ -30,12 +30,12 @@
     <sheet name="اردیبهشت 96" sheetId="21" r:id="rId21"/>
     <sheet name="خرداد 96" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="631">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1925,6 +1925,9 @@
   </si>
   <si>
     <t>منابع نقدی</t>
+  </si>
+  <si>
+    <t>16/4/1396</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2278,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -26046,8 +26079,8 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26097,7 +26130,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26105,7 +26138,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>34521900</v>
+        <v>35779000</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26123,7 +26156,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26131,7 +26164,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1065000000</v>
+        <v>1104000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26147,7 +26180,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26155,7 +26188,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-70600000</v>
+        <v>-73200000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26171,7 +26204,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26179,7 +26212,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-35100000</v>
+        <v>-36400000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26195,7 +26228,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26203,7 +26236,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-19250000</v>
+        <v>-19965000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26219,7 +26252,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26227,7 +26260,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-69800000</v>
+        <v>-72400000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26243,7 +26276,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26251,7 +26284,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-69000000</v>
+        <v>-71600000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26267,7 +26300,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26275,7 +26308,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-319368000</v>
+        <v>-331724500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26291,7 +26324,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26299,7 +26332,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>668000000</v>
+        <v>694000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26315,7 +26348,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26323,7 +26356,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-354645000</v>
+        <v>-368490000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26339,7 +26372,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26347,7 +26380,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-14850000</v>
+        <v>-15435000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26363,7 +26396,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26371,7 +26404,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-658230300</v>
+        <v>-684239400</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26387,7 +26420,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26395,7 +26428,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-65000000</v>
+        <v>-67600000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26411,7 +26444,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26419,7 +26452,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>644000000</v>
+        <v>670000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26435,7 +26468,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26443,7 +26476,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>644000000</v>
+        <v>670000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26459,7 +26492,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26467,7 +26500,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>386400000</v>
+        <v>402000000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26483,7 +26516,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26491,7 +26524,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>322000000</v>
+        <v>335000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26507,7 +26540,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26515,7 +26548,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>963000000</v>
+        <v>1002000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26534,7 +26567,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26542,7 +26575,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-139329400</v>
+        <v>-144954500</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26558,7 +26591,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26566,7 +26599,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-139329400</v>
+        <v>-144954500</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26582,7 +26615,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26590,7 +26623,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-139329400</v>
+        <v>-144954500</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26606,7 +26639,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26614,7 +26647,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-139329400</v>
+        <v>-144954500</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26630,7 +26663,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26638,7 +26671,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-139329400</v>
+        <v>-144954500</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26654,7 +26687,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26662,7 +26695,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-64400000</v>
+        <v>-67000000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26678,7 +26711,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26686,7 +26719,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>960000000</v>
+        <v>999000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26702,7 +26735,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26710,7 +26743,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-63800000</v>
+        <v>-66400000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26726,7 +26759,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26734,7 +26767,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>634000000</v>
+        <v>660000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26750,7 +26783,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26758,7 +26791,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2219253600</v>
+        <v>-2310264000</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26774,7 +26807,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26782,7 +26815,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-948284400</v>
+        <v>-987296100</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26798,7 +26831,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26806,7 +26839,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-534208500</v>
+        <v>-556255200</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26822,7 +26855,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26830,7 +26863,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>309227300</v>
+        <v>322153200</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26846,7 +26879,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26854,7 +26887,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>10737846</v>
+        <v>11194029</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>383</v>
@@ -26872,7 +26905,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26880,7 +26913,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-260100000</v>
+        <v>-271150000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26896,7 +26929,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26904,7 +26937,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-56769000</v>
+        <v>-59245500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26920,7 +26953,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26928,7 +26961,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>59200000</v>
+        <v>61800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26944,7 +26977,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -26952,7 +26985,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-59400000</v>
+        <v>-62000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -26968,7 +27001,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -26976,7 +27009,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>82420844</v>
+        <v>86331322</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>403</v>
@@ -26994,7 +27027,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27002,7 +27035,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-26030000</v>
+        <v>-27265000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27018,7 +27051,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27026,7 +27059,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-24140222</v>
+        <v>-25285561</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27042,7 +27075,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27050,7 +27083,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-32280000</v>
+        <v>-33840000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27066,7 +27099,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27074,7 +27107,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>246050184</v>
+        <v>259052836</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>404</v>
@@ -27092,7 +27125,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27100,7 +27133,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-19440000</v>
+        <v>-20480000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27116,7 +27149,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27124,7 +27157,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-50435931</v>
+        <v>-53179308</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27140,7 +27173,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27148,7 +27181,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-47600000</v>
+        <v>-50200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27164,7 +27197,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27172,7 +27205,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-22515000</v>
+        <v>-23750000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27188,7 +27221,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27196,7 +27229,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-10575000</v>
+        <v>-11160000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27212,7 +27245,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27220,7 +27253,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-15082300</v>
+        <v>-15916640</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27236,7 +27269,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27244,7 +27277,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6376288</v>
+        <v>-6733580</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27260,7 +27293,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27268,7 +27301,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-32571000</v>
+        <v>-34404000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27284,7 +27317,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27292,7 +27325,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6178326</v>
+        <v>-6526024</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27308,7 +27341,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27316,7 +27349,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-12259000</v>
+        <v>-12951900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27332,7 +27365,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27340,7 +27373,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>228000000</v>
+        <v>241000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27356,7 +27389,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27364,7 +27397,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-4683000</v>
+        <v>-4956000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27380,7 +27413,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27388,7 +27421,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-217671000</v>
+        <v>-230417500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27404,7 +27437,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27412,7 +27445,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-9990000</v>
+        <v>-10575000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27428,7 +27461,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27436,7 +27469,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>625079312</v>
+        <v>664146769</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>405</v>
@@ -27454,7 +27487,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27462,7 +27495,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>416000000</v>
+        <v>442000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27478,7 +27511,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27486,7 +27519,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>414000000</v>
+        <v>440000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27502,7 +27535,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27510,7 +27543,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1456312000</v>
+        <v>-1547331500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27526,7 +27559,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27534,7 +27567,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>549000000</v>
+        <v>588000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27550,7 +27583,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27558,7 +27591,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-4960947</v>
+        <v>-5313364</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27574,7 +27607,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27582,7 +27615,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6036987</v>
+        <v>-6465844</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27598,7 +27631,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27606,7 +27639,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>546000000</v>
+        <v>585000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27622,7 +27655,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27630,7 +27663,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>540540000</v>
+        <v>579150000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27646,7 +27679,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27654,7 +27687,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>182000000</v>
+        <v>195000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27670,7 +27703,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27678,7 +27711,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F137" si="5">B67*(D67-E67)</f>
-        <v>5460000</v>
+        <v>5850000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27694,7 +27727,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27702,7 +27735,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>5430000000</v>
+        <v>5820000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27718,7 +27751,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27726,7 +27759,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-36200000</v>
+        <v>-38800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27742,7 +27775,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27750,7 +27783,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>252000000</v>
+        <v>270200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27766,7 +27799,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27774,7 +27807,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>468000000</v>
+        <v>501800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27790,7 +27823,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27798,7 +27831,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-181000000</v>
+        <v>-194000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27814,7 +27847,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27822,7 +27855,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>2670000000</v>
+        <v>2865000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27838,7 +27871,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27846,7 +27879,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2610730800</v>
+        <v>-2805785400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27862,7 +27895,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27870,7 +27903,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-516000000</v>
+        <v>-555000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27886,7 +27919,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27894,7 +27927,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-34400000</v>
+        <v>-37000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27910,7 +27943,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27918,7 +27951,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2064516000</v>
+        <v>-2220555000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27934,7 +27967,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27942,7 +27975,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-504151200</v>
+        <v>-543162900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -27958,7 +27991,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -27966,7 +27999,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>3726000000</v>
+        <v>4025000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -27982,7 +28015,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -27990,7 +28023,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-94879000</v>
+        <v>-102685500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28006,7 +28039,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28014,7 +28047,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-31600000</v>
+        <v>-34200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28030,7 +28063,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28038,7 +28071,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>44182476</v>
+        <v>47864349</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28056,7 +28089,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28064,7 +28097,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-31400000</v>
+        <v>-34000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28080,7 +28113,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28088,7 +28121,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>308000000</v>
+        <v>334000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28104,7 +28137,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28112,7 +28145,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-30400000</v>
+        <v>-33000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28128,7 +28161,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28136,7 +28169,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-29200000</v>
+        <v>-31800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28152,7 +28185,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28160,7 +28193,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-190800000</v>
+        <v>-208025000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28176,7 +28209,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28184,7 +28217,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-64500000</v>
+        <v>-71000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28200,7 +28233,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28208,7 +28241,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-15480000</v>
+        <v>-17040000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28224,7 +28257,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28232,7 +28265,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>53953830</v>
+        <v>59520495</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28250,7 +28283,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28258,7 +28291,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-372248000</v>
+        <v>-411274000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>345</v>
@@ -28276,7 +28309,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28284,7 +28317,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-25010000</v>
+        <v>-27675000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>346</v>
@@ -28302,7 +28335,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28310,7 +28343,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-42761000</v>
+        <v>-47317500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>343</v>
@@ -28328,7 +28361,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28336,7 +28369,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>110000000</v>
+        <v>123000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>341</v>
@@ -28354,7 +28387,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28362,7 +28395,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>945000000</v>
+        <v>1062000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>353</v>
@@ -28381,7 +28414,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28389,7 +28422,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-2704000000</v>
+        <v>-3042000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>355</v>
@@ -28407,7 +28440,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28415,7 +28448,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-2704000000</v>
+        <v>-3042000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28431,7 +28464,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28439,7 +28472,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>2678000000</v>
+        <v>3016000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28455,7 +28488,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28463,7 +28496,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-20800000</v>
+        <v>-23400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28482,7 +28515,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28490,7 +28523,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>2949200000</v>
+        <v>3328800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28506,7 +28539,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28514,7 +28547,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>38394720</v>
+        <v>43594005</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>408</v>
@@ -28532,7 +28565,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28540,7 +28573,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>190000000</v>
+        <v>216000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>410</v>
@@ -28558,7 +28591,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28566,7 +28599,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>705000000</v>
+        <v>802500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>418</v>
@@ -28584,7 +28617,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28592,7 +28625,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-6270000000</v>
+        <v>-7128000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>432</v>
@@ -28610,7 +28643,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28618,7 +28651,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-13775000</v>
+        <v>-15660000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>433</v>
@@ -28636,7 +28669,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28644,7 +28677,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>552000000</v>
+        <v>630000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>434</v>
@@ -28662,7 +28695,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28670,7 +28703,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-546536900</v>
+        <v>-624613600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>444</v>
@@ -28688,7 +28721,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28696,7 +28729,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>522000000</v>
+        <v>600000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>452</v>
@@ -28714,7 +28747,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28722,7 +28755,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-9120000</v>
+        <v>-10680000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>473</v>
@@ -28740,7 +28773,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28748,7 +28781,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>296000000</v>
+        <v>348000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>475</v>
@@ -28766,7 +28799,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28774,7 +28807,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>204400000</v>
+        <v>240800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>480</v>
@@ -28792,7 +28825,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28800,7 +28833,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-14000000</v>
+        <v>-16600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>486</v>
@@ -28818,7 +28851,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28826,7 +28859,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>4917080</v>
+        <v>5857110</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>519</v>
@@ -28844,7 +28877,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28852,7 +28885,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-10400000</v>
+        <v>-13000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>473</v>
@@ -28873,7 +28906,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28881,7 +28914,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-561000000</v>
+        <v>-704000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>520</v>
@@ -28899,7 +28932,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28907,7 +28940,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-10200000</v>
+        <v>-12800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>473</v>
@@ -28928,7 +28961,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28936,7 +28969,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-22074500</v>
+        <v>-27931000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>522</v>
@@ -28954,7 +28987,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -28962,7 +28995,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-9800000</v>
+        <v>-12400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>523</v>
@@ -28983,7 +29016,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -28991,7 +29024,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-6645650</v>
+        <v>-8654800</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>526</v>
@@ -29009,7 +29042,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29017,7 +29050,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-13760</v>
+        <v>-17920</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>527</v>
@@ -29035,7 +29068,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29043,7 +29076,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-18144000</v>
+        <v>-23760000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>529</v>
@@ -29061,7 +29094,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29069,7 +29102,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>2591505</v>
+        <v>3554064</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>531</v>
@@ -29087,7 +29120,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29095,7 +29128,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-780000</v>
+        <v>-1456000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>558</v>
@@ -29113,7 +29146,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29121,7 +29154,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>3561</v>
+        <v>18992</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>613</v>
@@ -29139,7 +29172,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29147,7 +29180,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>4800000</v>
+        <v>36000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>611</v>
@@ -29165,7 +29198,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29173,7 +29206,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17456400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>622</v>
@@ -29187,11 +29220,11 @@
         <v>1342800</v>
       </c>
       <c r="C127" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29199,21 +29232,25 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17456400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+      <c r="A128" s="11" t="s">
+        <v>630</v>
+      </c>
       <c r="B128" s="3">
-        <v>0</v>
-      </c>
-      <c r="C128" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="C128" s="11">
+        <v>2</v>
+      </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29221,9 +29258,11 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="11"/>
+        <v>-400000</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
@@ -29419,14 +29458,14 @@
       <c r="A139" s="11"/>
       <c r="B139" s="31">
         <f>SUM(B2:B137)</f>
-        <v>5132691</v>
+        <v>4932691</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="31">
         <f>SUM(F2:F137)</f>
-        <v>4308671947</v>
+        <v>4374996930</v>
       </c>
       <c r="G139" s="11"/>
     </row>
@@ -29460,7 +29499,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="3">
         <f>F139/D2</f>
-        <v>12035396.5</v>
+        <v>11792444.555256065</v>
       </c>
       <c r="G142" s="11"/>
     </row>
@@ -29489,8 +29528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29508,10 +29547,9 @@
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -29693,11 +29731,11 @@
       </c>
       <c r="F6" s="65">
         <f>K23</f>
-        <v>172043165.78082192</v>
+        <v>171563165.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>643011.78917810321</v>
+        <v>1123011.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29817,11 +29855,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B139</f>
-        <v>5132691</v>
+        <v>4932691</v>
       </c>
       <c r="L9" s="3">
         <f>K9</f>
-        <v>5132691</v>
+        <v>4932691</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
@@ -30156,14 +30194,14 @@
         <v>470</v>
       </c>
       <c r="K17" s="46">
-        <v>600000</v>
+        <v>320000</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>600000</v>
+        <v>320000</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="11" t="s">
@@ -30453,15 +30491,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>172043165.78082192</v>
+        <v>171563165.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61262485.520547941</v>
+        <v>61062485.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>110780680.26027396</v>
+        <v>110500680.26027396</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -30505,15 +30543,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>100160974</v>
+        <v>99680974</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>21207691</v>
+        <v>21007691</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>
-        <v>78903283</v>
+        <v>78623283</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -31780,12 +31818,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="تیر 96" sheetId="23" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="633">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1928,6 +1928,12 @@
   </si>
   <si>
     <t>16/4/1396</t>
+  </si>
+  <si>
+    <t>18/4/1396</t>
+  </si>
+  <si>
+    <t>خرید تخم مرغ و ... از جامبو</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2284,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2286,26 +2292,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -26078,9 +26064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26130,7 +26116,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26138,7 +26124,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>35779000</v>
+        <v>35972400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26156,7 +26142,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26164,7 +26150,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1104000000</v>
+        <v>1110000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26180,7 +26166,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26188,7 +26174,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-73200000</v>
+        <v>-73600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26204,7 +26190,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26212,7 +26198,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-36400000</v>
+        <v>-36600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26228,7 +26214,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26236,7 +26222,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-19965000</v>
+        <v>-20075000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26252,7 +26238,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26260,7 +26246,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-72400000</v>
+        <v>-72800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26276,7 +26262,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26284,7 +26270,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-71600000</v>
+        <v>-72000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26300,7 +26286,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26308,7 +26294,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-331724500</v>
+        <v>-333625500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26324,7 +26310,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26332,7 +26318,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>694000000</v>
+        <v>698000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26348,7 +26334,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26356,7 +26342,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-368490000</v>
+        <v>-370620000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26372,7 +26358,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26380,7 +26366,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15435000</v>
+        <v>-15525000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26396,7 +26382,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26404,7 +26390,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-684239400</v>
+        <v>-688240800</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26420,7 +26406,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26428,7 +26414,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-67600000</v>
+        <v>-68000000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26444,7 +26430,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26452,7 +26438,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>670000000</v>
+        <v>674000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26468,7 +26454,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26476,7 +26462,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>670000000</v>
+        <v>674000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26492,7 +26478,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26500,7 +26486,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>402000000</v>
+        <v>404400000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26516,7 +26502,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26524,7 +26510,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>335000000</v>
+        <v>337000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26540,7 +26526,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26548,7 +26534,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1002000000</v>
+        <v>1008000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26567,7 +26553,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26575,7 +26561,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-144954500</v>
+        <v>-145819900</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26591,7 +26577,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26599,7 +26585,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-144954500</v>
+        <v>-145819900</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26615,7 +26601,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26623,7 +26609,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-144954500</v>
+        <v>-145819900</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26639,7 +26625,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26647,7 +26633,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-144954500</v>
+        <v>-145819900</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26663,7 +26649,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26671,7 +26657,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-144954500</v>
+        <v>-145819900</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26687,7 +26673,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26695,7 +26681,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-67000000</v>
+        <v>-67400000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26711,7 +26697,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26719,7 +26705,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>999000000</v>
+        <v>1005000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26735,7 +26721,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26743,7 +26729,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-66400000</v>
+        <v>-66800000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26759,7 +26745,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26767,7 +26753,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>660000000</v>
+        <v>664000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26783,7 +26769,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26791,7 +26777,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2310264000</v>
+        <v>-2324265600</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26807,7 +26793,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26815,7 +26801,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-987296100</v>
+        <v>-993297900</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26831,7 +26817,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26839,7 +26825,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-556255200</v>
+        <v>-559647000</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26855,7 +26841,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26863,7 +26849,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>322153200</v>
+        <v>324141800</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26879,7 +26865,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26887,7 +26873,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11194029</v>
+        <v>11264211</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>383</v>
@@ -26905,7 +26891,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26913,7 +26899,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-271150000</v>
+        <v>-272850000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26929,7 +26915,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26937,7 +26923,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-59245500</v>
+        <v>-59626500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26953,7 +26939,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26961,7 +26947,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>61800000</v>
+        <v>62200000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26977,7 +26963,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -26985,7 +26971,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-62000000</v>
+        <v>-62400000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27001,7 +26987,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27009,7 +26995,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>86331322</v>
+        <v>86932934</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>403</v>
@@ -27027,7 +27013,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27035,7 +27021,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-27265000</v>
+        <v>-27455000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27051,7 +27037,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27059,7 +27045,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-25285561</v>
+        <v>-25461767</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27075,7 +27061,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27083,7 +27069,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-33840000</v>
+        <v>-34080000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27099,7 +27085,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27107,7 +27093,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>259052836</v>
+        <v>261053244</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>404</v>
@@ -27125,7 +27111,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27133,7 +27119,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-20480000</v>
+        <v>-20640000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27149,7 +27135,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27157,7 +27143,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-53179308</v>
+        <v>-53601366</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27173,7 +27159,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27181,7 +27167,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-50200000</v>
+        <v>-50600000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27197,7 +27183,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27205,7 +27191,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-23750000</v>
+        <v>-23940000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27221,7 +27207,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27229,7 +27215,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11160000</v>
+        <v>-11250000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27245,7 +27231,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27253,7 +27239,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-15916640</v>
+        <v>-16045000</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27269,7 +27255,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27277,7 +27263,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6733580</v>
+        <v>-6788548</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27293,7 +27279,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27301,7 +27287,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-34404000</v>
+        <v>-34686000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27317,7 +27303,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27325,7 +27311,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6526024</v>
+        <v>-6579516</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27341,7 +27327,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27349,7 +27335,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-12951900</v>
+        <v>-13058500</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27365,7 +27351,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27373,7 +27359,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>241000000</v>
+        <v>243000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27389,7 +27375,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27397,7 +27383,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-4956000</v>
+        <v>-4998000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27413,7 +27399,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27421,7 +27407,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-230417500</v>
+        <v>-232378500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27437,7 +27423,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27445,7 +27431,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-10575000</v>
+        <v>-10665000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27461,7 +27447,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27469,7 +27455,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>664146769</v>
+        <v>670157147</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>405</v>
@@ -27487,7 +27473,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27495,7 +27481,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>442000000</v>
+        <v>446000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27511,7 +27497,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27519,7 +27505,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>440000000</v>
+        <v>444000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27535,7 +27521,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27543,7 +27529,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1547331500</v>
+        <v>-1561334500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27559,7 +27545,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27567,7 +27553,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>588000000</v>
+        <v>594000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27583,7 +27569,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27591,7 +27577,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5313364</v>
+        <v>-5367582</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27607,7 +27593,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27615,7 +27601,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6465844</v>
+        <v>-6531822</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27631,7 +27617,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27639,7 +27625,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>585000000</v>
+        <v>591000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27655,7 +27641,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27663,7 +27649,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>579150000</v>
+        <v>585090000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27679,7 +27665,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27687,7 +27673,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>195000000</v>
+        <v>197000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27703,7 +27689,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27711,7 +27697,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F137" si="5">B67*(D67-E67)</f>
-        <v>5850000</v>
+        <v>5910000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27727,7 +27713,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27735,7 +27721,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>5820000000</v>
+        <v>5880000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27751,7 +27737,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27759,7 +27745,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-38800000</v>
+        <v>-39200000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27775,7 +27761,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27783,7 +27769,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>270200000</v>
+        <v>273000000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27799,7 +27785,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27807,7 +27793,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>501800000</v>
+        <v>507000000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27823,7 +27809,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27831,7 +27817,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-194000000</v>
+        <v>-196000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27847,7 +27833,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27855,7 +27841,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>2865000000</v>
+        <v>2895000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27871,7 +27857,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27879,7 +27865,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2805785400</v>
+        <v>-2835793800</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27895,7 +27881,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27903,7 +27889,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-555000000</v>
+        <v>-561000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27919,7 +27905,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27927,7 +27913,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-37000000</v>
+        <v>-37400000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27943,7 +27929,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27951,7 +27937,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2220555000</v>
+        <v>-2244561000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27967,7 +27953,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27975,7 +27961,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-543162900</v>
+        <v>-549164700</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -27991,7 +27977,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -27999,7 +27985,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4025000000</v>
+        <v>4071000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28015,7 +28001,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28023,7 +28009,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-102685500</v>
+        <v>-103886500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28039,7 +28025,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28047,7 +28033,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-34200000</v>
+        <v>-34600000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28063,7 +28049,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28071,7 +28057,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>47864349</v>
+        <v>48430791</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28089,7 +28075,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28097,7 +28083,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-34000000</v>
+        <v>-34400000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28113,7 +28099,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28121,7 +28107,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>334000000</v>
+        <v>338000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28137,7 +28123,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28145,7 +28131,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-33000000</v>
+        <v>-33400000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28161,7 +28147,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28169,7 +28155,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-31800000</v>
+        <v>-32200000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28185,7 +28171,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28193,7 +28179,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-208025000</v>
+        <v>-210675000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28209,7 +28195,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28217,7 +28203,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-71000000</v>
+        <v>-72000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28233,7 +28219,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28241,7 +28227,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-17040000</v>
+        <v>-17280000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28257,7 +28243,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28265,7 +28251,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>59520495</v>
+        <v>60376905</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28283,7 +28269,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28291,7 +28277,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-411274000</v>
+        <v>-417278000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>345</v>
@@ -28309,7 +28295,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28317,7 +28303,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-27675000</v>
+        <v>-28085000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>346</v>
@@ -28335,7 +28321,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28343,7 +28329,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-47317500</v>
+        <v>-48018500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>343</v>
@@ -28361,7 +28347,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28369,7 +28355,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>123000000</v>
+        <v>125000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>341</v>
@@ -28387,7 +28373,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28395,7 +28381,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1062000000</v>
+        <v>1080000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>353</v>
@@ -28414,7 +28400,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28422,7 +28408,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3042000000</v>
+        <v>-3094000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>355</v>
@@ -28440,7 +28426,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28448,7 +28434,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3042000000</v>
+        <v>-3094000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28464,7 +28450,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28472,7 +28458,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3016000000</v>
+        <v>3068000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28488,7 +28474,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28496,7 +28482,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-23400000</v>
+        <v>-23800000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28515,7 +28501,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28523,7 +28509,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3328800000</v>
+        <v>3387200000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28539,7 +28525,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28547,7 +28533,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>43594005</v>
+        <v>44393895</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>408</v>
@@ -28565,7 +28551,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28573,7 +28559,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>216000000</v>
+        <v>220000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>410</v>
@@ -28591,7 +28577,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28599,7 +28585,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>802500000</v>
+        <v>817500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>418</v>
@@ -28617,7 +28603,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28625,7 +28611,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7128000000</v>
+        <v>-7260000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>432</v>
@@ -28643,7 +28629,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28651,7 +28637,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-15660000</v>
+        <v>-15950000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>433</v>
@@ -28669,7 +28655,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28677,7 +28663,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>630000000</v>
+        <v>642000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>434</v>
@@ -28695,7 +28681,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28703,7 +28689,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-624613600</v>
+        <v>-636625400</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>444</v>
@@ -28721,7 +28707,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28729,7 +28715,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>600000000</v>
+        <v>612000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>452</v>
@@ -28747,7 +28733,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28755,7 +28741,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-10680000</v>
+        <v>-10920000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>473</v>
@@ -28773,7 +28759,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28781,7 +28767,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>348000000</v>
+        <v>356000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>475</v>
@@ -28799,7 +28785,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28807,7 +28793,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>240800000</v>
+        <v>246400000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>480</v>
@@ -28825,7 +28811,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28833,7 +28819,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-16600000</v>
+        <v>-17000000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>486</v>
@@ -28851,7 +28837,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28859,7 +28845,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>5857110</v>
+        <v>6001730</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>519</v>
@@ -28877,7 +28863,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28885,7 +28871,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-13000000</v>
+        <v>-13400000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>473</v>
@@ -28906,7 +28892,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28914,7 +28900,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-704000000</v>
+        <v>-726000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>520</v>
@@ -28932,7 +28918,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28940,7 +28926,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-12800000</v>
+        <v>-13200000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>473</v>
@@ -28961,7 +28947,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28969,7 +28955,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-27931000</v>
+        <v>-28832000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>522</v>
@@ -28987,7 +28973,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -28995,7 +28981,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-12400000</v>
+        <v>-12800000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>523</v>
@@ -29016,7 +29002,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29024,7 +29010,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-8654800</v>
+        <v>-8963900</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>526</v>
@@ -29042,7 +29028,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29050,7 +29036,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-17920</v>
+        <v>-18560</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>527</v>
@@ -29068,7 +29054,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29076,7 +29062,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-23760000</v>
+        <v>-24624000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>529</v>
@@ -29094,7 +29080,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29102,7 +29088,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>3554064</v>
+        <v>3702150</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>531</v>
@@ -29120,7 +29106,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29128,7 +29114,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1456000</v>
+        <v>-1560000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>558</v>
@@ -29146,7 +29132,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29154,7 +29140,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>18992</v>
+        <v>21366</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>613</v>
@@ -29172,7 +29158,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29180,7 +29166,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>36000000</v>
+        <v>40800000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>611</v>
@@ -29198,7 +29184,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29206,7 +29192,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>17456400</v>
+        <v>20142000</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>622</v>
@@ -29224,7 +29210,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29232,7 +29218,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>17456400</v>
+        <v>20142000</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>623</v>
@@ -29250,7 +29236,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29258,23 +29244,25 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-400000</v>
+        <v>-800000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+      <c r="A129" s="11" t="s">
+        <v>631</v>
+      </c>
       <c r="B129" s="3">
-        <v>0</v>
+        <v>-15618</v>
       </c>
       <c r="C129" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29282,9 +29270,11 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="11"/>
+        <v>-31236</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>632</v>
+      </c>
       <c r="K129" t="s">
         <v>25</v>
       </c>
@@ -29458,14 +29448,14 @@
       <c r="A139" s="11"/>
       <c r="B139" s="31">
         <f>SUM(B2:B137)</f>
-        <v>4932691</v>
+        <v>4917073</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="31">
         <f>SUM(F2:F137)</f>
-        <v>4374996930</v>
+        <v>4384831076</v>
       </c>
       <c r="G139" s="11"/>
     </row>
@@ -29499,7 +29489,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="3">
         <f>F139/D2</f>
-        <v>11792444.555256065</v>
+        <v>11755579.292225201</v>
       </c>
       <c r="G142" s="11"/>
     </row>
@@ -29528,8 +29518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29731,11 +29721,11 @@
       </c>
       <c r="F6" s="65">
         <f>K23</f>
-        <v>171563165.78082192</v>
+        <v>171512547.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1123011.7891781032</v>
+        <v>1173629.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29855,11 +29845,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B139</f>
-        <v>4932691</v>
+        <v>4917073</v>
       </c>
       <c r="L9" s="3">
         <f>K9</f>
-        <v>4932691</v>
+        <v>4917073</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
@@ -30138,11 +30128,11 @@
         <v>469</v>
       </c>
       <c r="K16" s="46">
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>75000</v>
+        <v>40000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30491,11 +30481,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>171563165.78082192</v>
+        <v>171512547.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61062485.520547941</v>
+        <v>61011867.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30543,11 +30533,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>99680974</v>
+        <v>99630356</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>21007691</v>
+        <v>20957073</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>
@@ -31818,12 +31808,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G62">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="تیر 96" sheetId="23" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="634">
   <si>
     <t>18/1/95</t>
   </si>
@@ -943,9 +943,6 @@
     <t>حساب مسکن ایلیا</t>
   </si>
   <si>
-    <t>طلب علی</t>
-  </si>
-  <si>
     <t>هدف گذاری برای انتهای سال 96</t>
   </si>
   <si>
@@ -1934,6 +1931,12 @@
   </si>
   <si>
     <t>خرید تخم مرغ و ... از جامبو</t>
+  </si>
+  <si>
+    <t>19/4/1396</t>
+  </si>
+  <si>
+    <t>طلب علی(500 خانه، 500 علیرضا، 150 ماجدی)</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2674,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -2715,7 +2718,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B3" s="42">
         <v>95521</v>
@@ -2728,7 +2731,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -2757,7 +2760,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -2770,7 +2773,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -3659,10 +3662,10 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -3686,7 +3689,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -12689,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -12718,7 +12721,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="18">
         <v>3000000</v>
@@ -12731,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -12760,7 +12763,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="18">
         <v>1120000</v>
@@ -12773,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -12802,7 +12805,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="18">
         <v>-3000000</v>
@@ -12815,7 +12818,7 @@
         <v>-3000000</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -13545,7 +13548,7 @@
         <v>258</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -13607,7 +13610,7 @@
         <v>-50000</v>
       </c>
       <c r="E36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
@@ -13615,7 +13618,7 @@
         <v>242000</v>
       </c>
       <c r="E37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
@@ -13623,7 +13626,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
@@ -13631,7 +13634,7 @@
         <v>200000</v>
       </c>
       <c r="E39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
@@ -13639,7 +13642,7 @@
         <v>73500</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
@@ -13647,7 +13650,7 @@
         <v>-67000</v>
       </c>
       <c r="E41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
@@ -13655,7 +13658,7 @@
         <v>9000000</v>
       </c>
       <c r="E42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
@@ -13844,7 +13847,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B3" s="18">
         <v>90494</v>
@@ -13857,7 +13860,7 @@
         <v>15379</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F3">
         <v>29</v>
@@ -13886,7 +13889,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" s="18">
         <v>-1700700</v>
@@ -13899,7 +13902,7 @@
         <v>-1700700</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F4">
         <v>28</v>
@@ -13928,7 +13931,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5" s="18">
         <v>-1000500</v>
@@ -13941,7 +13944,7 @@
         <v>-1000500</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F5">
         <v>24</v>
@@ -13970,7 +13973,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B6" s="18">
         <v>20000000</v>
@@ -13983,7 +13986,7 @@
         <v>20000000</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -14052,7 +14055,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -14791,10 +14794,10 @@
         <v>-3000000</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -14818,7 +14821,7 @@
         <v>1750000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P32" t="s">
         <v>60</v>
@@ -14832,7 +14835,7 @@
         <v>8100000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -14840,7 +14843,7 @@
         <v>595000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
@@ -14848,7 +14851,7 @@
         <v>-1210000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
@@ -14856,7 +14859,7 @@
         <v>-22000000</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
@@ -14864,7 +14867,7 @@
         <v>3000000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
@@ -14872,7 +14875,7 @@
         <v>3000000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G38">
         <f>G25*11/36500</f>
@@ -14884,7 +14887,7 @@
         <v>-6000000</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
@@ -14892,7 +14895,7 @@
         <v>6000000</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
@@ -14900,7 +14903,7 @@
         <v>120000</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
@@ -14916,7 +14919,7 @@
         <v>200000</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
@@ -14924,7 +14927,7 @@
         <v>50000</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
@@ -14932,7 +14935,7 @@
         <v>-102000</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
@@ -14940,7 +14943,7 @@
         <v>660000</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
@@ -14948,7 +14951,7 @@
         <v>1000000</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
@@ -14956,7 +14959,7 @@
         <v>-509000</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
@@ -14964,7 +14967,7 @@
         <v>-168500</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
@@ -15057,7 +15060,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -15078,7 +15081,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19240,7 +19243,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F103" s="39">
         <v>10</v>
@@ -19268,7 +19271,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B104" s="18">
         <v>3000000</v>
@@ -19281,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F104" s="39">
         <v>1</v>
@@ -19309,7 +19312,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B105" s="18">
         <v>1120000</v>
@@ -19322,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F105" s="39">
         <v>0</v>
@@ -19350,7 +19353,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B106" s="18">
         <v>-3000000</v>
@@ -19363,7 +19366,7 @@
         <v>-3000000</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F106" s="39">
         <v>9</v>
@@ -19391,7 +19394,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B107" s="18">
         <v>90494</v>
@@ -19404,7 +19407,7 @@
         <v>15379</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F107" s="39">
         <v>2</v>
@@ -19432,7 +19435,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B108" s="18">
         <v>-1700700</v>
@@ -19445,7 +19448,7 @@
         <v>-1700700</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F108" s="39">
         <v>4</v>
@@ -19473,7 +19476,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B109" s="18">
         <v>-1000500</v>
@@ -19486,7 +19489,7 @@
         <v>-1000500</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F109" s="39">
         <v>3</v>
@@ -19514,7 +19517,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B110" s="18">
         <v>20000000</v>
@@ -19527,7 +19530,7 @@
         <v>20000000</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F110" s="39">
         <v>20</v>
@@ -19555,7 +19558,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B111" s="42">
         <v>174678</v>
@@ -19568,7 +19571,7 @@
         <v>87315</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F111" s="39">
         <v>16</v>
@@ -19596,7 +19599,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B112" s="18">
         <v>-28400000</v>
@@ -19609,7 +19612,7 @@
         <v>-28400000</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F112" s="39">
         <v>15</v>
@@ -19637,7 +19640,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B113" s="42">
         <v>163040</v>
@@ -19650,7 +19653,7 @@
         <v>40529</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F113" s="39">
         <v>0</v>
@@ -19678,7 +19681,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B114" s="18">
         <v>-5700</v>
@@ -19691,7 +19694,7 @@
         <v>-3200</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F114" s="39">
         <v>13</v>
@@ -19719,7 +19722,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B115" s="18">
         <v>0</v>
@@ -19732,7 +19735,7 @@
         <v>-500000</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F115" s="39">
         <v>8</v>
@@ -19760,7 +19763,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B116" s="18">
         <v>-160000</v>
@@ -19773,7 +19776,7 @@
         <v>-160000</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F116" s="39">
         <v>9</v>
@@ -19801,7 +19804,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B117" s="42">
         <v>1480</v>
@@ -19814,7 +19817,7 @@
         <v>-105461</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F117" s="39">
         <v>22</v>
@@ -19843,7 +19846,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -19856,7 +19859,7 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F118" s="39">
         <v>9</v>
@@ -19885,7 +19888,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B119" s="42">
         <v>95521</v>
@@ -19898,7 +19901,7 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F119" s="39">
         <v>4</v>
@@ -19926,7 +19929,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -19939,7 +19942,7 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F120" s="11">
         <v>2</v>
@@ -20180,23 +20183,23 @@
         <v>283</v>
       </c>
       <c r="C130" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>509</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>510</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="K130" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="K130" s="11" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -20244,13 +20247,13 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="J133" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="K133" s="11" t="s">
         <v>513</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -20265,7 +20268,7 @@
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E138" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -20384,7 +20387,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" s="42">
         <v>174678</v>
@@ -20397,7 +20400,7 @@
         <v>87315</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -20426,7 +20429,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B4" s="18">
         <v>-28400000</v>
@@ -20439,7 +20442,7 @@
         <v>-28400000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -20468,7 +20471,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -20508,7 +20511,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -20588,7 +20591,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -21327,10 +21330,10 @@
         <v>-110000</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -21354,7 +21357,7 @@
         <v>220000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -21371,7 +21374,7 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -21605,7 +21608,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B3" s="42">
         <v>163040</v>
@@ -21618,7 +21621,7 @@
         <v>40529</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -21647,7 +21650,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B4" s="18">
         <v>-5700</v>
@@ -21660,7 +21663,7 @@
         <v>-3200</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -21689,7 +21692,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -21702,7 +21705,7 @@
         <v>-500000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -21731,7 +21734,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B6" s="18">
         <v>-160000</v>
@@ -21744,7 +21747,7 @@
         <v>-160000</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -21773,7 +21776,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -21853,7 +21856,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" s="18">
         <v>0</v>
@@ -22596,10 +22599,10 @@
         <v>150000</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>38</v>
@@ -22623,7 +22626,7 @@
         <v>200000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -22637,7 +22640,7 @@
         <v>620000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -22645,7 +22648,7 @@
         <v>5000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -22653,7 +22656,7 @@
         <v>-800000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -22669,7 +22672,7 @@
         <v>160000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -22677,7 +22680,7 @@
         <v>200000</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -22685,7 +22688,7 @@
         <v>255000</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -22693,7 +22696,7 @@
         <v>-200000</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -22804,7 +22807,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B2" s="3">
         <f>'اردیبهشت 96'!B25</f>
@@ -22848,7 +22851,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B3" s="42">
         <v>1481</v>
@@ -22861,7 +22864,7 @@
         <v>-105460</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -22890,7 +22893,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -22903,7 +22906,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -23792,10 +23795,10 @@
         <v>200000</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>38</v>
@@ -23819,7 +23822,7 @@
         <v>-50000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -23836,7 +23839,7 @@
         <v>120000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -23850,7 +23853,7 @@
         <v>-40000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -23858,7 +23861,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -23866,7 +23869,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -23874,7 +23877,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -23882,7 +23885,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24203,7 +24206,7 @@
         <v>410023079974</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O6" t="s">
         <v>279</v>
@@ -24250,7 +24253,7 @@
         <v>410023384051</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N7" t="s">
         <v>293</v>
@@ -24300,7 +24303,7 @@
         <v>410023383764</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N8" t="s">
         <v>294</v>
@@ -24350,7 +24353,7 @@
         <v>410021971552</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O9" t="s">
         <v>295</v>
@@ -24779,13 +24782,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" s="41">
         <v>-3000000</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D22" s="11">
         <v>8</v>
@@ -24812,13 +24815,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B23" s="41">
         <v>3000000</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -24845,13 +24848,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B24" s="41">
         <v>630843</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D24" s="11">
         <v>2</v>
@@ -24878,13 +24881,13 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B25" s="41">
         <v>-3200900</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" s="11">
         <v>2</v>
@@ -24911,13 +24914,13 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B26" s="41">
         <v>-3000900</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
@@ -24944,13 +24947,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B27" s="41">
         <v>1000000</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
@@ -24977,13 +24980,13 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B28" s="41">
         <v>6000000</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
@@ -25010,13 +25013,13 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B29" s="41">
         <v>5800000</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
@@ -25043,13 +25046,13 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B30" s="41">
         <v>-5000</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -25076,13 +25079,13 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B31" s="41">
         <v>-26000000</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -25109,13 +25112,13 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B32" s="41">
         <v>-26200000</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D32" s="11">
         <v>19</v>
@@ -25142,13 +25145,13 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B33" s="41">
         <v>327005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D33" s="11">
         <v>18</v>
@@ -25175,13 +25178,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B34" s="41">
         <v>28400000</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -25204,13 +25207,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B35" s="66">
         <v>11000000</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D35" s="11">
         <v>15</v>
@@ -25230,13 +25233,13 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B36" s="41">
         <v>418701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
@@ -25256,13 +25259,13 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B37" s="41">
         <v>-900</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -25283,13 +25286,13 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B38" s="66">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -25311,13 +25314,13 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B39" s="41">
         <v>2000000</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D39" s="11">
         <v>14</v>
@@ -25337,13 +25340,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B40" s="41">
         <v>-200000</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -25363,13 +25366,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B41" s="41">
         <v>-620000</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -25389,13 +25392,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B42" s="41">
         <v>-120000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -25416,13 +25419,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B43" s="41">
         <v>650000</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -25442,7 +25445,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B44" s="41">
         <v>-5000</v>
@@ -25468,13 +25471,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B45" s="41">
         <v>29000000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D45" s="11">
         <v>4</v>
@@ -25494,13 +25497,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B46" s="41">
         <v>-200000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -25520,13 +25523,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B47" s="41">
         <v>-200000</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -25546,7 +25549,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B48" s="41">
         <v>-200000</v>
@@ -25572,13 +25575,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B49" s="41">
         <v>3000000</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -25598,13 +25601,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B50" s="66">
         <v>3000000</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -25624,13 +25627,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B51" s="41">
         <v>765797</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -25650,7 +25653,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B52" s="41">
         <v>-200000</v>
@@ -25676,13 +25679,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B53" s="41">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
@@ -25702,13 +25705,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B54" s="41">
         <v>-1000500</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -25728,13 +25731,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B55" s="41">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -25754,13 +25757,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B56" s="41">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D56" s="11">
         <v>14</v>
@@ -26046,7 +26049,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -26064,9 +26067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26116,7 +26119,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26124,7 +26127,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>35972400</v>
+        <v>36069100</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26132,7 +26135,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="3">
         <v>3000000</v>
@@ -26142,7 +26145,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26150,13 +26153,13 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1110000000</v>
+        <v>1113000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4" s="3">
         <v>-200000</v>
@@ -26166,7 +26169,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26174,13 +26177,13 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-73600000</v>
+        <v>-73800000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B5" s="3">
         <v>-100000</v>
@@ -26190,7 +26193,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26198,13 +26201,13 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-36600000</v>
+        <v>-36700000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="3">
         <v>-55000</v>
@@ -26214,7 +26217,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26222,13 +26225,13 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20075000</v>
+        <v>-20130000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" s="3">
         <v>-200000</v>
@@ -26238,7 +26241,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26246,13 +26249,13 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-72800000</v>
+        <v>-73000000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="3">
         <v>-200000</v>
@@ -26262,7 +26265,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26270,13 +26273,13 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-72000000</v>
+        <v>-72200000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B9" s="3">
         <v>-950500</v>
@@ -26286,7 +26289,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26294,13 +26297,13 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-333625500</v>
+        <v>-334576000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" s="3">
         <v>2000000</v>
@@ -26310,7 +26313,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26318,13 +26321,13 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>698000000</v>
+        <v>700000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" s="3">
         <v>-1065000</v>
@@ -26334,7 +26337,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26342,13 +26345,13 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-370620000</v>
+        <v>-371685000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" s="3">
         <v>-45000</v>
@@ -26358,7 +26361,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26366,13 +26369,13 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15525000</v>
+        <v>-15570000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B13" s="3">
         <v>-2000700</v>
@@ -26382,7 +26385,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26390,13 +26393,13 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-688240800</v>
+        <v>-690241500</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B14" s="3">
         <v>-200000</v>
@@ -26406,7 +26409,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26414,13 +26417,13 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-68000000</v>
+        <v>-68200000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="3">
         <v>2000000</v>
@@ -26430,7 +26433,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26438,13 +26441,13 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>674000000</v>
+        <v>676000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B16" s="3">
         <v>2000000</v>
@@ -26454,7 +26457,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26462,13 +26465,13 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>674000000</v>
+        <v>676000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B17" s="3">
         <v>1200000</v>
@@ -26478,7 +26481,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26486,13 +26489,13 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>404400000</v>
+        <v>405600000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B18" s="3">
         <v>1000000</v>
@@ -26502,7 +26505,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26510,13 +26513,13 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>337000000</v>
+        <v>338000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B19" s="3">
         <v>3000000</v>
@@ -26526,7 +26529,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26534,7 +26537,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1008000000</v>
+        <v>1011000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26543,7 +26546,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" s="3">
         <v>-432700</v>
@@ -26553,7 +26556,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26561,13 +26564,13 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-145819900</v>
+        <v>-146252600</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B21" s="3">
         <v>-432700</v>
@@ -26577,7 +26580,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26585,13 +26588,13 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-145819900</v>
+        <v>-146252600</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B22" s="3">
         <v>-432700</v>
@@ -26601,7 +26604,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26609,13 +26612,13 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-145819900</v>
+        <v>-146252600</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" s="3">
         <v>-432700</v>
@@ -26625,7 +26628,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26633,13 +26636,13 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-145819900</v>
+        <v>-146252600</v>
       </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B24" s="3">
         <v>-432700</v>
@@ -26649,7 +26652,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26657,13 +26660,13 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-145819900</v>
+        <v>-146252600</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25" s="3">
         <v>-200000</v>
@@ -26673,7 +26676,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26681,13 +26684,13 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-67400000</v>
+        <v>-67600000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B26" s="3">
         <v>3000000</v>
@@ -26697,7 +26700,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26705,13 +26708,13 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1005000000</v>
+        <v>1008000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B27" s="3">
         <v>-200000</v>
@@ -26721,7 +26724,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26729,13 +26732,13 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-66800000</v>
+        <v>-67000000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B28" s="3">
         <v>2000000</v>
@@ -26745,7 +26748,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26753,13 +26756,13 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>664000000</v>
+        <v>666000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B29" s="3">
         <v>-7000800</v>
@@ -26769,7 +26772,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26777,7 +26780,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2324265600</v>
+        <v>-2331266400</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26793,7 +26796,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26801,7 +26804,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-993297900</v>
+        <v>-996298800</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26817,7 +26820,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26825,13 +26828,13 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-559647000</v>
+        <v>-561342900</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B32" s="3">
         <v>994300</v>
@@ -26841,7 +26844,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26849,13 +26852,13 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>324141800</v>
+        <v>325136100</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B33" s="3">
         <v>35091</v>
@@ -26865,7 +26868,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26873,15 +26876,15 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11264211</v>
+        <v>11299302</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B34" s="3">
         <v>-850000</v>
@@ -26891,7 +26894,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26899,13 +26902,13 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-272850000</v>
+        <v>-273700000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35" s="3">
         <v>-190500</v>
@@ -26915,7 +26918,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26923,7 +26926,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-59626500</v>
+        <v>-59817000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26939,7 +26942,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26947,7 +26950,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>62200000</v>
+        <v>62400000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26963,7 +26966,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -26971,13 +26974,13 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-62400000</v>
+        <v>-62600000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B38" s="3">
         <v>300806</v>
@@ -26987,7 +26990,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -26995,15 +26998,15 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>86932934</v>
+        <v>87233740</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B39" s="3">
         <v>-95000</v>
@@ -27013,7 +27016,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27021,13 +27024,13 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-27455000</v>
+        <v>-27550000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B40" s="3">
         <v>-88103</v>
@@ -27037,7 +27040,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27045,13 +27048,13 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-25461767</v>
+        <v>-25549870</v>
       </c>
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41" s="3">
         <v>-120000</v>
@@ -27061,7 +27064,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27069,13 +27072,13 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-34080000</v>
+        <v>-34200000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="3">
         <v>1000204</v>
@@ -27085,7 +27088,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27093,15 +27096,15 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>261053244</v>
+        <v>262053448</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" s="3">
         <v>-80000</v>
@@ -27111,7 +27114,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27119,13 +27122,13 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-20640000</v>
+        <v>-20720000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="3">
         <v>-211029</v>
@@ -27135,7 +27138,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27143,13 +27146,13 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-53601366</v>
+        <v>-53812395</v>
       </c>
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="3">
         <v>-200000</v>
@@ -27159,7 +27162,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27167,13 +27170,13 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-50600000</v>
+        <v>-50800000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B46" s="3">
         <v>-95000</v>
@@ -27183,7 +27186,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27191,13 +27194,13 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-23940000</v>
+        <v>-24035000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="3">
         <v>-45000</v>
@@ -27207,7 +27210,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27215,13 +27218,13 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11250000</v>
+        <v>-11295000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" s="3">
         <v>-64180</v>
@@ -27231,7 +27234,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27239,13 +27242,13 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16045000</v>
+        <v>-16109180</v>
       </c>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B49" s="3">
         <v>-27484</v>
@@ -27255,7 +27258,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27263,13 +27266,13 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6788548</v>
+        <v>-6816032</v>
       </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B50" s="3">
         <v>-141000</v>
@@ -27279,7 +27282,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27287,13 +27290,13 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-34686000</v>
+        <v>-34827000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B51" s="3">
         <v>-26746</v>
@@ -27303,7 +27306,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27311,13 +27314,13 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6579516</v>
+        <v>-6606262</v>
       </c>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" s="3">
         <v>-53300</v>
@@ -27327,7 +27330,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27335,7 +27338,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13058500</v>
+        <v>-13111800</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27351,7 +27354,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27359,13 +27362,13 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>243000000</v>
+        <v>244000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B54" s="3">
         <v>-21000</v>
@@ -27375,7 +27378,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27383,7 +27386,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-4998000</v>
+        <v>-5019000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27399,7 +27402,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27407,7 +27410,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-232378500</v>
+        <v>-233359000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27423,7 +27426,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27431,13 +27434,13 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-10665000</v>
+        <v>-10710000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B57" s="3">
         <v>3005189</v>
@@ -27447,7 +27450,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27455,15 +27458,15 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>670157147</v>
+        <v>673162336</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" s="3">
         <v>2000000</v>
@@ -27473,7 +27476,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27481,7 +27484,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>446000000</v>
+        <v>448000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27497,7 +27500,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27505,7 +27508,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>444000000</v>
+        <v>446000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27521,7 +27524,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27529,13 +27532,13 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1561334500</v>
+        <v>-1568336000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B61" s="3">
         <v>3000000</v>
@@ -27545,7 +27548,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27553,13 +27556,13 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>594000000</v>
+        <v>597000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62" s="3">
         <v>-27109</v>
@@ -27569,7 +27572,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27577,13 +27580,13 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5367582</v>
+        <v>-5394691</v>
       </c>
       <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="3">
         <v>-32989</v>
@@ -27593,7 +27596,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27601,13 +27604,13 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6531822</v>
+        <v>-6564811</v>
       </c>
       <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B64" s="3">
         <v>3000000</v>
@@ -27617,7 +27620,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27625,13 +27628,13 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>591000000</v>
+        <v>594000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B65" s="3">
         <v>2970000</v>
@@ -27641,7 +27644,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27649,13 +27652,13 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>585090000</v>
+        <v>588060000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B66" s="3">
         <v>1000000</v>
@@ -27665,7 +27668,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27673,13 +27676,13 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>197000000</v>
+        <v>198000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B67" s="3">
         <v>30000</v>
@@ -27689,7 +27692,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27697,13 +27700,13 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F137" si="5">B67*(D67-E67)</f>
-        <v>5910000</v>
+        <v>5940000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B68" s="3">
         <v>30000000</v>
@@ -27713,7 +27716,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27721,7 +27724,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>5880000000</v>
+        <v>5910000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27737,7 +27740,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27745,13 +27748,13 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-39200000</v>
+        <v>-39400000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B70" s="3">
         <v>1400000</v>
@@ -27761,7 +27764,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27769,13 +27772,13 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>273000000</v>
+        <v>274400000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B71" s="3">
         <v>2600000</v>
@@ -27785,7 +27788,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27793,13 +27796,13 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>507000000</v>
+        <v>509600000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B72" s="3">
         <v>-1000000</v>
@@ -27809,7 +27812,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27817,13 +27820,13 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-196000000</v>
+        <v>-197000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B73" s="3">
         <v>15000000</v>
@@ -27833,7 +27836,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27841,7 +27844,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>2895000000</v>
+        <v>2910000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27857,7 +27860,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27865,7 +27868,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2835793800</v>
+        <v>-2850798000</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27881,7 +27884,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27889,7 +27892,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-561000000</v>
+        <v>-564000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27905,7 +27908,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27913,7 +27916,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-37400000</v>
+        <v>-37600000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27929,7 +27932,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27937,7 +27940,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2244561000</v>
+        <v>-2256564000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27953,7 +27956,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27961,13 +27964,13 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-549164700</v>
+        <v>-552165600</v>
       </c>
       <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B79" s="3">
         <v>23000000</v>
@@ -27977,7 +27980,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -27985,7 +27988,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4071000000</v>
+        <v>4094000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28001,7 +28004,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28009,7 +28012,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-103886500</v>
+        <v>-104487000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28025,7 +28028,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28033,7 +28036,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-34600000</v>
+        <v>-34800000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28049,7 +28052,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28057,7 +28060,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>48430791</v>
+        <v>48714012</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28075,7 +28078,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28083,13 +28086,13 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-34400000</v>
+        <v>-34600000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B84" s="3">
         <v>2000000</v>
@@ -28099,7 +28102,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28107,7 +28110,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>338000000</v>
+        <v>340000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28123,7 +28126,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28131,13 +28134,13 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-33400000</v>
+        <v>-33600000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B86" s="3">
         <v>-200000</v>
@@ -28147,7 +28150,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28155,7 +28158,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-32200000</v>
+        <v>-32400000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28171,7 +28174,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28179,13 +28182,13 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-210675000</v>
+        <v>-212000000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B88" s="3">
         <v>-500000</v>
@@ -28195,7 +28198,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28203,13 +28206,13 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-72000000</v>
+        <v>-72500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B89" s="3">
         <v>-120000</v>
@@ -28219,7 +28222,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28227,7 +28230,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-17280000</v>
+        <v>-17400000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28243,7 +28246,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28251,7 +28254,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>60376905</v>
+        <v>60805110</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28269,7 +28272,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28277,15 +28280,15 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-417278000</v>
+        <v>-420280000</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B92" s="3">
         <v>-205000</v>
@@ -28295,7 +28298,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28303,15 +28306,15 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-28085000</v>
+        <v>-28290000</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B93" s="3">
         <v>-350500</v>
@@ -28321,7 +28324,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28329,15 +28332,15 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-48018500</v>
+        <v>-48369000</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B94" s="3">
         <v>1000000</v>
@@ -28347,7 +28350,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28355,15 +28358,15 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>125000000</v>
+        <v>126000000</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B95" s="3">
         <v>9000000</v>
@@ -28373,7 +28376,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28381,16 +28384,16 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1080000000</v>
+        <v>1089000000</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J95" s="28"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" s="3">
         <v>-26000000</v>
@@ -28400,7 +28403,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28408,15 +28411,15 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3094000000</v>
+        <v>-3120000000</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B97" s="3">
         <v>-26000000</v>
@@ -28426,7 +28429,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28434,13 +28437,13 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3094000000</v>
+        <v>-3120000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B98" s="3">
         <v>26000000</v>
@@ -28450,7 +28453,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28458,13 +28461,13 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3068000000</v>
+        <v>3094000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B99" s="3">
         <v>-200000</v>
@@ -28474,7 +28477,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28482,7 +28485,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-23800000</v>
+        <v>-24000000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28491,7 +28494,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B100" s="3">
         <v>29200000</v>
@@ -28501,7 +28504,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28509,13 +28512,13 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3387200000</v>
+        <v>3416400000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B101" s="3">
         <v>399945</v>
@@ -28525,7 +28528,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28533,15 +28536,15 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>44393895</v>
+        <v>44793840</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B102" s="3">
         <v>2000000</v>
@@ -28551,7 +28554,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28559,15 +28562,15 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>220000000</v>
+        <v>222000000</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B103" s="3">
         <v>7500000</v>
@@ -28577,7 +28580,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28585,15 +28588,15 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>817500000</v>
+        <v>825000000</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B104" s="3">
         <v>-66000000</v>
@@ -28603,7 +28606,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28611,15 +28614,15 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7260000000</v>
+        <v>-7326000000</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B105" s="3">
         <v>-145000</v>
@@ -28629,7 +28632,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28637,15 +28640,15 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-15950000</v>
+        <v>-16095000</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B106" s="3">
         <v>6000000</v>
@@ -28655,7 +28658,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28663,15 +28666,15 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>642000000</v>
+        <v>648000000</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B107" s="3">
         <v>-6005900</v>
@@ -28681,7 +28684,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28689,15 +28692,15 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-636625400</v>
+        <v>-642631300</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B108" s="3">
         <v>6000000</v>
@@ -28707,7 +28710,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28715,15 +28718,15 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>612000000</v>
+        <v>618000000</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B109" s="3">
         <v>-120000</v>
@@ -28733,7 +28736,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28741,15 +28744,15 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-10920000</v>
+        <v>-11040000</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B110" s="3">
         <v>4000000</v>
@@ -28759,7 +28762,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28767,15 +28770,15 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>356000000</v>
+        <v>360000000</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B111" s="3">
         <v>2800000</v>
@@ -28785,7 +28788,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28793,15 +28796,15 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>246400000</v>
+        <v>249200000</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B112" s="3">
         <v>-200000</v>
@@ -28811,7 +28814,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28819,15 +28822,15 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-17000000</v>
+        <v>-17200000</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B113" s="3">
         <v>72310</v>
@@ -28837,7 +28840,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28845,15 +28848,15 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6001730</v>
+        <v>6074040</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B114" s="3">
         <v>-200000</v>
@@ -28863,7 +28866,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28871,10 +28874,10 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-13400000</v>
+        <v>-13600000</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J114" t="s">
         <v>25</v>
@@ -28882,7 +28885,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B115" s="38">
         <v>-11000000</v>
@@ -28892,7 +28895,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28900,15 +28903,15 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-726000000</v>
+        <v>-737000000</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B116" s="3">
         <v>-200000</v>
@@ -28918,7 +28921,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28926,10 +28929,10 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-13200000</v>
+        <v>-13400000</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I116" t="s">
         <v>25</v>
@@ -28937,7 +28940,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B117" s="3">
         <v>-450500</v>
@@ -28947,7 +28950,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28955,15 +28958,15 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-28832000</v>
+        <v>-29282500</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B118" s="3">
         <v>-200000</v>
@@ -28973,7 +28976,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -28981,10 +28984,10 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-12800000</v>
+        <v>-13000000</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -28992,7 +28995,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B119" s="3">
         <v>-154550</v>
@@ -29002,7 +29005,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29010,15 +29013,15 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-8963900</v>
+        <v>-9118450</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B120" s="3">
         <v>-320</v>
@@ -29028,7 +29031,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29036,15 +29039,15 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-18560</v>
+        <v>-18880</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B121" s="3">
         <v>-432000</v>
@@ -29054,7 +29057,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29062,15 +29065,15 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-24624000</v>
+        <v>-25056000</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B122" s="3">
         <v>74043</v>
@@ -29080,7 +29083,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29088,15 +29091,15 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>3702150</v>
+        <v>3776193</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B123" s="3">
         <v>-52000</v>
@@ -29106,7 +29109,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29114,15 +29117,15 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1560000</v>
+        <v>-1612000</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -29132,7 +29135,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29140,15 +29143,15 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>21366</v>
+        <v>22553</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -29158,7 +29161,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29166,15 +29169,15 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>40800000</v>
+        <v>43200000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -29184,7 +29187,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29192,15 +29195,15 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>20142000</v>
+        <v>21484800</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -29210,7 +29213,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29218,15 +29221,15 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>20142000</v>
+        <v>21484800</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -29236,7 +29239,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29244,7 +29247,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-800000</v>
+        <v>-1000000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29252,17 +29255,17 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
       </c>
       <c r="C129" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29270,10 +29273,10 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-31236</v>
+        <v>-46854</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -29281,13 +29284,17 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="11"/>
+        <v>632</v>
+      </c>
+      <c r="B130" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C130" s="11">
+        <v>2</v>
+      </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29295,9 +29302,11 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="11"/>
+        <v>-400000</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
@@ -29448,14 +29457,14 @@
       <c r="A139" s="11"/>
       <c r="B139" s="31">
         <f>SUM(B2:B137)</f>
-        <v>4917073</v>
+        <v>4717073</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="31">
         <f>SUM(F2:F137)</f>
-        <v>4384831076</v>
+        <v>4389348149</v>
       </c>
       <c r="G139" s="11"/>
     </row>
@@ -29489,7 +29498,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="3">
         <f>F139/D2</f>
-        <v>11755579.292225201</v>
+        <v>11736224.997326203</v>
       </c>
       <c r="G142" s="11"/>
     </row>
@@ -29506,7 +29515,7 @@
     </row>
     <row r="151" spans="5:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E151" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -29518,8 +29527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29544,34 +29553,34 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -29596,7 +29605,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K2" s="11">
         <v>1.01</v>
@@ -29631,7 +29640,7 @@
         <v>26000</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -29661,7 +29670,7 @@
         <v>-794700</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -29691,11 +29700,11 @@
         <v>-1243924</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -29721,11 +29730,11 @@
       </c>
       <c r="F6" s="65">
         <f>K23</f>
-        <v>171512547.78082192</v>
+        <v>171504547.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1173629.7891781032</v>
+        <v>1181629.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29735,10 +29744,10 @@
         <v>267</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M6" s="63" t="s">
         <v>460</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -29764,7 +29773,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="J7" s="64" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K7" s="46">
         <f>2*(J31+L31)</f>
@@ -29804,7 +29813,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K8" s="46">
         <f>J31+L31</f>
@@ -29845,11 +29854,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B139</f>
-        <v>4917073</v>
+        <v>4717073</v>
       </c>
       <c r="L9" s="3">
         <f>K9</f>
-        <v>4917073</v>
+        <v>4717073</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
@@ -29879,7 +29888,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="J10" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K10" s="46">
         <f>'مسکن علی سید الشهدا'!B27</f>
@@ -29917,7 +29926,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="J11" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K11" s="46">
         <f>سارا!D129</f>
@@ -29954,7 +29963,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="J12" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
@@ -29991,7 +30000,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="J13" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K13" s="46">
         <f>'مسکن مریم سید الشهدا'!B27</f>
@@ -30028,14 +30037,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>302</v>
+        <v>633</v>
       </c>
       <c r="K14" s="46">
-        <v>1000000</v>
+        <v>1150000</v>
       </c>
       <c r="L14" s="3">
-        <f>K14</f>
-        <v>1000000</v>
+        <v>1150000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
@@ -30089,13 +30097,13 @@
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="S15" s="30"/>
       <c r="T15" s="30"/>
@@ -30125,14 +30133,14 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="J16" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>40000</v>
+        <v>82000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>40000</v>
+        <v>82000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30140,7 +30148,7 @@
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P16" s="31">
         <f>152000000</f>
@@ -30181,7 +30189,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="J17" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K17" s="46">
         <v>320000</v>
@@ -30195,7 +30203,7 @@
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P17" s="31">
         <v>80000000</v>
@@ -30247,7 +30255,7 @@
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P18" s="31">
         <v>0</v>
@@ -30297,7 +30305,7 @@
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P19" s="31">
         <f>12*P16*0.02</f>
@@ -30348,18 +30356,18 @@
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P20" s="31">
         <f>-Q58*12</f>
-        <v>-48112000</v>
+        <v>-48162000</v>
       </c>
       <c r="Q20" s="31">
         <v>-24480000</v>
       </c>
       <c r="R20" s="31">
         <f t="shared" si="5"/>
-        <v>-23632000</v>
+        <v>-23682000</v>
       </c>
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
@@ -30477,15 +30485,15 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>171512547.78082192</v>
+        <v>171504547.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61011867.520547941</v>
+        <v>61003867.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30529,15 +30537,15 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>99630356</v>
+        <v>99472356</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>20957073</v>
+        <v>20799073</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>
@@ -30581,7 +30589,7 @@
       </c>
       <c r="P25" s="31">
         <f>SUM(P16:P24)</f>
-        <v>220368000</v>
+        <v>220318000</v>
       </c>
       <c r="Q25" s="31">
         <f>SUM(Q16:Q23)</f>
@@ -30589,7 +30597,7 @@
       </c>
       <c r="R25" s="31">
         <f>SUM(R16:R23)</f>
-        <v>150368000</v>
+        <v>150318000</v>
       </c>
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
@@ -30717,7 +30725,7 @@
       <c r="O29" s="27"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
@@ -30749,20 +30757,20 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>183</v>
       </c>
       <c r="L30" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>542</v>
       </c>
       <c r="N30" s="27"/>
       <c r="P30" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q30" s="1">
         <v>70000</v>
@@ -30813,7 +30821,7 @@
       </c>
       <c r="N31" s="27"/>
       <c r="P31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="1">
         <v>100000</v>
@@ -30853,7 +30861,7 @@
       <c r="N32" s="60"/>
       <c r="O32" s="27"/>
       <c r="P32" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q32" s="1">
         <v>95000</v>
@@ -30891,16 +30899,16 @@
         <v>25</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q33" s="1">
         <v>150000</v>
       </c>
       <c r="S33" s="51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T33" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -30927,16 +30935,16 @@
       <c r="H34" s="11"/>
       <c r="O34" s="27"/>
       <c r="P34" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q34" s="1">
         <v>300000</v>
       </c>
       <c r="S34" s="50">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="T34" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -30963,7 +30971,7 @@
       <c r="H35" s="11"/>
       <c r="O35" s="27"/>
       <c r="P35" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q35" s="1">
         <v>100000</v>
@@ -30972,7 +30980,7 @@
         <v>150000</v>
       </c>
       <c r="T35" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -30999,7 +31007,7 @@
       <c r="H36" s="11"/>
       <c r="O36" s="27"/>
       <c r="P36" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q36" s="1">
         <v>200000</v>
@@ -31008,7 +31016,7 @@
         <v>1320000</v>
       </c>
       <c r="T36" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="V36" t="s">
         <v>25</v>
@@ -31038,17 +31046,17 @@
       <c r="H37" s="11"/>
       <c r="O37" s="27"/>
       <c r="P37" s="50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q37" s="50">
         <f>S45/12</f>
-        <v>294333.33333333331</v>
+        <v>298500</v>
       </c>
       <c r="S37" s="56">
         <v>170000</v>
       </c>
       <c r="T37" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -31075,7 +31083,7 @@
       <c r="H38" s="11"/>
       <c r="O38" s="27"/>
       <c r="P38" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q38" s="1">
         <v>200000</v>
@@ -31084,7 +31092,7 @@
         <v>152000</v>
       </c>
       <c r="T38" s="57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -31111,7 +31119,7 @@
       <c r="H39" s="11"/>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q39" s="1">
         <v>20000</v>
@@ -31120,7 +31128,7 @@
         <v>30000</v>
       </c>
       <c r="T39" s="51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -31147,7 +31155,7 @@
       <c r="H40" s="11"/>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q40" s="1">
         <v>50000</v>
@@ -31156,7 +31164,7 @@
         <v>500000</v>
       </c>
       <c r="T40" s="51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -31183,7 +31191,7 @@
       <c r="H41" s="11"/>
       <c r="O41" s="27"/>
       <c r="P41" s="35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q41" s="1">
         <v>90000</v>
@@ -31192,7 +31200,7 @@
         <v>130000</v>
       </c>
       <c r="T41" s="51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -31219,7 +31227,7 @@
       <c r="H42" s="11"/>
       <c r="O42" s="27"/>
       <c r="P42" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q42" s="1">
         <v>50000</v>
@@ -31228,7 +31236,7 @@
         <v>250000</v>
       </c>
       <c r="T42" s="51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -31255,7 +31263,7 @@
       <c r="H43" s="11"/>
       <c r="O43" s="27"/>
       <c r="P43" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q43" s="1">
         <v>150000</v>
@@ -31264,7 +31272,7 @@
         <v>230000</v>
       </c>
       <c r="T43" s="62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -31291,7 +31299,7 @@
       <c r="H44" s="11"/>
       <c r="O44" s="27"/>
       <c r="P44" s="35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q44" s="1">
         <v>15000</v>
@@ -31300,7 +31308,7 @@
         <v>250000</v>
       </c>
       <c r="T44" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -31327,14 +31335,14 @@
       <c r="H45" s="11"/>
       <c r="O45" s="27"/>
       <c r="P45" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q45" s="1">
         <v>20000</v>
       </c>
       <c r="S45" s="50">
         <f>SUM(S34:S44)</f>
-        <v>3532000</v>
+        <v>3582000</v>
       </c>
       <c r="T45" s="51" t="s">
         <v>6</v>
@@ -31364,7 +31372,7 @@
       <c r="H46" s="11"/>
       <c r="O46" s="27"/>
       <c r="P46" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="1">
         <v>40000</v>
@@ -31394,7 +31402,7 @@
       <c r="H47" s="11"/>
       <c r="O47" s="27"/>
       <c r="P47" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q47" s="1">
         <v>150000</v>
@@ -31423,7 +31431,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="P48" s="35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q48" s="1">
         <v>75000</v>
@@ -31452,7 +31460,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="P49" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q49" s="1">
         <v>140000</v>
@@ -31481,7 +31489,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="P50" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q50" s="3">
         <v>500000</v>
@@ -31510,7 +31518,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="P51" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q51" s="3">
         <v>1200000</v>
@@ -31693,7 +31701,7 @@
       </c>
       <c r="Q58" s="3">
         <f>SUM(Q30:Q51)</f>
-        <v>4009333.333333333</v>
+        <v>4013500</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -31719,11 +31727,11 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="P59" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q59" s="3">
         <f>Q58/30</f>
-        <v>133644.44444444444</v>
+        <v>133783.33333333334</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -31896,13 +31904,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="3">
         <v>15000000</v>
       </c>
       <c r="C3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -31921,13 +31929,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B4" s="3">
         <v>-3000000</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -31946,13 +31954,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" s="3">
         <v>-3200900</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -31971,13 +31979,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" s="3">
         <v>-3000900</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -31996,13 +32004,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="3">
         <v>-5805900</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D7">
         <v>22</v>
@@ -32021,13 +32029,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B8" s="3">
         <v>54417</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -32888,7 +32896,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" s="18">
         <v>-4000000</v>
@@ -32898,7 +32906,7 @@
         <v>500000</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -33187,16 +33195,16 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
@@ -33205,13 +33213,13 @@
         <v>53500</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -33220,13 +33228,13 @@
         <v>18500</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -33235,13 +33243,13 @@
         <v>1000</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I31" s="11">
         <v>217500</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -33256,7 +33264,7 @@
         <v>185000</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.25">
@@ -33265,13 +33273,13 @@
         <v>1500</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I33" s="11">
         <v>217000</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.25">
@@ -33280,13 +33288,13 @@
         <v>1500</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I34" s="11">
         <v>217000</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.25">
@@ -33295,13 +33303,13 @@
         <v>1000</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I35" s="11">
         <v>217500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.25">
@@ -33344,7 +33352,7 @@
         <v>218500</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.25">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="تیر 96" sheetId="23" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="635">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1937,6 +1937,9 @@
   </si>
   <si>
     <t>طلب علی(500 خانه، 500 علیرضا، 150 ماجدی)</t>
+  </si>
+  <si>
+    <t>دستی برای دکتر رفتن دادم</t>
   </si>
 </sst>
 </file>
@@ -3703,9 +3706,11 @@
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" s="45">
-        <v>0</v>
-      </c>
-      <c r="E33" s="44"/>
+        <v>-25000</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>634</v>
+      </c>
       <c r="P33" t="s">
         <v>60</v>
       </c>
@@ -3760,7 +3765,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8236102</v>
+        <v>8211102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -23945,7 +23950,7 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -24023,7 +24028,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -24031,7 +24036,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>10850000</v>
+        <v>11100000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -24065,7 +24070,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -24073,7 +24078,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>639000000</v>
+        <v>654000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -24107,7 +24112,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -24115,7 +24120,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>636000000</v>
+        <v>651000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -24142,7 +24147,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -24150,7 +24155,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3180000000</v>
+        <v>3255000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -24189,7 +24194,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -24197,7 +24202,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>633000000</v>
+        <v>648000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -24236,7 +24241,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -24244,7 +24249,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-633000000</v>
+        <v>-648000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -24286,7 +24291,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -24294,7 +24299,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-42200000</v>
+        <v>-43200000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -24336,7 +24341,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -24344,7 +24349,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>630000000</v>
+        <v>645000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -24383,7 +24388,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -24391,7 +24396,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>627000000</v>
+        <v>642000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -24418,7 +24423,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -24426,7 +24431,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5225000000</v>
+        <v>5350000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -24459,7 +24464,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -24467,7 +24472,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>205655980</v>
+        <v>210647630</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -24500,7 +24505,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -24508,7 +24513,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>618000000</v>
+        <v>633000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -24535,7 +24540,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -24543,7 +24548,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>245365776</v>
+        <v>251321256</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -24570,7 +24575,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -24578,7 +24583,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>388000000</v>
+        <v>398000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -24601,7 +24606,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -24609,7 +24614,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>546000000</v>
+        <v>561000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -24632,7 +24637,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -24640,7 +24645,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>543000000</v>
+        <v>558000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -24663,7 +24668,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -24671,7 +24676,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>342000000</v>
+        <v>351500000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -24696,7 +24701,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -24704,7 +24709,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>132744645</v>
+        <v>136767210</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -24729,7 +24734,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -24737,7 +24742,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>492000000</v>
+        <v>507000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -24762,7 +24767,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -24770,7 +24775,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>79000000</v>
+        <v>81500000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -24795,7 +24800,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -24803,7 +24808,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-435000000</v>
+        <v>-450000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -24828,7 +24833,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -24836,7 +24841,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>408000000</v>
+        <v>423000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -24861,7 +24866,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -24869,7 +24874,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>85794648</v>
+        <v>88948863</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -24894,7 +24899,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -24902,7 +24907,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-432121500</v>
+        <v>-448126000</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -24927,7 +24932,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -24935,7 +24940,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-399119700</v>
+        <v>-414124200</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -24960,7 +24965,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -24968,7 +24973,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>130000000</v>
+        <v>135000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -24993,7 +24998,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -25001,7 +25006,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>780000000</v>
+        <v>810000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -25026,7 +25031,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -25034,7 +25039,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>754000000</v>
+        <v>783000000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -25059,7 +25064,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -25067,7 +25072,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-655000</v>
+        <v>-680000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -25092,7 +25097,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -25100,7 +25105,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3380000000</v>
+        <v>-3510000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -25125,7 +25130,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -25133,7 +25138,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3353600000</v>
+        <v>-3484600000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -25158,7 +25163,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -25166,7 +25171,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>35316540</v>
+        <v>36951565</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -25191,7 +25196,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -25199,7 +25204,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>2556000000</v>
+        <v>2698000000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -25220,7 +25225,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -25228,7 +25233,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>990000000</v>
+        <v>1045000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -25246,7 +25251,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -25254,7 +25259,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>31402575</v>
+        <v>33496080</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -25272,7 +25277,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -25280,7 +25285,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-68400</v>
+        <v>-72900</v>
       </c>
       <c r="J37" s="67"/>
     </row>
@@ -25299,7 +25304,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -25307,7 +25312,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>148000000</v>
+        <v>158000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -25327,7 +25332,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -25335,7 +25340,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>148000000</v>
+        <v>158000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -25353,7 +25358,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -25361,7 +25366,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-12200000</v>
+        <v>-13200000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -25379,7 +25384,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -25387,7 +25392,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-37820000</v>
+        <v>-40920000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -25405,7 +25410,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -25413,7 +25418,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-7320000</v>
+        <v>-7920000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -25432,7 +25437,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -25440,7 +25445,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>37700000</v>
+        <v>40950000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -25458,7 +25463,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -25466,7 +25471,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-295000</v>
+        <v>-320000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -25484,7 +25489,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -25492,7 +25497,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>1682000000</v>
+        <v>1827000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -25510,7 +25515,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -25518,7 +25523,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-11000000</v>
+        <v>-12000000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -25536,7 +25541,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -25544,7 +25549,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-10400000</v>
+        <v>-11400000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -25562,7 +25567,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -25570,7 +25575,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-10200000</v>
+        <v>-11200000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25588,7 +25593,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -25596,7 +25601,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>135000000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -25614,7 +25619,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -25622,7 +25627,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>135000000</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -25640,7 +25645,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -25648,7 +25653,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>33695068</v>
+        <v>37524053</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -25666,7 +25671,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -25674,7 +25679,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-9000000</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -25692,7 +25697,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -25700,7 +25705,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-15219000</v>
+        <v>-17221500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -25718,7 +25723,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -25726,7 +25731,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-29014500</v>
+        <v>-34017000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -25744,7 +25749,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -25752,7 +25757,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-920000000</v>
+        <v>-1120000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -25766,11 +25771,11 @@
         <v>612</v>
       </c>
       <c r="D56" s="11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -25778,7 +25783,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>11253476</v>
+        <v>15581736</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -25999,7 +26004,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>13535545608</v>
+        <v>13858286793</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -26033,7 +26038,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>62089658.752293579</v>
+        <v>62144783.825112104</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -26067,7 +26072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
     </sheetView>
@@ -29527,8 +29532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29730,11 +29735,11 @@
       </c>
       <c r="F6" s="65">
         <f>K23</f>
-        <v>171504547.78082192</v>
+        <v>171453547.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1181629.7891781032</v>
+        <v>1232629.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -30088,11 +30093,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8250000</v>
+        <v>-8200000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>8250000</v>
+        <v>8200000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -30136,11 +30141,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>82000</v>
+        <v>31000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>82000</v>
+        <v>31000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30489,15 +30494,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>171504547.78082192</v>
+        <v>171453547.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61003867.520547941</v>
+        <v>61002867.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>110500680.26027396</v>
+        <v>110450680.26027396</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -30541,11 +30546,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>99472356</v>
+        <v>99421356</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>20799073</v>
+        <v>20748073</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>
@@ -32748,10 +32753,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32767,7 +32772,7 @@
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -32784,7 +32789,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -32806,7 +32811,7 @@
         <v>2902500000</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -32828,7 +32833,7 @@
         <v>1212500000</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -32850,7 +32855,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -32872,7 +32877,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -32894,7 +32899,7 @@
         <v>477000000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>473</v>
       </c>
@@ -32916,7 +32921,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="18">
         <f t="shared" si="1"/>
@@ -32928,7 +32933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="18">
         <f t="shared" si="1"/>
@@ -32940,7 +32945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <f t="shared" si="1"/>
@@ -32952,7 +32957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18">
         <f t="shared" si="1"/>
@@ -32961,7 +32966,7 @@
       <c r="D11" s="18"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18">
         <f t="shared" si="1"/>
@@ -32982,7 +32987,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18">
         <f t="shared" si="1"/>
@@ -33007,8 +33012,12 @@
         <f>$R$13*$O$13/O13</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f>O13*R13*30.5</f>
+        <v>13176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="18">
         <f t="shared" si="1"/>
@@ -33033,8 +33042,12 @@
         <f>$R$13*$O$13/O14</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" ref="U14:U19" si="4">O14*R14*30.5</f>
+        <v>13542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="18">
         <f t="shared" si="1"/>
@@ -33056,11 +33069,15 @@
         <v>38</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S19" si="4">$R$13*$O$13/O15</f>
+        <f t="shared" ref="S15:S19" si="5">$R$13*$O$13/O15</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>13908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="18">
         <f t="shared" si="1"/>
@@ -33082,11 +33099,15 @@
         <v>20.5</v>
       </c>
       <c r="S16">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+        <v>11254.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18">
         <f t="shared" si="1"/>
@@ -33108,11 +33129,15 @@
         <v>14.666666666666666</v>
       </c>
       <c r="S17">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+        <v>10736</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="18">
         <f t="shared" si="1"/>
@@ -33134,11 +33159,15 @@
         <v>11.75</v>
       </c>
       <c r="S18">
+        <f t="shared" si="5"/>
+        <v>14.4</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="4"/>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+        <v>10751.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="18">
         <f t="shared" si="1"/>
@@ -33160,11 +33189,15 @@
         <v>10</v>
       </c>
       <c r="S19">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+        <v>10980</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F20" s="18">
         <f>SUM(F2:F15)</f>
         <v>4619500000</v>
@@ -33179,12 +33212,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F22" s="18">
         <f>F20*H20/36500</f>
         <v>3037479.4520547944</v>
@@ -33193,7 +33226,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
         <v>598</v>
       </c>
@@ -33207,7 +33240,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="11">
         <f>$I$41-I29</f>
         <v>53500</v>
@@ -33222,9 +33255,9 @@
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
-        <f t="shared" ref="G30:G35" si="5">$I$41-I30</f>
+        <f t="shared" ref="G30:G35" si="6">$I$41-I30</f>
         <v>18500</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -33237,9 +33270,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -33252,9 +33285,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33500</v>
       </c>
       <c r="H32" s="68">
@@ -33269,7 +33302,7 @@
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="H33" s="11" t="s">
@@ -33284,7 +33317,7 @@
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="H34" s="11" t="s">
@@ -33299,7 +33332,7 @@
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="H35" s="11" t="s">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="تیر 96" sheetId="23" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="637">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1940,6 +1940,12 @@
   </si>
   <si>
     <t>دستی برای دکتر رفتن دادم</t>
+  </si>
+  <si>
+    <t>20/4/1396</t>
+  </si>
+  <si>
+    <t>از عابربانک گرفتم، 150 بابت بخشی از 30 کیلو برنج</t>
   </si>
 </sst>
 </file>
@@ -26072,9 +26078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26124,7 +26130,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26132,7 +26138,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>36069100</v>
+        <v>36165800</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26150,7 +26156,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26158,7 +26164,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1113000000</v>
+        <v>1116000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26174,7 +26180,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26182,7 +26188,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-73800000</v>
+        <v>-74000000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26198,7 +26204,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26206,7 +26212,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-36700000</v>
+        <v>-36800000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26222,7 +26228,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26230,7 +26236,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20130000</v>
+        <v>-20185000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26246,7 +26252,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26254,7 +26260,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-73000000</v>
+        <v>-73200000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26270,7 +26276,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26278,7 +26284,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-72200000</v>
+        <v>-72400000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26294,7 +26300,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26302,7 +26308,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-334576000</v>
+        <v>-335526500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26318,7 +26324,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26326,7 +26332,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>700000000</v>
+        <v>702000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26342,7 +26348,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26350,7 +26356,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-371685000</v>
+        <v>-372750000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26366,7 +26372,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26374,7 +26380,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15570000</v>
+        <v>-15615000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26390,7 +26396,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26398,7 +26404,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-690241500</v>
+        <v>-692242200</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26414,7 +26420,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26422,7 +26428,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-68200000</v>
+        <v>-68400000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26438,7 +26444,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26446,7 +26452,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>676000000</v>
+        <v>678000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26462,7 +26468,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26470,7 +26476,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>676000000</v>
+        <v>678000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26486,7 +26492,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26494,7 +26500,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>405600000</v>
+        <v>406800000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26510,7 +26516,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26518,7 +26524,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>338000000</v>
+        <v>339000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26534,7 +26540,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26542,7 +26548,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1011000000</v>
+        <v>1014000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26561,7 +26567,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26569,7 +26575,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-146252600</v>
+        <v>-146685300</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26585,7 +26591,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26593,7 +26599,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-146252600</v>
+        <v>-146685300</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26609,7 +26615,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26617,7 +26623,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-146252600</v>
+        <v>-146685300</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26633,7 +26639,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26641,7 +26647,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-146252600</v>
+        <v>-146685300</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26657,7 +26663,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26665,7 +26671,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-146252600</v>
+        <v>-146685300</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26681,7 +26687,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26689,7 +26695,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-67600000</v>
+        <v>-67800000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26705,7 +26711,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26713,7 +26719,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1008000000</v>
+        <v>1011000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26729,7 +26735,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26737,7 +26743,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-67000000</v>
+        <v>-67200000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26753,7 +26759,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26761,7 +26767,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>666000000</v>
+        <v>668000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26777,7 +26783,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26785,7 +26791,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2331266400</v>
+        <v>-2338267200</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26801,7 +26807,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26809,7 +26815,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-996298800</v>
+        <v>-999299700</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26825,7 +26831,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26833,7 +26839,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-561342900</v>
+        <v>-563038800</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26849,7 +26855,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26857,7 +26863,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>325136100</v>
+        <v>326130400</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26873,7 +26879,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26881,7 +26887,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11299302</v>
+        <v>11334393</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -26899,7 +26905,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26907,7 +26913,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-273700000</v>
+        <v>-274550000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26923,7 +26929,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26931,7 +26937,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-59817000</v>
+        <v>-60007500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26947,7 +26953,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26955,7 +26961,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>62400000</v>
+        <v>62600000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26971,7 +26977,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -26979,7 +26985,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-62600000</v>
+        <v>-62800000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -26995,7 +27001,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27003,7 +27009,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>87233740</v>
+        <v>87534546</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27021,7 +27027,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27029,7 +27035,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-27550000</v>
+        <v>-27645000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27045,7 +27051,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27053,7 +27059,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-25549870</v>
+        <v>-25637973</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27069,7 +27075,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27077,7 +27083,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-34200000</v>
+        <v>-34320000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27093,7 +27099,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27101,7 +27107,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>262053448</v>
+        <v>263053652</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27119,7 +27125,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27127,7 +27133,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-20720000</v>
+        <v>-20800000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27143,7 +27149,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27151,7 +27157,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-53812395</v>
+        <v>-54023424</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27167,7 +27173,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27175,7 +27181,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-50800000</v>
+        <v>-51000000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27191,7 +27197,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27199,7 +27205,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-24035000</v>
+        <v>-24130000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27215,7 +27221,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27223,7 +27229,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11295000</v>
+        <v>-11340000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27239,7 +27245,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27247,7 +27253,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16109180</v>
+        <v>-16173360</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27263,7 +27269,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27271,7 +27277,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6816032</v>
+        <v>-6843516</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27287,7 +27293,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27295,7 +27301,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-34827000</v>
+        <v>-34968000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27311,7 +27317,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27319,7 +27325,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6606262</v>
+        <v>-6633008</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27335,7 +27341,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27343,7 +27349,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13111800</v>
+        <v>-13165100</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27359,7 +27365,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27367,7 +27373,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>244000000</v>
+        <v>245000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27383,7 +27389,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27391,7 +27397,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5019000</v>
+        <v>-5040000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27407,7 +27413,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27415,7 +27421,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-233359000</v>
+        <v>-234339500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27431,7 +27437,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27439,7 +27445,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-10710000</v>
+        <v>-10755000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27455,7 +27461,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27463,7 +27469,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>673162336</v>
+        <v>676167525</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27481,7 +27487,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27489,7 +27495,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>448000000</v>
+        <v>450000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27505,7 +27511,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27513,7 +27519,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>446000000</v>
+        <v>448000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27529,7 +27535,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27537,7 +27543,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1568336000</v>
+        <v>-1575337500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27553,7 +27559,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27561,7 +27567,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>597000000</v>
+        <v>600000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27577,7 +27583,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27585,7 +27591,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5394691</v>
+        <v>-5421800</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27601,7 +27607,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27609,7 +27615,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6564811</v>
+        <v>-6597800</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27625,7 +27631,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27633,7 +27639,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>594000000</v>
+        <v>597000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27649,7 +27655,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27657,7 +27663,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>588060000</v>
+        <v>591030000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27673,7 +27679,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27681,7 +27687,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>198000000</v>
+        <v>199000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27697,7 +27703,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27705,7 +27711,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F137" si="5">B67*(D67-E67)</f>
-        <v>5940000</v>
+        <v>5970000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27721,7 +27727,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27729,7 +27735,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>5910000000</v>
+        <v>5940000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27745,7 +27751,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27753,7 +27759,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-39400000</v>
+        <v>-39600000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27769,7 +27775,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27777,7 +27783,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>274400000</v>
+        <v>275800000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27793,7 +27799,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27801,7 +27807,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>509600000</v>
+        <v>512200000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27817,7 +27823,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27825,7 +27831,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-197000000</v>
+        <v>-198000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27841,7 +27847,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27849,7 +27855,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>2910000000</v>
+        <v>2925000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27865,7 +27871,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27873,7 +27879,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2850798000</v>
+        <v>-2865802200</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27889,7 +27895,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27897,7 +27903,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-564000000</v>
+        <v>-567000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27913,7 +27919,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27921,7 +27927,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-37600000</v>
+        <v>-37800000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27937,7 +27943,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27945,7 +27951,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2256564000</v>
+        <v>-2268567000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27961,7 +27967,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27969,7 +27975,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-552165600</v>
+        <v>-555166500</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -27985,7 +27991,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -27993,7 +27999,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4094000000</v>
+        <v>4117000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28009,7 +28015,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28017,7 +28023,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-104487000</v>
+        <v>-105087500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28033,7 +28039,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28041,7 +28047,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-34800000</v>
+        <v>-35000000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28057,7 +28063,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28065,7 +28071,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>48714012</v>
+        <v>48997233</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28083,7 +28089,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28091,7 +28097,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-34600000</v>
+        <v>-34800000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28107,7 +28113,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28115,7 +28121,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>340000000</v>
+        <v>342000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28131,7 +28137,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28139,7 +28145,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-33600000</v>
+        <v>-33800000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28155,7 +28161,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28163,7 +28169,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-32400000</v>
+        <v>-32600000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28179,7 +28185,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28187,7 +28193,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-212000000</v>
+        <v>-213325000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28203,7 +28209,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28211,7 +28217,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-72500000</v>
+        <v>-73000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28227,7 +28233,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28235,7 +28241,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-17400000</v>
+        <v>-17520000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28251,7 +28257,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28259,7 +28265,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>60805110</v>
+        <v>61233315</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28277,7 +28283,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28285,7 +28291,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-420280000</v>
+        <v>-423282000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28303,7 +28309,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28311,7 +28317,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-28290000</v>
+        <v>-28495000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28329,7 +28335,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28337,7 +28343,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-48369000</v>
+        <v>-48719500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28355,7 +28361,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28363,7 +28369,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>126000000</v>
+        <v>127000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28381,7 +28387,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28389,7 +28395,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1089000000</v>
+        <v>1098000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28408,7 +28414,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28416,7 +28422,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3120000000</v>
+        <v>-3146000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28434,7 +28440,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28442,7 +28448,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3120000000</v>
+        <v>-3146000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28458,7 +28464,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28466,7 +28472,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3094000000</v>
+        <v>3120000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28482,7 +28488,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28490,7 +28496,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-24000000</v>
+        <v>-24200000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28509,7 +28515,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28517,7 +28523,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3416400000</v>
+        <v>3445600000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28533,7 +28539,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28541,7 +28547,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>44793840</v>
+        <v>45193785</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28559,7 +28565,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28567,7 +28573,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>222000000</v>
+        <v>224000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28585,7 +28591,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28593,7 +28599,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>825000000</v>
+        <v>832500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28611,7 +28617,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28619,7 +28625,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7326000000</v>
+        <v>-7392000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28637,7 +28643,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28645,7 +28651,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-16095000</v>
+        <v>-16240000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28663,7 +28669,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28671,7 +28677,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>648000000</v>
+        <v>654000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28689,7 +28695,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28697,7 +28703,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-642631300</v>
+        <v>-648637200</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28715,7 +28721,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28723,7 +28729,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>618000000</v>
+        <v>624000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28741,7 +28747,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28749,7 +28755,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-11040000</v>
+        <v>-11160000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28767,7 +28773,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28775,7 +28781,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>360000000</v>
+        <v>364000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28793,7 +28799,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28801,7 +28807,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>249200000</v>
+        <v>252000000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28819,7 +28825,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28827,7 +28833,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-17200000</v>
+        <v>-17400000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28845,7 +28851,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28853,7 +28859,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6074040</v>
+        <v>6146350</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>518</v>
@@ -28871,7 +28877,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28879,7 +28885,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-13600000</v>
+        <v>-13800000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -28900,7 +28906,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28908,7 +28914,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-737000000</v>
+        <v>-748000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>519</v>
@@ -28926,7 +28932,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28934,7 +28940,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-13400000</v>
+        <v>-13600000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -28955,7 +28961,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28963,7 +28969,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-29282500</v>
+        <v>-29733000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>521</v>
@@ -28981,7 +28987,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -28989,7 +28995,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-13000000</v>
+        <v>-13200000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>522</v>
@@ -29010,7 +29016,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29018,7 +29024,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-9118450</v>
+        <v>-9273000</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>525</v>
@@ -29036,7 +29042,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29044,7 +29050,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-18880</v>
+        <v>-19200</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>526</v>
@@ -29062,7 +29068,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29070,7 +29076,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-25056000</v>
+        <v>-25488000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>528</v>
@@ -29088,7 +29094,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29096,7 +29102,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>3776193</v>
+        <v>3850236</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>530</v>
@@ -29114,7 +29120,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29122,7 +29128,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1612000</v>
+        <v>-1664000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>557</v>
@@ -29140,7 +29146,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29148,7 +29154,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>22553</v>
+        <v>23740</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>612</v>
@@ -29166,7 +29172,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29174,7 +29180,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>43200000</v>
+        <v>45600000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>610</v>
@@ -29192,7 +29198,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29200,7 +29206,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>21484800</v>
+        <v>22827600</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>621</v>
@@ -29218,7 +29224,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29226,7 +29232,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>21484800</v>
+        <v>22827600</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>622</v>
@@ -29244,7 +29250,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29252,7 +29258,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-1000000</v>
+        <v>-1200000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29270,7 +29276,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29278,7 +29284,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-46854</v>
+        <v>-62472</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>631</v>
@@ -29295,11 +29301,11 @@
         <v>-200000</v>
       </c>
       <c r="C130" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29307,19 +29313,25 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-400000</v>
+        <v>-600000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="11"/>
+      <c r="A131" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B131" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C131" s="11">
+        <v>2</v>
+      </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D137" si="6">D132+C131</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E137" si="7">IF(B131&gt;0,1,0)</f>
@@ -29327,9 +29339,11 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="11"/>
+        <v>-400000</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
@@ -29462,14 +29476,14 @@
       <c r="A139" s="11"/>
       <c r="B139" s="31">
         <f>SUM(B2:B137)</f>
-        <v>4717073</v>
+        <v>4517073</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="31">
         <f>SUM(F2:F137)</f>
-        <v>4389348149</v>
+        <v>4393665222</v>
       </c>
       <c r="G139" s="11"/>
     </row>
@@ -29503,7 +29517,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="3">
         <f>F139/D2</f>
-        <v>11736224.997326203</v>
+        <v>11716440.592</v>
       </c>
       <c r="G142" s="11"/>
     </row>
@@ -29532,7 +29546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -29735,11 +29749,11 @@
       </c>
       <c r="F6" s="65">
         <f>K23</f>
-        <v>171453547.78082192</v>
+        <v>171263547.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1232629.7891781032</v>
+        <v>1422629.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29859,11 +29873,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B139</f>
-        <v>4717073</v>
+        <v>4517073</v>
       </c>
       <c r="L9" s="3">
         <f>K9</f>
-        <v>4717073</v>
+        <v>4517073</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
@@ -30141,11 +30155,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>31000</v>
+        <v>41000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>31000</v>
+        <v>41000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30494,11 +30508,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>171453547.78082192</v>
+        <v>171263547.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>61002867.520547941</v>
+        <v>60812867.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30546,11 +30560,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>99421356</v>
+        <v>99231356</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>20748073</v>
+        <v>20558073</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="641">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1946,6 +1946,18 @@
   </si>
   <si>
     <t>از عابربانک گرفتم، 150 بابت بخشی از 30 کیلو برنج</t>
+  </si>
+  <si>
+    <t>21/4/1396</t>
+  </si>
+  <si>
+    <t>بیمه ماشین</t>
+  </si>
+  <si>
+    <t>شیر خشک و قطره آهن</t>
+  </si>
+  <si>
+    <t>22/4/1396</t>
   </si>
 </sst>
 </file>
@@ -26080,7 +26092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
+      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26130,7 +26142,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26138,7 +26150,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>36165800</v>
+        <v>36262500</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26156,7 +26168,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26164,7 +26176,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1116000000</v>
+        <v>1119000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26180,7 +26192,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26188,7 +26200,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-74000000</v>
+        <v>-74200000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26204,7 +26216,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26212,7 +26224,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-36800000</v>
+        <v>-36900000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26228,7 +26240,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26236,7 +26248,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20185000</v>
+        <v>-20240000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26252,7 +26264,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26260,7 +26272,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-73200000</v>
+        <v>-73400000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26276,7 +26288,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26284,7 +26296,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-72400000</v>
+        <v>-72600000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26300,7 +26312,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26308,7 +26320,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-335526500</v>
+        <v>-336477000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26324,7 +26336,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26332,7 +26344,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>702000000</v>
+        <v>704000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26348,7 +26360,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26356,7 +26368,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-372750000</v>
+        <v>-373815000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26372,7 +26384,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26380,7 +26392,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15615000</v>
+        <v>-15660000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26396,7 +26408,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26404,7 +26416,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-692242200</v>
+        <v>-694242900</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26420,7 +26432,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26428,7 +26440,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-68400000</v>
+        <v>-68600000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26444,7 +26456,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26452,7 +26464,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>678000000</v>
+        <v>680000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26468,7 +26480,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26476,7 +26488,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>678000000</v>
+        <v>680000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26492,7 +26504,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26500,7 +26512,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>406800000</v>
+        <v>408000000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26516,7 +26528,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26524,7 +26536,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>339000000</v>
+        <v>340000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26540,7 +26552,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26548,7 +26560,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1014000000</v>
+        <v>1017000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26567,7 +26579,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26575,7 +26587,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-146685300</v>
+        <v>-147118000</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26591,7 +26603,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26599,7 +26611,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-146685300</v>
+        <v>-147118000</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26615,7 +26627,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26623,7 +26635,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-146685300</v>
+        <v>-147118000</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26639,7 +26651,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26647,7 +26659,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-146685300</v>
+        <v>-147118000</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26663,7 +26675,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26671,7 +26683,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-146685300</v>
+        <v>-147118000</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26687,7 +26699,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26695,7 +26707,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-67800000</v>
+        <v>-68000000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26711,7 +26723,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26719,7 +26731,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1011000000</v>
+        <v>1014000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26735,7 +26747,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26743,7 +26755,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-67200000</v>
+        <v>-67400000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26759,7 +26771,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26767,7 +26779,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>668000000</v>
+        <v>670000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26783,7 +26795,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26791,7 +26803,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2338267200</v>
+        <v>-2345268000</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26807,7 +26819,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26815,7 +26827,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-999299700</v>
+        <v>-1002300600</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26831,7 +26843,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26839,7 +26851,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-563038800</v>
+        <v>-564734700</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26855,7 +26867,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26863,7 +26875,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>326130400</v>
+        <v>327124700</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26879,7 +26891,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26887,7 +26899,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11334393</v>
+        <v>11369484</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -26905,7 +26917,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26913,7 +26925,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-274550000</v>
+        <v>-275400000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26929,7 +26941,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26937,7 +26949,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-60007500</v>
+        <v>-60198000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26953,7 +26965,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26961,7 +26973,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>62600000</v>
+        <v>62800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26977,7 +26989,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -26985,7 +26997,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-62800000</v>
+        <v>-63000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27001,7 +27013,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27009,7 +27021,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>87534546</v>
+        <v>87835352</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27027,7 +27039,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27035,7 +27047,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-27645000</v>
+        <v>-27740000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27051,7 +27063,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27059,7 +27071,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-25637973</v>
+        <v>-25726076</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27075,7 +27087,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27083,7 +27095,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-34320000</v>
+        <v>-34440000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27099,7 +27111,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27107,7 +27119,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>263053652</v>
+        <v>264053856</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27125,7 +27137,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27133,7 +27145,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-20800000</v>
+        <v>-20880000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27149,7 +27161,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27157,7 +27169,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-54023424</v>
+        <v>-54234453</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27173,7 +27185,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27181,7 +27193,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-51000000</v>
+        <v>-51200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27197,7 +27209,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27205,7 +27217,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-24130000</v>
+        <v>-24225000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27221,7 +27233,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27229,7 +27241,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11340000</v>
+        <v>-11385000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27245,7 +27257,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27253,7 +27265,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16173360</v>
+        <v>-16237540</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27269,7 +27281,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27277,7 +27289,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6843516</v>
+        <v>-6871000</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27293,7 +27305,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27301,7 +27313,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-34968000</v>
+        <v>-35109000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27317,7 +27329,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27325,7 +27337,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6633008</v>
+        <v>-6659754</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27341,7 +27353,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27349,7 +27361,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13165100</v>
+        <v>-13218400</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27365,7 +27377,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27373,7 +27385,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>245000000</v>
+        <v>246000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27389,7 +27401,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27397,7 +27409,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5040000</v>
+        <v>-5061000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27413,7 +27425,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27421,7 +27433,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-234339500</v>
+        <v>-235320000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27437,7 +27449,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27445,7 +27457,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-10755000</v>
+        <v>-10800000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27461,7 +27473,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27469,7 +27481,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>676167525</v>
+        <v>679172714</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27487,7 +27499,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27495,7 +27507,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>450000000</v>
+        <v>452000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27511,7 +27523,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27519,7 +27531,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>448000000</v>
+        <v>450000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27535,7 +27547,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27543,7 +27555,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1575337500</v>
+        <v>-1582339000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27559,7 +27571,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27567,7 +27579,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>600000000</v>
+        <v>603000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27583,7 +27595,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27591,7 +27603,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5421800</v>
+        <v>-5448909</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27607,7 +27619,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27615,7 +27627,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6597800</v>
+        <v>-6630789</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27631,7 +27643,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27639,7 +27651,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>597000000</v>
+        <v>600000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27655,7 +27667,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27663,7 +27675,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>591030000</v>
+        <v>594000000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27679,7 +27691,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27687,7 +27699,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>199000000</v>
+        <v>200000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27703,7 +27715,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27711,7 +27723,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F137" si="5">B67*(D67-E67)</f>
-        <v>5970000</v>
+        <v>6000000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27727,7 +27739,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27735,7 +27747,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>5940000000</v>
+        <v>5970000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27751,7 +27763,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27759,7 +27771,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-39600000</v>
+        <v>-39800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27775,7 +27787,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27783,7 +27795,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>275800000</v>
+        <v>277200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27799,7 +27811,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27807,7 +27819,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>512200000</v>
+        <v>514800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27823,7 +27835,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27831,7 +27843,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-198000000</v>
+        <v>-199000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27847,7 +27859,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27855,7 +27867,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>2925000000</v>
+        <v>2940000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27871,7 +27883,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27879,7 +27891,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2865802200</v>
+        <v>-2880806400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27895,7 +27907,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27903,7 +27915,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-567000000</v>
+        <v>-570000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27919,7 +27931,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27927,7 +27939,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-37800000</v>
+        <v>-38000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27943,7 +27955,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27951,7 +27963,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2268567000</v>
+        <v>-2280570000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27967,7 +27979,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27975,7 +27987,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-555166500</v>
+        <v>-558167400</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -27991,7 +28003,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -27999,7 +28011,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4117000000</v>
+        <v>4140000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28015,7 +28027,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28023,7 +28035,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-105087500</v>
+        <v>-105688000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28039,7 +28051,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28047,7 +28059,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-35000000</v>
+        <v>-35200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28063,7 +28075,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28071,7 +28083,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>48997233</v>
+        <v>49280454</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28089,7 +28101,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28097,7 +28109,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-34800000</v>
+        <v>-35000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28113,7 +28125,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28121,7 +28133,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>342000000</v>
+        <v>344000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28137,7 +28149,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28145,7 +28157,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-33800000</v>
+        <v>-34000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28161,7 +28173,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28169,7 +28181,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-32600000</v>
+        <v>-32800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28185,7 +28197,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28193,7 +28205,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-213325000</v>
+        <v>-214650000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28209,7 +28221,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28217,7 +28229,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-73000000</v>
+        <v>-73500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28233,7 +28245,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28241,7 +28253,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-17520000</v>
+        <v>-17640000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28257,7 +28269,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28265,7 +28277,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>61233315</v>
+        <v>61661520</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28283,7 +28295,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28291,7 +28303,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-423282000</v>
+        <v>-426284000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28309,7 +28321,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28317,7 +28329,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-28495000</v>
+        <v>-28700000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28335,7 +28347,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28343,7 +28355,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-48719500</v>
+        <v>-49070000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28361,7 +28373,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28369,7 +28381,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>127000000</v>
+        <v>128000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28387,7 +28399,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28395,7 +28407,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1098000000</v>
+        <v>1107000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28414,7 +28426,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28422,7 +28434,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3146000000</v>
+        <v>-3172000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28440,7 +28452,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28448,7 +28460,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3146000000</v>
+        <v>-3172000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28464,7 +28476,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28472,7 +28484,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3120000000</v>
+        <v>3146000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28488,7 +28500,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28496,7 +28508,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-24200000</v>
+        <v>-24400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28515,7 +28527,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28523,7 +28535,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3445600000</v>
+        <v>3474800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28539,7 +28551,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28547,7 +28559,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>45193785</v>
+        <v>45593730</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28565,7 +28577,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28573,7 +28585,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>224000000</v>
+        <v>226000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28591,7 +28603,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28599,7 +28611,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>832500000</v>
+        <v>840000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28617,7 +28629,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28625,7 +28637,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7392000000</v>
+        <v>-7458000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28643,7 +28655,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28651,7 +28663,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-16240000</v>
+        <v>-16385000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28669,7 +28681,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28677,7 +28689,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>654000000</v>
+        <v>660000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28695,7 +28707,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28703,7 +28715,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-648637200</v>
+        <v>-654643100</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28721,7 +28733,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28729,7 +28741,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>624000000</v>
+        <v>630000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28747,7 +28759,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28755,7 +28767,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-11160000</v>
+        <v>-11280000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28773,7 +28785,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28781,7 +28793,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>364000000</v>
+        <v>368000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28799,7 +28811,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28807,7 +28819,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>252000000</v>
+        <v>254800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28825,7 +28837,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28833,7 +28845,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-17400000</v>
+        <v>-17600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28851,7 +28863,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28859,7 +28871,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6146350</v>
+        <v>6218660</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>518</v>
@@ -28877,7 +28889,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28885,7 +28897,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-13800000</v>
+        <v>-14000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -28906,7 +28918,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28914,7 +28926,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-748000000</v>
+        <v>-759000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>519</v>
@@ -28932,7 +28944,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28940,7 +28952,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-13600000</v>
+        <v>-13800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -28961,7 +28973,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28969,7 +28981,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-29733000</v>
+        <v>-30183500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>521</v>
@@ -28987,7 +28999,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -28995,7 +29007,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-13200000</v>
+        <v>-13400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>522</v>
@@ -29016,7 +29028,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29024,7 +29036,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-9273000</v>
+        <v>-9427550</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>525</v>
@@ -29042,7 +29054,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29050,7 +29062,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-19200</v>
+        <v>-19520</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>526</v>
@@ -29068,7 +29080,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29076,7 +29088,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-25488000</v>
+        <v>-25920000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>528</v>
@@ -29094,7 +29106,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29102,7 +29114,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>3850236</v>
+        <v>3924279</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>530</v>
@@ -29120,7 +29132,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29128,7 +29140,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1664000</v>
+        <v>-1716000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>557</v>
@@ -29146,7 +29158,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29154,7 +29166,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>23740</v>
+        <v>24927</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>612</v>
@@ -29172,7 +29184,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29180,7 +29192,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>45600000</v>
+        <v>48000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>610</v>
@@ -29198,7 +29210,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29206,7 +29218,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>22827600</v>
+        <v>24170400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>621</v>
@@ -29224,7 +29236,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29232,7 +29244,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>22827600</v>
+        <v>24170400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>622</v>
@@ -29250,7 +29262,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29258,7 +29270,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-1200000</v>
+        <v>-1400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29276,7 +29288,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29284,7 +29296,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-62472</v>
+        <v>-78090</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>631</v>
@@ -29305,7 +29317,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29313,7 +29325,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-600000</v>
+        <v>-800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>522</v>
@@ -29327,11 +29339,11 @@
         <v>-200000</v>
       </c>
       <c r="C131" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D137" si="6">D132+C131</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E137" si="7">IF(B131&gt;0,1,0)</f>
@@ -29339,19 +29351,25 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-400000</v>
+        <v>-600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="11"/>
+      <c r="A132" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B132" s="3">
+        <v>-390000</v>
+      </c>
+      <c r="C132" s="11">
+        <v>0</v>
+      </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -29359,19 +29377,25 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-780000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>25</v>
+        <v>638</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="11"/>
+      <c r="A133" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B133" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="C133" s="11">
+        <v>1</v>
+      </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -29379,17 +29403,25 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="11"/>
+        <v>-49000</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="11"/>
+      <c r="A134" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B134" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="C134" s="11">
+        <v>1</v>
+      </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -29397,9 +29429,11 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="11"/>
+        <v>-95000</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
@@ -29476,14 +29510,14 @@
       <c r="A139" s="11"/>
       <c r="B139" s="31">
         <f>SUM(B2:B137)</f>
-        <v>4517073</v>
+        <v>4007573</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="31">
         <f>SUM(F2:F137)</f>
-        <v>4393665222</v>
+        <v>4397258295</v>
       </c>
       <c r="G139" s="11"/>
     </row>
@@ -29517,7 +29551,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="3">
         <f>F139/D2</f>
-        <v>11716440.592</v>
+        <v>11694835.890957447</v>
       </c>
       <c r="G142" s="11"/>
     </row>
@@ -29749,11 +29783,11 @@
       </c>
       <c r="F6" s="65">
         <f>K23</f>
-        <v>171263547.78082192</v>
+        <v>170828047.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1422629.7891781032</v>
+        <v>1858129.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29873,11 +29907,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B139</f>
-        <v>4517073</v>
+        <v>4007573</v>
       </c>
       <c r="L9" s="3">
         <f>K9</f>
-        <v>4517073</v>
+        <v>4007573</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
@@ -30155,11 +30189,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>41000</v>
+        <v>115000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>41000</v>
+        <v>115000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30508,11 +30542,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>171263547.78082192</v>
+        <v>170828047.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>60812867.520547941</v>
+        <v>60377367.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30560,11 +30594,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>99231356</v>
+        <v>98795856</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>20558073</v>
+        <v>20122573</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -29581,7 +29581,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30948,6 +30948,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
+      <c r="L33" s="7">
+        <f>M31-L31</f>
+        <v>542465.75342465751</v>
+      </c>
       <c r="O33" s="33" t="s">
         <v>25</v>
       </c>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="639">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1507,18 +1507,9 @@
     <t>هزینه اتومبیل</t>
   </si>
   <si>
-    <t>بیمه</t>
-  </si>
-  <si>
-    <t>باتری</t>
-  </si>
-  <si>
     <t>بنزین</t>
   </si>
   <si>
-    <t>پلوس</t>
-  </si>
-  <si>
     <t>سال 96</t>
   </si>
   <si>
@@ -1958,6 +1949,9 @@
   </si>
   <si>
     <t>22/4/1396</t>
+  </si>
+  <si>
+    <t>شروع خرید</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1978,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2066,6 +2060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,12 +2263,6 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2304,6 +2298,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2638,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -2695,7 +2693,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -2739,7 +2737,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B3" s="42">
         <v>95521</v>
@@ -2752,7 +2750,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -2781,7 +2779,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -2794,7 +2792,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -3682,8 +3680,8 @@
       <c r="D31" s="45">
         <v>1342800</v>
       </c>
-      <c r="E31" s="59" t="s">
-        <v>623</v>
+      <c r="E31" s="57" t="s">
+        <v>620</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -3710,7 +3708,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -3727,7 +3725,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -15053,7 +15051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15062,7 +15060,7 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
@@ -15083,7 +15081,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -15100,11 +15098,11 @@
       <c r="I1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>504</v>
+      <c r="K1" s="56" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -15129,7 +15127,7 @@
       </c>
       <c r="G2" s="39">
         <f t="shared" ref="G2:G65" si="0">G3+F2</f>
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="H2" s="39">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15137,13 +15135,13 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>7414800</v>
-      </c>
-      <c r="J2" s="58">
+        <v>7631900</v>
+      </c>
+      <c r="J2" s="56">
         <f>C2*(G2-H2)</f>
-        <v>7414800</v>
-      </c>
-      <c r="K2" s="58">
+        <v>7631900</v>
+      </c>
+      <c r="K2" s="56">
         <f>D2*(G2-H2)</f>
         <v>0</v>
       </c>
@@ -15170,7 +15168,7 @@
       </c>
       <c r="G3" s="39">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="H3" s="39">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15178,15 +15176,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>8815700000</v>
-      </c>
-      <c r="J3" s="58">
+        <v>9074400000</v>
+      </c>
+      <c r="J3" s="56">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>5044441000</v>
-      </c>
-      <c r="K3" s="58">
+        <v>5192472000</v>
+      </c>
+      <c r="K3" s="56">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>3771259000</v>
+        <v>3881928000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15211,7 +15209,7 @@
       </c>
       <c r="G4" s="39">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="H4" s="39">
         <f t="shared" si="2"/>
@@ -15221,13 +15219,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="56">
         <f t="shared" si="4"/>
-        <v>3774000</v>
-      </c>
-      <c r="K4" s="58">
+        <v>3884500</v>
+      </c>
+      <c r="K4" s="56">
         <f t="shared" si="5"/>
-        <v>-3774000</v>
+        <v>-3884500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15252,7 +15250,7 @@
       </c>
       <c r="G5" s="39">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
@@ -15260,15 +15258,15 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>882000000</v>
-      </c>
-      <c r="J5" s="58">
+        <v>908000000</v>
+      </c>
+      <c r="J5" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="56">
         <f t="shared" si="5"/>
-        <v>882000000</v>
+        <v>908000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15293,7 +15291,7 @@
       </c>
       <c r="G6" s="39">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="H6" s="39">
         <f t="shared" si="2"/>
@@ -15301,15 +15299,15 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2175000</v>
-      </c>
-      <c r="J6" s="58">
+        <v>-2240000</v>
+      </c>
+      <c r="J6" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="56">
         <f t="shared" si="5"/>
-        <v>-2175000</v>
+        <v>-2240000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15334,7 +15332,7 @@
       </c>
       <c r="G7" s="39">
         <f t="shared" si="0"/>
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="2"/>
@@ -15342,15 +15340,15 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-517415500</v>
-      </c>
-      <c r="J7" s="58">
+        <v>-533022000</v>
+      </c>
+      <c r="J7" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="56">
         <f t="shared" si="5"/>
-        <v>-517415500</v>
+        <v>-533022000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15375,7 +15373,7 @@
       </c>
       <c r="G8" s="39">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" si="2"/>
@@ -15383,15 +15381,15 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-86000000</v>
-      </c>
-      <c r="J8" s="58">
+        <v>-88600000</v>
+      </c>
+      <c r="J8" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="56">
         <f t="shared" si="5"/>
-        <v>-86000000</v>
+        <v>-88600000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15416,7 +15414,7 @@
       </c>
       <c r="G9" s="39">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="2"/>
@@ -15424,15 +15422,15 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-301954000</v>
-      </c>
-      <c r="J9" s="58">
+        <v>-311125500</v>
+      </c>
+      <c r="J9" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="56">
         <f t="shared" si="5"/>
-        <v>-301954000</v>
+        <v>-311125500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15457,7 +15455,7 @@
       </c>
       <c r="G10" s="39">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" si="2"/>
@@ -15465,15 +15463,15 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-83800000</v>
-      </c>
-      <c r="J10" s="58">
+        <v>-86400000</v>
+      </c>
+      <c r="J10" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="56">
         <f t="shared" si="5"/>
-        <v>-83800000</v>
+        <v>-86400000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15498,7 +15496,7 @@
       </c>
       <c r="G11" s="39">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" si="2"/>
@@ -15506,15 +15504,15 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>418000000</v>
-      </c>
-      <c r="J11" s="58">
+        <v>431000000</v>
+      </c>
+      <c r="J11" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="56">
         <f t="shared" si="5"/>
-        <v>418000000</v>
+        <v>431000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15539,7 +15537,7 @@
       </c>
       <c r="G12" s="39">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" si="2"/>
@@ -15547,15 +15545,15 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-124500000</v>
-      </c>
-      <c r="J12" s="58">
+        <v>-128400000</v>
+      </c>
+      <c r="J12" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="56">
         <f t="shared" si="5"/>
-        <v>-124500000</v>
+        <v>-128400000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15580,7 +15578,7 @@
       </c>
       <c r="G13" s="39">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" si="2"/>
@@ -15588,15 +15586,15 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-25420000</v>
-      </c>
-      <c r="J13" s="58">
+        <v>-26226000</v>
+      </c>
+      <c r="J13" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="58">
+      <c r="K13" s="56">
         <f t="shared" si="5"/>
-        <v>-25420000</v>
+        <v>-26226000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15621,7 +15619,7 @@
       </c>
       <c r="G14" s="39">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" si="2"/>
@@ -15629,15 +15627,15 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>818000000</v>
-      </c>
-      <c r="J14" s="58">
+        <v>844000000</v>
+      </c>
+      <c r="J14" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="56">
         <f t="shared" si="5"/>
-        <v>818000000</v>
+        <v>844000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15662,7 +15660,7 @@
       </c>
       <c r="G15" s="39">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="H15" s="39">
         <f t="shared" si="2"/>
@@ -15670,15 +15668,15 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>734400000</v>
-      </c>
-      <c r="J15" s="58">
+        <v>757800000</v>
+      </c>
+      <c r="J15" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="56">
         <f t="shared" si="5"/>
-        <v>734400000</v>
+        <v>757800000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15703,7 +15701,7 @@
       </c>
       <c r="G16" s="39">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
@@ -15711,15 +15709,15 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-81800000</v>
-      </c>
-      <c r="J16" s="58">
+        <v>-84400000</v>
+      </c>
+      <c r="J16" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="56">
         <f t="shared" si="5"/>
-        <v>-81800000</v>
+        <v>-84400000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -15744,7 +15742,7 @@
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="H17" s="39">
         <f t="shared" si="2"/>
@@ -15752,15 +15750,15 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-810000000</v>
-      </c>
-      <c r="J17" s="58">
+        <v>-836000000</v>
+      </c>
+      <c r="J17" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="56">
         <f t="shared" si="5"/>
-        <v>-810000000</v>
+        <v>-836000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -15788,7 +15786,7 @@
       </c>
       <c r="G18" s="39">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="2"/>
@@ -15796,15 +15794,15 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-121200000</v>
-      </c>
-      <c r="J18" s="58">
+        <v>-125100000</v>
+      </c>
+      <c r="J18" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="56">
         <f t="shared" si="5"/>
-        <v>-121200000</v>
+        <v>-125100000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -15829,7 +15827,7 @@
       </c>
       <c r="G19" s="39">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="H19" s="39">
         <f t="shared" si="2"/>
@@ -15837,15 +15835,15 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-80600000</v>
-      </c>
-      <c r="J19" s="58">
+        <v>-83200000</v>
+      </c>
+      <c r="J19" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="56">
         <f t="shared" si="5"/>
-        <v>-80600000</v>
+        <v>-83200000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -15870,7 +15868,7 @@
       </c>
       <c r="G20" s="39">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="H20" s="39">
         <f t="shared" si="2"/>
@@ -15878,15 +15876,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>108435600</v>
-      </c>
-      <c r="J20" s="58">
+        <v>111959757</v>
+      </c>
+      <c r="J20" s="56">
         <f t="shared" si="4"/>
-        <v>58980800</v>
-      </c>
-      <c r="K20" s="58">
+        <v>60897676</v>
+      </c>
+      <c r="K20" s="56">
         <f t="shared" si="5"/>
-        <v>49454800</v>
+        <v>51062081</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -15911,7 +15909,7 @@
       </c>
       <c r="G21" s="39">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="2"/>
@@ -15919,15 +15917,15 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-600774300</v>
-      </c>
-      <c r="J21" s="58">
+        <v>-620348400</v>
+      </c>
+      <c r="J21" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="56">
         <f t="shared" si="5"/>
-        <v>-600774300</v>
+        <v>-620348400</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -15952,7 +15950,7 @@
       </c>
       <c r="G22" s="39">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H22" s="39">
         <f t="shared" si="2"/>
@@ -15960,15 +15958,15 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1185000000</v>
-      </c>
-      <c r="J22" s="58">
+        <v>1224000000</v>
+      </c>
+      <c r="J22" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="56">
         <f t="shared" si="5"/>
-        <v>1185000000</v>
+        <v>1224000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -15993,7 +15991,7 @@
       </c>
       <c r="G23" s="39">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H23" s="39">
         <f t="shared" si="2"/>
@@ -16001,15 +15999,15 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>394000000</v>
-      </c>
-      <c r="J23" s="58">
+        <v>407000000</v>
+      </c>
+      <c r="J23" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="56">
         <f t="shared" si="5"/>
-        <v>394000000</v>
+        <v>407000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16034,7 +16032,7 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="2"/>
@@ -16042,15 +16040,15 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1182354600</v>
-      </c>
-      <c r="J24" s="58">
+        <v>-1221366300</v>
+      </c>
+      <c r="J24" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="56">
         <f t="shared" si="5"/>
-        <v>-1182354600</v>
+        <v>-1221366300</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16075,7 +16073,7 @@
       </c>
       <c r="G25" s="39">
         <f t="shared" si="0"/>
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H25" s="39">
         <f t="shared" si="2"/>
@@ -16083,15 +16081,15 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>567000000</v>
-      </c>
-      <c r="J25" s="58">
+        <v>586500000</v>
+      </c>
+      <c r="J25" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K25" s="56">
         <f t="shared" si="5"/>
-        <v>567000000</v>
+        <v>586500000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16116,7 +16114,7 @@
       </c>
       <c r="G26" s="39">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="H26" s="39">
         <f t="shared" si="2"/>
@@ -16124,15 +16122,15 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-60844000</v>
-      </c>
-      <c r="J26" s="58">
+        <v>-62976000</v>
+      </c>
+      <c r="J26" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="58">
+      <c r="K26" s="56">
         <f t="shared" si="5"/>
-        <v>-60844000</v>
+        <v>-62976000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16157,7 +16155,7 @@
       </c>
       <c r="G27" s="39">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="2"/>
@@ -16165,15 +16163,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>73576017</v>
-      </c>
-      <c r="J27" s="58">
+        <v>76168126</v>
+      </c>
+      <c r="J27" s="56">
         <f t="shared" si="4"/>
-        <v>39635397</v>
-      </c>
-      <c r="K27" s="58">
+        <v>41031766</v>
+      </c>
+      <c r="K27" s="56">
         <f t="shared" si="5"/>
-        <v>33940620</v>
+        <v>35136360</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16198,7 +16196,7 @@
       </c>
       <c r="G28" s="39">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
@@ -16206,13 +16204,13 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-81328000</v>
-      </c>
-      <c r="J28" s="58">
+        <v>-84201000</v>
+      </c>
+      <c r="J28" s="56">
         <f t="shared" si="4"/>
-        <v>-81328000</v>
-      </c>
-      <c r="K28" s="58">
+        <v>-84201000</v>
+      </c>
+      <c r="K28" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -16239,7 +16237,7 @@
       </c>
       <c r="G29" s="39">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="2"/>
@@ -16247,15 +16245,15 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-184184000</v>
-      </c>
-      <c r="J29" s="58">
+        <v>-190690500</v>
+      </c>
+      <c r="J29" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K29" s="56">
         <f t="shared" si="5"/>
-        <v>-184184000</v>
+        <v>-190690500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16280,7 +16278,7 @@
       </c>
       <c r="G30" s="39">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="H30" s="39">
         <f t="shared" si="2"/>
@@ -16288,13 +16286,13 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-5520000000</v>
-      </c>
-      <c r="J30" s="58">
+        <v>-5715000000</v>
+      </c>
+      <c r="J30" s="56">
         <f t="shared" si="4"/>
-        <v>-5520000000</v>
-      </c>
-      <c r="K30" s="58">
+        <v>-5715000000</v>
+      </c>
+      <c r="K30" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -16321,7 +16319,7 @@
       </c>
       <c r="G31" s="39">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="2"/>
@@ -16329,15 +16327,15 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1056825900</v>
-      </c>
-      <c r="J31" s="58">
+        <v>-1095967600</v>
+      </c>
+      <c r="J31" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K31" s="58">
+      <c r="K31" s="56">
         <f t="shared" si="5"/>
-        <v>-1056825900</v>
+        <v>-1095967600</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16362,7 +16360,7 @@
       </c>
       <c r="G32" s="39">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H32" s="39">
         <f t="shared" si="2"/>
@@ -16370,15 +16368,15 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1049059100</v>
-      </c>
-      <c r="J32" s="58">
+        <v>-1088135800</v>
+      </c>
+      <c r="J32" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K32" s="58">
+      <c r="K32" s="56">
         <f t="shared" si="5"/>
-        <v>-1049059100</v>
+        <v>-1088135800</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16403,7 +16401,7 @@
       </c>
       <c r="G33" s="39">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H33" s="39">
         <f t="shared" si="2"/>
@@ -16411,15 +16409,15 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-311634000</v>
-      </c>
-      <c r="J33" s="58">
+        <v>-323275500</v>
+      </c>
+      <c r="J33" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K33" s="58">
+      <c r="K33" s="56">
         <f t="shared" si="5"/>
-        <v>-311634000</v>
+        <v>-323275500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16444,7 +16442,7 @@
       </c>
       <c r="G34" s="39">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H34" s="39">
         <f t="shared" si="2"/>
@@ -16454,13 +16452,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="58">
+      <c r="J34" s="56">
         <f t="shared" si="4"/>
-        <v>348000000</v>
-      </c>
-      <c r="K34" s="58">
+        <v>361000000</v>
+      </c>
+      <c r="K34" s="56">
         <f t="shared" si="5"/>
-        <v>-348000000</v>
+        <v>-361000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16485,7 +16483,7 @@
       </c>
       <c r="G35" s="39">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="H35" s="39">
         <f t="shared" si="2"/>
@@ -16493,15 +16491,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>17735536</v>
-      </c>
-      <c r="J35" s="58">
+        <v>18417672</v>
+      </c>
+      <c r="J35" s="56">
         <f t="shared" si="4"/>
-        <v>-7322094</v>
-      </c>
-      <c r="K35" s="58">
+        <v>-7603713</v>
+      </c>
+      <c r="K35" s="56">
         <f t="shared" si="5"/>
-        <v>25057630</v>
+        <v>26021385</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16526,7 +16524,7 @@
       </c>
       <c r="G36" s="39">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="H36" s="39">
         <f t="shared" si="2"/>
@@ -16536,13 +16534,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J36" s="58">
+      <c r="J36" s="56">
         <f t="shared" si="4"/>
-        <v>7343757</v>
-      </c>
-      <c r="K36" s="58">
+        <v>7625376</v>
+      </c>
+      <c r="K36" s="56">
         <f t="shared" si="5"/>
-        <v>-7343757</v>
+        <v>-7625376</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16567,7 +16565,7 @@
       </c>
       <c r="G37" s="39">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="2"/>
@@ -16575,15 +16573,15 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-18095000</v>
-      </c>
-      <c r="J37" s="58">
+        <v>-18810000</v>
+      </c>
+      <c r="J37" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K37" s="58">
+      <c r="K37" s="56">
         <f t="shared" si="5"/>
-        <v>-18095000</v>
+        <v>-18810000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16608,7 +16606,7 @@
       </c>
       <c r="G38" s="39">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="H38" s="39">
         <f t="shared" si="2"/>
@@ -16616,13 +16614,13 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>981000000</v>
-      </c>
-      <c r="J38" s="58">
+        <v>1020000000</v>
+      </c>
+      <c r="J38" s="56">
         <f t="shared" si="4"/>
-        <v>981000000</v>
-      </c>
-      <c r="K38" s="58">
+        <v>1020000000</v>
+      </c>
+      <c r="K38" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -16649,7 +16647,7 @@
       </c>
       <c r="G39" s="39">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="2"/>
@@ -16657,13 +16655,13 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>815000000</v>
-      </c>
-      <c r="J39" s="58">
+        <v>847500000</v>
+      </c>
+      <c r="J39" s="56">
         <f t="shared" si="4"/>
-        <v>815000000</v>
-      </c>
-      <c r="K39" s="58">
+        <v>847500000</v>
+      </c>
+      <c r="K39" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -16690,7 +16688,7 @@
       </c>
       <c r="G40" s="39">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="2"/>
@@ -16698,15 +16696,15 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-16350000</v>
-      </c>
-      <c r="J40" s="58">
+        <v>-17000000</v>
+      </c>
+      <c r="J40" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K40" s="58">
+      <c r="K40" s="56">
         <f t="shared" si="5"/>
-        <v>-16350000</v>
+        <v>-17000000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -16731,7 +16729,7 @@
       </c>
       <c r="G41" s="39">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="2"/>
@@ -16739,15 +16737,15 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>978000000</v>
-      </c>
-      <c r="J41" s="58">
+        <v>1017000000</v>
+      </c>
+      <c r="J41" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K41" s="58">
+      <c r="K41" s="56">
         <f t="shared" si="5"/>
-        <v>978000000</v>
+        <v>1017000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -16772,7 +16770,7 @@
       </c>
       <c r="G42" s="39">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="2"/>
@@ -16780,15 +16778,15 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-28900800</v>
-      </c>
-      <c r="J42" s="58">
+        <v>-30060400</v>
+      </c>
+      <c r="J42" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K42" s="58">
+      <c r="K42" s="56">
         <f t="shared" si="5"/>
-        <v>-28900800</v>
+        <v>-30060400</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -16813,7 +16811,7 @@
       </c>
       <c r="G43" s="39">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="2"/>
@@ -16821,15 +16819,15 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-64000000</v>
-      </c>
-      <c r="J43" s="58">
+        <v>-66600000</v>
+      </c>
+      <c r="J43" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K43" s="58">
+      <c r="K43" s="56">
         <f t="shared" si="5"/>
-        <v>-64000000</v>
+        <v>-66600000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -16854,7 +16852,7 @@
       </c>
       <c r="G44" s="39">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="2"/>
@@ -16862,15 +16860,15 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-63600000</v>
-      </c>
-      <c r="J44" s="58">
+        <v>-66200000</v>
+      </c>
+      <c r="J44" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K44" s="58">
+      <c r="K44" s="56">
         <f t="shared" si="5"/>
-        <v>-63600000</v>
+        <v>-66200000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -16895,7 +16893,7 @@
       </c>
       <c r="G45" s="39">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="H45" s="39">
         <f t="shared" si="2"/>
@@ -16903,15 +16901,15 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-178080000</v>
-      </c>
-      <c r="J45" s="58">
+        <v>-185360000</v>
+      </c>
+      <c r="J45" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K45" s="58">
+      <c r="K45" s="56">
         <f t="shared" si="5"/>
-        <v>-178080000</v>
+        <v>-185360000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -16936,7 +16934,7 @@
       </c>
       <c r="G46" s="39">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="H46" s="39">
         <f t="shared" si="2"/>
@@ -16944,15 +16942,15 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-221527000</v>
-      </c>
-      <c r="J46" s="58">
+        <v>-230698500</v>
+      </c>
+      <c r="J46" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K46" s="58">
+      <c r="K46" s="56">
         <f t="shared" si="5"/>
-        <v>-221527000</v>
+        <v>-230698500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -16977,7 +16975,7 @@
       </c>
       <c r="G47" s="39">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H47" s="39">
         <f t="shared" si="2"/>
@@ -16985,15 +16983,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>12649628</v>
-      </c>
-      <c r="J47" s="58">
+        <v>13185280</v>
+      </c>
+      <c r="J47" s="56">
         <f t="shared" si="4"/>
-        <v>2060891</v>
-      </c>
-      <c r="K47" s="58">
+        <v>2148160</v>
+      </c>
+      <c r="K47" s="56">
         <f t="shared" si="5"/>
-        <v>10588737</v>
+        <v>11037120</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17018,7 +17016,7 @@
       </c>
       <c r="G48" s="39">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H48" s="39">
         <f t="shared" si="2"/>
@@ -17026,15 +17024,15 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>523342900</v>
-      </c>
-      <c r="J48" s="58">
+        <v>545504000</v>
+      </c>
+      <c r="J48" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K48" s="58">
+      <c r="K48" s="56">
         <f t="shared" si="5"/>
-        <v>523342900</v>
+        <v>545504000</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17059,7 +17057,7 @@
       </c>
       <c r="G49" s="39">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H49" s="39">
         <f t="shared" si="2"/>
@@ -17067,15 +17065,15 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-46345000</v>
-      </c>
-      <c r="J49" s="58">
+        <v>-48360000</v>
+      </c>
+      <c r="J49" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K49" s="58">
+      <c r="K49" s="56">
         <f t="shared" si="5"/>
-        <v>-46345000</v>
+        <v>-48360000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17100,7 +17098,7 @@
       </c>
       <c r="G50" s="39">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="2"/>
@@ -17108,15 +17106,15 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-41262000</v>
-      </c>
-      <c r="J50" s="58">
+        <v>-43056000</v>
+      </c>
+      <c r="J50" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K50" s="58">
+      <c r="K50" s="56">
         <f t="shared" si="5"/>
-        <v>-41262000</v>
+        <v>-43056000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17141,7 +17139,7 @@
       </c>
       <c r="G51" s="39">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="2"/>
@@ -17149,15 +17147,15 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-221260000</v>
-      </c>
-      <c r="J51" s="58">
+        <v>-230880000</v>
+      </c>
+      <c r="J51" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K51" s="58">
+      <c r="K51" s="56">
         <f t="shared" si="5"/>
-        <v>-221260000</v>
+        <v>-230880000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17182,7 +17180,7 @@
       </c>
       <c r="G52" s="39">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="2"/>
@@ -17190,15 +17188,15 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-59800000</v>
-      </c>
-      <c r="J52" s="58">
+        <v>-62400000</v>
+      </c>
+      <c r="J52" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K52" s="58">
+      <c r="K52" s="56">
         <f t="shared" si="5"/>
-        <v>-59800000</v>
+        <v>-62400000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -17223,7 +17221,7 @@
       </c>
       <c r="G53" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="2"/>
@@ -17231,15 +17229,15 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-314390000</v>
-      </c>
-      <c r="J53" s="58">
+        <v>-328105000</v>
+      </c>
+      <c r="J53" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K53" s="58">
+      <c r="K53" s="56">
         <f t="shared" si="5"/>
-        <v>-314390000</v>
+        <v>-328105000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17264,7 +17262,7 @@
       </c>
       <c r="G54" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="2"/>
@@ -17272,15 +17270,15 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-59600000</v>
-      </c>
-      <c r="J54" s="58">
+        <v>-62200000</v>
+      </c>
+      <c r="J54" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="56">
         <f t="shared" si="5"/>
-        <v>-59600000</v>
+        <v>-62200000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17305,7 +17303,7 @@
       </c>
       <c r="G55" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" si="2"/>
@@ -17313,15 +17311,15 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-298149000</v>
-      </c>
-      <c r="J55" s="58">
+        <v>-311155500</v>
+      </c>
+      <c r="J55" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K55" s="58">
+      <c r="K55" s="56">
         <f t="shared" si="5"/>
-        <v>-298149000</v>
+        <v>-311155500</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17346,7 +17344,7 @@
       </c>
       <c r="G56" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="2"/>
@@ -17354,15 +17352,15 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-11324000</v>
-      </c>
-      <c r="J56" s="58">
+        <v>-11818000</v>
+      </c>
+      <c r="J56" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K56" s="58">
+      <c r="K56" s="56">
         <f t="shared" si="5"/>
-        <v>-11324000</v>
+        <v>-11818000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17387,7 +17385,7 @@
       </c>
       <c r="G57" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="2"/>
@@ -17395,15 +17393,15 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-31290000</v>
-      </c>
-      <c r="J57" s="58">
+        <v>-32655000</v>
+      </c>
+      <c r="J57" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K57" s="58">
+      <c r="K57" s="56">
         <f t="shared" si="5"/>
-        <v>-31290000</v>
+        <v>-32655000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17428,7 +17426,7 @@
       </c>
       <c r="G58" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="2"/>
@@ -17436,15 +17434,15 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-17880000</v>
-      </c>
-      <c r="J58" s="58">
+        <v>-18660000</v>
+      </c>
+      <c r="J58" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K58" s="58">
+      <c r="K58" s="56">
         <f t="shared" si="5"/>
-        <v>-17880000</v>
+        <v>-18660000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17469,7 +17467,7 @@
       </c>
       <c r="G59" s="39">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="H59" s="39">
         <f t="shared" si="2"/>
@@ -17477,13 +17475,13 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>294000000</v>
-      </c>
-      <c r="J59" s="58">
+        <v>307000000</v>
+      </c>
+      <c r="J59" s="56">
         <f t="shared" si="4"/>
-        <v>294000000</v>
-      </c>
-      <c r="K59" s="58">
+        <v>307000000</v>
+      </c>
+      <c r="K59" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17510,7 +17508,7 @@
       </c>
       <c r="G60" s="39">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H60" s="39">
         <f t="shared" si="2"/>
@@ -17518,13 +17516,13 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1025500000</v>
-      </c>
-      <c r="J60" s="58">
+        <v>1071000000</v>
+      </c>
+      <c r="J60" s="56">
         <f t="shared" si="4"/>
-        <v>1025500000</v>
-      </c>
-      <c r="K60" s="58">
+        <v>1071000000</v>
+      </c>
+      <c r="K60" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17551,7 +17549,7 @@
       </c>
       <c r="G61" s="39">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="2"/>
@@ -17559,13 +17557,13 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>291000000</v>
-      </c>
-      <c r="J61" s="58">
+        <v>304000000</v>
+      </c>
+      <c r="J61" s="56">
         <f t="shared" si="4"/>
-        <v>291000000</v>
-      </c>
-      <c r="K61" s="58">
+        <v>304000000</v>
+      </c>
+      <c r="K61" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17592,7 +17590,7 @@
       </c>
       <c r="G62" s="39">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="H62" s="39">
         <f t="shared" si="2"/>
@@ -17600,13 +17598,13 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>873000000</v>
-      </c>
-      <c r="J62" s="58">
+        <v>912000000</v>
+      </c>
+      <c r="J62" s="56">
         <f t="shared" si="4"/>
-        <v>873000000</v>
-      </c>
-      <c r="K62" s="58">
+        <v>912000000</v>
+      </c>
+      <c r="K62" s="56">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -17633,7 +17631,7 @@
       </c>
       <c r="G63" s="39">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H63" s="39">
         <f t="shared" si="2"/>
@@ -17641,15 +17639,15 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-58000000</v>
-      </c>
-      <c r="J63" s="58">
+        <v>-60600000</v>
+      </c>
+      <c r="J63" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K63" s="58">
+      <c r="K63" s="56">
         <f t="shared" si="5"/>
-        <v>-58000000</v>
+        <v>-60600000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -17674,7 +17672,7 @@
       </c>
       <c r="G64" s="39">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H64" s="39">
         <f t="shared" si="2"/>
@@ -17682,15 +17680,15 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-14250000</v>
-      </c>
-      <c r="J64" s="58">
+        <v>-14900000</v>
+      </c>
+      <c r="J64" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K64" s="58">
+      <c r="K64" s="56">
         <f t="shared" si="5"/>
-        <v>-14250000</v>
+        <v>-14900000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -17715,7 +17713,7 @@
       </c>
       <c r="G65" s="39">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="2"/>
@@ -17723,15 +17721,15 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-56200000</v>
-      </c>
-      <c r="J65" s="58">
+        <v>-58800000</v>
+      </c>
+      <c r="J65" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K65" s="58">
+      <c r="K65" s="56">
         <f t="shared" si="5"/>
-        <v>-56200000</v>
+        <v>-58800000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -17756,7 +17754,7 @@
       </c>
       <c r="G66" s="39">
         <f t="shared" ref="G66:G110" si="7">G67+F66</f>
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H66" s="39">
         <f t="shared" si="2"/>
@@ -17764,15 +17762,15 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-47260000</v>
-      </c>
-      <c r="J66" s="58">
+        <v>-49470000</v>
+      </c>
+      <c r="J66" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K66" s="58">
+      <c r="K66" s="56">
         <f t="shared" si="5"/>
-        <v>-47260000</v>
+        <v>-49470000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -17797,7 +17795,7 @@
       </c>
       <c r="G67" s="39">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H67" s="39">
         <f t="shared" ref="H67:H120" si="8">IF(B67&gt;0,1,0)</f>
@@ -17805,15 +17803,15 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>25205700</v>
-      </c>
-      <c r="J67" s="58">
+        <v>26392925</v>
+      </c>
+      <c r="J67" s="56">
         <f t="shared" ref="J67:J120" si="10">C67*(G67-H67)</f>
-        <v>18139548</v>
-      </c>
-      <c r="K67" s="58">
+        <v>18993947</v>
+      </c>
+      <c r="K67" s="56">
         <f t="shared" ref="K67:K120" si="11">D67*(G67-H67)</f>
-        <v>7066152</v>
+        <v>7398978</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -17838,7 +17836,7 @@
       </c>
       <c r="G68" s="39">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="8"/>
@@ -17846,15 +17844,15 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-37555000</v>
-      </c>
-      <c r="J68" s="58">
+        <v>-39440000</v>
+      </c>
+      <c r="J68" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K68" s="58">
+      <c r="K68" s="56">
         <f t="shared" si="11"/>
-        <v>-37555000</v>
+        <v>-39440000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -17879,7 +17877,7 @@
       </c>
       <c r="G69" s="39">
         <f t="shared" si="7"/>
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H69" s="39">
         <f t="shared" si="8"/>
@@ -17887,15 +17885,15 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>245980000</v>
-      </c>
-      <c r="J69" s="58">
+        <v>258720000</v>
+      </c>
+      <c r="J69" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K69" s="58">
+      <c r="K69" s="56">
         <f t="shared" si="11"/>
-        <v>245980000</v>
+        <v>258720000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -17920,7 +17918,7 @@
       </c>
       <c r="G70" s="39">
         <f t="shared" si="7"/>
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H70" s="39">
         <f t="shared" si="8"/>
@@ -17928,15 +17926,15 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-11454000</v>
-      </c>
-      <c r="J70" s="58">
+        <v>-12052000</v>
+      </c>
+      <c r="J70" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="56">
         <f t="shared" si="11"/>
-        <v>-11454000</v>
+        <v>-12052000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -17961,7 +17959,7 @@
       </c>
       <c r="G71" s="39">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="8"/>
@@ -17969,15 +17967,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>28373148</v>
-      </c>
-      <c r="J71" s="58">
+        <v>29872542</v>
+      </c>
+      <c r="J71" s="56">
         <f t="shared" si="10"/>
-        <v>25537752</v>
-      </c>
-      <c r="K71" s="58">
+        <v>26887308</v>
+      </c>
+      <c r="K71" s="56">
         <f t="shared" si="11"/>
-        <v>2835396</v>
+        <v>2985234</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18002,7 +18000,7 @@
       </c>
       <c r="G72" s="39">
         <f t="shared" si="7"/>
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H72" s="39">
         <f t="shared" si="8"/>
@@ -18010,15 +18008,15 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-37384374</v>
-      </c>
-      <c r="J72" s="58">
+        <v>-39359971</v>
+      </c>
+      <c r="J72" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K72" s="58">
+      <c r="K72" s="56">
         <f t="shared" si="11"/>
-        <v>-37384374</v>
+        <v>-39359971</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18043,7 +18041,7 @@
       </c>
       <c r="G73" s="39">
         <f t="shared" si="7"/>
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="8"/>
@@ -18051,15 +18049,15 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-197347500</v>
-      </c>
-      <c r="J73" s="58">
+        <v>-207819000</v>
+      </c>
+      <c r="J73" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K73" s="58">
+      <c r="K73" s="56">
         <f t="shared" si="11"/>
-        <v>-197347500</v>
+        <v>-207819000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18084,7 +18082,7 @@
       </c>
       <c r="G74" s="39">
         <f t="shared" si="7"/>
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="8"/>
@@ -18092,15 +18090,15 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>1657815000</v>
-      </c>
-      <c r="J74" s="58">
+        <v>1748750000</v>
+      </c>
+      <c r="J74" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K74" s="58">
+      <c r="K74" s="56">
         <f t="shared" si="11"/>
-        <v>1657815000</v>
+        <v>1748750000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18125,7 +18123,7 @@
       </c>
       <c r="G75" s="39">
         <f t="shared" si="7"/>
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="8"/>
@@ -18133,15 +18131,15 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>708000000</v>
-      </c>
-      <c r="J75" s="58">
+        <v>747000000</v>
+      </c>
+      <c r="J75" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K75" s="58">
+      <c r="K75" s="56">
         <f t="shared" si="11"/>
-        <v>708000000</v>
+        <v>747000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18166,7 +18164,7 @@
       </c>
       <c r="G76" s="39">
         <f t="shared" si="7"/>
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="8"/>
@@ -18174,15 +18172,15 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>702000000</v>
-      </c>
-      <c r="J76" s="58">
+        <v>741000000</v>
+      </c>
+      <c r="J76" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K76" s="58">
+      <c r="K76" s="56">
         <f t="shared" si="11"/>
-        <v>702000000</v>
+        <v>741000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18207,7 +18205,7 @@
       </c>
       <c r="G77" s="39">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="8"/>
@@ -18215,15 +18213,15 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>699000000</v>
-      </c>
-      <c r="J77" s="58">
+        <v>738000000</v>
+      </c>
+      <c r="J77" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K77" s="58">
+      <c r="K77" s="56">
         <f t="shared" si="11"/>
-        <v>699000000</v>
+        <v>738000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18248,7 +18246,7 @@
       </c>
       <c r="G78" s="39">
         <f t="shared" si="7"/>
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="8"/>
@@ -18256,13 +18254,13 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-745600000</v>
-      </c>
-      <c r="J78" s="58">
+        <v>-787200000</v>
+      </c>
+      <c r="J78" s="56">
         <f t="shared" si="10"/>
-        <v>-745600000</v>
-      </c>
-      <c r="K78" s="58">
+        <v>-787200000</v>
+      </c>
+      <c r="K78" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18289,7 +18287,7 @@
       </c>
       <c r="G79" s="39">
         <f t="shared" si="7"/>
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="8"/>
@@ -18297,13 +18295,13 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-185600000</v>
-      </c>
-      <c r="J79" s="58">
+        <v>-196000000</v>
+      </c>
+      <c r="J79" s="56">
         <f t="shared" si="10"/>
-        <v>-185600000</v>
-      </c>
-      <c r="K79" s="58">
+        <v>-196000000</v>
+      </c>
+      <c r="K79" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -18330,7 +18328,7 @@
       </c>
       <c r="G80" s="39">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H80" s="39">
         <f t="shared" si="8"/>
@@ -18338,15 +18336,15 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-11178783</v>
-      </c>
-      <c r="J80" s="58">
+        <v>-11807892</v>
+      </c>
+      <c r="J80" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K80" s="58">
+      <c r="K80" s="56">
         <f t="shared" si="11"/>
-        <v>-11178783</v>
+        <v>-11807892</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18371,7 +18369,7 @@
       </c>
       <c r="G81" s="39">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H81" s="39">
         <f t="shared" si="8"/>
@@ -18379,15 +18377,15 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-32200000</v>
-      </c>
-      <c r="J81" s="58">
+        <v>-34020000</v>
+      </c>
+      <c r="J81" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K81" s="58">
+      <c r="K81" s="56">
         <f t="shared" si="11"/>
-        <v>-32200000</v>
+        <v>-34020000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18412,7 +18410,7 @@
       </c>
       <c r="G82" s="39">
         <f t="shared" si="7"/>
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H82" s="39">
         <f t="shared" si="8"/>
@@ -18420,15 +18418,15 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-57250000</v>
-      </c>
-      <c r="J82" s="58">
+        <v>-60500000</v>
+      </c>
+      <c r="J82" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K82" s="58">
+      <c r="K82" s="56">
         <f t="shared" si="11"/>
-        <v>-57250000</v>
+        <v>-60500000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18453,7 +18451,7 @@
       </c>
       <c r="G83" s="39">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H83" s="39">
         <f t="shared" si="8"/>
@@ -18461,15 +18459,15 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-45600000</v>
-      </c>
-      <c r="J83" s="58">
+        <v>-48200000</v>
+      </c>
+      <c r="J83" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K83" s="58">
+      <c r="K83" s="56">
         <f t="shared" si="11"/>
-        <v>-45600000</v>
+        <v>-48200000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18494,7 +18492,7 @@
       </c>
       <c r="G84" s="39">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="8"/>
@@ -18502,15 +18500,15 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>366284800</v>
-      </c>
-      <c r="J84" s="58">
+        <v>387542400</v>
+      </c>
+      <c r="J84" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K84" s="58">
+      <c r="K84" s="56">
         <f t="shared" si="11"/>
-        <v>366284800</v>
+        <v>387542400</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18535,7 +18533,7 @@
       </c>
       <c r="G85" s="39">
         <f t="shared" si="7"/>
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="8"/>
@@ -18543,15 +18541,15 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>550000000</v>
-      </c>
-      <c r="J85" s="58">
+        <v>582500000</v>
+      </c>
+      <c r="J85" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K85" s="58">
+      <c r="K85" s="56">
         <f t="shared" si="11"/>
-        <v>550000000</v>
+        <v>582500000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18576,7 +18574,7 @@
       </c>
       <c r="G86" s="39">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="8"/>
@@ -18584,15 +18582,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>40240800</v>
-      </c>
-      <c r="J86" s="58">
+        <v>42662700</v>
+      </c>
+      <c r="J86" s="56">
         <f t="shared" si="10"/>
-        <v>18349200</v>
-      </c>
-      <c r="K86" s="58">
+        <v>19453550</v>
+      </c>
+      <c r="K86" s="56">
         <f t="shared" si="11"/>
-        <v>21891600</v>
+        <v>23209150</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18617,7 +18615,7 @@
       </c>
       <c r="G87" s="39">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="8"/>
@@ -18625,15 +18623,15 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-42800000</v>
-      </c>
-      <c r="J87" s="58">
+        <v>-45400000</v>
+      </c>
+      <c r="J87" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K87" s="58">
+      <c r="K87" s="56">
         <f t="shared" si="11"/>
-        <v>-42800000</v>
+        <v>-45400000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18658,7 +18656,7 @@
       </c>
       <c r="G88" s="39">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="8"/>
@@ -18666,15 +18664,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-25134000</v>
-      </c>
-      <c r="J88" s="58">
+        <v>-26668000</v>
+      </c>
+      <c r="J88" s="56">
         <f t="shared" si="10"/>
-        <v>-14697000</v>
-      </c>
-      <c r="K88" s="58">
+        <v>-15594000</v>
+      </c>
+      <c r="K88" s="56">
         <f t="shared" si="11"/>
-        <v>-10437000</v>
+        <v>-11074000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -18699,7 +18697,7 @@
       </c>
       <c r="G89" s="39">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H89" s="39">
         <f t="shared" si="8"/>
@@ -18707,15 +18705,15 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-656184500</v>
-      </c>
-      <c r="J89" s="58">
+        <v>-697796200</v>
+      </c>
+      <c r="J89" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K89" s="58">
+      <c r="K89" s="56">
         <f t="shared" si="11"/>
-        <v>-656184500</v>
+        <v>-697796200</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -18740,7 +18738,7 @@
       </c>
       <c r="G90" s="39">
         <f t="shared" si="7"/>
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H90" s="39">
         <f t="shared" si="8"/>
@@ -18748,15 +18746,15 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-652983600</v>
-      </c>
-      <c r="J90" s="58">
+        <v>-694595300</v>
+      </c>
+      <c r="J90" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K90" s="58">
+      <c r="K90" s="56">
         <f t="shared" si="11"/>
-        <v>-652983600</v>
+        <v>-694595300</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -18781,7 +18779,7 @@
       </c>
       <c r="G91" s="39">
         <f t="shared" si="7"/>
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H91" s="39">
         <f t="shared" si="8"/>
@@ -18789,15 +18787,15 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-649782700</v>
-      </c>
-      <c r="J91" s="58">
+        <v>-691394400</v>
+      </c>
+      <c r="J91" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K91" s="58">
+      <c r="K91" s="56">
         <f t="shared" si="11"/>
-        <v>-649782700</v>
+        <v>-691394400</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -18822,7 +18820,7 @@
       </c>
       <c r="G92" s="39">
         <f t="shared" si="7"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H92" s="39">
         <f t="shared" si="8"/>
@@ -18830,15 +18828,15 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-646581800</v>
-      </c>
-      <c r="J92" s="58">
+        <v>-688193500</v>
+      </c>
+      <c r="J92" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K92" s="58">
+      <c r="K92" s="56">
         <f t="shared" si="11"/>
-        <v>-646581800</v>
+        <v>-688193500</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -18863,7 +18861,7 @@
       </c>
       <c r="G93" s="39">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H93" s="39">
         <f t="shared" si="8"/>
@@ -18871,15 +18869,15 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-643380900</v>
-      </c>
-      <c r="J93" s="58">
+        <v>-684992600</v>
+      </c>
+      <c r="J93" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K93" s="58">
+      <c r="K93" s="56">
         <f t="shared" si="11"/>
-        <v>-643380900</v>
+        <v>-684992600</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -18904,7 +18902,7 @@
       </c>
       <c r="G94" s="39">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H94" s="39">
         <f t="shared" si="8"/>
@@ -18912,15 +18910,15 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-640180000</v>
-      </c>
-      <c r="J94" s="58">
+        <v>-681791700</v>
+      </c>
+      <c r="J94" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K94" s="58">
+      <c r="K94" s="56">
         <f t="shared" si="11"/>
-        <v>-640180000</v>
+        <v>-681791700</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -18945,7 +18943,7 @@
       </c>
       <c r="G95" s="39">
         <f t="shared" si="7"/>
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="H95" s="39">
         <f t="shared" si="8"/>
@@ -18953,15 +18951,15 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-236926008</v>
-      </c>
-      <c r="J95" s="58">
+        <v>-252481756</v>
+      </c>
+      <c r="J95" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K95" s="58">
+      <c r="K95" s="56">
         <f t="shared" si="11"/>
-        <v>-236926008</v>
+        <v>-252481756</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -18986,7 +18984,7 @@
       </c>
       <c r="G96" s="39">
         <f t="shared" si="7"/>
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H96" s="39">
         <f t="shared" si="8"/>
@@ -18994,15 +18992,15 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-37600000</v>
-      </c>
-      <c r="J96" s="58">
+        <v>-40200000</v>
+      </c>
+      <c r="J96" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K96" s="58">
+      <c r="K96" s="56">
         <f t="shared" si="11"/>
-        <v>-37600000</v>
+        <v>-40200000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19027,7 +19025,7 @@
       </c>
       <c r="G97" s="39">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H97" s="39">
         <f t="shared" si="8"/>
@@ -19035,15 +19033,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>29677788</v>
-      </c>
-      <c r="J97" s="58">
+        <v>31752042</v>
+      </c>
+      <c r="J97" s="56">
         <f t="shared" si="10"/>
-        <v>12820236</v>
-      </c>
-      <c r="K97" s="58">
+        <v>13716274</v>
+      </c>
+      <c r="K97" s="56">
         <f t="shared" si="11"/>
-        <v>16857552</v>
+        <v>18035768</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19068,7 +19066,7 @@
       </c>
       <c r="G98" s="39">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H98" s="39">
         <f t="shared" si="8"/>
@@ -19076,15 +19074,15 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>20700608</v>
-      </c>
-      <c r="J98" s="58">
+        <v>22187392</v>
+      </c>
+      <c r="J98" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K98" s="58">
+      <c r="K98" s="56">
         <f t="shared" si="11"/>
-        <v>20700608</v>
+        <v>22187392</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19109,7 +19107,7 @@
       </c>
       <c r="G99" s="39">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="8"/>
@@ -19117,15 +19115,15 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-237175000</v>
-      </c>
-      <c r="J99" s="58">
+        <v>-254400000</v>
+      </c>
+      <c r="J99" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K99" s="58">
+      <c r="K99" s="56">
         <f t="shared" si="11"/>
-        <v>-237175000</v>
+        <v>-254400000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19150,7 +19148,7 @@
       </c>
       <c r="G100" s="39">
         <f t="shared" si="7"/>
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H100" s="39">
         <f t="shared" si="8"/>
@@ -19158,15 +19156,15 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>229225000</v>
-      </c>
-      <c r="J100" s="58">
+        <v>246450000</v>
+      </c>
+      <c r="J100" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K100" s="58">
+      <c r="K100" s="56">
         <f t="shared" si="11"/>
-        <v>229225000</v>
+        <v>246450000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19191,7 +19189,7 @@
       </c>
       <c r="G101" s="39">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H101" s="39">
         <f t="shared" si="8"/>
@@ -19199,13 +19197,13 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>10427820</v>
-      </c>
-      <c r="J101" s="58">
+        <v>11296805</v>
+      </c>
+      <c r="J101" s="56">
         <f t="shared" si="10"/>
-        <v>10427820</v>
-      </c>
-      <c r="K101" s="58">
+        <v>11296805</v>
+      </c>
+      <c r="K101" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -19232,7 +19230,7 @@
       </c>
       <c r="G102" s="39">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H102" s="39">
         <f t="shared" si="8"/>
@@ -19240,15 +19238,15 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>459000000</v>
-      </c>
-      <c r="J102" s="58">
+        <v>498000000</v>
+      </c>
+      <c r="J102" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K102" s="58">
+      <c r="K102" s="56">
         <f t="shared" si="11"/>
-        <v>459000000</v>
+        <v>498000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19273,7 +19271,7 @@
       </c>
       <c r="G103" s="39">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H103" s="39">
         <f t="shared" si="8"/>
@@ -19281,13 +19279,13 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-147000000</v>
-      </c>
-      <c r="J103" s="58">
+        <v>-160000000</v>
+      </c>
+      <c r="J103" s="56">
         <f t="shared" si="10"/>
-        <v>-147000000</v>
-      </c>
-      <c r="K103" s="58">
+        <v>-160000000</v>
+      </c>
+      <c r="K103" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -19314,7 +19312,7 @@
       </c>
       <c r="G104" s="39">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H104" s="39">
         <f t="shared" si="8"/>
@@ -19322,13 +19320,13 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>408000000</v>
-      </c>
-      <c r="J104" s="58">
+        <v>447000000</v>
+      </c>
+      <c r="J104" s="56">
         <f t="shared" si="10"/>
-        <v>408000000</v>
-      </c>
-      <c r="K104" s="58">
+        <v>447000000</v>
+      </c>
+      <c r="K104" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -19355,7 +19353,7 @@
       </c>
       <c r="G105" s="39">
         <f t="shared" si="7"/>
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H105" s="39">
         <f t="shared" si="8"/>
@@ -19363,13 +19361,13 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>151200000</v>
-      </c>
-      <c r="J105" s="58">
+        <v>165760000</v>
+      </c>
+      <c r="J105" s="56">
         <f t="shared" si="10"/>
-        <v>151200000</v>
-      </c>
-      <c r="K105" s="58">
+        <v>165760000</v>
+      </c>
+      <c r="K105" s="56">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -19396,7 +19394,7 @@
       </c>
       <c r="G106" s="39">
         <f t="shared" si="7"/>
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H106" s="39">
         <f t="shared" si="8"/>
@@ -19404,15 +19402,15 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-408000000</v>
-      </c>
-      <c r="J106" s="58">
+        <v>-447000000</v>
+      </c>
+      <c r="J106" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K106" s="58">
+      <c r="K106" s="56">
         <f t="shared" si="11"/>
-        <v>-408000000</v>
+        <v>-447000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19437,7 +19435,7 @@
       </c>
       <c r="G107" s="39">
         <f t="shared" si="7"/>
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H107" s="39">
         <f t="shared" si="8"/>
@@ -19445,15 +19443,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>11402244</v>
-      </c>
-      <c r="J107" s="58">
+        <v>12578666</v>
+      </c>
+      <c r="J107" s="56">
         <f t="shared" si="10"/>
-        <v>9464490</v>
-      </c>
-      <c r="K107" s="58">
+        <v>10440985</v>
+      </c>
+      <c r="K107" s="56">
         <f t="shared" si="11"/>
-        <v>1937754</v>
+        <v>2137681</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19478,7 +19476,7 @@
       </c>
       <c r="G108" s="39">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H108" s="39">
         <f t="shared" si="8"/>
@@ -19486,15 +19484,15 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-212587500</v>
-      </c>
-      <c r="J108" s="58">
+        <v>-234696600</v>
+      </c>
+      <c r="J108" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K108" s="58">
+      <c r="K108" s="56">
         <f t="shared" si="11"/>
-        <v>-212587500</v>
+        <v>-234696600</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19519,7 +19517,7 @@
       </c>
       <c r="G109" s="39">
         <f t="shared" si="7"/>
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H109" s="39">
         <f t="shared" si="8"/>
@@ -19527,15 +19525,15 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-121060500</v>
-      </c>
-      <c r="J109" s="58">
+        <v>-134067000</v>
+      </c>
+      <c r="J109" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K109" s="58">
+      <c r="K109" s="56">
         <f t="shared" si="11"/>
-        <v>-121060500</v>
+        <v>-134067000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19560,7 +19558,7 @@
       </c>
       <c r="G110" s="39">
         <f t="shared" si="7"/>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H110" s="39">
         <f t="shared" si="8"/>
@@ -19568,20 +19566,20 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>2340000000</v>
-      </c>
-      <c r="J110" s="58">
+        <v>2600000000</v>
+      </c>
+      <c r="J110" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K110" s="58">
+      <c r="K110" s="56">
         <f t="shared" si="11"/>
-        <v>2340000000</v>
+        <v>2600000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B111" s="42">
         <v>174678</v>
@@ -19601,7 +19599,7 @@
       </c>
       <c r="G111" s="39">
         <f>G112+F111</f>
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H111" s="39">
         <f t="shared" si="8"/>
@@ -19609,20 +19607,20 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>16943766</v>
-      </c>
-      <c r="J111" s="58">
+        <v>19214580</v>
+      </c>
+      <c r="J111" s="56">
         <f t="shared" si="10"/>
-        <v>8474211</v>
-      </c>
-      <c r="K111" s="58">
+        <v>9609930</v>
+      </c>
+      <c r="K111" s="56">
         <f t="shared" si="11"/>
-        <v>8469555</v>
+        <v>9604650</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B112" s="18">
         <v>-28400000</v>
@@ -19635,14 +19633,14 @@
         <v>-28400000</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F112" s="39">
         <v>15</v>
       </c>
       <c r="G112" s="39">
         <f>G113+F112</f>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="8"/>
@@ -19650,20 +19648,20 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-2328800000</v>
-      </c>
-      <c r="J112" s="58">
+        <v>-2698000000</v>
+      </c>
+      <c r="J112" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K112" s="58">
+      <c r="K112" s="56">
         <f t="shared" si="11"/>
-        <v>-2328800000</v>
+        <v>-2698000000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B113" s="42">
         <v>163040</v>
@@ -19676,14 +19674,14 @@
         <v>40529</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F113" s="39">
         <v>0</v>
       </c>
       <c r="G113" s="39">
         <f t="shared" ref="G113:G128" si="13">G114+F113</f>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H113" s="39">
         <f t="shared" si="8"/>
@@ -19691,20 +19689,20 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>10760640</v>
-      </c>
-      <c r="J113" s="58">
+        <v>12880160</v>
+      </c>
+      <c r="J113" s="56">
         <f t="shared" si="10"/>
-        <v>8085726</v>
-      </c>
-      <c r="K113" s="58">
+        <v>9678369</v>
+      </c>
+      <c r="K113" s="56">
         <f t="shared" si="11"/>
-        <v>2674914</v>
+        <v>3201791</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B114" s="18">
         <v>-5700</v>
@@ -19717,14 +19715,14 @@
         <v>-3200</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F114" s="39">
         <v>13</v>
       </c>
       <c r="G114" s="39">
         <f t="shared" si="13"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H114" s="39">
         <f t="shared" si="8"/>
@@ -19732,20 +19730,20 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-381900</v>
-      </c>
-      <c r="J114" s="58">
+        <v>-456000</v>
+      </c>
+      <c r="J114" s="56">
         <f t="shared" si="10"/>
-        <v>-167500</v>
-      </c>
-      <c r="K114" s="58">
+        <v>-200000</v>
+      </c>
+      <c r="K114" s="56">
         <f t="shared" si="11"/>
-        <v>-214400</v>
+        <v>-256000</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B115" s="18">
         <v>0</v>
@@ -19758,14 +19756,14 @@
         <v>-500000</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F115" s="39">
         <v>8</v>
       </c>
       <c r="G115" s="39">
         <f t="shared" si="13"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H115" s="39">
         <f t="shared" si="8"/>
@@ -19775,18 +19773,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J115" s="58">
+      <c r="J115" s="56">
         <f t="shared" si="10"/>
-        <v>27000000</v>
-      </c>
-      <c r="K115" s="58">
+        <v>33500000</v>
+      </c>
+      <c r="K115" s="56">
         <f t="shared" si="11"/>
-        <v>-27000000</v>
+        <v>-33500000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B116" s="18">
         <v>-160000</v>
@@ -19799,14 +19797,14 @@
         <v>-160000</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F116" s="39">
         <v>9</v>
       </c>
       <c r="G116" s="39">
         <f t="shared" si="13"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H116" s="39">
         <f t="shared" si="8"/>
@@ -19814,20 +19812,20 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-7360000</v>
-      </c>
-      <c r="J116" s="58">
+        <v>-9440000</v>
+      </c>
+      <c r="J116" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K116" s="58">
+      <c r="K116" s="56">
         <f t="shared" si="11"/>
-        <v>-7360000</v>
+        <v>-9440000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B117" s="42">
         <v>1480</v>
@@ -19840,14 +19838,14 @@
         <v>-105461</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F117" s="39">
         <v>22</v>
       </c>
       <c r="G117" s="39">
         <f t="shared" si="13"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H117" s="39">
         <f t="shared" si="8"/>
@@ -19855,21 +19853,21 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>53280</v>
-      </c>
-      <c r="J117" s="58">
+        <v>72520</v>
+      </c>
+      <c r="J117" s="56">
         <f t="shared" si="10"/>
-        <v>3849876</v>
-      </c>
-      <c r="K117" s="58">
+        <v>5240109</v>
+      </c>
+      <c r="K117" s="56">
         <f t="shared" si="11"/>
-        <v>-3796596</v>
+        <v>-5167589</v>
       </c>
       <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -19882,14 +19880,14 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F118" s="39">
         <v>9</v>
       </c>
       <c r="G118" s="39">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H118" s="39">
         <f t="shared" si="8"/>
@@ -19897,21 +19895,21 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>551593000</v>
-      </c>
-      <c r="J118" s="58">
+        <v>1063786500</v>
+      </c>
+      <c r="J118" s="56">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K118" s="58">
+      <c r="K118" s="56">
         <f t="shared" si="11"/>
-        <v>551593000</v>
+        <v>1063786500</v>
       </c>
       <c r="O118" s="7"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B119" s="42">
         <v>95521</v>
@@ -19924,14 +19922,14 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F119" s="39">
         <v>4</v>
       </c>
       <c r="G119" s="39">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H119" s="39">
         <f t="shared" si="8"/>
@@ -19939,20 +19937,20 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>477605</v>
-      </c>
-      <c r="J119" s="58">
+        <v>1719378</v>
+      </c>
+      <c r="J119" s="56">
         <f t="shared" si="10"/>
-        <v>550270</v>
-      </c>
-      <c r="K119" s="58">
+        <v>1980972</v>
+      </c>
+      <c r="K119" s="56">
         <f t="shared" si="11"/>
-        <v>-72665</v>
+        <v>-261594</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -19965,14 +19963,14 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F120" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G120" s="39">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -19980,7 +19978,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I126" si="14">B120*(G120-H120)</f>
-        <v>2000000</v>
+        <v>28000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -19988,7 +19986,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>2000000</v>
+        <v>28000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20189,15 +20187,15 @@
       <c r="H129" s="11"/>
       <c r="I129" s="31">
         <f>SUM(I2:I124)</f>
-        <v>5874596415</v>
+        <v>6414770426</v>
       </c>
       <c r="J129" s="31">
         <f>SUM(J2:J124)</f>
-        <v>3791335180</v>
+        <v>3945950914</v>
       </c>
       <c r="K129" s="31">
         <f>SUM(K2:K124)</f>
-        <v>2083261235</v>
+        <v>2468819512</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20206,23 +20204,23 @@
         <v>283</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -20249,15 +20247,15 @@
       <c r="H132" s="11"/>
       <c r="I132" s="3">
         <f>I129/G2</f>
-        <v>13201340.258426966</v>
+        <v>14006048.965065502</v>
       </c>
       <c r="J132" s="31">
         <f>J129/G2</f>
-        <v>8519854.3370786514</v>
+        <v>8615613.3493449781</v>
       </c>
       <c r="K132" s="31">
         <f>K129/G2</f>
-        <v>4681485.9213483147</v>
+        <v>5390435.6157205245</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20270,28 +20268,28 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J136">
         <f>J129/I129*1448696</f>
-        <v>934956.50116507278</v>
+        <v>891143.86418856133</v>
       </c>
       <c r="K136">
         <f>K129/I129*1448696</f>
-        <v>513739.49883492722</v>
+        <v>557552.13581143867</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="E138" s="22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -20410,7 +20408,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B3" s="42">
         <v>174678</v>
@@ -20452,7 +20450,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B4" s="18">
         <v>-28400000</v>
@@ -20465,7 +20463,7 @@
         <v>-28400000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -21380,7 +21378,7 @@
         <v>220000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -21397,7 +21395,7 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -21631,7 +21629,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B3" s="42">
         <v>163040</v>
@@ -21644,7 +21642,7 @@
         <v>40529</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -21673,7 +21671,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B4" s="18">
         <v>-5700</v>
@@ -21686,7 +21684,7 @@
         <v>-3200</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -21715,7 +21713,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -21728,7 +21726,7 @@
         <v>-500000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -21757,7 +21755,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B6" s="18">
         <v>-160000</v>
@@ -21770,7 +21768,7 @@
         <v>-160000</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -22621,8 +22619,8 @@
       <c r="D32" s="45">
         <v>150000</v>
       </c>
-      <c r="E32" s="59" t="s">
-        <v>551</v>
+      <c r="E32" s="57" t="s">
+        <v>548</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>415</v>
@@ -22649,7 +22647,7 @@
         <v>200000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -22663,7 +22661,7 @@
         <v>620000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -22671,7 +22669,7 @@
         <v>5000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -22679,7 +22677,7 @@
         <v>-800000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -22695,7 +22693,7 @@
         <v>160000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -22703,7 +22701,7 @@
         <v>200000</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -22711,7 +22709,7 @@
         <v>255000</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -22719,7 +22717,7 @@
         <v>-200000</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -22830,7 +22828,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B2" s="3">
         <f>'اردیبهشت 96'!B25</f>
@@ -22874,7 +22872,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B3" s="42">
         <v>1481</v>
@@ -22887,7 +22885,7 @@
         <v>-105460</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -22916,7 +22914,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -22929,7 +22927,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -23817,8 +23815,8 @@
       <c r="D31" s="45">
         <v>200000</v>
       </c>
-      <c r="E31" s="59" t="s">
-        <v>577</v>
+      <c r="E31" s="57" t="s">
+        <v>574</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -23845,7 +23843,7 @@
         <v>-50000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -23862,7 +23860,7 @@
         <v>120000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -23876,7 +23874,7 @@
         <v>-40000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -23884,7 +23882,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -23892,7 +23890,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -23900,7 +23898,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -23908,7 +23906,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -25174,7 +25172,7 @@
         <v>327005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D33" s="11">
         <v>18</v>
@@ -25201,13 +25199,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B34" s="41">
         <v>28400000</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -25230,13 +25228,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" s="66">
+        <v>512</v>
+      </c>
+      <c r="B35" s="64">
         <v>11000000</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D35" s="11">
         <v>15</v>
@@ -25256,13 +25254,13 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B36" s="41">
         <v>418701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
@@ -25282,13 +25280,13 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B37" s="41">
         <v>-900</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -25305,17 +25303,17 @@
         <f t="shared" si="4"/>
         <v>-72900</v>
       </c>
-      <c r="J37" s="67"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="B38" s="66">
+        <v>532</v>
+      </c>
+      <c r="B38" s="64">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -25337,13 +25335,13 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B39" s="41">
         <v>2000000</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D39" s="11">
         <v>14</v>
@@ -25363,13 +25361,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B40" s="41">
         <v>-200000</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -25389,13 +25387,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B41" s="41">
         <v>-620000</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -25415,13 +25413,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B42" s="41">
         <v>-120000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -25442,13 +25440,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B43" s="41">
         <v>650000</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -25468,7 +25466,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B44" s="41">
         <v>-5000</v>
@@ -25494,13 +25492,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B45" s="41">
         <v>29000000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D45" s="11">
         <v>4</v>
@@ -25520,13 +25518,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B46" s="41">
         <v>-200000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -25546,13 +25544,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B47" s="41">
         <v>-200000</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -25572,7 +25570,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B48" s="41">
         <v>-200000</v>
@@ -25598,13 +25596,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B49" s="41">
         <v>3000000</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -25624,13 +25622,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="B50" s="66">
+        <v>563</v>
+      </c>
+      <c r="B50" s="64">
         <v>3000000</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -25650,13 +25648,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B51" s="41">
         <v>765797</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -25676,7 +25674,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B52" s="41">
         <v>-200000</v>
@@ -25702,13 +25700,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B53" s="41">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
@@ -25728,13 +25726,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B54" s="41">
         <v>-1000500</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -25754,13 +25752,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B55" s="41">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -25780,13 +25778,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B56" s="41">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D56" s="11">
         <v>19</v>
@@ -26072,7 +26070,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -28874,12 +28872,12 @@
         <v>6218660</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B114" s="3">
         <v>-200000</v>
@@ -28908,7 +28906,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B115" s="38">
         <v>-11000000</v>
@@ -28929,12 +28927,12 @@
         <v>-759000000</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B116" s="3">
         <v>-200000</v>
@@ -28963,7 +28961,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B117" s="3">
         <v>-450500</v>
@@ -28984,12 +28982,12 @@
         <v>-30183500</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B118" s="3">
         <v>-200000</v>
@@ -29010,7 +29008,7 @@
         <v>-13400000</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -29018,7 +29016,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B119" s="3">
         <v>-154550</v>
@@ -29039,12 +29037,12 @@
         <v>-9427550</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B120" s="3">
         <v>-320</v>
@@ -29065,12 +29063,12 @@
         <v>-19520</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B121" s="3">
         <v>-432000</v>
@@ -29091,12 +29089,12 @@
         <v>-25920000</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B122" s="3">
         <v>74043</v>
@@ -29117,12 +29115,12 @@
         <v>3924279</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B123" s="3">
         <v>-52000</v>
@@ -29143,12 +29141,12 @@
         <v>-1716000</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -29169,12 +29167,12 @@
         <v>24927</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -29195,12 +29193,12 @@
         <v>48000000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -29221,12 +29219,12 @@
         <v>24170400</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -29247,12 +29245,12 @@
         <v>24170400</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -29278,7 +29276,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -29299,7 +29297,7 @@
         <v>-78090</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -29307,7 +29305,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -29328,12 +29326,12 @@
         <v>-800000</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -29354,12 +29352,12 @@
         <v>-600000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -29380,12 +29378,12 @@
         <v>-780000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -29406,12 +29404,12 @@
         <v>-49000</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -29568,7 +29566,7 @@
     </row>
     <row r="151" spans="5:5" ht="75" x14ac:dyDescent="0.25">
       <c r="E151" s="22" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -29580,8 +29578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29593,12 +29591,12 @@
     <col min="5" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="16.140625" bestFit="1" customWidth="1"/>
@@ -29618,7 +29616,7 @@
         <v>454</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>466</v>
@@ -29658,7 +29656,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K2" s="11">
         <v>1.01</v>
@@ -29682,7 +29680,7 @@
         <v>3200000</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E34" si="0">E2*$L$2+C3-D3</f>
+        <f>E2*$L$2+C3-D3</f>
         <v>156990000</v>
       </c>
       <c r="F3" s="48">
@@ -29693,7 +29691,7 @@
         <v>26000</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -29704,15 +29702,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="47">
-        <f t="shared" ref="C4:C35" si="1">C3*$K$2</f>
+        <f t="shared" ref="C4:C35" si="0">C3*$K$2</f>
         <v>5201500</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D35" si="2">D3*$K$2</f>
+        <f t="shared" ref="D4:D35" si="1">D3*$K$2</f>
         <v>3232000</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E34" si="2">E3*$L$2+C4-D4</f>
         <v>162099300</v>
       </c>
       <c r="F4" s="48">
@@ -29723,7 +29721,7 @@
         <v>-794700</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -29734,15 +29732,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5253515</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3264320</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>167330481</v>
       </c>
       <c r="F5" s="48">
@@ -29753,7 +29751,7 @@
         <v>-1243924</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -29770,24 +29768,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5306050.1500000004</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3296963.2</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>172686177.57000002</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="63">
         <f>K23</f>
-        <v>170828047.78082192</v>
+        <v>170748047.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1858129.7891781032</v>
+        <v>1938129.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29799,7 +29797,7 @@
       <c r="L6" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="61" t="s">
         <v>460</v>
       </c>
     </row>
@@ -29811,22 +29809,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5359110.6515000006</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3329932.8320000004</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>178169078.94090003</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="J7" s="64" t="s">
-        <v>618</v>
+      <c r="J7" s="62" t="s">
+        <v>615</v>
       </c>
       <c r="K7" s="46">
         <f>2*(J31+L31)</f>
@@ -29849,15 +29847,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5412701.7580150003</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3363232.1603200003</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>183781930.11741301</v>
       </c>
       <c r="F8" s="3"/>
@@ -29866,7 +29864,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K8" s="46">
         <f>J31+L31</f>
@@ -29888,15 +29886,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5466828.77559515</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3396864.4819232002</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>189527533.01343325</v>
       </c>
       <c r="F9" s="3"/>
@@ -29926,15 +29924,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5521497.0633511012</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3430833.1267424324</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>195408747.61031058</v>
       </c>
       <c r="F10" s="3"/>
@@ -29964,15 +29962,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5576712.0339846127</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3465141.4580098568</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>201428493.13849154</v>
       </c>
       <c r="F11" s="3"/>
@@ -30001,15 +29999,15 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5632479.1543244589</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3499792.8725899556</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>207589749.28299591</v>
       </c>
       <c r="F12" s="3"/>
@@ -30038,15 +30036,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5688803.9458677033</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3534790.8013158552</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>213895557.41320771</v>
       </c>
       <c r="F13" s="3"/>
@@ -30075,22 +30073,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5745691.9853263805</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3570138.7093290137</v>
       </c>
       <c r="E14" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>220349021.83746925</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K14" s="46">
         <v>1150000</v>
@@ -30113,22 +30111,22 @@
       <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="67">
         <v>97</v>
       </c>
       <c r="B15" s="11">
         <v>13</v>
       </c>
       <c r="C15" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5803148.905179644</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3605840.0964223039</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>226953311.08297598</v>
       </c>
       <c r="F15" s="3"/>
@@ -30164,22 +30162,22 @@
       <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="67">
         <v>97</v>
       </c>
       <c r="B16" s="11">
         <v>14</v>
       </c>
       <c r="C16" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5861180.3942314405</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3641898.4973865268</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>233711659.20148042</v>
       </c>
       <c r="F16" s="3"/>
@@ -30189,11 +30187,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>115000</v>
+        <v>35000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>115000</v>
+        <v>35000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30220,22 +30218,22 @@
       <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="67">
         <v>97</v>
       </c>
       <c r="B17" s="11">
         <v>15</v>
       </c>
       <c r="C17" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5919792.1981737548</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3678317.4823603919</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>240627367.1013234</v>
       </c>
       <c r="F17" s="3"/>
@@ -30274,22 +30272,22 @@
       <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="67">
         <v>97</v>
       </c>
       <c r="B18" s="11">
         <v>16</v>
       </c>
       <c r="C18" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5978990.1201554928</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3715100.6571839959</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>247703803.90632135</v>
       </c>
       <c r="F18" s="3"/>
@@ -30326,22 +30324,22 @@
       <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="67">
         <v>97</v>
       </c>
       <c r="B19" s="11">
         <v>17</v>
       </c>
       <c r="C19" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6038780.0213570474</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3752251.663755836</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>254944408.342049</v>
       </c>
       <c r="F19" s="3"/>
@@ -30377,22 +30375,22 @@
       <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="67">
         <v>97</v>
       </c>
       <c r="B20" s="11">
         <v>18</v>
       </c>
       <c r="C20" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6099167.8215706181</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3789774.1803933945</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>262352690.15006718</v>
       </c>
       <c r="F20" s="3"/>
@@ -30413,14 +30411,14 @@
       </c>
       <c r="P20" s="31">
         <f>-Q58*12</f>
-        <v>-48162000</v>
+        <v>-48180000</v>
       </c>
       <c r="Q20" s="31">
         <v>-24480000</v>
       </c>
       <c r="R20" s="31">
         <f t="shared" si="5"/>
-        <v>-23682000</v>
+        <v>-23700000</v>
       </c>
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
@@ -30428,22 +30426,22 @@
       <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="67">
         <v>97</v>
       </c>
       <c r="B21" s="11">
         <v>19</v>
       </c>
       <c r="C21" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6160159.4997863239</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3827671.9221973284</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>269932231.53065753</v>
       </c>
       <c r="F21" s="3"/>
@@ -30472,22 +30470,22 @@
       <c r="V21" s="27"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="A22" s="67">
         <v>97</v>
       </c>
       <c r="B22" s="11">
         <v>20</v>
       </c>
       <c r="C22" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6221761.0947841872</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3865948.6414193017</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>277686688.61463559</v>
       </c>
       <c r="F22" s="3"/>
@@ -30516,37 +30514,37 @@
       <c r="V22" s="27"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+      <c r="A23" s="67">
         <v>97</v>
       </c>
       <c r="B23" s="11">
         <v>21</v>
       </c>
       <c r="C23" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6283978.7057320289</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3904608.1278334949</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>285619792.96482688</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170828047.78082192</v>
+        <v>170748047.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>60377367.520547941</v>
+        <v>60297367.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30568,37 +30566,37 @@
       <c r="V23" s="27"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="67">
         <v>97</v>
       </c>
       <c r="B24" s="11">
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6346818.4927893495</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3943654.2091118298</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>293735353.10780096</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98795856</v>
+        <v>98715856</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>20122573</v>
+        <v>20042573</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>
@@ -30615,22 +30613,22 @@
       <c r="V24" s="27"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+      <c r="A25" s="67">
         <v>97</v>
       </c>
       <c r="B25" s="11">
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6410286.6777172433</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3983090.7512029479</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>302037256.09647131</v>
       </c>
       <c r="F25" s="3"/>
@@ -30642,7 +30640,7 @@
       </c>
       <c r="P25" s="31">
         <f>SUM(P16:P24)</f>
-        <v>220318000</v>
+        <v>220300000</v>
       </c>
       <c r="Q25" s="31">
         <f>SUM(Q16:Q23)</f>
@@ -30650,7 +30648,7 @@
       </c>
       <c r="R25" s="31">
         <f>SUM(R16:R23)</f>
-        <v>150318000</v>
+        <v>150300000</v>
       </c>
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
@@ -30658,22 +30656,22 @@
       <c r="V25" s="27"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="67">
         <v>97</v>
       </c>
       <c r="B26" s="11">
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6474389.5444944156</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4022921.6587149776</v>
       </c>
       <c r="E26" s="49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>310529469.10418016</v>
       </c>
       <c r="F26" s="3"/>
@@ -30690,22 +30688,22 @@
       <c r="W26" s="27"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="68">
         <v>98</v>
       </c>
       <c r="B27" s="11">
         <v>25</v>
       </c>
       <c r="C27" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6539133.4399393601</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4063150.8753021276</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>319216041.050901</v>
       </c>
       <c r="F27" s="3"/>
@@ -30722,22 +30720,22 @@
       <c r="W27" s="27"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="68">
         <v>98</v>
       </c>
       <c r="B28" s="11">
         <v>26</v>
       </c>
       <c r="C28" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6604524.7743387539</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4103782.3840551488</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>328101104.26220268</v>
       </c>
       <c r="F28" s="3"/>
@@ -30754,22 +30752,22 @@
       <c r="W28" s="27"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="68">
         <v>98</v>
       </c>
       <c r="B29" s="11">
         <v>27</v>
       </c>
       <c r="C29" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6670570.0220821416</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4144820.2078957004</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>337188876.16163319</v>
       </c>
       <c r="F29" s="3"/>
@@ -30788,38 +30786,38 @@
       <c r="W29" s="27"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="68">
         <v>98</v>
       </c>
       <c r="B30" s="11">
         <v>28</v>
       </c>
       <c r="C30" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6737275.722302963</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4186268.4099746575</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>346483660.99719423</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>183</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N30" s="27"/>
       <c r="P30" s="1" t="s">
@@ -30837,28 +30835,28 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="68">
         <v>98</v>
       </c>
       <c r="B31" s="11">
         <v>29</v>
       </c>
       <c r="C31" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6804648.4795259926</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4228131.0940744039</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>355989851.60258967</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="J31" s="11">
+      <c r="J31" s="46">
         <v>22000000</v>
       </c>
       <c r="K31" s="11">
@@ -30886,22 +30884,22 @@
       <c r="V31" s="27"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="68">
         <v>98</v>
       </c>
       <c r="B32" s="11">
         <v>30</v>
       </c>
       <c r="C32" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6872694.9643212529</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4270412.4050151482</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>365711931.19394755</v>
       </c>
       <c r="F32" s="3"/>
@@ -30909,9 +30907,9 @@
       <c r="H32" s="11"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
       <c r="O32" s="27"/>
       <c r="P32" s="1" t="s">
         <v>311</v>
@@ -30927,22 +30925,22 @@
       <c r="W32" s="27"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="68">
         <v>98</v>
       </c>
       <c r="B33" s="11">
         <v>31</v>
       </c>
       <c r="C33" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6941421.9139644653</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4313116.5290652998</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>375654475.20272565</v>
       </c>
       <c r="F33" s="3"/>
@@ -30962,29 +30960,29 @@
         <v>150000</v>
       </c>
       <c r="S33" s="51" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="T33" s="51" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="68">
         <v>98</v>
       </c>
       <c r="B34" s="11">
         <v>32</v>
       </c>
       <c r="C34" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7010836.1331041101</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4356247.6943559526</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>385822153.14552832</v>
       </c>
       <c r="F34" s="3"/>
@@ -30997,26 +30995,26 @@
       <c r="Q34" s="1">
         <v>300000</v>
       </c>
-      <c r="S34" s="50">
-        <v>400000</v>
-      </c>
-      <c r="T34" s="51" t="s">
+      <c r="S34" s="59">
+        <v>880000</v>
+      </c>
+      <c r="T34" s="60" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="68">
         <v>98</v>
       </c>
       <c r="B35" s="11">
         <v>33</v>
       </c>
       <c r="C35" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7080944.4944351511</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4399810.1712995125</v>
       </c>
       <c r="E35" s="3">
@@ -31033,15 +31031,15 @@
       <c r="Q35" s="1">
         <v>100000</v>
       </c>
-      <c r="S35" s="56">
-        <v>150000</v>
-      </c>
-      <c r="T35" s="57" t="s">
-        <v>491</v>
+      <c r="S35" s="50">
+        <v>500000</v>
+      </c>
+      <c r="T35" s="51" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="68">
         <v>98</v>
       </c>
       <c r="B36" s="11">
@@ -31070,17 +31068,17 @@
         <v>200000</v>
       </c>
       <c r="S36" s="50">
-        <v>1320000</v>
+        <v>130000</v>
       </c>
       <c r="T36" s="51" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
       <c r="V36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="68">
         <v>98</v>
       </c>
       <c r="B37" s="11">
@@ -31102,22 +31100,21 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="O37" s="27"/>
-      <c r="P37" s="50" t="s">
+      <c r="P37" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="Q37" s="50">
-        <f>S45/12</f>
-        <v>298500</v>
-      </c>
-      <c r="S37" s="56">
-        <v>170000</v>
-      </c>
-      <c r="T37" s="57" t="s">
-        <v>493</v>
+      <c r="Q37" s="18">
+        <v>300000</v>
+      </c>
+      <c r="S37" s="50">
+        <v>250000</v>
+      </c>
+      <c r="T37" s="51" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="68">
         <v>98</v>
       </c>
       <c r="B38" s="11">
@@ -31145,15 +31142,15 @@
       <c r="Q38" s="1">
         <v>200000</v>
       </c>
-      <c r="S38" s="56">
-        <v>152000</v>
-      </c>
-      <c r="T38" s="57" t="s">
-        <v>495</v>
+      <c r="S38" s="59">
+        <v>140000</v>
+      </c>
+      <c r="T38" s="60" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="71">
+      <c r="A39" s="69">
         <v>99</v>
       </c>
       <c r="B39" s="11">
@@ -31182,14 +31179,14 @@
         <v>20000</v>
       </c>
       <c r="S39" s="50">
-        <v>30000</v>
+        <v>280000</v>
       </c>
       <c r="T39" s="51" t="s">
-        <v>482</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="71">
+      <c r="A40" s="69">
         <v>99</v>
       </c>
       <c r="B40" s="11">
@@ -31218,14 +31215,15 @@
         <v>50000</v>
       </c>
       <c r="S40" s="50">
-        <v>500000</v>
+        <f>SUM(S34:S39)</f>
+        <v>2180000</v>
       </c>
       <c r="T40" s="51" t="s">
-        <v>497</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="71">
+      <c r="A41" s="69">
         <v>99</v>
       </c>
       <c r="B41" s="11">
@@ -31253,15 +31251,9 @@
       <c r="Q41" s="1">
         <v>90000</v>
       </c>
-      <c r="S41" s="50">
-        <v>130000</v>
-      </c>
-      <c r="T41" s="51" t="s">
-        <v>581</v>
-      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="71">
+      <c r="A42" s="69">
         <v>99</v>
       </c>
       <c r="B42" s="11">
@@ -31289,15 +31281,9 @@
       <c r="Q42" s="1">
         <v>50000</v>
       </c>
-      <c r="S42" s="50">
-        <v>250000</v>
-      </c>
-      <c r="T42" s="51" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="71">
+      <c r="A43" s="69">
         <v>99</v>
       </c>
       <c r="B43" s="11">
@@ -31325,15 +31311,9 @@
       <c r="Q43" s="1">
         <v>150000</v>
       </c>
-      <c r="S43" s="61">
-        <v>230000</v>
-      </c>
-      <c r="T43" s="62" t="s">
-        <v>500</v>
-      </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="71">
+      <c r="A44" s="69">
         <v>99</v>
       </c>
       <c r="B44" s="11">
@@ -31361,15 +31341,9 @@
       <c r="Q44" s="1">
         <v>15000</v>
       </c>
-      <c r="S44" s="50">
-        <v>250000</v>
-      </c>
-      <c r="T44" s="51" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="71">
+      <c r="A45" s="69">
         <v>99</v>
       </c>
       <c r="B45" s="11">
@@ -31397,16 +31371,9 @@
       <c r="Q45" s="1">
         <v>20000</v>
       </c>
-      <c r="S45" s="50">
-        <f>SUM(S34:S44)</f>
-        <v>3582000</v>
-      </c>
-      <c r="T45" s="51" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="71">
+      <c r="A46" s="69">
         <v>99</v>
       </c>
       <c r="B46" s="11">
@@ -31436,7 +31403,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="71">
+      <c r="A47" s="69">
         <v>99</v>
       </c>
       <c r="B47" s="11">
@@ -31469,24 +31436,26 @@
       <c r="A48" s="71">
         <v>99</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="71">
         <v>46</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="72">
         <f t="shared" si="7"/>
         <v>8058775.3482377408</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="72">
         <f t="shared" si="8"/>
         <v>5007394.3911380144</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="72">
         <f t="shared" si="6"/>
         <v>554664640.75728595</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="11" t="s">
+        <v>638</v>
+      </c>
       <c r="P48" s="35" t="s">
         <v>329</v>
       </c>
@@ -31495,7 +31464,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
+      <c r="A49" s="69">
         <v>99</v>
       </c>
       <c r="B49" s="11">
@@ -31524,7 +31493,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="71">
+      <c r="A50" s="69">
         <v>99</v>
       </c>
       <c r="B50" s="11">
@@ -31546,14 +31515,14 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="P50" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q50" s="3">
         <v>500000</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="72">
+      <c r="A51" s="70">
         <v>1400</v>
       </c>
       <c r="B51" s="11">
@@ -31575,14 +31544,14 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="P51" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q51" s="3">
         <v>1200000</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="72">
+      <c r="A52" s="70">
         <v>1400</v>
       </c>
       <c r="B52" s="11">
@@ -31607,7 +31576,7 @@
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="72">
+      <c r="A53" s="70">
         <v>1400</v>
       </c>
       <c r="B53" s="11">
@@ -31632,7 +31601,7 @@
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="72">
+      <c r="A54" s="70">
         <v>1400</v>
       </c>
       <c r="B54" s="11">
@@ -31657,7 +31626,7 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="72">
+      <c r="A55" s="70">
         <v>1400</v>
       </c>
       <c r="B55" s="11">
@@ -31682,7 +31651,7 @@
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="72">
+      <c r="A56" s="70">
         <v>1400</v>
       </c>
       <c r="B56" s="11">
@@ -31707,7 +31676,7 @@
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="72">
+      <c r="A57" s="70">
         <v>1400</v>
       </c>
       <c r="B57" s="11">
@@ -31732,7 +31701,7 @@
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="72">
+      <c r="A58" s="70">
         <v>1400</v>
       </c>
       <c r="B58" s="11">
@@ -31758,11 +31727,11 @@
       </c>
       <c r="Q58" s="3">
         <f>SUM(Q30:Q51)</f>
-        <v>4013500</v>
+        <v>4015000</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="72">
+      <c r="A59" s="70">
         <v>1400</v>
       </c>
       <c r="B59" s="11">
@@ -31788,11 +31757,11 @@
       </c>
       <c r="Q59" s="3">
         <f>Q58/30</f>
-        <v>133783.33333333334</v>
+        <v>133833.33333333334</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
+      <c r="A60" s="70">
         <v>1400</v>
       </c>
       <c r="B60" s="11">
@@ -31815,7 +31784,7 @@
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="72">
+      <c r="A61" s="70">
         <v>1400</v>
       </c>
       <c r="B61" s="11">
@@ -31838,7 +31807,7 @@
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="72">
+      <c r="A62" s="70">
         <v>1400</v>
       </c>
       <c r="B62" s="11">
@@ -32807,8 +32776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33280,121 +33249,121 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G29" s="11">
         <f>$I$41-I29</f>
-        <v>53500</v>
+        <v>55000</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
         <f t="shared" ref="G30:G35" si="6">$I$41-I30</f>
-        <v>18500</v>
+        <v>20000</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G31" s="11">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I31" s="11">
         <v>217500</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" s="11">
         <f t="shared" si="6"/>
-        <v>33500</v>
-      </c>
-      <c r="H32" s="68">
+        <v>35000</v>
+      </c>
+      <c r="H32" s="66">
         <v>34617</v>
       </c>
       <c r="I32" s="11">
         <v>185000</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I33" s="11">
         <v>217000</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I34" s="11">
         <v>217000</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I35" s="11">
         <v>217500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.25">
@@ -33434,10 +33403,10 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
-        <v>218500</v>
+        <v>220000</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.25">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="642">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1952,6 +1952,15 @@
   </si>
   <si>
     <t>شروع خرید</t>
+  </si>
+  <si>
+    <t>26/4/1396</t>
+  </si>
+  <si>
+    <t>مابقی پول برنج 195</t>
+  </si>
+  <si>
+    <t>تاریخ 25/4 برای دکتر</t>
   </si>
 </sst>
 </file>
@@ -2636,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,9 +3745,11 @@
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="44"/>
+        <v>-13000</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="45">
@@ -3781,7 +3792,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8211102</v>
+        <v>8198102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -17199,7 +17210,7 @@
         <v>-62400000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>101</v>
       </c>
@@ -24044,7 +24055,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -24052,7 +24063,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>11100000</v>
+        <v>11400000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -24086,7 +24097,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -24094,7 +24105,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>654000000</v>
+        <v>672000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -24128,7 +24139,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -24136,7 +24147,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>651000000</v>
+        <v>669000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -24163,7 +24174,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -24171,7 +24182,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3255000000</v>
+        <v>3345000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -24210,7 +24221,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -24218,7 +24229,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>648000000</v>
+        <v>666000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -24257,7 +24268,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -24265,7 +24276,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-648000000</v>
+        <v>-666000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -24307,7 +24318,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -24315,7 +24326,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-43200000</v>
+        <v>-44400000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -24357,7 +24368,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -24365,7 +24376,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>645000000</v>
+        <v>663000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -24404,7 +24415,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -24412,7 +24423,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>642000000</v>
+        <v>660000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -24439,7 +24450,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -24447,7 +24458,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5350000000</v>
+        <v>5500000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -24480,7 +24491,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -24488,7 +24499,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>210647630</v>
+        <v>216637610</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -24521,7 +24532,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -24529,7 +24540,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>633000000</v>
+        <v>651000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -24556,7 +24567,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -24564,7 +24575,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>251321256</v>
+        <v>258467832</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -24591,7 +24602,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -24599,7 +24610,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>398000000</v>
+        <v>410000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -24622,7 +24633,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -24630,7 +24641,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>561000000</v>
+        <v>579000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -24653,7 +24664,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -24661,7 +24672,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>558000000</v>
+        <v>576000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -24684,7 +24695,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -24692,7 +24703,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>351500000</v>
+        <v>362900000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -24717,7 +24728,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -24725,7 +24736,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>136767210</v>
+        <v>141594288</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -24750,7 +24761,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -24758,7 +24769,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>507000000</v>
+        <v>525000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -24783,7 +24794,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -24791,7 +24802,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>81500000</v>
+        <v>84500000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -24816,7 +24827,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -24824,7 +24835,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-450000000</v>
+        <v>-468000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -24849,7 +24860,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -24857,7 +24868,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>423000000</v>
+        <v>441000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -24882,7 +24893,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -24890,7 +24901,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>88948863</v>
+        <v>92733921</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -24915,7 +24926,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -24923,7 +24934,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-448126000</v>
+        <v>-467331400</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -24948,7 +24959,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -24956,7 +24967,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-414124200</v>
+        <v>-432129600</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -24981,7 +24992,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -24989,7 +25000,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>135000000</v>
+        <v>141000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -25014,7 +25025,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -25022,7 +25033,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>810000000</v>
+        <v>846000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -25047,7 +25058,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -25055,7 +25066,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>783000000</v>
+        <v>817800000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -25080,7 +25091,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -25088,7 +25099,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-680000</v>
+        <v>-710000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -25113,7 +25124,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -25121,7 +25132,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3510000000</v>
+        <v>-3666000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -25146,7 +25157,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -25154,7 +25165,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3484600000</v>
+        <v>-3641800000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -25179,7 +25190,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -25187,7 +25198,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>36951565</v>
+        <v>38913595</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -25212,7 +25223,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -25220,7 +25231,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>2698000000</v>
+        <v>2868400000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -25241,7 +25252,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -25249,7 +25260,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1045000000</v>
+        <v>1111000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -25267,7 +25278,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -25275,7 +25286,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>33496080</v>
+        <v>36008286</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -25293,7 +25304,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -25301,7 +25312,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-72900</v>
+        <v>-78300</v>
       </c>
       <c r="J37" s="65"/>
     </row>
@@ -25320,7 +25331,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -25328,7 +25339,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>158000000</v>
+        <v>170000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -25348,7 +25359,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -25356,7 +25367,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>158000000</v>
+        <v>170000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -25374,7 +25385,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -25382,7 +25393,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-13200000</v>
+        <v>-14400000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -25400,7 +25411,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -25408,7 +25419,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-40920000</v>
+        <v>-44640000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -25426,7 +25437,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -25434,7 +25445,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-7920000</v>
+        <v>-8640000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -25453,7 +25464,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -25461,7 +25472,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>40950000</v>
+        <v>44850000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -25479,7 +25490,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -25487,7 +25498,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-320000</v>
+        <v>-350000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -25505,7 +25516,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -25513,7 +25524,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>1827000000</v>
+        <v>2001000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -25531,7 +25542,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -25539,7 +25550,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-12000000</v>
+        <v>-13200000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -25557,7 +25568,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -25565,7 +25576,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-11400000</v>
+        <v>-12600000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -25583,7 +25594,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -25591,7 +25602,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-11200000</v>
+        <v>-12400000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25609,7 +25620,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -25617,7 +25628,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>150000000</v>
+        <v>168000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -25635,7 +25646,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -25643,7 +25654,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>150000000</v>
+        <v>168000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -25661,7 +25672,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -25669,7 +25680,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>37524053</v>
+        <v>42118835</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -25687,7 +25698,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -25695,7 +25706,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-10000000</v>
+        <v>-11200000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -25713,7 +25724,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -25721,7 +25732,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-17221500</v>
+        <v>-19624500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -25739,7 +25750,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -25747,7 +25758,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-34017000</v>
+        <v>-40020000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -25765,7 +25776,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -25773,7 +25784,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1120000000</v>
+        <v>-1360000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -25787,11 +25798,11 @@
         <v>609</v>
       </c>
       <c r="D56" s="11">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -25799,7 +25810,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>15581736</v>
+        <v>20775648</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -26020,7 +26031,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>13858286793</v>
+        <v>14245576215</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -26054,7 +26065,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>62144783.825112104</v>
+        <v>62207756.397379912</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -26086,11 +26097,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26140,7 +26151,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26148,7 +26159,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>36262500</v>
+        <v>36649300</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26166,7 +26177,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26174,7 +26185,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1119000000</v>
+        <v>1131000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26190,7 +26201,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26198,7 +26209,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-74200000</v>
+        <v>-75000000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26214,7 +26225,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26222,7 +26233,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-36900000</v>
+        <v>-37300000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26238,7 +26249,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26246,7 +26257,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20240000</v>
+        <v>-20460000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26262,7 +26273,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26270,7 +26281,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-73400000</v>
+        <v>-74200000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26286,7 +26297,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26294,7 +26305,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-72600000</v>
+        <v>-73400000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26310,7 +26321,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26318,7 +26329,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-336477000</v>
+        <v>-340279000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26334,7 +26345,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26342,7 +26353,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>704000000</v>
+        <v>712000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26358,7 +26369,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26366,7 +26377,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-373815000</v>
+        <v>-378075000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26382,7 +26393,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26390,7 +26401,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15660000</v>
+        <v>-15840000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26406,7 +26417,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26414,7 +26425,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-694242900</v>
+        <v>-702245700</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26430,7 +26441,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26438,7 +26449,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-68600000</v>
+        <v>-69400000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26454,7 +26465,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26462,7 +26473,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>680000000</v>
+        <v>688000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26478,7 +26489,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26486,7 +26497,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>680000000</v>
+        <v>688000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26502,7 +26513,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26510,7 +26521,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>408000000</v>
+        <v>412800000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26526,7 +26537,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26534,7 +26545,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>340000000</v>
+        <v>344000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26550,7 +26561,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26558,7 +26569,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1017000000</v>
+        <v>1029000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26577,7 +26588,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26585,7 +26596,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-147118000</v>
+        <v>-148848800</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26601,7 +26612,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26609,7 +26620,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-147118000</v>
+        <v>-148848800</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26625,7 +26636,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26633,7 +26644,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-147118000</v>
+        <v>-148848800</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26649,7 +26660,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26657,7 +26668,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-147118000</v>
+        <v>-148848800</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26673,7 +26684,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26681,7 +26692,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-147118000</v>
+        <v>-148848800</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26697,7 +26708,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26705,7 +26716,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-68000000</v>
+        <v>-68800000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26721,7 +26732,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26729,7 +26740,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1014000000</v>
+        <v>1026000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26745,7 +26756,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26753,7 +26764,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-67400000</v>
+        <v>-68200000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26769,7 +26780,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26777,7 +26788,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>670000000</v>
+        <v>678000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26793,7 +26804,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26801,7 +26812,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2345268000</v>
+        <v>-2373271200</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26817,7 +26828,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26825,7 +26836,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1002300600</v>
+        <v>-1014304200</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26841,7 +26852,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26849,7 +26860,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-564734700</v>
+        <v>-571518300</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26865,7 +26876,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26873,7 +26884,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>327124700</v>
+        <v>331101900</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26889,7 +26900,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26897,7 +26908,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11369484</v>
+        <v>11509848</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -26915,7 +26926,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26923,7 +26934,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-275400000</v>
+        <v>-278800000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26939,7 +26950,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26947,7 +26958,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-60198000</v>
+        <v>-60960000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26963,7 +26974,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26971,7 +26982,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>62800000</v>
+        <v>63600000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26987,7 +26998,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -26995,7 +27006,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-63000000</v>
+        <v>-63800000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27011,7 +27022,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27019,7 +27030,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>87835352</v>
+        <v>89038576</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27037,7 +27048,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27045,7 +27056,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-27740000</v>
+        <v>-28120000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27061,7 +27072,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27069,7 +27080,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-25726076</v>
+        <v>-26078488</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27085,7 +27096,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27093,7 +27104,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-34440000</v>
+        <v>-34920000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27109,7 +27120,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27117,7 +27128,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>264053856</v>
+        <v>268054672</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27135,7 +27146,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27143,7 +27154,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-20880000</v>
+        <v>-21200000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27159,7 +27170,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27167,7 +27178,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-54234453</v>
+        <v>-55078569</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27183,7 +27194,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27191,7 +27202,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-51200000</v>
+        <v>-52000000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27207,7 +27218,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27215,7 +27226,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-24225000</v>
+        <v>-24605000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27231,7 +27242,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27239,7 +27250,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11385000</v>
+        <v>-11565000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27255,7 +27266,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27263,7 +27274,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16237540</v>
+        <v>-16494260</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27279,7 +27290,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27287,7 +27298,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6871000</v>
+        <v>-6980936</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27303,7 +27314,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27311,7 +27322,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-35109000</v>
+        <v>-35673000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27327,7 +27338,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27335,7 +27346,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6659754</v>
+        <v>-6766738</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27351,7 +27362,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27359,7 +27370,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13218400</v>
+        <v>-13431600</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27375,7 +27386,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27383,7 +27394,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>246000000</v>
+        <v>250000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27399,7 +27410,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27407,7 +27418,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5061000</v>
+        <v>-5145000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27423,7 +27434,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27431,7 +27442,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-235320000</v>
+        <v>-239242000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27447,7 +27458,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27455,7 +27466,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-10800000</v>
+        <v>-10980000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27471,7 +27482,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27479,7 +27490,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>679172714</v>
+        <v>691193470</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27497,7 +27508,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27505,7 +27516,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>452000000</v>
+        <v>460000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27521,7 +27532,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27529,7 +27540,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>450000000</v>
+        <v>458000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27545,7 +27556,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27553,7 +27564,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1582339000</v>
+        <v>-1610345000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27569,7 +27580,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27577,7 +27588,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>603000000</v>
+        <v>615000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27593,7 +27604,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27601,7 +27612,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5448909</v>
+        <v>-5557345</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27617,7 +27628,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27625,7 +27636,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6630789</v>
+        <v>-6762745</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27641,7 +27652,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27649,7 +27660,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>600000000</v>
+        <v>612000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27665,7 +27676,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27673,7 +27684,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>594000000</v>
+        <v>605880000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27689,7 +27700,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27697,7 +27708,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>200000000</v>
+        <v>204000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27713,15 +27724,15 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" ref="F67:F137" si="5">B67*(D67-E67)</f>
-        <v>6000000</v>
+        <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
+        <v>6120000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27737,7 +27748,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27745,7 +27756,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>5970000000</v>
+        <v>6090000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27761,7 +27772,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27769,7 +27780,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-39800000</v>
+        <v>-40600000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27785,7 +27796,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27793,7 +27804,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>277200000</v>
+        <v>282800000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27809,7 +27820,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27817,7 +27828,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>514800000</v>
+        <v>525200000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27833,7 +27844,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27841,7 +27852,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-199000000</v>
+        <v>-203000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27857,7 +27868,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27865,7 +27876,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>2940000000</v>
+        <v>3000000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27881,7 +27892,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27889,7 +27900,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2880806400</v>
+        <v>-2940823200</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27905,7 +27916,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27913,7 +27924,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-570000000</v>
+        <v>-582000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27929,7 +27940,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27937,7 +27948,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-38000000</v>
+        <v>-38800000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27953,7 +27964,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27961,7 +27972,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2280570000</v>
+        <v>-2328582000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27977,7 +27988,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27985,7 +27996,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-558167400</v>
+        <v>-570171000</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -28001,7 +28012,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -28009,7 +28020,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4140000000</v>
+        <v>4232000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28025,7 +28036,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28033,7 +28044,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-105688000</v>
+        <v>-108090000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28049,7 +28060,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28057,7 +28068,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-35200000</v>
+        <v>-36000000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28073,7 +28084,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28081,7 +28092,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>49280454</v>
+        <v>50413338</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28099,7 +28110,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28107,7 +28118,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-35000000</v>
+        <v>-35800000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28123,7 +28134,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28131,7 +28142,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>344000000</v>
+        <v>352000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28147,7 +28158,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28155,7 +28166,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-34000000</v>
+        <v>-34800000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28171,7 +28182,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28179,7 +28190,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-32800000</v>
+        <v>-33600000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28195,7 +28206,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28203,7 +28214,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-214650000</v>
+        <v>-219950000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28219,7 +28230,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28227,7 +28238,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-73500000</v>
+        <v>-75500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28243,7 +28254,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28251,7 +28262,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-17640000</v>
+        <v>-18120000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28267,7 +28278,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28275,7 +28286,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>61661520</v>
+        <v>63374340</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28293,7 +28304,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28301,7 +28312,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-426284000</v>
+        <v>-438292000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28319,7 +28330,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28327,7 +28338,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-28700000</v>
+        <v>-29520000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28345,7 +28356,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28353,7 +28364,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-49070000</v>
+        <v>-50472000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28371,7 +28382,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28379,7 +28390,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>128000000</v>
+        <v>132000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28397,7 +28408,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28405,7 +28416,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1107000000</v>
+        <v>1143000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28424,7 +28435,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28432,7 +28443,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3172000000</v>
+        <v>-3276000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28450,7 +28461,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28458,7 +28469,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3172000000</v>
+        <v>-3276000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28474,7 +28485,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28482,7 +28493,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3146000000</v>
+        <v>3250000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28498,7 +28509,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28506,7 +28517,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-24400000</v>
+        <v>-25200000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28525,7 +28536,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28533,7 +28544,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3474800000</v>
+        <v>3591600000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28549,7 +28560,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28557,7 +28568,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>45593730</v>
+        <v>47193510</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28575,7 +28586,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28583,7 +28594,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>226000000</v>
+        <v>234000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28601,7 +28612,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28609,7 +28620,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>840000000</v>
+        <v>870000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28627,7 +28638,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28635,7 +28646,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7458000000</v>
+        <v>-7722000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28653,7 +28664,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28661,7 +28672,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-16385000</v>
+        <v>-16965000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28679,7 +28690,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28687,7 +28698,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>660000000</v>
+        <v>684000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28705,7 +28716,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28713,7 +28724,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-654643100</v>
+        <v>-678666700</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28731,7 +28742,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28739,7 +28750,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>630000000</v>
+        <v>654000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28757,7 +28768,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28765,7 +28776,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-11280000</v>
+        <v>-11760000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28783,7 +28794,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28791,7 +28802,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>368000000</v>
+        <v>384000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28809,7 +28820,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28817,7 +28828,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>254800000</v>
+        <v>266000000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28835,7 +28846,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28843,7 +28854,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-17600000</v>
+        <v>-18400000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28861,7 +28872,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28869,7 +28880,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6218660</v>
+        <v>6507900</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>515</v>
@@ -28887,7 +28898,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28895,7 +28906,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-14000000</v>
+        <v>-14800000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -28916,7 +28927,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28924,7 +28935,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-759000000</v>
+        <v>-803000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>516</v>
@@ -28942,7 +28953,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28950,7 +28961,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-13800000</v>
+        <v>-14600000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -28971,7 +28982,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28979,7 +28990,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-30183500</v>
+        <v>-31985500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>518</v>
@@ -28997,7 +29008,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -29005,7 +29016,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-13400000</v>
+        <v>-14200000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>519</v>
@@ -29026,7 +29037,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29034,7 +29045,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-9427550</v>
+        <v>-10045750</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>522</v>
@@ -29052,7 +29063,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29060,7 +29071,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-19520</v>
+        <v>-20800</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>523</v>
@@ -29078,7 +29089,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29086,7 +29097,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-25920000</v>
+        <v>-27648000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>525</v>
@@ -29104,7 +29115,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29112,7 +29123,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>3924279</v>
+        <v>4220451</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>527</v>
@@ -29130,7 +29141,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29138,7 +29149,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1716000</v>
+        <v>-1924000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>554</v>
@@ -29156,7 +29167,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29164,7 +29175,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>24927</v>
+        <v>29675</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>609</v>
@@ -29182,7 +29193,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29190,7 +29201,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>48000000</v>
+        <v>57600000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>607</v>
@@ -29208,7 +29219,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29216,7 +29227,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>24170400</v>
+        <v>29541600</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>618</v>
@@ -29234,7 +29245,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29242,7 +29253,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>24170400</v>
+        <v>29541600</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>619</v>
@@ -29260,7 +29271,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29268,7 +29279,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-1400000</v>
+        <v>-2200000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29286,7 +29297,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29294,7 +29305,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-78090</v>
+        <v>-140562</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>628</v>
@@ -29315,7 +29326,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29323,7 +29334,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-800000</v>
+        <v>-1600000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>519</v>
@@ -29340,16 +29351,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="11">
-        <f t="shared" ref="D131:D137" si="6">D132+C131</f>
-        <v>3</v>
+        <f t="shared" ref="D131:D146" si="6">D132+C131</f>
+        <v>7</v>
       </c>
       <c r="E131" s="11">
-        <f t="shared" ref="E131:E137" si="7">IF(B131&gt;0,1,0)</f>
+        <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-600000</v>
+        <v>-1400000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>633</v>
@@ -29367,7 +29378,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -29375,7 +29386,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-780000</v>
+        <v>-2340000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>635</v>
@@ -29393,7 +29404,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -29401,7 +29412,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-49000</v>
+        <v>-147000</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>636</v>
@@ -29415,11 +29426,11 @@
         <v>-95000</v>
       </c>
       <c r="C134" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -29427,19 +29438,25 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-95000</v>
+        <v>-475000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="11"/>
+      <c r="A135" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B135" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="C135" s="11">
+        <v>1</v>
+      </c>
       <c r="D135" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>D145+C135</f>
+        <v>1</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -29447,20 +29464,18 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="11"/>
+        <v>-200000</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
-      <c r="B136" s="3">
-        <v>0</v>
-      </c>
-      <c r="C136" s="11">
-        <v>0</v>
-      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D136:D146" si="8">D146+C136</f>
         <v>0</v>
       </c>
       <c r="E136" s="11">
@@ -29475,14 +29490,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
-      <c r="B137" s="3">
-        <v>0</v>
-      </c>
-      <c r="C137" s="11">
-        <v>0</v>
-      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E137" s="11">
@@ -29499,73 +29510,248 @@
       <c r="A138" s="11"/>
       <c r="B138" s="3"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+      <c r="D138" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
-      <c r="B139" s="31">
-        <f>SUM(B2:B137)</f>
-        <v>4007573</v>
-      </c>
+      <c r="B139" s="3"/>
       <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="31">
-        <f>SUM(F2:F137)</f>
-        <v>4397258295</v>
+      <c r="D139" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G139" s="11"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="B140" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="B140" s="3"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11" t="s">
-        <v>284</v>
+      <c r="D140" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
+      <c r="D141" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G141" s="11"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="3"/>
       <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="3">
-        <f>F139/D2</f>
-        <v>11694835.890957447</v>
+      <c r="D142" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G142" s="11"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11" t="s">
+      <c r="D143" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E143" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="11"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="11"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+      <c r="C145" s="11">
+        <v>0</v>
+      </c>
+      <c r="D145" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="11"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="11">
+        <v>0</v>
+      </c>
+      <c r="D146" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="11"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="K147" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="31">
+        <f>SUM(B2:B146)</f>
+        <v>3807573</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="31">
+        <f>SUM(F2:F146)</f>
+        <v>4413088587</v>
+      </c>
+      <c r="G148" s="11"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G149" s="11"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="3">
+        <f>F148/D2</f>
+        <v>11613391.018421052</v>
+      </c>
+      <c r="G151" s="11"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G143" s="11"/>
-    </row>
-    <row r="151" spans="5:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E151" s="22" t="s">
+      <c r="G152" s="11"/>
+    </row>
+    <row r="160" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E160" s="22" t="s">
         <v>580</v>
       </c>
     </row>
@@ -29578,8 +29764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29781,11 +29967,11 @@
       </c>
       <c r="F6" s="63">
         <f>K23</f>
-        <v>170748047.78082192</v>
+        <v>170518047.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>1938129.7891781032</v>
+        <v>2168129.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -29904,12 +30090,12 @@
         <v>301</v>
       </c>
       <c r="K9" s="46">
-        <f>'مسکن ایلیا'!B139</f>
-        <v>4007573</v>
+        <f>'مسکن ایلیا'!B148</f>
+        <v>3807573</v>
       </c>
       <c r="L9" s="3">
         <f>K9</f>
-        <v>4007573</v>
+        <v>3807573</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
@@ -30187,11 +30373,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30540,11 +30726,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170748047.78082192</v>
+        <v>170518047.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>60297367.520547941</v>
+        <v>60067367.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30592,11 +30778,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98715856</v>
+        <v>98485856</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>20042573</v>
+        <v>19812573</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -29351,7 +29351,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="11">
-        <f t="shared" ref="D131:D146" si="6">D132+C131</f>
+        <f t="shared" ref="D131:D134" si="6">D132+C131</f>
         <v>7</v>
       </c>
       <c r="E131" s="11">
@@ -29765,7 +29765,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="F6" s="63">
         <f>K23</f>
-        <v>170518047.78082192</v>
+        <v>170638047.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>2168129.7891781032</v>
+        <v>2048129.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -30373,11 +30373,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>5000</v>
+        <v>125000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>5000</v>
+        <v>125000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30726,11 +30726,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170518047.78082192</v>
+        <v>170638047.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>60067367.520547941</v>
+        <v>60187367.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30778,11 +30778,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98485856</v>
+        <v>98605856</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12</f>
-        <v>19812573</v>
+        <v>19932573</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="647">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1961,6 +1961,21 @@
   </si>
   <si>
     <t>تاریخ 25/4 برای دکتر</t>
+  </si>
+  <si>
+    <t>28/4/1396</t>
+  </si>
+  <si>
+    <t>انتقال به کارت ایلیا</t>
+  </si>
+  <si>
+    <t>از کارت مسکن یاران مریم</t>
+  </si>
+  <si>
+    <t>امتیاز 16 میلیون پول علی دست مریم</t>
+  </si>
+  <si>
+    <t>معادل 46 میلیون در تعدا روز</t>
   </si>
 </sst>
 </file>
@@ -23977,8 +23992,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24055,7 +24070,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -24063,7 +24078,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>11400000</v>
+        <v>11500000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -24097,7 +24112,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -24105,7 +24120,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>672000000</v>
+        <v>678000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -24139,7 +24154,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -24147,7 +24162,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>669000000</v>
+        <v>675000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -24174,7 +24189,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -24182,7 +24197,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3345000000</v>
+        <v>3375000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -24221,7 +24236,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -24229,7 +24244,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>666000000</v>
+        <v>672000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -24268,7 +24283,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -24276,7 +24291,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-666000000</v>
+        <v>-672000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -24318,7 +24333,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -24326,7 +24341,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-44400000</v>
+        <v>-44800000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -24368,7 +24383,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -24376,7 +24391,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>663000000</v>
+        <v>669000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -24415,7 +24430,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -24423,7 +24438,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>660000000</v>
+        <v>666000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -24450,7 +24465,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -24458,7 +24473,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5500000000</v>
+        <v>5550000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -24491,7 +24506,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -24499,7 +24514,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>216637610</v>
+        <v>218634270</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -24532,7 +24547,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -24540,7 +24555,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>651000000</v>
+        <v>657000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -24567,7 +24582,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -24575,7 +24590,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>258467832</v>
+        <v>260850024</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -24602,7 +24617,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -24610,7 +24625,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>410000000</v>
+        <v>414000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -24633,7 +24648,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -24641,7 +24656,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>579000000</v>
+        <v>585000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -24664,7 +24679,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -24672,7 +24687,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>576000000</v>
+        <v>582000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -24695,7 +24710,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -24703,7 +24718,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>362900000</v>
+        <v>366700000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -24728,7 +24743,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -24736,7 +24751,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>141594288</v>
+        <v>143203314</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -24761,7 +24776,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -24769,7 +24784,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>525000000</v>
+        <v>531000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -24794,7 +24809,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -24802,7 +24817,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>84500000</v>
+        <v>85500000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -24827,7 +24842,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -24835,7 +24850,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-468000000</v>
+        <v>-474000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -24860,7 +24875,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -24868,7 +24883,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>441000000</v>
+        <v>447000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -24893,7 +24908,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -24901,7 +24916,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>92733921</v>
+        <v>93995607</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -24926,7 +24941,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -24934,7 +24949,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-467331400</v>
+        <v>-473733200</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -24959,7 +24974,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -24967,7 +24982,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-432129600</v>
+        <v>-438131400</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -24992,7 +25007,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -25000,7 +25015,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>141000000</v>
+        <v>143000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -25025,7 +25040,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -25033,7 +25048,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>846000000</v>
+        <v>858000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -25058,7 +25073,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -25066,7 +25081,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>817800000</v>
+        <v>829400000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -25091,7 +25106,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -25099,7 +25114,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-710000</v>
+        <v>-720000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -25124,7 +25139,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -25132,7 +25147,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3666000000</v>
+        <v>-3718000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -25157,7 +25172,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -25165,7 +25180,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3641800000</v>
+        <v>-3694200000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -25190,7 +25205,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -25198,7 +25213,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>38913595</v>
+        <v>39567605</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -25223,7 +25238,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -25231,7 +25246,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>2868400000</v>
+        <v>2925200000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -25252,7 +25267,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -25260,7 +25275,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1111000000</v>
+        <v>1133000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -25278,7 +25293,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -25286,7 +25301,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>36008286</v>
+        <v>36845688</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -25304,7 +25319,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -25312,7 +25327,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-78300</v>
+        <v>-80100</v>
       </c>
       <c r="J37" s="65"/>
     </row>
@@ -25331,7 +25346,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -25339,7 +25354,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>170000000</v>
+        <v>174000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -25359,7 +25374,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -25367,7 +25382,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>170000000</v>
+        <v>174000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -25385,7 +25400,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -25393,7 +25408,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-14400000</v>
+        <v>-14800000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -25411,7 +25426,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -25419,7 +25434,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-44640000</v>
+        <v>-45880000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -25437,7 +25452,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -25445,7 +25460,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-8640000</v>
+        <v>-8880000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -25464,7 +25479,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -25472,7 +25487,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>44850000</v>
+        <v>46150000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -25490,7 +25505,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -25498,7 +25513,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-350000</v>
+        <v>-360000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -25516,7 +25531,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -25524,7 +25539,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2001000000</v>
+        <v>2059000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -25542,7 +25557,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -25550,7 +25565,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-13200000</v>
+        <v>-13600000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -25568,7 +25583,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -25576,7 +25591,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-12600000</v>
+        <v>-13000000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -25594,7 +25609,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -25602,7 +25617,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-12400000</v>
+        <v>-12800000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25620,7 +25635,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -25628,7 +25643,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>168000000</v>
+        <v>174000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -25646,7 +25661,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -25654,7 +25669,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>168000000</v>
+        <v>174000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -25672,7 +25687,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -25680,7 +25695,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>42118835</v>
+        <v>43650429</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -25698,7 +25713,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -25706,7 +25721,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-11200000</v>
+        <v>-11600000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -25724,7 +25739,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -25732,7 +25747,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-19624500</v>
+        <v>-20425500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -25750,7 +25765,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -25758,7 +25773,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-40020000</v>
+        <v>-42021000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -25776,7 +25791,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -25784,7 +25799,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1360000000</v>
+        <v>-1440000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -25798,11 +25813,11 @@
         <v>609</v>
       </c>
       <c r="D56" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -25810,14 +25825,22 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>20775648</v>
+        <v>22506952</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B57" s="41">
+        <v>-62000000</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26023,7 +26046,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>64548237</v>
+        <v>2548237</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -26031,7 +26054,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>14245576215</v>
+        <v>14374672689</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -26065,7 +26088,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>62207756.397379912</v>
+        <v>62228020.298701301</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -26100,8 +26123,8 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26151,7 +26174,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26159,7 +26182,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>36649300</v>
+        <v>36746000</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26177,7 +26200,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26185,7 +26208,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1131000000</v>
+        <v>1134000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26201,7 +26224,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26209,7 +26232,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-75000000</v>
+        <v>-75200000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26225,7 +26248,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26233,7 +26256,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-37300000</v>
+        <v>-37400000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26249,7 +26272,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26257,7 +26280,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20460000</v>
+        <v>-20515000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26273,7 +26296,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26281,7 +26304,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-74200000</v>
+        <v>-74400000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26297,7 +26320,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26305,7 +26328,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-73400000</v>
+        <v>-73600000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26321,7 +26344,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26329,7 +26352,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-340279000</v>
+        <v>-341229500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26345,7 +26368,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26353,7 +26376,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>712000000</v>
+        <v>714000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26369,7 +26392,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26377,7 +26400,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-378075000</v>
+        <v>-379140000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26393,7 +26416,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26401,7 +26424,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15840000</v>
+        <v>-15885000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26417,7 +26440,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26425,7 +26448,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-702245700</v>
+        <v>-704246400</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26441,7 +26464,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26449,7 +26472,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-69400000</v>
+        <v>-69600000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26465,7 +26488,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26473,7 +26496,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>688000000</v>
+        <v>690000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26489,7 +26512,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26497,7 +26520,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>688000000</v>
+        <v>690000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26513,7 +26536,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26521,7 +26544,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>412800000</v>
+        <v>414000000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26537,7 +26560,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26545,7 +26568,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>344000000</v>
+        <v>345000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26561,7 +26584,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26569,7 +26592,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1029000000</v>
+        <v>1032000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26588,7 +26611,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26596,7 +26619,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-148848800</v>
+        <v>-149281500</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26612,7 +26635,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26620,7 +26643,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-148848800</v>
+        <v>-149281500</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26636,7 +26659,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26644,7 +26667,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-148848800</v>
+        <v>-149281500</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26660,7 +26683,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26668,7 +26691,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-148848800</v>
+        <v>-149281500</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26684,7 +26707,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26692,7 +26715,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-148848800</v>
+        <v>-149281500</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26708,7 +26731,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26716,7 +26739,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-68800000</v>
+        <v>-69000000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26732,7 +26755,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26740,7 +26763,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1026000000</v>
+        <v>1029000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26756,7 +26779,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26764,7 +26787,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-68200000</v>
+        <v>-68400000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26780,7 +26803,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26788,7 +26811,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>678000000</v>
+        <v>680000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26804,7 +26827,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26812,7 +26835,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2373271200</v>
+        <v>-2380272000</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26828,7 +26851,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26836,7 +26859,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1014304200</v>
+        <v>-1017305100</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26852,7 +26875,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26860,7 +26883,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-571518300</v>
+        <v>-573214200</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26876,7 +26899,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26884,7 +26907,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>331101900</v>
+        <v>332096200</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26900,7 +26923,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26908,7 +26931,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11509848</v>
+        <v>11544939</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -26926,7 +26949,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26934,7 +26957,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-278800000</v>
+        <v>-279650000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26950,7 +26973,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26958,7 +26981,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-60960000</v>
+        <v>-61150500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -26974,7 +26997,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -26982,7 +27005,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>63600000</v>
+        <v>63800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -26998,7 +27021,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -27006,7 +27029,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-63800000</v>
+        <v>-64000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27022,7 +27045,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27030,7 +27053,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>89038576</v>
+        <v>89339382</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27048,7 +27071,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27056,7 +27079,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-28120000</v>
+        <v>-28215000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27072,7 +27095,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27080,7 +27103,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-26078488</v>
+        <v>-26166591</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27096,7 +27119,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27104,7 +27127,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-34920000</v>
+        <v>-35040000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27120,7 +27143,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27128,7 +27151,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>268054672</v>
+        <v>269054876</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27146,7 +27169,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27154,7 +27177,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-21200000</v>
+        <v>-21280000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27170,7 +27193,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27178,7 +27201,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-55078569</v>
+        <v>-55289598</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27194,7 +27217,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27202,7 +27225,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-52000000</v>
+        <v>-52200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27218,7 +27241,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27226,7 +27249,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-24605000</v>
+        <v>-24700000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27242,7 +27265,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27250,7 +27273,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11565000</v>
+        <v>-11610000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27266,7 +27289,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27274,7 +27297,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16494260</v>
+        <v>-16558440</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27290,7 +27313,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27298,7 +27321,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-6980936</v>
+        <v>-7008420</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27314,7 +27337,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27322,7 +27345,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-35673000</v>
+        <v>-35814000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27338,7 +27361,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27346,7 +27369,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6766738</v>
+        <v>-6793484</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27362,7 +27385,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27370,7 +27393,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13431600</v>
+        <v>-13484900</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27386,7 +27409,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27394,7 +27417,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>250000000</v>
+        <v>251000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27410,7 +27433,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27418,7 +27441,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5145000</v>
+        <v>-5166000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27434,7 +27457,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27442,7 +27465,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-239242000</v>
+        <v>-240222500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27458,7 +27481,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27466,7 +27489,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-10980000</v>
+        <v>-11025000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27482,7 +27505,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27490,7 +27513,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>691193470</v>
+        <v>694198659</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27508,7 +27531,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27516,7 +27539,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>460000000</v>
+        <v>462000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27532,7 +27555,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27540,7 +27563,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>458000000</v>
+        <v>460000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27556,7 +27579,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27564,7 +27587,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1610345000</v>
+        <v>-1617346500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27580,7 +27603,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27588,7 +27611,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>615000000</v>
+        <v>618000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27604,7 +27627,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27612,7 +27635,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5557345</v>
+        <v>-5584454</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27628,7 +27651,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27636,7 +27659,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6762745</v>
+        <v>-6795734</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27652,7 +27675,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27660,7 +27683,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>612000000</v>
+        <v>615000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27676,7 +27699,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27684,7 +27707,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>605880000</v>
+        <v>608850000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27700,7 +27723,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27708,7 +27731,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>204000000</v>
+        <v>205000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27724,7 +27747,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27732,7 +27755,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
-        <v>6120000</v>
+        <v>6150000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27748,7 +27771,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27756,7 +27779,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>6090000000</v>
+        <v>6120000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27772,7 +27795,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27780,7 +27803,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-40600000</v>
+        <v>-40800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27796,7 +27819,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27804,7 +27827,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>282800000</v>
+        <v>284200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27820,7 +27843,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27828,7 +27851,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>525200000</v>
+        <v>527800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27844,7 +27867,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27852,7 +27875,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-203000000</v>
+        <v>-204000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27868,7 +27891,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27876,7 +27899,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>3000000000</v>
+        <v>3015000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27892,7 +27915,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27900,7 +27923,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2940823200</v>
+        <v>-2955827400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27916,7 +27939,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27924,7 +27947,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-582000000</v>
+        <v>-585000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27940,7 +27963,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27948,7 +27971,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-38800000</v>
+        <v>-39000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27964,7 +27987,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -27972,7 +27995,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2328582000</v>
+        <v>-2340585000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -27988,7 +28011,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -27996,7 +28019,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-570171000</v>
+        <v>-573171900</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -28012,7 +28035,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -28020,7 +28043,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4232000000</v>
+        <v>4255000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28036,7 +28059,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28044,7 +28067,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-108090000</v>
+        <v>-108690500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28060,7 +28083,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28068,7 +28091,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-36000000</v>
+        <v>-36200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28084,7 +28107,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28092,7 +28115,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>50413338</v>
+        <v>50696559</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28110,7 +28133,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28118,7 +28141,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-35800000</v>
+        <v>-36000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28134,7 +28157,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28142,7 +28165,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>352000000</v>
+        <v>354000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28158,7 +28181,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28166,7 +28189,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-34800000</v>
+        <v>-35000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28182,7 +28205,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28190,7 +28213,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-33600000</v>
+        <v>-33800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28206,7 +28229,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28214,7 +28237,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-219950000</v>
+        <v>-221275000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28230,7 +28253,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28238,7 +28261,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-75500000</v>
+        <v>-76000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28254,7 +28277,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28262,7 +28285,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-18120000</v>
+        <v>-18240000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28278,7 +28301,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28286,7 +28309,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>63374340</v>
+        <v>63802545</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28304,7 +28327,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28312,7 +28335,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-438292000</v>
+        <v>-441294000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28330,7 +28353,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28338,7 +28361,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-29520000</v>
+        <v>-29725000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28356,7 +28379,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28364,7 +28387,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-50472000</v>
+        <v>-50822500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28382,7 +28405,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28390,7 +28413,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>132000000</v>
+        <v>133000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28408,7 +28431,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28416,7 +28439,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1143000000</v>
+        <v>1152000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28435,7 +28458,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28443,7 +28466,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3276000000</v>
+        <v>-3302000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28461,7 +28484,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28469,7 +28492,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3276000000</v>
+        <v>-3302000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28485,7 +28508,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28493,7 +28516,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3250000000</v>
+        <v>3276000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28509,7 +28532,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28517,7 +28540,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-25200000</v>
+        <v>-25400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28536,7 +28559,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28544,7 +28567,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3591600000</v>
+        <v>3620800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28560,7 +28583,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28568,7 +28591,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>47193510</v>
+        <v>47593455</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28586,7 +28609,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28594,7 +28617,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>234000000</v>
+        <v>236000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28612,7 +28635,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28620,7 +28643,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>870000000</v>
+        <v>877500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28638,7 +28661,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28646,7 +28669,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7722000000</v>
+        <v>-7788000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28664,7 +28687,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28672,7 +28695,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-16965000</v>
+        <v>-17110000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28690,7 +28713,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28698,7 +28721,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>684000000</v>
+        <v>690000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28716,7 +28739,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28724,7 +28747,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-678666700</v>
+        <v>-684672600</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28742,7 +28765,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28750,7 +28773,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>654000000</v>
+        <v>660000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28768,7 +28791,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28776,7 +28799,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-11760000</v>
+        <v>-11880000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28794,7 +28817,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28802,7 +28825,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>384000000</v>
+        <v>388000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28820,7 +28843,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28828,7 +28851,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>266000000</v>
+        <v>268800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28846,7 +28869,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28854,7 +28877,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-18400000</v>
+        <v>-18600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28872,7 +28895,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28880,7 +28903,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6507900</v>
+        <v>6580210</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>515</v>
@@ -28898,7 +28921,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28906,7 +28929,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-14800000</v>
+        <v>-15000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -28927,7 +28950,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28935,7 +28958,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-803000000</v>
+        <v>-814000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>516</v>
@@ -28953,7 +28976,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28961,7 +28984,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-14600000</v>
+        <v>-14800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -28982,7 +29005,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -28990,7 +29013,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-31985500</v>
+        <v>-32436000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>518</v>
@@ -29008,7 +29031,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -29016,7 +29039,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-14200000</v>
+        <v>-14400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>519</v>
@@ -29037,7 +29060,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29045,7 +29068,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-10045750</v>
+        <v>-10200300</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>522</v>
@@ -29063,7 +29086,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29071,7 +29094,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-20800</v>
+        <v>-21120</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>523</v>
@@ -29089,7 +29112,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29097,7 +29120,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-27648000</v>
+        <v>-28080000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>525</v>
@@ -29115,7 +29138,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29123,7 +29146,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>4220451</v>
+        <v>4294494</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>527</v>
@@ -29141,7 +29164,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29149,7 +29172,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1924000</v>
+        <v>-1976000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>554</v>
@@ -29167,7 +29190,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29175,7 +29198,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>29675</v>
+        <v>30862</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>609</v>
@@ -29193,7 +29216,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29201,7 +29224,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>57600000</v>
+        <v>60000000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>607</v>
@@ -29219,7 +29242,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29227,7 +29250,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>29541600</v>
+        <v>30884400</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>618</v>
@@ -29245,7 +29268,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29253,7 +29276,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>29541600</v>
+        <v>30884400</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>619</v>
@@ -29271,7 +29294,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29279,7 +29302,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-2200000</v>
+        <v>-2400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29297,7 +29320,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29305,7 +29328,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-140562</v>
+        <v>-156180</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>628</v>
@@ -29326,7 +29349,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29334,7 +29357,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-1600000</v>
+        <v>-1800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>519</v>
@@ -29352,7 +29375,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D134" si="6">D132+C131</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
@@ -29360,7 +29383,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-1400000</v>
+        <v>-1600000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>633</v>
@@ -29378,7 +29401,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -29386,7 +29409,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-2340000</v>
+        <v>-2730000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>635</v>
@@ -29404,7 +29427,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -29412,7 +29435,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-147000</v>
+        <v>-171500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>636</v>
@@ -29430,7 +29453,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -29438,7 +29461,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-475000</v>
+        <v>-570000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
@@ -29452,11 +29475,11 @@
         <v>-200000</v>
       </c>
       <c r="C135" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="11">
         <f>D145+C135</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -29464,15 +29487,19 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-200000</v>
+        <v>-400000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B136" s="3">
+        <v>62000000</v>
+      </c>
       <c r="C136" s="11"/>
       <c r="D136" s="11">
         <f t="shared" ref="D136:D146" si="8">D146+C136</f>
@@ -29480,13 +29507,15 @@
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="11"/>
+        <v>-62000000</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
@@ -29694,14 +29723,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="31">
         <f>SUM(B2:B146)</f>
-        <v>3807573</v>
+        <v>65807573</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="31">
         <f>SUM(F2:F146)</f>
-        <v>4413088587</v>
+        <v>4354896160</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -29735,7 +29764,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>11613391.018421052</v>
+        <v>11430173.648293963</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -29764,8 +29793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30091,15 +30120,14 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B148</f>
-        <v>3807573</v>
+        <v>65807573</v>
       </c>
       <c r="L9" s="3">
-        <f>K9</f>
-        <v>3807573</v>
+        <v>19807573</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
-        <v>0</v>
+        <v>46000000</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -30204,14 +30232,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>64548237</v>
+        <v>2548237</v>
       </c>
       <c r="L12" s="3">
-        <v>16000000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>48548237</v>
+        <v>2548237</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -30786,7 +30814,7 @@
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17</f>
-        <v>78623283</v>
+        <v>32623283</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -31357,6 +31385,12 @@
       <c r="F39" s="3"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
+      <c r="J39" s="46">
+        <v>1481000000</v>
+      </c>
+      <c r="K39" t="s">
+        <v>645</v>
+      </c>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
         <v>318</v>
@@ -31393,6 +31427,13 @@
       <c r="F40" s="3"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
+      <c r="J40">
+        <f>J39/46000000</f>
+        <v>32.195652173913047</v>
+      </c>
+      <c r="K40" t="s">
+        <v>646</v>
+      </c>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">
         <v>320</v>
@@ -32963,7 +33004,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="648">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1966,9 +1966,6 @@
     <t>28/4/1396</t>
   </si>
   <si>
-    <t>انتقال به کارت ایلیا</t>
-  </si>
-  <si>
     <t>از کارت مسکن یاران مریم</t>
   </si>
   <si>
@@ -1976,6 +1973,12 @@
   </si>
   <si>
     <t>معادل 46 میلیون در تعدا روز</t>
+  </si>
+  <si>
+    <t>انتقال به کارت ایلیا 50 میلیون و 200 هم نقدی</t>
+  </si>
+  <si>
+    <t>روز 28 تیر از کارت مسکن یاران مریم گرفتم</t>
   </si>
 </sst>
 </file>
@@ -2660,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,9 +3771,11 @@
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="E35" s="44"/>
+        <v>200000</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="45">
@@ -3807,7 +3812,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8198102</v>
+        <v>8398102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -23992,8 +23997,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25833,10 +25838,10 @@
         <v>642</v>
       </c>
       <c r="B57" s="41">
-        <v>-62000000</v>
+        <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D57" s="11">
         <v>0</v>
@@ -26046,7 +26051,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>2548237</v>
+        <v>14348237</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -26123,8 +26128,8 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G136" sqref="G136"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29498,12 +29503,14 @@
         <v>642</v>
       </c>
       <c r="B136" s="3">
-        <v>62000000</v>
-      </c>
-      <c r="C136" s="11"/>
+        <v>50000000</v>
+      </c>
+      <c r="C136" s="11">
+        <v>1</v>
+      </c>
       <c r="D136" s="11">
         <f t="shared" ref="D136:D146" si="8">D146+C136</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -29511,10 +29518,10 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>-62000000</v>
+        <v>0</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -29723,14 +29730,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="31">
         <f>SUM(B2:B146)</f>
-        <v>65807573</v>
+        <v>53807573</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="31">
         <f>SUM(F2:F146)</f>
-        <v>4354896160</v>
+        <v>4416896160</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -29764,7 +29771,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>11430173.648293963</v>
+        <v>11592903.307086615</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -29793,8 +29800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29996,11 +30003,11 @@
       </c>
       <c r="F6" s="63">
         <f>K23</f>
-        <v>170638047.78082192</v>
+        <v>170473047.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>2048129.7891781032</v>
+        <v>2213129.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -30120,14 +30127,14 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B148</f>
-        <v>65807573</v>
+        <v>53807573</v>
       </c>
       <c r="L9" s="3">
         <v>19807573</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
-        <v>46000000</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -30232,14 +30239,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>2548237</v>
+        <v>14348237</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>2548237</v>
+        <v>14348237</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -30353,11 +30360,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8200000</v>
+        <v>-8400000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>8200000</v>
+        <v>8400000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -30401,11 +30408,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>125000</v>
+        <v>160000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30754,11 +30761,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170638047.78082192</v>
+        <v>170473047.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>60187367.520547941</v>
+        <v>60022367.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -30806,15 +30813,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98605856</v>
+        <v>98440856</v>
       </c>
       <c r="L24" s="3">
-        <f>L9+L16+L12</f>
-        <v>19932573</v>
+        <f>L9+L16+L12+L10</f>
+        <v>20017573</v>
       </c>
       <c r="M24" s="3">
-        <f>M11+M12+M13+M17</f>
-        <v>32623283</v>
+        <f>M11+M12+M13+M17+M9</f>
+        <v>78423283</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -31389,7 +31396,7 @@
         <v>1481000000</v>
       </c>
       <c r="K39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
@@ -31432,7 +31439,7 @@
         <v>32.195652173913047</v>
       </c>
       <c r="K40" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="652">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1979,6 +1979,18 @@
   </si>
   <si>
     <t>روز 28 تیر از کارت مسکن یاران مریم گرفتم</t>
+  </si>
+  <si>
+    <t>برای آرایشگاه دادم</t>
+  </si>
+  <si>
+    <t>از کارت مسکن یاران نقدی گرفتم 28 تیر</t>
+  </si>
+  <si>
+    <t>29/4/1396</t>
+  </si>
+  <si>
+    <t>انتقال به کارت ایلیا 12 میلیون و 200 هم نقدی</t>
   </si>
 </sst>
 </file>
@@ -2664,7 +2676,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,15 +3791,19 @@
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="45">
-        <v>0</v>
-      </c>
-      <c r="E36" s="44"/>
+        <v>-120000</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="44"/>
+        <v>200000</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" s="7">
@@ -3812,7 +3828,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8398102</v>
+        <v>8478102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -23998,7 +24014,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24075,7 +24091,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -24083,7 +24099,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>11500000</v>
+        <v>11550000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -24117,7 +24133,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -24125,7 +24141,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>678000000</v>
+        <v>681000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -24159,7 +24175,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -24167,7 +24183,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>675000000</v>
+        <v>678000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -24194,7 +24210,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -24202,7 +24218,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3375000000</v>
+        <v>3390000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -24241,7 +24257,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -24249,7 +24265,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>672000000</v>
+        <v>675000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -24288,7 +24304,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -24296,7 +24312,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-672000000</v>
+        <v>-675000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -24338,7 +24354,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -24346,7 +24362,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-44800000</v>
+        <v>-45000000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -24388,7 +24404,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -24396,7 +24412,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>669000000</v>
+        <v>672000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -24435,7 +24451,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -24443,7 +24459,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>666000000</v>
+        <v>669000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -24470,7 +24486,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -24478,7 +24494,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5550000000</v>
+        <v>5575000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -24511,7 +24527,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -24519,7 +24535,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>218634270</v>
+        <v>219632600</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -24552,7 +24568,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -24560,7 +24576,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>657000000</v>
+        <v>660000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -24587,7 +24603,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -24595,7 +24611,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>260850024</v>
+        <v>262041120</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -24622,7 +24638,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -24630,7 +24646,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>414000000</v>
+        <v>416000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -24653,7 +24669,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -24661,7 +24677,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>585000000</v>
+        <v>588000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -24684,7 +24700,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -24692,7 +24708,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>582000000</v>
+        <v>585000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -24715,7 +24731,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -24723,7 +24739,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>366700000</v>
+        <v>368600000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -24748,7 +24764,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -24756,7 +24772,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>143203314</v>
+        <v>144007827</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -24781,7 +24797,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -24789,7 +24805,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>531000000</v>
+        <v>534000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -24814,7 +24830,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -24822,7 +24838,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>85500000</v>
+        <v>86000000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -24847,7 +24863,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -24855,7 +24871,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-474000000</v>
+        <v>-477000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -24880,7 +24896,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -24888,7 +24904,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>447000000</v>
+        <v>450000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -24913,7 +24929,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -24921,7 +24937,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>93995607</v>
+        <v>94626450</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -24946,7 +24962,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -24954,7 +24970,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-473733200</v>
+        <v>-476934100</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -24979,7 +24995,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -24987,7 +25003,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-438131400</v>
+        <v>-441132300</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -25012,7 +25028,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -25020,7 +25036,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>143000000</v>
+        <v>144000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -25045,7 +25061,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -25053,7 +25069,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>858000000</v>
+        <v>864000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -25078,7 +25094,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -25086,7 +25102,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>829400000</v>
+        <v>835200000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -25111,7 +25127,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -25119,7 +25135,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-720000</v>
+        <v>-725000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -25144,7 +25160,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -25152,7 +25168,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3718000000</v>
+        <v>-3744000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -25177,7 +25193,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -25185,7 +25201,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3694200000</v>
+        <v>-3720400000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -25210,7 +25226,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -25218,7 +25234,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>39567605</v>
+        <v>39894610</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -25243,7 +25259,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -25251,7 +25267,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>2925200000</v>
+        <v>2953600000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -25272,7 +25288,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -25280,7 +25296,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1133000000</v>
+        <v>1144000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -25298,7 +25314,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -25306,7 +25322,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>36845688</v>
+        <v>37264389</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -25324,7 +25340,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -25332,7 +25348,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-80100</v>
+        <v>-81000</v>
       </c>
       <c r="J37" s="65"/>
     </row>
@@ -25351,7 +25367,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -25359,7 +25375,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>174000000</v>
+        <v>176000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -25379,7 +25395,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -25387,7 +25403,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>174000000</v>
+        <v>176000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -25405,7 +25421,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -25413,7 +25429,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-14800000</v>
+        <v>-15000000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -25431,7 +25447,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -25439,7 +25455,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-45880000</v>
+        <v>-46500000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -25457,7 +25473,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -25465,7 +25481,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-8880000</v>
+        <v>-9000000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -25484,7 +25500,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -25492,7 +25508,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>46150000</v>
+        <v>46800000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -25510,7 +25526,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -25518,7 +25534,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-360000</v>
+        <v>-365000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -25536,7 +25552,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -25544,7 +25560,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2059000000</v>
+        <v>2088000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -25562,7 +25578,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -25570,7 +25586,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-13600000</v>
+        <v>-13800000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -25588,7 +25604,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -25596,7 +25612,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-13000000</v>
+        <v>-13200000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -25614,7 +25630,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -25622,7 +25638,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-12800000</v>
+        <v>-13000000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25640,7 +25656,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -25648,7 +25664,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>174000000</v>
+        <v>177000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -25666,7 +25682,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -25674,7 +25690,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>174000000</v>
+        <v>177000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -25692,7 +25708,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -25700,7 +25716,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>43650429</v>
+        <v>44416226</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -25718,7 +25734,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -25726,7 +25742,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-11600000</v>
+        <v>-11800000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -25744,7 +25760,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -25752,7 +25768,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-20425500</v>
+        <v>-20826000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -25770,7 +25786,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -25778,7 +25794,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-42021000</v>
+        <v>-43021500</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -25796,7 +25812,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -25804,7 +25820,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1440000000</v>
+        <v>-1480000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -25822,7 +25838,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -25830,7 +25846,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>22506952</v>
+        <v>23372604</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -25844,11 +25860,11 @@
         <v>646</v>
       </c>
       <c r="D57" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -25856,14 +25872,22 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-50200000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B58" s="41">
+        <v>-12200000</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26051,7 +26075,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>14348237</v>
+        <v>2148237</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -26059,7 +26083,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>14374672689</v>
+        <v>14389020926</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -26093,7 +26117,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>62228020.298701301</v>
+        <v>62021641.922413796</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -26128,8 +26152,8 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26179,7 +26203,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26187,7 +26211,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>36746000</v>
+        <v>36939400</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26205,7 +26229,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26213,7 +26237,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1134000000</v>
+        <v>1140000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26229,7 +26253,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26237,7 +26261,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-75200000</v>
+        <v>-75600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26253,7 +26277,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26261,7 +26285,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-37400000</v>
+        <v>-37600000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26277,7 +26301,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26285,7 +26309,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20515000</v>
+        <v>-20625000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26301,7 +26325,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26309,7 +26333,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-74400000</v>
+        <v>-74800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26325,7 +26349,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26333,7 +26357,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-73600000</v>
+        <v>-74000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26349,7 +26373,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26357,7 +26381,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-341229500</v>
+        <v>-343130500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26373,7 +26397,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26381,7 +26405,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>714000000</v>
+        <v>718000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26397,7 +26421,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26405,7 +26429,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-379140000</v>
+        <v>-381270000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26421,7 +26445,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26429,7 +26453,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15885000</v>
+        <v>-15975000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26445,7 +26469,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26453,7 +26477,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-704246400</v>
+        <v>-708247800</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26469,7 +26493,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26477,7 +26501,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-69600000</v>
+        <v>-70000000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26493,7 +26517,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26501,7 +26525,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>690000000</v>
+        <v>694000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26517,7 +26541,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26525,7 +26549,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>690000000</v>
+        <v>694000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26541,7 +26565,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26549,7 +26573,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>414000000</v>
+        <v>416400000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26565,7 +26589,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26573,7 +26597,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>345000000</v>
+        <v>347000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26589,7 +26613,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26597,7 +26621,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1032000000</v>
+        <v>1038000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26616,7 +26640,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26624,7 +26648,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-149281500</v>
+        <v>-150146900</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26640,7 +26664,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26648,7 +26672,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-149281500</v>
+        <v>-150146900</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26664,7 +26688,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26672,7 +26696,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-149281500</v>
+        <v>-150146900</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26688,7 +26712,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26696,7 +26720,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-149281500</v>
+        <v>-150146900</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26712,7 +26736,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26720,7 +26744,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-149281500</v>
+        <v>-150146900</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26736,7 +26760,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26744,7 +26768,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-69000000</v>
+        <v>-69400000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26760,7 +26784,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26768,7 +26792,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1029000000</v>
+        <v>1035000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26784,7 +26808,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26792,7 +26816,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-68400000</v>
+        <v>-68800000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26808,7 +26832,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26816,7 +26840,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>680000000</v>
+        <v>684000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26832,7 +26856,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26840,7 +26864,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2380272000</v>
+        <v>-2394273600</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26856,7 +26880,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26864,7 +26888,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1017305100</v>
+        <v>-1023306900</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26880,7 +26904,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26888,7 +26912,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-573214200</v>
+        <v>-576606000</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26904,7 +26928,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26912,7 +26936,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>332096200</v>
+        <v>334084800</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26928,7 +26952,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26936,7 +26960,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11544939</v>
+        <v>11615121</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -26954,7 +26978,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26962,7 +26986,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-279650000</v>
+        <v>-281350000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -26978,7 +27002,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -26986,7 +27010,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-61150500</v>
+        <v>-61531500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -27002,7 +27026,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -27010,7 +27034,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>63800000</v>
+        <v>64200000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -27026,7 +27050,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -27034,7 +27058,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-64000000</v>
+        <v>-64400000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27050,7 +27074,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27058,7 +27082,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>89339382</v>
+        <v>89940994</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27076,7 +27100,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27084,7 +27108,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-28215000</v>
+        <v>-28405000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27100,7 +27124,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27108,7 +27132,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-26166591</v>
+        <v>-26342797</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27124,7 +27148,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27132,7 +27156,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-35040000</v>
+        <v>-35280000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27148,7 +27172,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27156,7 +27180,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>269054876</v>
+        <v>271055284</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27174,7 +27198,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27182,7 +27206,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-21280000</v>
+        <v>-21440000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27198,7 +27222,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27206,7 +27230,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-55289598</v>
+        <v>-55711656</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27222,7 +27246,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27230,7 +27254,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-52200000</v>
+        <v>-52600000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27246,7 +27270,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27254,7 +27278,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-24700000</v>
+        <v>-24890000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27270,7 +27294,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27278,7 +27302,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11610000</v>
+        <v>-11700000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27294,7 +27318,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27302,7 +27326,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16558440</v>
+        <v>-16686800</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27318,7 +27342,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27326,7 +27350,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-7008420</v>
+        <v>-7063388</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27342,7 +27366,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27350,7 +27374,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-35814000</v>
+        <v>-36096000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27366,7 +27390,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27374,7 +27398,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6793484</v>
+        <v>-6846976</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27390,7 +27414,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27398,7 +27422,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13484900</v>
+        <v>-13591500</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27414,7 +27438,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27422,7 +27446,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>251000000</v>
+        <v>253000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27438,7 +27462,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27446,7 +27470,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5166000</v>
+        <v>-5208000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27462,7 +27486,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27470,7 +27494,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-240222500</v>
+        <v>-242183500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27486,7 +27510,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27494,7 +27518,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-11025000</v>
+        <v>-11115000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27510,7 +27534,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27518,7 +27542,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>694198659</v>
+        <v>700209037</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27536,7 +27560,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27544,7 +27568,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>462000000</v>
+        <v>466000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27560,7 +27584,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27568,7 +27592,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>460000000</v>
+        <v>464000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27584,7 +27608,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27592,7 +27616,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1617346500</v>
+        <v>-1631349500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27608,7 +27632,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27616,7 +27640,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>618000000</v>
+        <v>624000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27632,7 +27656,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27640,7 +27664,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5584454</v>
+        <v>-5638672</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27656,7 +27680,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27664,7 +27688,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6795734</v>
+        <v>-6861712</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27680,7 +27704,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27688,7 +27712,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>615000000</v>
+        <v>621000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27704,7 +27728,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27712,7 +27736,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>608850000</v>
+        <v>614790000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27728,7 +27752,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27736,7 +27760,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>205000000</v>
+        <v>207000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27752,7 +27776,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27760,7 +27784,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
-        <v>6150000</v>
+        <v>6210000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27776,7 +27800,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27784,7 +27808,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>6120000000</v>
+        <v>6180000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27800,7 +27824,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27808,7 +27832,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-40800000</v>
+        <v>-41200000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27824,7 +27848,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27832,7 +27856,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>284200000</v>
+        <v>287000000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27848,7 +27872,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27856,7 +27880,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>527800000</v>
+        <v>533000000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27872,7 +27896,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27880,7 +27904,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-204000000</v>
+        <v>-206000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27896,7 +27920,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27904,7 +27928,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>3015000000</v>
+        <v>3045000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27920,7 +27944,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27928,7 +27952,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2955827400</v>
+        <v>-2985835800</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27944,7 +27968,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27952,7 +27976,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-585000000</v>
+        <v>-591000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27968,7 +27992,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -27976,7 +28000,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-39000000</v>
+        <v>-39400000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -27992,7 +28016,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -28000,7 +28024,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2340585000</v>
+        <v>-2364591000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -28016,7 +28040,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -28024,7 +28048,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-573171900</v>
+        <v>-579173700</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -28040,7 +28064,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -28048,7 +28072,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4255000000</v>
+        <v>4301000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28064,7 +28088,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28072,7 +28096,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-108690500</v>
+        <v>-109891500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28088,7 +28112,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28096,7 +28120,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-36200000</v>
+        <v>-36600000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28112,7 +28136,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28120,7 +28144,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>50696559</v>
+        <v>51263001</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28138,7 +28162,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28146,7 +28170,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-36000000</v>
+        <v>-36400000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28162,7 +28186,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28170,7 +28194,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>354000000</v>
+        <v>358000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28186,7 +28210,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28194,7 +28218,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-35000000</v>
+        <v>-35400000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28210,7 +28234,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28218,7 +28242,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-33800000</v>
+        <v>-34200000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28234,7 +28258,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28242,7 +28266,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-221275000</v>
+        <v>-223925000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28258,7 +28282,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28266,7 +28290,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-76000000</v>
+        <v>-77000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28282,7 +28306,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28290,7 +28314,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-18240000</v>
+        <v>-18480000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28306,7 +28330,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28314,7 +28338,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>63802545</v>
+        <v>64658955</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28332,7 +28356,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28340,7 +28364,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-441294000</v>
+        <v>-447298000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28358,7 +28382,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28366,7 +28390,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-29725000</v>
+        <v>-30135000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28384,7 +28408,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28392,7 +28416,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-50822500</v>
+        <v>-51523500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28410,7 +28434,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28418,7 +28442,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>133000000</v>
+        <v>135000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28436,7 +28460,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28444,7 +28468,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1152000000</v>
+        <v>1170000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28463,7 +28487,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28471,7 +28495,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3302000000</v>
+        <v>-3354000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28489,7 +28513,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28497,7 +28521,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3302000000</v>
+        <v>-3354000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28513,7 +28537,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28521,7 +28545,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3276000000</v>
+        <v>3328000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28537,7 +28561,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28545,7 +28569,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-25400000</v>
+        <v>-25800000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28564,7 +28588,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28572,7 +28596,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3620800000</v>
+        <v>3679200000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28588,7 +28612,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28596,7 +28620,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>47593455</v>
+        <v>48393345</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28614,7 +28638,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28622,7 +28646,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>236000000</v>
+        <v>240000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28640,7 +28664,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28648,7 +28672,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>877500000</v>
+        <v>892500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28666,7 +28690,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28674,7 +28698,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7788000000</v>
+        <v>-7920000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28692,7 +28716,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28700,7 +28724,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-17110000</v>
+        <v>-17400000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28718,7 +28742,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28726,7 +28750,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>690000000</v>
+        <v>702000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28744,7 +28768,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28752,7 +28776,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-684672600</v>
+        <v>-696684400</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28770,7 +28794,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28778,7 +28802,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>660000000</v>
+        <v>672000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28796,7 +28820,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28804,7 +28828,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-11880000</v>
+        <v>-12120000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28822,7 +28846,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28830,7 +28854,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>388000000</v>
+        <v>396000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28848,7 +28872,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28856,7 +28880,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>268800000</v>
+        <v>274400000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28874,7 +28898,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28882,7 +28906,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-18600000</v>
+        <v>-19000000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28900,7 +28924,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28908,7 +28932,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6580210</v>
+        <v>6724830</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>515</v>
@@ -28926,7 +28950,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28934,7 +28958,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-15000000</v>
+        <v>-15400000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -28955,7 +28979,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28963,7 +28987,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-814000000</v>
+        <v>-836000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>516</v>
@@ -28981,7 +29005,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -28989,7 +29013,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-14800000</v>
+        <v>-15200000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -29010,7 +29034,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -29018,7 +29042,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-32436000</v>
+        <v>-33337000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>518</v>
@@ -29036,7 +29060,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -29044,7 +29068,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-14400000</v>
+        <v>-14800000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>519</v>
@@ -29065,7 +29089,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29073,7 +29097,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-10200300</v>
+        <v>-10509400</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>522</v>
@@ -29091,7 +29115,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29099,7 +29123,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-21120</v>
+        <v>-21760</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>523</v>
@@ -29117,7 +29141,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29125,7 +29149,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-28080000</v>
+        <v>-28944000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>525</v>
@@ -29143,7 +29167,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29151,7 +29175,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>4294494</v>
+        <v>4442580</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>527</v>
@@ -29169,7 +29193,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29177,7 +29201,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-1976000</v>
+        <v>-2080000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>554</v>
@@ -29195,7 +29219,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29203,7 +29227,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>30862</v>
+        <v>33236</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>609</v>
@@ -29221,7 +29245,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29229,7 +29253,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>60000000</v>
+        <v>64800000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>607</v>
@@ -29247,7 +29271,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29255,7 +29279,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>30884400</v>
+        <v>33570000</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>618</v>
@@ -29273,7 +29297,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29281,7 +29305,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>30884400</v>
+        <v>33570000</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>619</v>
@@ -29299,7 +29323,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29307,7 +29331,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-2400000</v>
+        <v>-2800000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29325,7 +29349,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29333,7 +29357,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-156180</v>
+        <v>-187416</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>628</v>
@@ -29354,7 +29378,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29362,7 +29386,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-1800000</v>
+        <v>-2200000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>519</v>
@@ -29379,8 +29403,8 @@
         <v>1</v>
       </c>
       <c r="D131" s="11">
-        <f t="shared" ref="D131:D134" si="6">D132+C131</f>
-        <v>8</v>
+        <f t="shared" ref="D131:D146" si="6">D132+C131</f>
+        <v>10</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
@@ -29388,7 +29412,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-1600000</v>
+        <v>-2000000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>633</v>
@@ -29406,7 +29430,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -29414,7 +29438,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-2730000</v>
+        <v>-3510000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>635</v>
@@ -29432,7 +29456,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -29440,7 +29464,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-171500</v>
+        <v>-220500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>636</v>
@@ -29458,7 +29482,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -29466,7 +29490,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-570000</v>
+        <v>-760000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
@@ -29483,8 +29507,8 @@
         <v>2</v>
       </c>
       <c r="D135" s="11">
-        <f>D145+C135</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -29492,7 +29516,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-400000</v>
+        <v>-800000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>640</v>
@@ -29509,8 +29533,8 @@
         <v>1</v>
       </c>
       <c r="D136" s="11">
-        <f t="shared" ref="D136:D146" si="8">D146+C136</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -29518,36 +29542,44 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="11"/>
+      <c r="A137" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B137" s="3">
+        <v>12000000</v>
+      </c>
+      <c r="C137" s="11">
+        <v>1</v>
+      </c>
       <c r="D137" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G137" s="11"/>
+      <c r="G137" s="11" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="3"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E138" s="11">
@@ -29565,7 +29597,7 @@
       <c r="B139" s="3"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E139" s="11">
@@ -29583,7 +29615,7 @@
       <c r="B140" s="3"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E140" s="11">
@@ -29601,7 +29633,7 @@
       <c r="B141" s="3"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E141" s="11">
@@ -29621,7 +29653,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E142" s="11">
@@ -29639,7 +29671,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E143" s="11">
@@ -29657,7 +29689,7 @@
       <c r="B144" s="3"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E144" s="11">
@@ -29679,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="D145" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E145" s="11">
@@ -29701,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E146" s="11">
@@ -29730,14 +29762,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="31">
         <f>SUM(B2:B146)</f>
-        <v>53807573</v>
+        <v>65807573</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="31">
         <f>SUM(F2:F146)</f>
-        <v>4416896160</v>
+        <v>4474511306</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -29771,7 +29803,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>11592903.307086615</v>
+        <v>11682797.143603133</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -29785,6 +29817,11 @@
         <v>286</v>
       </c>
       <c r="G152" s="11"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="160" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="E160" s="22" t="s">
@@ -29800,8 +29837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30003,11 +30040,11 @@
       </c>
       <c r="F6" s="63">
         <f>K23</f>
-        <v>170473047.78082192</v>
+        <v>170318047.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>2213129.7891781032</v>
+        <v>2368129.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -30127,14 +30164,14 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B148</f>
-        <v>53807573</v>
+        <v>65807573</v>
       </c>
       <c r="L9" s="3">
         <v>19807573</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M22" si="4">K9-L9</f>
-        <v>34000000</v>
+        <v>46000000</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -30239,14 +30276,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>14348237</v>
+        <v>2148237</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>14348237</v>
+        <v>2148237</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -30360,11 +30397,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8400000</v>
+        <v>-8500000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>8400000</v>
+        <v>8500000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -30408,11 +30445,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>160000</v>
+        <v>205000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>160000</v>
+        <v>205000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30761,15 +30798,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170473047.78082192</v>
+        <v>170318047.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>60022367.520547941</v>
+        <v>59967367.520547941</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>110450680.26027396</v>
+        <v>110350680.26027396</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -30813,15 +30850,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98440856</v>
+        <v>98285856</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>20017573</v>
+        <v>20062573</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>78423283</v>
+        <v>78223283</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="653">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1991,6 +1991,9 @@
   </si>
   <si>
     <t>انتقال به کارت ایلیا 12 میلیون و 200 هم نقدی</t>
+  </si>
+  <si>
+    <t>182 تا آخر مرداد</t>
   </si>
 </sst>
 </file>
@@ -24014,7 +24017,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25880,7 +25883,7 @@
         <v>650</v>
       </c>
       <c r="B58" s="41">
-        <v>-12200000</v>
+        <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>651</v>
@@ -26075,7 +26078,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>2148237</v>
+        <v>2147737</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -29837,8 +29840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30040,11 +30043,11 @@
       </c>
       <c r="F6" s="63">
         <f>K23</f>
-        <v>170318047.78082192</v>
+        <v>170317547.78082192</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>2368129.7891781032</v>
+        <v>2368629.7891781032</v>
       </c>
       <c r="H6" s="11"/>
       <c r="J6" s="2" t="s">
@@ -30276,14 +30279,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>2148237</v>
+        <v>2147737</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>2148237</v>
+        <v>2147737</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -30798,7 +30801,7 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170318047.78082192</v>
+        <v>170317547.78082192</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
@@ -30806,7 +30809,7 @@
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>110350680.26027396</v>
+        <v>110350180.26027396</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -30850,7 +30853,7 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98285856</v>
+        <v>98285356</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
@@ -30858,7 +30861,7 @@
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>78223283</v>
+        <v>78222783</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -31164,7 +31167,9 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
+      <c r="K32" s="27" t="s">
+        <v>652</v>
+      </c>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
       <c r="N32" s="58"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="657">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1882,12 +1882,6 @@
     <t>با احتساب حقوق خرداد</t>
   </si>
   <si>
-    <t>حواله اچ سی علی 3 اسفند 18 درصد اخر تیر</t>
-  </si>
-  <si>
-    <t>حواله اچ سی مریم 3 اسفند 18 درصد تا آخر تیر</t>
-  </si>
-  <si>
     <t>4/4/1396</t>
   </si>
   <si>
@@ -1994,6 +1988,24 @@
   </si>
   <si>
     <t>182 تا آخر مرداد</t>
+  </si>
+  <si>
+    <t>31/4/1396</t>
+  </si>
+  <si>
+    <t>حقوق تیر مریم</t>
+  </si>
+  <si>
+    <t>حقوق تیر علی</t>
+  </si>
+  <si>
+    <t>با احتساب حقوق تیر</t>
+  </si>
+  <si>
+    <t>حواله اچ سی علی 3 اسفند 18 درصد اخر مرداد</t>
+  </si>
+  <si>
+    <t>حواله اچ سی مریم 3 اسفند 18 درصد تا آخر مرداد</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +2691,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,7 +2833,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -2834,7 +2846,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -2862,20 +2874,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>0</v>
+      <c r="A5" s="32" t="s">
+        <v>651</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>2600000</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="20"/>
+        <v>2600000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>652</v>
+      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -3585,7 +3599,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>41551848</v>
+        <v>44151848</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -3593,7 +3607,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>29658330</v>
+        <v>32258330</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3723,7 +3737,7 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -3750,7 +3764,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -3767,7 +3781,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -3781,7 +3795,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -3789,7 +3803,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -3797,7 +3811,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -3805,7 +3819,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -15100,8 +15114,8 @@
   <dimension ref="A1:O138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15177,7 +15191,7 @@
       </c>
       <c r="G2" s="39">
         <f t="shared" ref="G2:G65" si="0">G3+F2</f>
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H2" s="39">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15185,11 +15199,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>7631900</v>
+        <v>7832300</v>
       </c>
       <c r="J2" s="56">
         <f>C2*(G2-H2)</f>
-        <v>7631900</v>
+        <v>7832300</v>
       </c>
       <c r="K2" s="56">
         <f>D2*(G2-H2)</f>
@@ -15218,7 +15232,7 @@
       </c>
       <c r="G3" s="39">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H3" s="39">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15226,15 +15240,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>9074400000</v>
+        <v>9313200000</v>
       </c>
       <c r="J3" s="56">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>5192472000</v>
+        <v>5329116000</v>
       </c>
       <c r="K3" s="56">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>3881928000</v>
+        <v>3984084000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15259,7 +15273,7 @@
       </c>
       <c r="G4" s="39">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H4" s="39">
         <f t="shared" si="2"/>
@@ -15271,11 +15285,11 @@
       </c>
       <c r="J4" s="56">
         <f t="shared" si="4"/>
-        <v>3884500</v>
+        <v>3986500</v>
       </c>
       <c r="K4" s="56">
         <f t="shared" si="5"/>
-        <v>-3884500</v>
+        <v>-3986500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15300,7 +15314,7 @@
       </c>
       <c r="G5" s="39">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
@@ -15308,7 +15322,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>908000000</v>
+        <v>932000000</v>
       </c>
       <c r="J5" s="56">
         <f t="shared" si="4"/>
@@ -15316,7 +15330,7 @@
       </c>
       <c r="K5" s="56">
         <f t="shared" si="5"/>
-        <v>908000000</v>
+        <v>932000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15341,7 +15355,7 @@
       </c>
       <c r="G6" s="39">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H6" s="39">
         <f t="shared" si="2"/>
@@ -15349,7 +15363,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2240000</v>
+        <v>-2300000</v>
       </c>
       <c r="J6" s="56">
         <f t="shared" si="4"/>
@@ -15357,7 +15371,7 @@
       </c>
       <c r="K6" s="56">
         <f t="shared" si="5"/>
-        <v>-2240000</v>
+        <v>-2300000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15382,7 +15396,7 @@
       </c>
       <c r="G7" s="39">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="2"/>
@@ -15390,7 +15404,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-533022000</v>
+        <v>-547428000</v>
       </c>
       <c r="J7" s="56">
         <f t="shared" si="4"/>
@@ -15398,7 +15412,7 @@
       </c>
       <c r="K7" s="56">
         <f t="shared" si="5"/>
-        <v>-533022000</v>
+        <v>-547428000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15423,7 +15437,7 @@
       </c>
       <c r="G8" s="39">
         <f t="shared" si="0"/>
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" si="2"/>
@@ -15431,7 +15445,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-88600000</v>
+        <v>-91000000</v>
       </c>
       <c r="J8" s="56">
         <f t="shared" si="4"/>
@@ -15439,7 +15453,7 @@
       </c>
       <c r="K8" s="56">
         <f t="shared" si="5"/>
-        <v>-88600000</v>
+        <v>-91000000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15464,7 +15478,7 @@
       </c>
       <c r="G9" s="39">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="2"/>
@@ -15472,7 +15486,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-311125500</v>
+        <v>-319591500</v>
       </c>
       <c r="J9" s="56">
         <f t="shared" si="4"/>
@@ -15480,7 +15494,7 @@
       </c>
       <c r="K9" s="56">
         <f t="shared" si="5"/>
-        <v>-311125500</v>
+        <v>-319591500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15505,7 +15519,7 @@
       </c>
       <c r="G10" s="39">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" si="2"/>
@@ -15513,7 +15527,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-86400000</v>
+        <v>-88800000</v>
       </c>
       <c r="J10" s="56">
         <f t="shared" si="4"/>
@@ -15521,7 +15535,7 @@
       </c>
       <c r="K10" s="56">
         <f t="shared" si="5"/>
-        <v>-86400000</v>
+        <v>-88800000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15546,7 +15560,7 @@
       </c>
       <c r="G11" s="39">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" si="2"/>
@@ -15554,7 +15568,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>431000000</v>
+        <v>443000000</v>
       </c>
       <c r="J11" s="56">
         <f t="shared" si="4"/>
@@ -15562,7 +15576,7 @@
       </c>
       <c r="K11" s="56">
         <f t="shared" si="5"/>
-        <v>431000000</v>
+        <v>443000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15587,7 +15601,7 @@
       </c>
       <c r="G12" s="39">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" si="2"/>
@@ -15595,7 +15609,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-128400000</v>
+        <v>-132000000</v>
       </c>
       <c r="J12" s="56">
         <f t="shared" si="4"/>
@@ -15603,7 +15617,7 @@
       </c>
       <c r="K12" s="56">
         <f t="shared" si="5"/>
-        <v>-128400000</v>
+        <v>-132000000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15628,7 +15642,7 @@
       </c>
       <c r="G13" s="39">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" si="2"/>
@@ -15636,7 +15650,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-26226000</v>
+        <v>-26970000</v>
       </c>
       <c r="J13" s="56">
         <f t="shared" si="4"/>
@@ -15644,7 +15658,7 @@
       </c>
       <c r="K13" s="56">
         <f t="shared" si="5"/>
-        <v>-26226000</v>
+        <v>-26970000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15669,7 +15683,7 @@
       </c>
       <c r="G14" s="39">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" si="2"/>
@@ -15677,7 +15691,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>844000000</v>
+        <v>868000000</v>
       </c>
       <c r="J14" s="56">
         <f t="shared" si="4"/>
@@ -15685,7 +15699,7 @@
       </c>
       <c r="K14" s="56">
         <f t="shared" si="5"/>
-        <v>844000000</v>
+        <v>868000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15710,7 +15724,7 @@
       </c>
       <c r="G15" s="39">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H15" s="39">
         <f t="shared" si="2"/>
@@ -15718,7 +15732,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>757800000</v>
+        <v>779400000</v>
       </c>
       <c r="J15" s="56">
         <f t="shared" si="4"/>
@@ -15726,7 +15740,7 @@
       </c>
       <c r="K15" s="56">
         <f t="shared" si="5"/>
-        <v>757800000</v>
+        <v>779400000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15751,7 +15765,7 @@
       </c>
       <c r="G16" s="39">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
@@ -15759,7 +15773,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-84400000</v>
+        <v>-86800000</v>
       </c>
       <c r="J16" s="56">
         <f t="shared" si="4"/>
@@ -15767,7 +15781,7 @@
       </c>
       <c r="K16" s="56">
         <f t="shared" si="5"/>
-        <v>-84400000</v>
+        <v>-86800000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -15792,7 +15806,7 @@
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="H17" s="39">
         <f t="shared" si="2"/>
@@ -15800,7 +15814,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-836000000</v>
+        <v>-860000000</v>
       </c>
       <c r="J17" s="56">
         <f t="shared" si="4"/>
@@ -15808,7 +15822,7 @@
       </c>
       <c r="K17" s="56">
         <f t="shared" si="5"/>
-        <v>-836000000</v>
+        <v>-860000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -15836,7 +15850,7 @@
       </c>
       <c r="G18" s="39">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="2"/>
@@ -15844,7 +15858,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-125100000</v>
+        <v>-128700000</v>
       </c>
       <c r="J18" s="56">
         <f t="shared" si="4"/>
@@ -15852,7 +15866,7 @@
       </c>
       <c r="K18" s="56">
         <f t="shared" si="5"/>
-        <v>-125100000</v>
+        <v>-128700000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -15877,7 +15891,7 @@
       </c>
       <c r="G19" s="39">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="H19" s="39">
         <f t="shared" si="2"/>
@@ -15885,7 +15899,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-83200000</v>
+        <v>-85600000</v>
       </c>
       <c r="J19" s="56">
         <f t="shared" si="4"/>
@@ -15893,7 +15907,7 @@
       </c>
       <c r="K19" s="56">
         <f t="shared" si="5"/>
-        <v>-83200000</v>
+        <v>-85600000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -15918,7 +15932,7 @@
       </c>
       <c r="G20" s="39">
         <f t="shared" si="0"/>
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H20" s="39">
         <f t="shared" si="2"/>
@@ -15926,15 +15940,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>111959757</v>
+        <v>115212825</v>
       </c>
       <c r="J20" s="56">
         <f t="shared" si="4"/>
-        <v>60897676</v>
+        <v>62667100</v>
       </c>
       <c r="K20" s="56">
         <f t="shared" si="5"/>
-        <v>51062081</v>
+        <v>52545725</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -15959,7 +15973,7 @@
       </c>
       <c r="G21" s="39">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="2"/>
@@ -15967,7 +15981,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-620348400</v>
+        <v>-638416800</v>
       </c>
       <c r="J21" s="56">
         <f t="shared" si="4"/>
@@ -15975,7 +15989,7 @@
       </c>
       <c r="K21" s="56">
         <f t="shared" si="5"/>
-        <v>-620348400</v>
+        <v>-638416800</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16000,7 +16014,7 @@
       </c>
       <c r="G22" s="39">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="H22" s="39">
         <f t="shared" si="2"/>
@@ -16008,7 +16022,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1224000000</v>
+        <v>1260000000</v>
       </c>
       <c r="J22" s="56">
         <f t="shared" si="4"/>
@@ -16016,7 +16030,7 @@
       </c>
       <c r="K22" s="56">
         <f t="shared" si="5"/>
-        <v>1224000000</v>
+        <v>1260000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16041,7 +16055,7 @@
       </c>
       <c r="G23" s="39">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H23" s="39">
         <f t="shared" si="2"/>
@@ -16049,7 +16063,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>407000000</v>
+        <v>419000000</v>
       </c>
       <c r="J23" s="56">
         <f t="shared" si="4"/>
@@ -16057,7 +16071,7 @@
       </c>
       <c r="K23" s="56">
         <f t="shared" si="5"/>
-        <v>407000000</v>
+        <v>419000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16082,7 +16096,7 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="2"/>
@@ -16090,7 +16104,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1221366300</v>
+        <v>-1257377100</v>
       </c>
       <c r="J24" s="56">
         <f t="shared" si="4"/>
@@ -16098,7 +16112,7 @@
       </c>
       <c r="K24" s="56">
         <f t="shared" si="5"/>
-        <v>-1221366300</v>
+        <v>-1257377100</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16123,7 +16137,7 @@
       </c>
       <c r="G25" s="39">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="H25" s="39">
         <f t="shared" si="2"/>
@@ -16131,7 +16145,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>586500000</v>
+        <v>604500000</v>
       </c>
       <c r="J25" s="56">
         <f t="shared" si="4"/>
@@ -16139,7 +16153,7 @@
       </c>
       <c r="K25" s="56">
         <f t="shared" si="5"/>
-        <v>586500000</v>
+        <v>604500000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16164,7 +16178,7 @@
       </c>
       <c r="G26" s="39">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H26" s="39">
         <f t="shared" si="2"/>
@@ -16172,7 +16186,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-62976000</v>
+        <v>-64944000</v>
       </c>
       <c r="J26" s="56">
         <f t="shared" si="4"/>
@@ -16180,7 +16194,7 @@
       </c>
       <c r="K26" s="56">
         <f t="shared" si="5"/>
-        <v>-62976000</v>
+        <v>-64944000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16205,7 +16219,7 @@
       </c>
       <c r="G27" s="39">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="2"/>
@@ -16213,15 +16227,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>76168126</v>
+        <v>78560842</v>
       </c>
       <c r="J27" s="56">
         <f t="shared" si="4"/>
-        <v>41031766</v>
+        <v>42320722</v>
       </c>
       <c r="K27" s="56">
         <f t="shared" si="5"/>
-        <v>35136360</v>
+        <v>36240120</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16246,7 +16260,7 @@
       </c>
       <c r="G28" s="39">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
@@ -16254,11 +16268,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-84201000</v>
+        <v>-86853000</v>
       </c>
       <c r="J28" s="56">
         <f t="shared" si="4"/>
-        <v>-84201000</v>
+        <v>-86853000</v>
       </c>
       <c r="K28" s="56">
         <f t="shared" si="5"/>
@@ -16287,7 +16301,7 @@
       </c>
       <c r="G29" s="39">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="2"/>
@@ -16295,7 +16309,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-190690500</v>
+        <v>-196696500</v>
       </c>
       <c r="J29" s="56">
         <f t="shared" si="4"/>
@@ -16303,7 +16317,7 @@
       </c>
       <c r="K29" s="56">
         <f t="shared" si="5"/>
-        <v>-190690500</v>
+        <v>-196696500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16328,7 +16342,7 @@
       </c>
       <c r="G30" s="39">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H30" s="39">
         <f t="shared" si="2"/>
@@ -16336,11 +16350,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-5715000000</v>
+        <v>-5895000000</v>
       </c>
       <c r="J30" s="56">
         <f t="shared" si="4"/>
-        <v>-5715000000</v>
+        <v>-5895000000</v>
       </c>
       <c r="K30" s="56">
         <f t="shared" si="5"/>
@@ -16369,7 +16383,7 @@
       </c>
       <c r="G31" s="39">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="2"/>
@@ -16377,7 +16391,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1095967600</v>
+        <v>-1132098400</v>
       </c>
       <c r="J31" s="56">
         <f t="shared" si="4"/>
@@ -16385,7 +16399,7 @@
       </c>
       <c r="K31" s="56">
         <f t="shared" si="5"/>
-        <v>-1095967600</v>
+        <v>-1132098400</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16410,7 +16424,7 @@
       </c>
       <c r="G32" s="39">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="H32" s="39">
         <f t="shared" si="2"/>
@@ -16418,7 +16432,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1088135800</v>
+        <v>-1124206600</v>
       </c>
       <c r="J32" s="56">
         <f t="shared" si="4"/>
@@ -16426,7 +16440,7 @@
       </c>
       <c r="K32" s="56">
         <f t="shared" si="5"/>
-        <v>-1088135800</v>
+        <v>-1124206600</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16451,7 +16465,7 @@
       </c>
       <c r="G33" s="39">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H33" s="39">
         <f t="shared" si="2"/>
@@ -16459,7 +16473,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-323275500</v>
+        <v>-334021500</v>
       </c>
       <c r="J33" s="56">
         <f t="shared" si="4"/>
@@ -16467,7 +16481,7 @@
       </c>
       <c r="K33" s="56">
         <f t="shared" si="5"/>
-        <v>-323275500</v>
+        <v>-334021500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16492,7 +16506,7 @@
       </c>
       <c r="G34" s="39">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H34" s="39">
         <f t="shared" si="2"/>
@@ -16504,11 +16518,11 @@
       </c>
       <c r="J34" s="56">
         <f t="shared" si="4"/>
-        <v>361000000</v>
+        <v>373000000</v>
       </c>
       <c r="K34" s="56">
         <f t="shared" si="5"/>
-        <v>-361000000</v>
+        <v>-373000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16533,7 +16547,7 @@
       </c>
       <c r="G35" s="39">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H35" s="39">
         <f t="shared" si="2"/>
@@ -16541,15 +16555,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>18417672</v>
+        <v>19047336</v>
       </c>
       <c r="J35" s="56">
         <f t="shared" si="4"/>
-        <v>-7603713</v>
+        <v>-7863669</v>
       </c>
       <c r="K35" s="56">
         <f t="shared" si="5"/>
-        <v>26021385</v>
+        <v>26911005</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16574,7 +16588,7 @@
       </c>
       <c r="G36" s="39">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H36" s="39">
         <f t="shared" si="2"/>
@@ -16586,11 +16600,11 @@
       </c>
       <c r="J36" s="56">
         <f t="shared" si="4"/>
-        <v>7625376</v>
+        <v>7885332</v>
       </c>
       <c r="K36" s="56">
         <f t="shared" si="5"/>
-        <v>-7625376</v>
+        <v>-7885332</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16615,7 +16629,7 @@
       </c>
       <c r="G37" s="39">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="2"/>
@@ -16623,7 +16637,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-18810000</v>
+        <v>-19470000</v>
       </c>
       <c r="J37" s="56">
         <f t="shared" si="4"/>
@@ -16631,7 +16645,7 @@
       </c>
       <c r="K37" s="56">
         <f t="shared" si="5"/>
-        <v>-18810000</v>
+        <v>-19470000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16656,7 +16670,7 @@
       </c>
       <c r="G38" s="39">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H38" s="39">
         <f t="shared" si="2"/>
@@ -16664,11 +16678,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1020000000</v>
+        <v>1056000000</v>
       </c>
       <c r="J38" s="56">
         <f t="shared" si="4"/>
-        <v>1020000000</v>
+        <v>1056000000</v>
       </c>
       <c r="K38" s="56">
         <f t="shared" si="5"/>
@@ -16697,7 +16711,7 @@
       </c>
       <c r="G39" s="39">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="2"/>
@@ -16705,11 +16719,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>847500000</v>
+        <v>877500000</v>
       </c>
       <c r="J39" s="56">
         <f t="shared" si="4"/>
-        <v>847500000</v>
+        <v>877500000</v>
       </c>
       <c r="K39" s="56">
         <f t="shared" si="5"/>
@@ -16738,7 +16752,7 @@
       </c>
       <c r="G40" s="39">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="2"/>
@@ -16746,7 +16760,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-17000000</v>
+        <v>-17600000</v>
       </c>
       <c r="J40" s="56">
         <f t="shared" si="4"/>
@@ -16754,7 +16768,7 @@
       </c>
       <c r="K40" s="56">
         <f t="shared" si="5"/>
-        <v>-17000000</v>
+        <v>-17600000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -16779,7 +16793,7 @@
       </c>
       <c r="G41" s="39">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="2"/>
@@ -16787,7 +16801,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1017000000</v>
+        <v>1053000000</v>
       </c>
       <c r="J41" s="56">
         <f t="shared" si="4"/>
@@ -16795,7 +16809,7 @@
       </c>
       <c r="K41" s="56">
         <f t="shared" si="5"/>
-        <v>1017000000</v>
+        <v>1053000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -16820,7 +16834,7 @@
       </c>
       <c r="G42" s="39">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="2"/>
@@ -16828,7 +16842,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-30060400</v>
+        <v>-31130800</v>
       </c>
       <c r="J42" s="56">
         <f t="shared" si="4"/>
@@ -16836,7 +16850,7 @@
       </c>
       <c r="K42" s="56">
         <f t="shared" si="5"/>
-        <v>-30060400</v>
+        <v>-31130800</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -16861,7 +16875,7 @@
       </c>
       <c r="G43" s="39">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="2"/>
@@ -16869,7 +16883,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-66600000</v>
+        <v>-69000000</v>
       </c>
       <c r="J43" s="56">
         <f t="shared" si="4"/>
@@ -16877,7 +16891,7 @@
       </c>
       <c r="K43" s="56">
         <f t="shared" si="5"/>
-        <v>-66600000</v>
+        <v>-69000000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -16902,7 +16916,7 @@
       </c>
       <c r="G44" s="39">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="2"/>
@@ -16910,7 +16924,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-66200000</v>
+        <v>-68600000</v>
       </c>
       <c r="J44" s="56">
         <f t="shared" si="4"/>
@@ -16918,7 +16932,7 @@
       </c>
       <c r="K44" s="56">
         <f t="shared" si="5"/>
-        <v>-66200000</v>
+        <v>-68600000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -16943,7 +16957,7 @@
       </c>
       <c r="G45" s="39">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H45" s="39">
         <f t="shared" si="2"/>
@@ -16951,7 +16965,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-185360000</v>
+        <v>-192080000</v>
       </c>
       <c r="J45" s="56">
         <f t="shared" si="4"/>
@@ -16959,7 +16973,7 @@
       </c>
       <c r="K45" s="56">
         <f t="shared" si="5"/>
-        <v>-185360000</v>
+        <v>-192080000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -16984,7 +16998,7 @@
       </c>
       <c r="G46" s="39">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H46" s="39">
         <f t="shared" si="2"/>
@@ -16992,7 +17006,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-230698500</v>
+        <v>-239164500</v>
       </c>
       <c r="J46" s="56">
         <f t="shared" si="4"/>
@@ -17000,7 +17014,7 @@
       </c>
       <c r="K46" s="56">
         <f t="shared" si="5"/>
-        <v>-230698500</v>
+        <v>-239164500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17025,7 +17039,7 @@
       </c>
       <c r="G47" s="39">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H47" s="39">
         <f t="shared" si="2"/>
@@ -17033,15 +17047,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>13185280</v>
+        <v>13679728</v>
       </c>
       <c r="J47" s="56">
         <f t="shared" si="4"/>
-        <v>2148160</v>
+        <v>2228716</v>
       </c>
       <c r="K47" s="56">
         <f t="shared" si="5"/>
-        <v>11037120</v>
+        <v>11451012</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17066,7 +17080,7 @@
       </c>
       <c r="G48" s="39">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H48" s="39">
         <f t="shared" si="2"/>
@@ -17074,7 +17088,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>545504000</v>
+        <v>565960400</v>
       </c>
       <c r="J48" s="56">
         <f t="shared" si="4"/>
@@ -17082,7 +17096,7 @@
       </c>
       <c r="K48" s="56">
         <f t="shared" si="5"/>
-        <v>545504000</v>
+        <v>565960400</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17107,7 +17121,7 @@
       </c>
       <c r="G49" s="39">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H49" s="39">
         <f t="shared" si="2"/>
@@ -17115,7 +17129,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-48360000</v>
+        <v>-50220000</v>
       </c>
       <c r="J49" s="56">
         <f t="shared" si="4"/>
@@ -17123,7 +17137,7 @@
       </c>
       <c r="K49" s="56">
         <f t="shared" si="5"/>
-        <v>-48360000</v>
+        <v>-50220000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17148,7 +17162,7 @@
       </c>
       <c r="G50" s="39">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="2"/>
@@ -17156,7 +17170,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-43056000</v>
+        <v>-44712000</v>
       </c>
       <c r="J50" s="56">
         <f t="shared" si="4"/>
@@ -17164,7 +17178,7 @@
       </c>
       <c r="K50" s="56">
         <f t="shared" si="5"/>
-        <v>-43056000</v>
+        <v>-44712000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17189,7 +17203,7 @@
       </c>
       <c r="G51" s="39">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="2"/>
@@ -17197,7 +17211,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-230880000</v>
+        <v>-239760000</v>
       </c>
       <c r="J51" s="56">
         <f t="shared" si="4"/>
@@ -17205,7 +17219,7 @@
       </c>
       <c r="K51" s="56">
         <f t="shared" si="5"/>
-        <v>-230880000</v>
+        <v>-239760000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17230,7 +17244,7 @@
       </c>
       <c r="G52" s="39">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="2"/>
@@ -17238,7 +17252,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-62400000</v>
+        <v>-64800000</v>
       </c>
       <c r="J52" s="56">
         <f t="shared" si="4"/>
@@ -17246,7 +17260,7 @@
       </c>
       <c r="K52" s="56">
         <f t="shared" si="5"/>
-        <v>-62400000</v>
+        <v>-64800000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17271,7 +17285,7 @@
       </c>
       <c r="G53" s="39">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="2"/>
@@ -17279,7 +17293,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-328105000</v>
+        <v>-340765000</v>
       </c>
       <c r="J53" s="56">
         <f t="shared" si="4"/>
@@ -17287,7 +17301,7 @@
       </c>
       <c r="K53" s="56">
         <f t="shared" si="5"/>
-        <v>-328105000</v>
+        <v>-340765000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17312,7 +17326,7 @@
       </c>
       <c r="G54" s="39">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="2"/>
@@ -17320,7 +17334,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-62200000</v>
+        <v>-64600000</v>
       </c>
       <c r="J54" s="56">
         <f t="shared" si="4"/>
@@ -17328,7 +17342,7 @@
       </c>
       <c r="K54" s="56">
         <f t="shared" si="5"/>
-        <v>-62200000</v>
+        <v>-64600000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17353,7 +17367,7 @@
       </c>
       <c r="G55" s="39">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" si="2"/>
@@ -17361,7 +17375,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-311155500</v>
+        <v>-323161500</v>
       </c>
       <c r="J55" s="56">
         <f t="shared" si="4"/>
@@ -17369,7 +17383,7 @@
       </c>
       <c r="K55" s="56">
         <f t="shared" si="5"/>
-        <v>-311155500</v>
+        <v>-323161500</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17394,7 +17408,7 @@
       </c>
       <c r="G56" s="39">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="2"/>
@@ -17402,7 +17416,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-11818000</v>
+        <v>-12274000</v>
       </c>
       <c r="J56" s="56">
         <f t="shared" si="4"/>
@@ -17410,7 +17424,7 @@
       </c>
       <c r="K56" s="56">
         <f t="shared" si="5"/>
-        <v>-11818000</v>
+        <v>-12274000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17435,7 +17449,7 @@
       </c>
       <c r="G57" s="39">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="2"/>
@@ -17443,7 +17457,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-32655000</v>
+        <v>-33915000</v>
       </c>
       <c r="J57" s="56">
         <f t="shared" si="4"/>
@@ -17451,7 +17465,7 @@
       </c>
       <c r="K57" s="56">
         <f t="shared" si="5"/>
-        <v>-32655000</v>
+        <v>-33915000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17476,7 +17490,7 @@
       </c>
       <c r="G58" s="39">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="2"/>
@@ -17484,7 +17498,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-18660000</v>
+        <v>-19380000</v>
       </c>
       <c r="J58" s="56">
         <f t="shared" si="4"/>
@@ -17492,7 +17506,7 @@
       </c>
       <c r="K58" s="56">
         <f t="shared" si="5"/>
-        <v>-18660000</v>
+        <v>-19380000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17517,7 +17531,7 @@
       </c>
       <c r="G59" s="39">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="H59" s="39">
         <f t="shared" si="2"/>
@@ -17525,11 +17539,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>307000000</v>
+        <v>319000000</v>
       </c>
       <c r="J59" s="56">
         <f t="shared" si="4"/>
-        <v>307000000</v>
+        <v>319000000</v>
       </c>
       <c r="K59" s="56">
         <f t="shared" si="5"/>
@@ -17558,7 +17572,7 @@
       </c>
       <c r="G60" s="39">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H60" s="39">
         <f t="shared" si="2"/>
@@ -17566,11 +17580,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1071000000</v>
+        <v>1113000000</v>
       </c>
       <c r="J60" s="56">
         <f t="shared" si="4"/>
-        <v>1071000000</v>
+        <v>1113000000</v>
       </c>
       <c r="K60" s="56">
         <f t="shared" si="5"/>
@@ -17599,7 +17613,7 @@
       </c>
       <c r="G61" s="39">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="2"/>
@@ -17607,11 +17621,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>304000000</v>
+        <v>316000000</v>
       </c>
       <c r="J61" s="56">
         <f t="shared" si="4"/>
-        <v>304000000</v>
+        <v>316000000</v>
       </c>
       <c r="K61" s="56">
         <f t="shared" si="5"/>
@@ -17640,7 +17654,7 @@
       </c>
       <c r="G62" s="39">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H62" s="39">
         <f t="shared" si="2"/>
@@ -17648,11 +17662,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>912000000</v>
+        <v>948000000</v>
       </c>
       <c r="J62" s="56">
         <f t="shared" si="4"/>
-        <v>912000000</v>
+        <v>948000000</v>
       </c>
       <c r="K62" s="56">
         <f t="shared" si="5"/>
@@ -17681,7 +17695,7 @@
       </c>
       <c r="G63" s="39">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H63" s="39">
         <f t="shared" si="2"/>
@@ -17689,7 +17703,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-60600000</v>
+        <v>-63000000</v>
       </c>
       <c r="J63" s="56">
         <f t="shared" si="4"/>
@@ -17697,7 +17711,7 @@
       </c>
       <c r="K63" s="56">
         <f t="shared" si="5"/>
-        <v>-60600000</v>
+        <v>-63000000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -17722,7 +17736,7 @@
       </c>
       <c r="G64" s="39">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="H64" s="39">
         <f t="shared" si="2"/>
@@ -17730,7 +17744,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-14900000</v>
+        <v>-15500000</v>
       </c>
       <c r="J64" s="56">
         <f t="shared" si="4"/>
@@ -17738,7 +17752,7 @@
       </c>
       <c r="K64" s="56">
         <f t="shared" si="5"/>
-        <v>-14900000</v>
+        <v>-15500000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -17763,7 +17777,7 @@
       </c>
       <c r="G65" s="39">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="2"/>
@@ -17771,7 +17785,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-58800000</v>
+        <v>-61200000</v>
       </c>
       <c r="J65" s="56">
         <f t="shared" si="4"/>
@@ -17779,7 +17793,7 @@
       </c>
       <c r="K65" s="56">
         <f t="shared" si="5"/>
-        <v>-58800000</v>
+        <v>-61200000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -17804,7 +17818,7 @@
       </c>
       <c r="G66" s="39">
         <f t="shared" ref="G66:G110" si="7">G67+F66</f>
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H66" s="39">
         <f t="shared" si="2"/>
@@ -17812,7 +17826,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-49470000</v>
+        <v>-51510000</v>
       </c>
       <c r="J66" s="56">
         <f t="shared" si="4"/>
@@ -17820,7 +17834,7 @@
       </c>
       <c r="K66" s="56">
         <f t="shared" si="5"/>
-        <v>-49470000</v>
+        <v>-51510000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -17845,23 +17859,23 @@
       </c>
       <c r="G67" s="39">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H67" s="39">
-        <f t="shared" ref="H67:H120" si="8">IF(B67&gt;0,1,0)</f>
+        <f t="shared" ref="H67:H121" si="8">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>26392925</v>
+        <v>27488825</v>
       </c>
       <c r="J67" s="56">
-        <f t="shared" ref="J67:J120" si="10">C67*(G67-H67)</f>
-        <v>18993947</v>
+        <f t="shared" ref="J67:J121" si="10">C67*(G67-H67)</f>
+        <v>19782623</v>
       </c>
       <c r="K67" s="56">
-        <f t="shared" ref="K67:K120" si="11">D67*(G67-H67)</f>
-        <v>7398978</v>
+        <f t="shared" ref="K67:K121" si="11">D67*(G67-H67)</f>
+        <v>7706202</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -17886,7 +17900,7 @@
       </c>
       <c r="G68" s="39">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="8"/>
@@ -17894,7 +17908,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-39440000</v>
+        <v>-41180000</v>
       </c>
       <c r="J68" s="56">
         <f t="shared" si="10"/>
@@ -17902,7 +17916,7 @@
       </c>
       <c r="K68" s="56">
         <f t="shared" si="11"/>
-        <v>-39440000</v>
+        <v>-41180000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -17927,7 +17941,7 @@
       </c>
       <c r="G69" s="39">
         <f t="shared" si="7"/>
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H69" s="39">
         <f t="shared" si="8"/>
@@ -17935,7 +17949,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>258720000</v>
+        <v>270480000</v>
       </c>
       <c r="J69" s="56">
         <f t="shared" si="10"/>
@@ -17943,7 +17957,7 @@
       </c>
       <c r="K69" s="56">
         <f t="shared" si="11"/>
-        <v>258720000</v>
+        <v>270480000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -17968,7 +17982,7 @@
       </c>
       <c r="G70" s="39">
         <f t="shared" si="7"/>
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H70" s="39">
         <f t="shared" si="8"/>
@@ -17976,7 +17990,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-12052000</v>
+        <v>-12604000</v>
       </c>
       <c r="J70" s="56">
         <f t="shared" si="10"/>
@@ -17984,7 +17998,7 @@
       </c>
       <c r="K70" s="56">
         <f t="shared" si="11"/>
-        <v>-12052000</v>
+        <v>-12604000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18009,7 +18023,7 @@
       </c>
       <c r="G71" s="39">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="8"/>
@@ -18017,15 +18031,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>29872542</v>
+        <v>31256598</v>
       </c>
       <c r="J71" s="56">
         <f t="shared" si="10"/>
-        <v>26887308</v>
+        <v>28133052</v>
       </c>
       <c r="K71" s="56">
         <f t="shared" si="11"/>
-        <v>2985234</v>
+        <v>3123546</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18050,7 +18064,7 @@
       </c>
       <c r="G72" s="39">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H72" s="39">
         <f t="shared" si="8"/>
@@ -18058,7 +18072,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-39359971</v>
+        <v>-41183599</v>
       </c>
       <c r="J72" s="56">
         <f t="shared" si="10"/>
@@ -18066,7 +18080,7 @@
       </c>
       <c r="K72" s="56">
         <f t="shared" si="11"/>
-        <v>-39359971</v>
+        <v>-41183599</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18091,7 +18105,7 @@
       </c>
       <c r="G73" s="39">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="8"/>
@@ -18099,7 +18113,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-207819000</v>
+        <v>-217485000</v>
       </c>
       <c r="J73" s="56">
         <f t="shared" si="10"/>
@@ -18107,7 +18121,7 @@
       </c>
       <c r="K73" s="56">
         <f t="shared" si="11"/>
-        <v>-207819000</v>
+        <v>-217485000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18132,7 +18146,7 @@
       </c>
       <c r="G74" s="39">
         <f t="shared" si="7"/>
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="8"/>
@@ -18140,7 +18154,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>1748750000</v>
+        <v>1832690000</v>
       </c>
       <c r="J74" s="56">
         <f t="shared" si="10"/>
@@ -18148,7 +18162,7 @@
       </c>
       <c r="K74" s="56">
         <f t="shared" si="11"/>
-        <v>1748750000</v>
+        <v>1832690000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18173,7 +18187,7 @@
       </c>
       <c r="G75" s="39">
         <f t="shared" si="7"/>
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="8"/>
@@ -18181,7 +18195,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>747000000</v>
+        <v>783000000</v>
       </c>
       <c r="J75" s="56">
         <f t="shared" si="10"/>
@@ -18189,7 +18203,7 @@
       </c>
       <c r="K75" s="56">
         <f t="shared" si="11"/>
-        <v>747000000</v>
+        <v>783000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18214,7 +18228,7 @@
       </c>
       <c r="G76" s="39">
         <f t="shared" si="7"/>
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="8"/>
@@ -18222,7 +18236,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>741000000</v>
+        <v>777000000</v>
       </c>
       <c r="J76" s="56">
         <f t="shared" si="10"/>
@@ -18230,7 +18244,7 @@
       </c>
       <c r="K76" s="56">
         <f t="shared" si="11"/>
-        <v>741000000</v>
+        <v>777000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18255,7 +18269,7 @@
       </c>
       <c r="G77" s="39">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="8"/>
@@ -18263,7 +18277,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>738000000</v>
+        <v>774000000</v>
       </c>
       <c r="J77" s="56">
         <f t="shared" si="10"/>
@@ -18271,7 +18285,7 @@
       </c>
       <c r="K77" s="56">
         <f t="shared" si="11"/>
-        <v>738000000</v>
+        <v>774000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18296,7 +18310,7 @@
       </c>
       <c r="G78" s="39">
         <f t="shared" si="7"/>
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="8"/>
@@ -18304,11 +18318,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-787200000</v>
+        <v>-825600000</v>
       </c>
       <c r="J78" s="56">
         <f t="shared" si="10"/>
-        <v>-787200000</v>
+        <v>-825600000</v>
       </c>
       <c r="K78" s="56">
         <f t="shared" si="11"/>
@@ -18337,7 +18351,7 @@
       </c>
       <c r="G79" s="39">
         <f t="shared" si="7"/>
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="8"/>
@@ -18345,11 +18359,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-196000000</v>
+        <v>-205600000</v>
       </c>
       <c r="J79" s="56">
         <f t="shared" si="10"/>
-        <v>-196000000</v>
+        <v>-205600000</v>
       </c>
       <c r="K79" s="56">
         <f t="shared" si="11"/>
@@ -18378,7 +18392,7 @@
       </c>
       <c r="G80" s="39">
         <f t="shared" si="7"/>
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H80" s="39">
         <f t="shared" si="8"/>
@@ -18386,7 +18400,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-11807892</v>
+        <v>-12388608</v>
       </c>
       <c r="J80" s="56">
         <f t="shared" si="10"/>
@@ -18394,7 +18408,7 @@
       </c>
       <c r="K80" s="56">
         <f t="shared" si="11"/>
-        <v>-11807892</v>
+        <v>-12388608</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18419,7 +18433,7 @@
       </c>
       <c r="G81" s="39">
         <f t="shared" si="7"/>
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H81" s="39">
         <f t="shared" si="8"/>
@@ -18427,7 +18441,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-34020000</v>
+        <v>-35700000</v>
       </c>
       <c r="J81" s="56">
         <f t="shared" si="10"/>
@@ -18435,7 +18449,7 @@
       </c>
       <c r="K81" s="56">
         <f t="shared" si="11"/>
-        <v>-34020000</v>
+        <v>-35700000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18460,7 +18474,7 @@
       </c>
       <c r="G82" s="39">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H82" s="39">
         <f t="shared" si="8"/>
@@ -18468,7 +18482,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-60500000</v>
+        <v>-63500000</v>
       </c>
       <c r="J82" s="56">
         <f t="shared" si="10"/>
@@ -18476,7 +18490,7 @@
       </c>
       <c r="K82" s="56">
         <f t="shared" si="11"/>
-        <v>-60500000</v>
+        <v>-63500000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18501,7 +18515,7 @@
       </c>
       <c r="G83" s="39">
         <f t="shared" si="7"/>
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H83" s="39">
         <f t="shared" si="8"/>
@@ -18509,7 +18523,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-48200000</v>
+        <v>-50600000</v>
       </c>
       <c r="J83" s="56">
         <f t="shared" si="10"/>
@@ -18517,7 +18531,7 @@
       </c>
       <c r="K83" s="56">
         <f t="shared" si="11"/>
-        <v>-48200000</v>
+        <v>-50600000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18542,7 +18556,7 @@
       </c>
       <c r="G84" s="39">
         <f t="shared" si="7"/>
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="8"/>
@@ -18550,7 +18564,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>387542400</v>
+        <v>407164800</v>
       </c>
       <c r="J84" s="56">
         <f t="shared" si="10"/>
@@ -18558,7 +18572,7 @@
       </c>
       <c r="K84" s="56">
         <f t="shared" si="11"/>
-        <v>387542400</v>
+        <v>407164800</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18583,7 +18597,7 @@
       </c>
       <c r="G85" s="39">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="8"/>
@@ -18591,7 +18605,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>582500000</v>
+        <v>612500000</v>
       </c>
       <c r="J85" s="56">
         <f t="shared" si="10"/>
@@ -18599,7 +18613,7 @@
       </c>
       <c r="K85" s="56">
         <f t="shared" si="11"/>
-        <v>582500000</v>
+        <v>612500000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18624,7 +18638,7 @@
       </c>
       <c r="G86" s="39">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="8"/>
@@ -18632,15 +18646,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>42662700</v>
+        <v>44898300</v>
       </c>
       <c r="J86" s="56">
         <f t="shared" si="10"/>
-        <v>19453550</v>
+        <v>20472950</v>
       </c>
       <c r="K86" s="56">
         <f t="shared" si="11"/>
-        <v>23209150</v>
+        <v>24425350</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18665,7 +18679,7 @@
       </c>
       <c r="G87" s="39">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="8"/>
@@ -18673,7 +18687,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-45400000</v>
+        <v>-47800000</v>
       </c>
       <c r="J87" s="56">
         <f t="shared" si="10"/>
@@ -18681,7 +18695,7 @@
       </c>
       <c r="K87" s="56">
         <f t="shared" si="11"/>
-        <v>-45400000</v>
+        <v>-47800000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18706,7 +18720,7 @@
       </c>
       <c r="G88" s="39">
         <f t="shared" si="7"/>
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="8"/>
@@ -18714,15 +18728,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-26668000</v>
+        <v>-28084000</v>
       </c>
       <c r="J88" s="56">
         <f t="shared" si="10"/>
-        <v>-15594000</v>
+        <v>-16422000</v>
       </c>
       <c r="K88" s="56">
         <f t="shared" si="11"/>
-        <v>-11074000</v>
+        <v>-11662000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -18747,7 +18761,7 @@
       </c>
       <c r="G89" s="39">
         <f t="shared" si="7"/>
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H89" s="39">
         <f t="shared" si="8"/>
@@ -18755,7 +18769,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-697796200</v>
+        <v>-736207000</v>
       </c>
       <c r="J89" s="56">
         <f t="shared" si="10"/>
@@ -18763,7 +18777,7 @@
       </c>
       <c r="K89" s="56">
         <f t="shared" si="11"/>
-        <v>-697796200</v>
+        <v>-736207000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -18788,7 +18802,7 @@
       </c>
       <c r="G90" s="39">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H90" s="39">
         <f t="shared" si="8"/>
@@ -18796,7 +18810,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-694595300</v>
+        <v>-733006100</v>
       </c>
       <c r="J90" s="56">
         <f t="shared" si="10"/>
@@ -18804,7 +18818,7 @@
       </c>
       <c r="K90" s="56">
         <f t="shared" si="11"/>
-        <v>-694595300</v>
+        <v>-733006100</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -18829,7 +18843,7 @@
       </c>
       <c r="G91" s="39">
         <f t="shared" si="7"/>
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H91" s="39">
         <f t="shared" si="8"/>
@@ -18837,7 +18851,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-691394400</v>
+        <v>-729805200</v>
       </c>
       <c r="J91" s="56">
         <f t="shared" si="10"/>
@@ -18845,7 +18859,7 @@
       </c>
       <c r="K91" s="56">
         <f t="shared" si="11"/>
-        <v>-691394400</v>
+        <v>-729805200</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -18870,7 +18884,7 @@
       </c>
       <c r="G92" s="39">
         <f t="shared" si="7"/>
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H92" s="39">
         <f t="shared" si="8"/>
@@ -18878,7 +18892,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-688193500</v>
+        <v>-726604300</v>
       </c>
       <c r="J92" s="56">
         <f t="shared" si="10"/>
@@ -18886,7 +18900,7 @@
       </c>
       <c r="K92" s="56">
         <f t="shared" si="11"/>
-        <v>-688193500</v>
+        <v>-726604300</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -18911,7 +18925,7 @@
       </c>
       <c r="G93" s="39">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H93" s="39">
         <f t="shared" si="8"/>
@@ -18919,7 +18933,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-684992600</v>
+        <v>-723403400</v>
       </c>
       <c r="J93" s="56">
         <f t="shared" si="10"/>
@@ -18927,7 +18941,7 @@
       </c>
       <c r="K93" s="56">
         <f t="shared" si="11"/>
-        <v>-684992600</v>
+        <v>-723403400</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -18952,7 +18966,7 @@
       </c>
       <c r="G94" s="39">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H94" s="39">
         <f t="shared" si="8"/>
@@ -18960,7 +18974,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-681791700</v>
+        <v>-720202500</v>
       </c>
       <c r="J94" s="56">
         <f t="shared" si="10"/>
@@ -18968,7 +18982,7 @@
       </c>
       <c r="K94" s="56">
         <f t="shared" si="11"/>
-        <v>-681791700</v>
+        <v>-720202500</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -18993,7 +19007,7 @@
       </c>
       <c r="G95" s="39">
         <f t="shared" si="7"/>
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H95" s="39">
         <f t="shared" si="8"/>
@@ -19001,7 +19015,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-252481756</v>
+        <v>-266840908</v>
       </c>
       <c r="J95" s="56">
         <f t="shared" si="10"/>
@@ -19009,7 +19023,7 @@
       </c>
       <c r="K95" s="56">
         <f t="shared" si="11"/>
-        <v>-252481756</v>
+        <v>-266840908</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19034,7 +19048,7 @@
       </c>
       <c r="G96" s="39">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H96" s="39">
         <f t="shared" si="8"/>
@@ -19042,7 +19056,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-40200000</v>
+        <v>-42600000</v>
       </c>
       <c r="J96" s="56">
         <f t="shared" si="10"/>
@@ -19050,7 +19064,7 @@
       </c>
       <c r="K96" s="56">
         <f t="shared" si="11"/>
-        <v>-40200000</v>
+        <v>-42600000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19075,7 +19089,7 @@
       </c>
       <c r="G97" s="39">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H97" s="39">
         <f t="shared" si="8"/>
@@ -19083,15 +19097,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>31752042</v>
+        <v>33666738</v>
       </c>
       <c r="J97" s="56">
         <f t="shared" si="10"/>
-        <v>13716274</v>
+        <v>14543386</v>
       </c>
       <c r="K97" s="56">
         <f t="shared" si="11"/>
-        <v>18035768</v>
+        <v>19123352</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19116,7 +19130,7 @@
       </c>
       <c r="G98" s="39">
         <f t="shared" si="7"/>
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H98" s="39">
         <f t="shared" si="8"/>
@@ -19124,7 +19138,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>22187392</v>
+        <v>23559808</v>
       </c>
       <c r="J98" s="56">
         <f t="shared" si="10"/>
@@ -19132,7 +19146,7 @@
       </c>
       <c r="K98" s="56">
         <f t="shared" si="11"/>
-        <v>22187392</v>
+        <v>23559808</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19157,7 +19171,7 @@
       </c>
       <c r="G99" s="39">
         <f t="shared" si="7"/>
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="8"/>
@@ -19165,7 +19179,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-254400000</v>
+        <v>-270300000</v>
       </c>
       <c r="J99" s="56">
         <f t="shared" si="10"/>
@@ -19173,7 +19187,7 @@
       </c>
       <c r="K99" s="56">
         <f t="shared" si="11"/>
-        <v>-254400000</v>
+        <v>-270300000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19198,7 +19212,7 @@
       </c>
       <c r="G100" s="39">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H100" s="39">
         <f t="shared" si="8"/>
@@ -19206,7 +19220,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>246450000</v>
+        <v>262350000</v>
       </c>
       <c r="J100" s="56">
         <f t="shared" si="10"/>
@@ -19214,7 +19228,7 @@
       </c>
       <c r="K100" s="56">
         <f t="shared" si="11"/>
-        <v>246450000</v>
+        <v>262350000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19239,7 +19253,7 @@
       </c>
       <c r="G101" s="39">
         <f t="shared" si="7"/>
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H101" s="39">
         <f t="shared" si="8"/>
@@ -19247,11 +19261,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>11296805</v>
+        <v>12098945</v>
       </c>
       <c r="J101" s="56">
         <f t="shared" si="10"/>
-        <v>11296805</v>
+        <v>12098945</v>
       </c>
       <c r="K101" s="56">
         <f t="shared" si="11"/>
@@ -19280,7 +19294,7 @@
       </c>
       <c r="G102" s="39">
         <f t="shared" si="7"/>
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H102" s="39">
         <f t="shared" si="8"/>
@@ -19288,7 +19302,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>498000000</v>
+        <v>534000000</v>
       </c>
       <c r="J102" s="56">
         <f t="shared" si="10"/>
@@ -19296,7 +19310,7 @@
       </c>
       <c r="K102" s="56">
         <f t="shared" si="11"/>
-        <v>498000000</v>
+        <v>534000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19321,7 +19335,7 @@
       </c>
       <c r="G103" s="39">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H103" s="39">
         <f t="shared" si="8"/>
@@ -19329,11 +19343,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-160000000</v>
+        <v>-172000000</v>
       </c>
       <c r="J103" s="56">
         <f t="shared" si="10"/>
-        <v>-160000000</v>
+        <v>-172000000</v>
       </c>
       <c r="K103" s="56">
         <f t="shared" si="11"/>
@@ -19362,7 +19376,7 @@
       </c>
       <c r="G104" s="39">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H104" s="39">
         <f t="shared" si="8"/>
@@ -19370,11 +19384,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>447000000</v>
+        <v>483000000</v>
       </c>
       <c r="J104" s="56">
         <f t="shared" si="10"/>
-        <v>447000000</v>
+        <v>483000000</v>
       </c>
       <c r="K104" s="56">
         <f t="shared" si="11"/>
@@ -19403,7 +19417,7 @@
       </c>
       <c r="G105" s="39">
         <f t="shared" si="7"/>
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H105" s="39">
         <f t="shared" si="8"/>
@@ -19411,11 +19425,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>165760000</v>
+        <v>179200000</v>
       </c>
       <c r="J105" s="56">
         <f t="shared" si="10"/>
-        <v>165760000</v>
+        <v>179200000</v>
       </c>
       <c r="K105" s="56">
         <f t="shared" si="11"/>
@@ -19444,7 +19458,7 @@
       </c>
       <c r="G106" s="39">
         <f t="shared" si="7"/>
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H106" s="39">
         <f t="shared" si="8"/>
@@ -19452,7 +19466,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-447000000</v>
+        <v>-483000000</v>
       </c>
       <c r="J106" s="56">
         <f t="shared" si="10"/>
@@ -19460,7 +19474,7 @@
       </c>
       <c r="K106" s="56">
         <f t="shared" si="11"/>
-        <v>-447000000</v>
+        <v>-483000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19485,7 +19499,7 @@
       </c>
       <c r="G107" s="39">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H107" s="39">
         <f t="shared" si="8"/>
@@ -19493,15 +19507,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>12578666</v>
+        <v>13664594</v>
       </c>
       <c r="J107" s="56">
         <f t="shared" si="10"/>
-        <v>10440985</v>
+        <v>11342365</v>
       </c>
       <c r="K107" s="56">
         <f t="shared" si="11"/>
-        <v>2137681</v>
+        <v>2322229</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19526,7 +19540,7 @@
       </c>
       <c r="G108" s="39">
         <f t="shared" si="7"/>
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H108" s="39">
         <f t="shared" si="8"/>
@@ -19534,7 +19548,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-234696600</v>
+        <v>-255105000</v>
       </c>
       <c r="J108" s="56">
         <f t="shared" si="10"/>
@@ -19542,7 +19556,7 @@
       </c>
       <c r="K108" s="56">
         <f t="shared" si="11"/>
-        <v>-234696600</v>
+        <v>-255105000</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19567,7 +19581,7 @@
       </c>
       <c r="G109" s="39">
         <f t="shared" si="7"/>
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H109" s="39">
         <f t="shared" si="8"/>
@@ -19575,7 +19589,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-134067000</v>
+        <v>-146073000</v>
       </c>
       <c r="J109" s="56">
         <f t="shared" si="10"/>
@@ -19583,7 +19597,7 @@
       </c>
       <c r="K109" s="56">
         <f t="shared" si="11"/>
-        <v>-134067000</v>
+        <v>-146073000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19608,7 +19622,7 @@
       </c>
       <c r="G110" s="39">
         <f t="shared" si="7"/>
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H110" s="39">
         <f t="shared" si="8"/>
@@ -19616,7 +19630,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>2600000000</v>
+        <v>2840000000</v>
       </c>
       <c r="J110" s="56">
         <f t="shared" si="10"/>
@@ -19624,7 +19638,7 @@
       </c>
       <c r="K110" s="56">
         <f t="shared" si="11"/>
-        <v>2600000000</v>
+        <v>2840000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19649,7 +19663,7 @@
       </c>
       <c r="G111" s="39">
         <f>G112+F111</f>
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H111" s="39">
         <f t="shared" si="8"/>
@@ -19657,15 +19671,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>19214580</v>
+        <v>21310716</v>
       </c>
       <c r="J111" s="56">
         <f t="shared" si="10"/>
-        <v>9609930</v>
+        <v>10658286</v>
       </c>
       <c r="K111" s="56">
         <f t="shared" si="11"/>
-        <v>9604650</v>
+        <v>10652430</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19690,7 +19704,7 @@
       </c>
       <c r="G112" s="39">
         <f>G113+F112</f>
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="8"/>
@@ -19698,7 +19712,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-2698000000</v>
+        <v>-3038800000</v>
       </c>
       <c r="J112" s="56">
         <f t="shared" si="10"/>
@@ -19706,7 +19720,7 @@
       </c>
       <c r="K112" s="56">
         <f t="shared" si="11"/>
-        <v>-2698000000</v>
+        <v>-3038800000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -19731,7 +19745,7 @@
       </c>
       <c r="G113" s="39">
         <f t="shared" ref="G113:G128" si="13">G114+F113</f>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H113" s="39">
         <f t="shared" si="8"/>
@@ -19739,15 +19753,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>12880160</v>
+        <v>14836640</v>
       </c>
       <c r="J113" s="56">
         <f t="shared" si="10"/>
-        <v>9678369</v>
+        <v>11148501</v>
       </c>
       <c r="K113" s="56">
         <f t="shared" si="11"/>
-        <v>3201791</v>
+        <v>3688139</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -19772,7 +19786,7 @@
       </c>
       <c r="G114" s="39">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H114" s="39">
         <f t="shared" si="8"/>
@@ -19780,15 +19794,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-456000</v>
+        <v>-524400</v>
       </c>
       <c r="J114" s="56">
         <f t="shared" si="10"/>
-        <v>-200000</v>
+        <v>-230000</v>
       </c>
       <c r="K114" s="56">
         <f t="shared" si="11"/>
-        <v>-256000</v>
+        <v>-294400</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -19813,7 +19827,7 @@
       </c>
       <c r="G115" s="39">
         <f t="shared" si="13"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H115" s="39">
         <f t="shared" si="8"/>
@@ -19825,11 +19839,11 @@
       </c>
       <c r="J115" s="56">
         <f t="shared" si="10"/>
-        <v>33500000</v>
+        <v>39500000</v>
       </c>
       <c r="K115" s="56">
         <f t="shared" si="11"/>
-        <v>-33500000</v>
+        <v>-39500000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -19854,7 +19868,7 @@
       </c>
       <c r="G116" s="39">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H116" s="39">
         <f t="shared" si="8"/>
@@ -19862,7 +19876,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-9440000</v>
+        <v>-11360000</v>
       </c>
       <c r="J116" s="56">
         <f t="shared" si="10"/>
@@ -19870,7 +19884,7 @@
       </c>
       <c r="K116" s="56">
         <f t="shared" si="11"/>
-        <v>-9440000</v>
+        <v>-11360000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -19895,7 +19909,7 @@
       </c>
       <c r="G117" s="39">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H117" s="39">
         <f t="shared" si="8"/>
@@ -19903,15 +19917,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>72520</v>
+        <v>90280</v>
       </c>
       <c r="J117" s="56">
         <f t="shared" si="10"/>
-        <v>5240109</v>
+        <v>6523401</v>
       </c>
       <c r="K117" s="56">
         <f t="shared" si="11"/>
-        <v>-5167589</v>
+        <v>-6433121</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -19937,7 +19951,7 @@
       </c>
       <c r="G118" s="39">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H118" s="39">
         <f t="shared" si="8"/>
@@ -19945,7 +19959,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>1063786500</v>
+        <v>1536580500</v>
       </c>
       <c r="J118" s="56">
         <f t="shared" si="10"/>
@@ -19953,7 +19967,7 @@
       </c>
       <c r="K118" s="56">
         <f t="shared" si="11"/>
-        <v>1063786500</v>
+        <v>1536580500</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -19979,7 +19993,7 @@
       </c>
       <c r="G119" s="39">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H119" s="39">
         <f t="shared" si="8"/>
@@ -19987,20 +20001,20 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>1719378</v>
+        <v>2865630</v>
       </c>
       <c r="J119" s="56">
         <f t="shared" si="10"/>
-        <v>1980972</v>
+        <v>3301620</v>
       </c>
       <c r="K119" s="56">
         <f t="shared" si="11"/>
-        <v>-261594</v>
+        <v>-435990</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -20013,14 +20027,14 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F120" s="11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G120" s="39">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20028,7 +20042,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I126" si="14">B120*(G120-H120)</f>
-        <v>28000000</v>
+        <v>52000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20036,33 +20050,50 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>28000000</v>
+        <v>52000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
+      <c r="A121" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B121" s="18">
+        <v>2600000</v>
+      </c>
+      <c r="C121" s="18">
+        <v>0</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E121" s="11"/>
+        <v>2600000</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>652</v>
+      </c>
       <c r="F121" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="39">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H121" s="11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="I121" s="11">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
+      <c r="J121" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
@@ -20221,7 +20252,7 @@
       <c r="A129" s="11"/>
       <c r="B129" s="31">
         <f>SUM(B2:B126)</f>
-        <v>41551847</v>
+        <v>44151847</v>
       </c>
       <c r="C129" s="31">
         <f>SUM(C2:C127)</f>
@@ -20229,7 +20260,7 @@
       </c>
       <c r="D129" s="31">
         <f>SUM(D2:D127)</f>
-        <v>29658329</v>
+        <v>32258329</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -20237,15 +20268,15 @@
       <c r="H129" s="11"/>
       <c r="I129" s="31">
         <f>SUM(I2:I124)</f>
-        <v>6414770426</v>
+        <v>6913392590</v>
       </c>
       <c r="J129" s="31">
         <f>SUM(J2:J124)</f>
-        <v>3945950914</v>
+        <v>4088673130</v>
       </c>
       <c r="K129" s="31">
         <f>SUM(K2:K124)</f>
-        <v>2468819512</v>
+        <v>2824719460</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20297,15 +20328,15 @@
       <c r="H132" s="11"/>
       <c r="I132" s="3">
         <f>I129/G2</f>
-        <v>14006048.965065502</v>
+        <v>14709345.936170213</v>
       </c>
       <c r="J132" s="31">
         <f>J129/G2</f>
-        <v>8615613.3493449781</v>
+        <v>8699304.5319148935</v>
       </c>
       <c r="K132" s="31">
         <f>K129/G2</f>
-        <v>5390435.6157205245</v>
+        <v>6010041.4042553194</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20330,11 +20361,11 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J136">
         <f>J129/I129*1448696</f>
-        <v>891143.86418856133</v>
+        <v>856778.25056633737</v>
       </c>
       <c r="K136">
         <f>K129/I129*1448696</f>
-        <v>557552.13581143867</v>
+        <v>591917.74943366263</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -25854,13 +25885,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B57" s="41">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -25880,13 +25911,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B58" s="41">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D58" s="11">
         <v>0</v>
@@ -26156,7 +26187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26206,7 +26237,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26214,7 +26245,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>36939400</v>
+        <v>37132800</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26232,7 +26263,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26240,7 +26271,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1140000000</v>
+        <v>1146000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26256,7 +26287,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26264,7 +26295,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-75600000</v>
+        <v>-76000000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26280,7 +26311,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26288,7 +26319,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-37600000</v>
+        <v>-37800000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26304,7 +26335,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26312,7 +26343,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20625000</v>
+        <v>-20735000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26328,7 +26359,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26336,7 +26367,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-74800000</v>
+        <v>-75200000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26352,7 +26383,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26360,7 +26391,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-74000000</v>
+        <v>-74400000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26376,7 +26407,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26384,7 +26415,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-343130500</v>
+        <v>-345031500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26400,7 +26431,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26408,7 +26439,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>718000000</v>
+        <v>722000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26424,7 +26455,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26432,7 +26463,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-381270000</v>
+        <v>-383400000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26448,7 +26479,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26456,7 +26487,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-15975000</v>
+        <v>-16065000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26472,7 +26503,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26480,7 +26511,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-708247800</v>
+        <v>-712249200</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26496,7 +26527,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26504,7 +26535,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-70000000</v>
+        <v>-70400000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26520,7 +26551,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26528,7 +26559,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>694000000</v>
+        <v>698000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26544,7 +26575,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26552,7 +26583,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>694000000</v>
+        <v>698000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26568,7 +26599,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26576,7 +26607,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>416400000</v>
+        <v>418800000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26592,7 +26623,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26600,7 +26631,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>347000000</v>
+        <v>349000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26616,7 +26647,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26624,7 +26655,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1038000000</v>
+        <v>1044000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26643,7 +26674,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26651,7 +26682,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-150146900</v>
+        <v>-151012300</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26667,7 +26698,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26675,7 +26706,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-150146900</v>
+        <v>-151012300</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26691,7 +26722,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26699,7 +26730,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-150146900</v>
+        <v>-151012300</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26715,7 +26746,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26723,7 +26754,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-150146900</v>
+        <v>-151012300</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26739,7 +26770,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26747,7 +26778,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-150146900</v>
+        <v>-151012300</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26763,7 +26794,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26771,7 +26802,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-69400000</v>
+        <v>-69800000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26787,7 +26818,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26795,7 +26826,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1035000000</v>
+        <v>1041000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26811,7 +26842,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26819,7 +26850,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-68800000</v>
+        <v>-69200000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26835,7 +26866,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26843,7 +26874,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>684000000</v>
+        <v>688000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26859,7 +26890,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26867,7 +26898,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2394273600</v>
+        <v>-2408275200</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26883,7 +26914,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26891,7 +26922,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1023306900</v>
+        <v>-1029308700</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26907,7 +26938,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26915,7 +26946,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-576606000</v>
+        <v>-579997800</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26931,7 +26962,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26939,7 +26970,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>334084800</v>
+        <v>336073400</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26955,7 +26986,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26963,7 +26994,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11615121</v>
+        <v>11685303</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -26981,7 +27012,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -26989,7 +27020,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-281350000</v>
+        <v>-283050000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -27005,7 +27036,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -27013,7 +27044,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-61531500</v>
+        <v>-61912500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -27029,7 +27060,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -27037,7 +27068,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>64200000</v>
+        <v>64600000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -27053,7 +27084,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -27061,7 +27092,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-64400000</v>
+        <v>-64800000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27077,7 +27108,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27085,7 +27116,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>89940994</v>
+        <v>90542606</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27103,7 +27134,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27111,7 +27142,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-28405000</v>
+        <v>-28595000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27127,7 +27158,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27135,7 +27166,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-26342797</v>
+        <v>-26519003</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27151,7 +27182,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27159,7 +27190,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-35280000</v>
+        <v>-35520000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27175,7 +27206,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27183,7 +27214,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>271055284</v>
+        <v>273055692</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27201,7 +27232,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27209,7 +27240,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-21440000</v>
+        <v>-21600000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27225,7 +27256,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27233,7 +27264,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-55711656</v>
+        <v>-56133714</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27249,7 +27280,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27257,7 +27288,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-52600000</v>
+        <v>-53000000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27273,7 +27304,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27281,7 +27312,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-24890000</v>
+        <v>-25080000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27297,7 +27328,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27305,7 +27336,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11700000</v>
+        <v>-11790000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27321,7 +27352,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27329,7 +27360,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16686800</v>
+        <v>-16815160</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27345,7 +27376,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27353,7 +27384,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-7063388</v>
+        <v>-7118356</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27369,7 +27400,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27377,7 +27408,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-36096000</v>
+        <v>-36378000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27393,7 +27424,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27401,7 +27432,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6846976</v>
+        <v>-6900468</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27417,7 +27448,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27425,7 +27456,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13591500</v>
+        <v>-13698100</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27441,7 +27472,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27449,7 +27480,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>253000000</v>
+        <v>255000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27465,7 +27496,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27473,7 +27504,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5208000</v>
+        <v>-5250000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27489,7 +27520,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27497,7 +27528,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-242183500</v>
+        <v>-244144500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27513,7 +27544,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27521,7 +27552,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-11115000</v>
+        <v>-11205000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27537,7 +27568,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27545,7 +27576,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>700209037</v>
+        <v>706219415</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27563,7 +27594,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27571,7 +27602,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>466000000</v>
+        <v>470000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27587,7 +27618,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27595,7 +27626,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>464000000</v>
+        <v>468000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27611,7 +27642,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27619,7 +27650,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1631349500</v>
+        <v>-1645352500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27635,7 +27666,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27643,7 +27674,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>624000000</v>
+        <v>630000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27659,7 +27690,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27667,7 +27698,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5638672</v>
+        <v>-5692890</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27683,7 +27714,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27691,7 +27722,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6861712</v>
+        <v>-6927690</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27707,7 +27738,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27715,7 +27746,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>621000000</v>
+        <v>627000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27731,7 +27762,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27739,7 +27770,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>614790000</v>
+        <v>620730000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27755,7 +27786,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27763,7 +27794,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>207000000</v>
+        <v>209000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27779,7 +27810,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27787,7 +27818,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
-        <v>6210000</v>
+        <v>6270000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27803,7 +27834,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27811,7 +27842,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>6180000000</v>
+        <v>6240000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27827,7 +27858,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27835,7 +27866,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-41200000</v>
+        <v>-41600000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27851,7 +27882,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27859,7 +27890,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>287000000</v>
+        <v>289800000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27875,7 +27906,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27883,7 +27914,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>533000000</v>
+        <v>538200000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27899,7 +27930,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27907,7 +27938,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-206000000</v>
+        <v>-208000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27923,7 +27954,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27931,7 +27962,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>3045000000</v>
+        <v>3075000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27947,7 +27978,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27955,7 +27986,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-2985835800</v>
+        <v>-3015844200</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -27971,7 +28002,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -27979,7 +28010,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-591000000</v>
+        <v>-597000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -27995,7 +28026,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -28003,7 +28034,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-39400000</v>
+        <v>-39800000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -28019,7 +28050,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -28027,7 +28058,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2364591000</v>
+        <v>-2388597000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -28043,7 +28074,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -28051,7 +28082,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-579173700</v>
+        <v>-585175500</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -28067,7 +28098,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -28075,7 +28106,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4301000000</v>
+        <v>4347000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28091,7 +28122,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28099,7 +28130,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-109891500</v>
+        <v>-111092500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28115,7 +28146,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28123,7 +28154,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-36600000</v>
+        <v>-37000000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28139,7 +28170,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28147,7 +28178,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>51263001</v>
+        <v>51829443</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28165,7 +28196,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28173,7 +28204,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-36400000</v>
+        <v>-36800000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28189,7 +28220,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28197,7 +28228,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>358000000</v>
+        <v>362000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28213,7 +28244,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28221,7 +28252,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-35400000</v>
+        <v>-35800000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28237,7 +28268,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28245,7 +28276,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-34200000</v>
+        <v>-34600000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28261,7 +28292,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28269,7 +28300,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-223925000</v>
+        <v>-226575000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28285,7 +28316,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28293,7 +28324,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-77000000</v>
+        <v>-78000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28309,7 +28340,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28317,7 +28348,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-18480000</v>
+        <v>-18720000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28333,7 +28364,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28341,7 +28372,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>64658955</v>
+        <v>65515365</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28359,7 +28390,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28367,7 +28398,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-447298000</v>
+        <v>-453302000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28385,7 +28416,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28393,7 +28424,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-30135000</v>
+        <v>-30545000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28411,7 +28442,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28419,7 +28450,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-51523500</v>
+        <v>-52224500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28437,7 +28468,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28445,7 +28476,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>135000000</v>
+        <v>137000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28463,7 +28494,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28471,7 +28502,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1170000000</v>
+        <v>1188000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28490,7 +28521,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28498,7 +28529,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3354000000</v>
+        <v>-3406000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28516,7 +28547,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28524,7 +28555,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3354000000</v>
+        <v>-3406000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28540,7 +28571,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28548,7 +28579,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3328000000</v>
+        <v>3380000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28564,7 +28595,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28572,7 +28603,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-25800000</v>
+        <v>-26200000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28591,7 +28622,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28599,7 +28630,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3679200000</v>
+        <v>3737600000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28615,7 +28646,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28623,7 +28654,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>48393345</v>
+        <v>49193235</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28641,7 +28672,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28649,7 +28680,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>240000000</v>
+        <v>244000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28667,7 +28698,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28675,7 +28706,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>892500000</v>
+        <v>907500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28693,7 +28724,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28701,7 +28732,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-7920000000</v>
+        <v>-8052000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28719,7 +28750,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28727,7 +28758,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-17400000</v>
+        <v>-17690000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28745,7 +28776,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28753,7 +28784,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>702000000</v>
+        <v>714000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28771,7 +28802,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28779,7 +28810,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-696684400</v>
+        <v>-708696200</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28797,7 +28828,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28805,7 +28836,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>672000000</v>
+        <v>684000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28823,7 +28854,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28831,7 +28862,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-12120000</v>
+        <v>-12360000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28849,7 +28880,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28857,7 +28888,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>396000000</v>
+        <v>404000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28875,7 +28906,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28883,7 +28914,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>274400000</v>
+        <v>280000000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28901,7 +28932,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28909,7 +28940,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-19000000</v>
+        <v>-19400000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28927,7 +28958,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28935,7 +28966,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6724830</v>
+        <v>6869450</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>515</v>
@@ -28953,7 +28984,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28961,7 +28992,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-15400000</v>
+        <v>-15800000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -28982,7 +29013,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -28990,7 +29021,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-836000000</v>
+        <v>-858000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>516</v>
@@ -29008,7 +29039,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -29016,7 +29047,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-15200000</v>
+        <v>-15600000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -29037,7 +29068,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -29045,7 +29076,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-33337000</v>
+        <v>-34238000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>518</v>
@@ -29063,7 +29094,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -29071,7 +29102,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-14800000</v>
+        <v>-15200000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>519</v>
@@ -29092,7 +29123,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29100,7 +29131,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-10509400</v>
+        <v>-10818500</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>522</v>
@@ -29118,7 +29149,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29126,7 +29157,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-21760</v>
+        <v>-22400</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>523</v>
@@ -29144,7 +29175,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29152,7 +29183,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-28944000</v>
+        <v>-29808000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>525</v>
@@ -29170,7 +29201,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29178,7 +29209,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>4442580</v>
+        <v>4590666</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>527</v>
@@ -29196,7 +29227,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29204,7 +29235,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-2080000</v>
+        <v>-2184000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>554</v>
@@ -29222,7 +29253,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29230,7 +29261,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>33236</v>
+        <v>35610</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>609</v>
@@ -29248,7 +29279,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29256,7 +29287,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>64800000</v>
+        <v>69600000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>607</v>
@@ -29264,7 +29295,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -29274,7 +29305,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29282,15 +29313,15 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>33570000</v>
+        <v>36255600</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -29300,7 +29331,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29308,15 +29339,15 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>33570000</v>
+        <v>36255600</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -29326,7 +29357,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29334,7 +29365,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-2800000</v>
+        <v>-3200000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29342,7 +29373,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -29352,7 +29383,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29360,10 +29391,10 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-187416</v>
+        <v>-218652</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -29371,7 +29402,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -29381,7 +29412,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29389,7 +29420,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-2200000</v>
+        <v>-2600000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>519</v>
@@ -29397,7 +29428,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -29407,7 +29438,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D146" si="6">D132+C131</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
@@ -29415,15 +29446,15 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-2000000</v>
+        <v>-2400000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -29433,7 +29464,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -29441,15 +29472,15 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-3510000</v>
+        <v>-4290000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -29459,7 +29490,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -29467,15 +29498,15 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-220500</v>
+        <v>-269500</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -29485,7 +29516,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -29493,7 +29524,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-760000</v>
+        <v>-950000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
@@ -29501,7 +29532,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -29511,7 +29542,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -29519,15 +29550,15 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-800000</v>
+        <v>-1200000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -29537,7 +29568,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -29545,25 +29576,25 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>50000000</v>
+        <v>150000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
       </c>
       <c r="C137" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -29571,29 +29602,37 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="11"/>
+      <c r="A138" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C138" s="11">
+        <v>1</v>
+      </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G138" s="11"/>
+      <c r="G138" s="11" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
@@ -29765,14 +29804,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="31">
         <f>SUM(B2:B146)</f>
-        <v>65807573</v>
+        <v>67807573</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="31">
         <f>SUM(F2:F146)</f>
-        <v>4474511306</v>
+        <v>4606126452</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -29806,7 +29845,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>11682797.143603133</v>
+        <v>11963964.81038961</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -29840,8 +29879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30043,13 +30082,15 @@
       </c>
       <c r="F6" s="63">
         <f>K23</f>
-        <v>170317547.78082192</v>
+        <v>175365095.7260274</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>2368629.7891781032</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>-2678918.1560273767</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>654</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
@@ -30083,18 +30124,18 @@
         <v>178169078.94090003</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="K7" s="46">
         <f>2*(J31+L31)</f>
-        <v>47254794.520547941</v>
+        <v>47276493.15068493</v>
       </c>
       <c r="L7" s="3">
         <f>K7</f>
-        <v>47254794.520547941</v>
+        <v>47276493.15068493</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ref="M7:M8" si="3">K7-L7</f>
@@ -30126,18 +30167,18 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="K8" s="46">
         <f>J31+L31</f>
-        <v>23627397.260273971</v>
+        <v>23638246.575342465</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>23627397.260273971</v>
+        <v>23638246.575342465</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -30167,13 +30208,13 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B148</f>
-        <v>65807573</v>
+        <v>67807573</v>
       </c>
       <c r="L9" s="3">
-        <v>19807573</v>
+        <f>K9-M9</f>
+        <v>21807573</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" ref="M9:M22" si="4">K9-L9</f>
         <v>46000000</v>
       </c>
     </row>
@@ -30211,7 +30252,7 @@
         <v>50000</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M9:M22" si="4">K10-L10</f>
         <v>0</v>
       </c>
     </row>
@@ -30242,14 +30283,14 @@
       </c>
       <c r="K11" s="46">
         <f>سارا!D129</f>
-        <v>29658329</v>
+        <v>32258329</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
-        <v>29658329</v>
+        <v>32258329</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -30349,7 +30390,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K14" s="46">
         <v>1150000</v>
@@ -30448,11 +30489,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>205000</v>
+        <v>740000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>205000</v>
+        <v>740000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
@@ -30504,14 +30545,14 @@
         <v>469</v>
       </c>
       <c r="K17" s="46">
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>200000</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="11" t="s">
@@ -30797,19 +30838,19 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>170317547.78082192</v>
+        <v>175365095.7260274</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>59967367.520547941</v>
+        <v>62524066.150684923</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>110350180.26027396</v>
+        <v>112841029.57534246</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -30849,19 +30890,19 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>98285356</v>
+        <v>103300356</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>20062573</v>
+        <v>22597573</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>78222783</v>
+        <v>80702783</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -31121,15 +31162,15 @@
         <v>22000000</v>
       </c>
       <c r="K31" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L31" s="46">
         <f>J31*0.18*K31/365</f>
-        <v>1627397.2602739725</v>
+        <v>1638246.5753424657</v>
       </c>
       <c r="M31" s="46">
         <f>J31*0.24*K31/365</f>
-        <v>2169863.01369863</v>
+        <v>2184328.7671232875</v>
       </c>
       <c r="N31" s="27"/>
       <c r="P31" s="1" t="s">
@@ -31168,7 +31209,7 @@
       <c r="H32" s="11"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
@@ -31211,7 +31252,7 @@
       <c r="H33" s="11"/>
       <c r="L33" s="7">
         <f>M31-L31</f>
-        <v>542465.75342465751</v>
+        <v>546082.19178082189</v>
       </c>
       <c r="O33" s="33" t="s">
         <v>25</v>
@@ -31438,7 +31479,7 @@
         <v>1481000000</v>
       </c>
       <c r="K39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
@@ -31481,7 +31522,7 @@
         <v>32.195652173913047</v>
       </c>
       <c r="K40" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">
@@ -31730,7 +31771,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P48" s="35" t="s">
         <v>329</v>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="تیر 96" sheetId="23" r:id="rId1"/>
+    <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
     <sheet name="سارا" sheetId="20" r:id="rId2"/>
     <sheet name="مسکن مریم یاران" sheetId="13" r:id="rId3"/>
     <sheet name="مسکن ایلیا" sheetId="15" r:id="rId4"/>
@@ -29,13 +29,14 @@
     <sheet name="فروردین 96" sheetId="19" r:id="rId20"/>
     <sheet name="اردیبهشت 96" sheetId="21" r:id="rId21"/>
     <sheet name="خرداد 96" sheetId="22" r:id="rId22"/>
+    <sheet name="تیر 96" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="685">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1774,9 +1775,6 @@
     <t>تسمه تایم</t>
   </si>
   <si>
-    <t>برای اینکه در 18 ماه اوراق تعلق بگیرد باید از تاریخ 15/3/96 39 میلیون در حساب اضافه کرد</t>
-  </si>
-  <si>
     <t>برای اینکه در 18 ماه اوراق تعلق بگیرد باید از تاریخ 15/3/96 مبلغ 38 میلیون در حساب اضافه کرد</t>
   </si>
   <si>
@@ -1834,9 +1832,6 @@
     <t>17/3/96</t>
   </si>
   <si>
-    <t>هشتصد به کارت ملت علی و 200 نقدی گرفتم</t>
-  </si>
-  <si>
     <t>تاریخ 16/3 از کارت یاران گرفتم</t>
   </si>
   <si>
@@ -2006,6 +2001,96 @@
   </si>
   <si>
     <t>حواله اچ سی مریم 3 اسفند 18 درصد تا آخر مرداد</t>
+  </si>
+  <si>
+    <t>1/5/1396</t>
+  </si>
+  <si>
+    <t>سود تیر</t>
+  </si>
+  <si>
+    <t>هشتصد به کارت ملت علی و 200 نقدی گرفتم (دقیق کردن حساب)</t>
+  </si>
+  <si>
+    <t>برای اینکه در 18 ماه اوراق تعلق بگیرد باید از تاریخ 1/5/1396 مبلغ  23 میلیون در حساب اضافه کرد</t>
+  </si>
+  <si>
+    <t>موجود</t>
+  </si>
+  <si>
+    <t>روز</t>
+  </si>
+  <si>
+    <t>امتیاز مورد نیاز</t>
+  </si>
+  <si>
+    <t>امتیاز با منابع موجود</t>
+  </si>
+  <si>
+    <t>امتیاز 106 روز اول</t>
+  </si>
+  <si>
+    <t>موجودی 106 روز اول</t>
+  </si>
+  <si>
+    <t>موجودی 31 روز بعد</t>
+  </si>
+  <si>
+    <t>امتیاز 31 روز بعد</t>
+  </si>
+  <si>
+    <t>کل امتیاز</t>
+  </si>
+  <si>
+    <t>تا 15/9/1396</t>
+  </si>
+  <si>
+    <t>تا 15/8/1396</t>
+  </si>
+  <si>
+    <t>کمکی</t>
+  </si>
+  <si>
+    <t>بابت</t>
+  </si>
+  <si>
+    <t>اجاره</t>
+  </si>
+  <si>
+    <t>حقوق و سود مرداد</t>
+  </si>
+  <si>
+    <t>حقوق و سود شهریور</t>
+  </si>
+  <si>
+    <t>حقوق و سود مهر</t>
+  </si>
+  <si>
+    <t>حقوق و سود آبان</t>
+  </si>
+  <si>
+    <t>15/5/1396</t>
+  </si>
+  <si>
+    <t>1/6/1396</t>
+  </si>
+  <si>
+    <t>1/7/1396</t>
+  </si>
+  <si>
+    <t>1/8/1396</t>
+  </si>
+  <si>
+    <t>1/9/1396</t>
+  </si>
+  <si>
+    <t>15/7/1396</t>
+  </si>
+  <si>
+    <t>اوراق حساب مریم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حواله اچ سی </t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2338,9 +2423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2356,6 +2438,13 @@
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2688,20 +2777,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2747,19 +2837,19 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B2" s="3">
-        <f>'خرداد 96'!B24</f>
-        <v>39456327</v>
+        <f>'تیر 96'!B24</f>
+        <v>44151848</v>
       </c>
       <c r="C2" s="1">
-        <f>'خرداد 96'!C24</f>
-        <v>11783464</v>
+        <f>'تیر 96'!C24</f>
+        <v>11893518</v>
       </c>
       <c r="D2" s="3">
         <f>B2-C2</f>
-        <v>27672863</v>
+        <v>32258330</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>59</v>
@@ -2769,15 +2859,15 @@
       </c>
       <c r="G2">
         <f>B2*F2</f>
-        <v>1223146137</v>
+        <v>1368707288</v>
       </c>
       <c r="H2">
         <f>C2*F2</f>
-        <v>365287384</v>
+        <v>368699058</v>
       </c>
       <c r="I2">
         <f>D2*F2</f>
-        <v>857858753</v>
+        <v>1000008230</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2791,35 +2881,35 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B3" s="42">
-        <v>95521</v>
+        <v>384551</v>
       </c>
       <c r="C3" s="42">
-        <v>110054</v>
-      </c>
-      <c r="D3" s="38">
+        <v>110908</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D22" si="0">B3-C3</f>
-        <v>-14533</v>
+        <v>273643</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G23" si="1">B3*F3</f>
-        <v>2865630</v>
+        <v>11536530</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H23" si="2">C3*F3</f>
-        <v>3301620</v>
+        <v>3327240</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I23" si="3">D3*F3</f>
-        <v>-435990</v>
+        <v>8209290</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -2833,27 +2923,25 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B4" s="18">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="F4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>52000000</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
@@ -2861,7 +2949,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>52000000</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -2875,21 +2963,19 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B5" s="18">
-        <v>2600000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>2600000</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5">
         <v>0</v>
       </c>
@@ -3599,15 +3685,15 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>44151848</v>
+        <v>44536399</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
-        <v>11893518</v>
+        <v>12004426</v>
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>32258330</v>
+        <v>32531973</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3623,15 +3709,15 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1278011767</v>
+        <v>1380243818</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
-        <v>368589004</v>
+        <v>372026298</v>
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>909422763</v>
+        <v>1008217520</v>
       </c>
       <c r="O25">
         <v>24</v>
@@ -3705,22 +3791,21 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D30" s="45">
-        <v>6937302</v>
+        <v>8478102</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>95</v>
       </c>
       <c r="G30" s="18">
-        <f>G25*11/36500</f>
-        <v>385154.23115068494</v>
+        <v>384551</v>
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>111081.61764383563</v>
+        <v>103650.58916148538</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>274072.61350684933</v>
+        <v>280900.41083851462</v>
       </c>
       <c r="O30">
         <v>29</v>
@@ -3732,13 +3817,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="45">
-        <v>1342800</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E31" s="57"/>
       <c r="G31" s="9" t="s">
         <v>415</v>
       </c>
@@ -3761,11 +3844,9 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="45">
-        <v>-44000</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="44"/>
       <c r="O32">
         <v>31</v>
       </c>
@@ -3778,11 +3859,9 @@
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" s="45">
-        <v>-25000</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" s="44"/>
       <c r="P33" t="s">
         <v>60</v>
       </c>
@@ -3792,35 +3871,27 @@
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" s="45">
-        <v>-13000</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="45">
-        <v>200000</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="45">
-        <v>-120000</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" s="7">
@@ -3858,22 +3929,6 @@
     <row r="44" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D44" s="7"/>
       <c r="E44" s="44"/>
-    </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D45" s="7"/>
-      <c r="E45" s="44"/>
-    </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D46" s="7"/>
-      <c r="E46" s="44"/>
-    </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D47" s="7"/>
-      <c r="E47" s="44"/>
-    </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="7"/>
-      <c r="E48" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15111,11 +15166,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138:M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15126,10 +15181,11 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -15190,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="39">
-        <f t="shared" ref="G2:G65" si="0">G3+F2</f>
+        <f>G3+F2</f>
         <v>470</v>
       </c>
       <c r="H2" s="39">
@@ -15221,7 +15277,7 @@
         <v>11387000</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D19" si="1">B3-C3</f>
+        <f t="shared" ref="D3:D19" si="0">B3-C3</f>
         <v>8513000</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -15231,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G66" si="1">G4+F3</f>
         <v>469</v>
       </c>
       <c r="H3" s="39">
@@ -15262,7 +15318,7 @@
         <v>8500</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-8500</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -15272,7 +15328,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>469</v>
       </c>
       <c r="H4" s="39">
@@ -15303,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -15313,7 +15369,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
       <c r="H5" s="39">
@@ -15344,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -15354,7 +15410,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="H6" s="39">
@@ -15385,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1200500</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -15395,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="H7" s="39">
@@ -15426,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -15436,7 +15492,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="H8" s="39">
@@ -15467,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-705500</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -15477,7 +15533,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="H9" s="39">
@@ -15508,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -15518,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>444</v>
       </c>
       <c r="H10" s="39">
@@ -15549,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -15559,7 +15615,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>444</v>
       </c>
       <c r="H11" s="39">
@@ -15590,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-300000</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -15600,7 +15656,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
       <c r="H12" s="39">
@@ -15631,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-62000</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -15641,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>435</v>
       </c>
       <c r="H13" s="39">
@@ -15672,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -15682,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>435</v>
       </c>
       <c r="H14" s="39">
@@ -15713,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -15723,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>434</v>
       </c>
       <c r="H15" s="39">
@@ -15754,7 +15810,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -15764,7 +15820,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>434</v>
       </c>
       <c r="H16" s="39">
@@ -15795,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2000000</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -15805,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
       <c r="H17" s="39">
@@ -15839,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-300000</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -15849,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>429</v>
       </c>
       <c r="H18" s="39">
@@ -15880,7 +15936,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-200000</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -15890,7 +15946,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>428</v>
       </c>
       <c r="H19" s="39">
@@ -15931,7 +15987,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>426</v>
       </c>
       <c r="H20" s="39">
@@ -15972,7 +16028,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>424</v>
       </c>
       <c r="H21" s="39">
@@ -16013,7 +16069,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>421</v>
       </c>
       <c r="H22" s="39">
@@ -16054,7 +16110,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="H23" s="39">
@@ -16095,7 +16151,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>419</v>
       </c>
       <c r="H24" s="39">
@@ -16136,7 +16192,7 @@
         <v>8</v>
       </c>
       <c r="G25" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="H25" s="39">
@@ -16177,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
       <c r="H26" s="39">
@@ -16218,7 +16274,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="H27" s="39">
@@ -16259,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="H28" s="39">
@@ -16300,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="H29" s="39">
@@ -16341,7 +16397,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393</v>
       </c>
       <c r="H30" s="39">
@@ -16382,7 +16438,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="H31" s="39">
@@ -16423,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="H32" s="39">
@@ -16464,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>373</v>
       </c>
       <c r="H33" s="39">
@@ -16505,7 +16561,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>373</v>
       </c>
       <c r="H34" s="39">
@@ -16546,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>364</v>
       </c>
       <c r="H35" s="39">
@@ -16587,7 +16643,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>364</v>
       </c>
       <c r="H36" s="39">
@@ -16628,7 +16684,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354</v>
       </c>
       <c r="H37" s="39">
@@ -16669,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353</v>
       </c>
       <c r="H38" s="39">
@@ -16710,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="H39" s="39">
@@ -16751,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="H40" s="39">
@@ -16792,7 +16848,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="H41" s="39">
@@ -16833,7 +16889,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349</v>
       </c>
       <c r="H42" s="39">
@@ -16874,7 +16930,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="H43" s="39">
@@ -16915,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343</v>
       </c>
       <c r="H44" s="39">
@@ -16956,7 +17012,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343</v>
       </c>
       <c r="H45" s="39">
@@ -16997,7 +17053,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="H46" s="39">
@@ -17038,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="H47" s="39">
@@ -17079,7 +17135,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="H48" s="39">
@@ -17120,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H49" s="39">
@@ -17161,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H50" s="39">
@@ -17202,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H51" s="39">
@@ -17243,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H52" s="39">
@@ -17284,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H53" s="39">
@@ -17325,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H54" s="39">
@@ -17366,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H55" s="39">
@@ -17407,7 +17463,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H56" s="39">
@@ -17448,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H57" s="39">
@@ -17489,7 +17545,7 @@
         <v>3</v>
       </c>
       <c r="G58" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H58" s="39">
@@ -17530,7 +17586,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>320</v>
       </c>
       <c r="H59" s="39">
@@ -17571,7 +17627,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
       <c r="H60" s="39">
@@ -17612,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>317</v>
       </c>
       <c r="H61" s="39">
@@ -17653,7 +17709,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>317</v>
       </c>
       <c r="H62" s="39">
@@ -17694,7 +17750,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="H63" s="39">
@@ -17735,7 +17791,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="H64" s="39">
@@ -17776,7 +17832,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
       <c r="H65" s="39">
@@ -17817,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="39">
-        <f t="shared" ref="G66:G110" si="7">G67+F66</f>
+        <f t="shared" si="1"/>
         <v>303</v>
       </c>
       <c r="H66" s="39">
@@ -17858,11 +17914,11 @@
         <v>18</v>
       </c>
       <c r="G67" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G67:G128" si="7">G68+F67</f>
         <v>302</v>
       </c>
       <c r="H67" s="39">
-        <f t="shared" ref="H67:H121" si="8">IF(B67&gt;0,1,0)</f>
+        <f t="shared" ref="H67:H122" si="8">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67" s="11">
@@ -17870,11 +17926,11 @@
         <v>27488825</v>
       </c>
       <c r="J67" s="56">
-        <f t="shared" ref="J67:J121" si="10">C67*(G67-H67)</f>
+        <f t="shared" ref="J67:J122" si="10">C67*(G67-H67)</f>
         <v>19782623</v>
       </c>
       <c r="K67" s="56">
-        <f t="shared" ref="K67:K121" si="11">D67*(G67-H67)</f>
+        <f t="shared" ref="K67:K122" si="11">D67*(G67-H67)</f>
         <v>7706202</v>
       </c>
     </row>
@@ -19662,7 +19718,7 @@
         <v>16</v>
       </c>
       <c r="G111" s="39">
-        <f>G112+F111</f>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="H111" s="39">
@@ -19703,7 +19759,7 @@
         <v>15</v>
       </c>
       <c r="G112" s="39">
-        <f>G113+F112</f>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="H112" s="39">
@@ -19744,7 +19800,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="39">
-        <f t="shared" ref="G113:G128" si="13">G114+F113</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="H113" s="39">
@@ -19785,7 +19841,7 @@
         <v>13</v>
       </c>
       <c r="G114" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="H114" s="39">
@@ -19826,7 +19882,7 @@
         <v>8</v>
       </c>
       <c r="G115" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="H115" s="39">
@@ -19867,7 +19923,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="H116" s="39">
@@ -19908,7 +19964,7 @@
         <v>22</v>
       </c>
       <c r="G117" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="H117" s="39">
@@ -19931,7 +19987,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -19944,13 +20000,13 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F118" s="39">
         <v>9</v>
       </c>
       <c r="G118" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="H118" s="39">
@@ -19973,7 +20029,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B119" s="42">
         <v>95521</v>
@@ -19986,13 +20042,13 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F119" s="39">
         <v>4</v>
       </c>
       <c r="G119" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="H119" s="39">
@@ -20014,7 +20070,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -20027,13 +20083,13 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F120" s="11">
         <v>26</v>
       </c>
       <c r="G120" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="H120" s="11">
@@ -20041,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="11">
-        <f t="shared" ref="I120:I126" si="14">B120*(G120-H120)</f>
+        <f t="shared" ref="I120:I126" si="13">B120*(G120-H120)</f>
         <v>52000000</v>
       </c>
       <c r="J120" s="11">
@@ -20056,7 +20112,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -20069,13 +20125,13 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
       </c>
       <c r="G121" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H121" s="11">
@@ -20083,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J121" s="11">
@@ -20096,28 +20152,48 @@
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18">
+      <c r="A122" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B122" s="42">
+        <v>384551</v>
+      </c>
+      <c r="C122" s="42">
+        <v>110908</v>
+      </c>
+      <c r="D122" s="42">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E122" s="11"/>
+        <v>273643</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>656</v>
+      </c>
       <c r="F122" s="11">
         <v>0</v>
       </c>
       <c r="G122" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
+        <v>-384551</v>
+      </c>
+      <c r="J122" s="11">
+        <f t="shared" si="10"/>
+        <v>-110908</v>
+      </c>
+      <c r="K122" s="11">
+        <f t="shared" si="11"/>
+        <v>-273643</v>
+      </c>
+      <c r="N122" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
@@ -20132,12 +20208,12 @@
         <v>0</v>
       </c>
       <c r="G123" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J123" s="11"/>
@@ -20156,12 +20232,12 @@
         <v>0</v>
       </c>
       <c r="G124" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H124" s="11"/>
       <c r="I124" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J124" s="11"/>
@@ -20180,12 +20256,12 @@
         <v>0</v>
       </c>
       <c r="G125" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H125" s="11"/>
       <c r="I125" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J125" s="11"/>
@@ -20201,12 +20277,12 @@
         <v>0</v>
       </c>
       <c r="G126" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H126" s="11"/>
       <c r="I126" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J126" s="11"/>
@@ -20222,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H127" s="11"/>
@@ -20240,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H128" s="11"/>
@@ -20252,15 +20328,15 @@
       <c r="A129" s="11"/>
       <c r="B129" s="31">
         <f>SUM(B2:B126)</f>
-        <v>44151847</v>
+        <v>44536398</v>
       </c>
       <c r="C129" s="31">
         <f>SUM(C2:C127)</f>
-        <v>11893518</v>
+        <v>12004426</v>
       </c>
       <c r="D129" s="31">
         <f>SUM(D2:D127)</f>
-        <v>32258329</v>
+        <v>32531972</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -20268,15 +20344,15 @@
       <c r="H129" s="11"/>
       <c r="I129" s="31">
         <f>SUM(I2:I124)</f>
-        <v>6913392590</v>
+        <v>6913008039</v>
       </c>
       <c r="J129" s="31">
         <f>SUM(J2:J124)</f>
-        <v>4088673130</v>
+        <v>4088562222</v>
       </c>
       <c r="K129" s="31">
         <f>SUM(K2:K124)</f>
-        <v>2824719460</v>
+        <v>2824445817</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20328,15 +20404,15 @@
       <c r="H132" s="11"/>
       <c r="I132" s="3">
         <f>I129/G2</f>
-        <v>14709345.936170213</v>
+        <v>14708527.742553191</v>
       </c>
       <c r="J132" s="31">
         <f>J129/G2</f>
-        <v>8699304.5319148935</v>
+        <v>8699068.5574468076</v>
       </c>
       <c r="K132" s="31">
         <f>K129/G2</f>
-        <v>6010041.4042553194</v>
+        <v>6009459.1851063827</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20361,16 +20437,11 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J136">
         <f>J129/I129*1448696</f>
-        <v>856778.25056633737</v>
+        <v>856802.66872932995</v>
       </c>
       <c r="K136">
         <f>K129/I129*1448696</f>
-        <v>591917.74943366263</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E138" s="22" t="s">
-        <v>579</v>
+        <v>591893.33127067005</v>
       </c>
     </row>
   </sheetData>
@@ -22995,7 +23066,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -23008,7 +23079,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -23963,7 +24034,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -23971,7 +24042,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -23979,7 +24050,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -23987,7 +24058,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24008,6 +24079,1199 @@
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
         <v>6937302</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+      <c r="E43" s="44"/>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="E46" s="44"/>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D47" s="7"/>
+      <c r="E47" s="44"/>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="E48" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="3">
+        <f>'خرداد 96'!B24</f>
+        <v>39456327</v>
+      </c>
+      <c r="C2" s="1">
+        <f>'خرداد 96'!C24</f>
+        <v>11783464</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2-C2</f>
+        <v>27672863</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <f>B2*F2</f>
+        <v>1223146137</v>
+      </c>
+      <c r="H2">
+        <f>C2*F2</f>
+        <v>365287384</v>
+      </c>
+      <c r="I2">
+        <f>D2*F2</f>
+        <v>857858753</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="42">
+        <v>95521</v>
+      </c>
+      <c r="C3" s="42">
+        <v>110054</v>
+      </c>
+      <c r="D3" s="38">
+        <f t="shared" ref="D3:D22" si="0">B3-C3</f>
+        <v>-14533</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="1">B3*F3</f>
+        <v>2865630</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="2">C3*F3</f>
+        <v>3301620</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I23" si="3">D3*F3</f>
+        <v>-435990</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>52000000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>52000000</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2600000</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2600000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>0</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>B13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>19</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>0</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>0</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(B2:B22)</f>
+        <v>44151848</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C2:C22)</f>
+        <v>11893518</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(D2:D22)</f>
+        <v>32258330</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="18">
+        <f>SUM(G2:G23)</f>
+        <v>1278011767</v>
+      </c>
+      <c r="H25" s="18">
+        <f>SUM(H2:H23)</f>
+        <v>368589004</v>
+      </c>
+      <c r="I25" s="18">
+        <f>SUM(I2:I23)</f>
+        <v>909422763</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>27</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="45">
+        <v>6937302</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="18">
+        <v>384551</v>
+      </c>
+      <c r="H30" s="18">
+        <f>G30*H25/G25</f>
+        <v>110907.64086619244</v>
+      </c>
+      <c r="I30" s="18">
+        <f>G30*I25/G25</f>
+        <v>273643.35913380759</v>
+      </c>
+      <c r="O30">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="45">
+        <v>1342800</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>616</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="D32" s="45">
+        <v>-44000</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="O32">
+        <v>31</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="45">
+        <v>-25000</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="P33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34" s="45">
+        <v>-13000</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35" s="45">
+        <v>200000</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="45">
+        <v>-120000</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="44"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+      <c r="E40" s="44"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="44"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42" s="7">
+        <f>SUM(D30:D39)</f>
+        <v>8478102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -24047,8 +25311,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J64" sqref="J64"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24125,7 +25389,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -24133,7 +25397,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>11550000</v>
+        <v>13950000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -24167,7 +25431,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -24175,7 +25439,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>681000000</v>
+        <v>825000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -24209,7 +25473,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -24217,7 +25481,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>678000000</v>
+        <v>822000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -24244,7 +25508,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -24252,7 +25516,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3390000000</v>
+        <v>4110000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -24291,7 +25555,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -24299,7 +25563,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>675000000</v>
+        <v>819000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -24338,7 +25602,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -24346,7 +25610,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-675000000</v>
+        <v>-819000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -24388,7 +25652,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -24396,7 +25660,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-45000000</v>
+        <v>-54600000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -24438,7 +25702,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -24446,7 +25710,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>672000000</v>
+        <v>816000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -24485,7 +25749,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -24493,7 +25757,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>669000000</v>
+        <v>813000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -24520,7 +25784,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -24528,7 +25792,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5575000000</v>
+        <v>6775000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -24561,7 +25825,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -24569,7 +25833,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>219632600</v>
+        <v>267552440</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -24602,7 +25866,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -24610,7 +25874,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>660000000</v>
+        <v>804000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -24637,7 +25901,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -24645,7 +25909,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>262041120</v>
+        <v>319213728</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -24672,7 +25936,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -24680,7 +25944,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>416000000</v>
+        <v>512000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -24703,7 +25967,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -24711,7 +25975,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>588000000</v>
+        <v>732000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -24734,7 +25998,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -24742,7 +26006,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>585000000</v>
+        <v>729000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -24765,7 +26029,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -24773,7 +26037,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>368600000</v>
+        <v>459800000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -24798,7 +26062,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -24806,7 +26070,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>144007827</v>
+        <v>182624451</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -24831,7 +26095,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -24839,7 +26103,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>534000000</v>
+        <v>678000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -24864,7 +26128,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -24872,7 +26136,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>86000000</v>
+        <v>110000000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -24897,7 +26161,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -24905,7 +26169,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-477000000</v>
+        <v>-621000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -24930,7 +26194,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -24938,7 +26202,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>450000000</v>
+        <v>594000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -24963,7 +26227,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -24971,7 +26235,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>94626450</v>
+        <v>124906914</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -24996,7 +26260,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -25004,7 +26268,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-476934100</v>
+        <v>-630577300</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -25029,7 +26293,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -25037,7 +26301,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-441132300</v>
+        <v>-585175500</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -25062,7 +26326,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -25070,7 +26334,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>144000000</v>
+        <v>192000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -25095,7 +26359,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -25103,7 +26367,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>864000000</v>
+        <v>1152000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -25128,7 +26392,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -25136,7 +26400,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>835200000</v>
+        <v>1113600000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -25161,7 +26425,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -25169,7 +26433,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-725000</v>
+        <v>-965000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -25194,7 +26458,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -25202,7 +26466,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3744000000</v>
+        <v>-4992000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -25227,7 +26491,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -25235,7 +26499,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3720400000</v>
+        <v>-4978000000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -25260,7 +26524,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -25268,7 +26532,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>39894610</v>
+        <v>55590850</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -25293,7 +26557,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -25301,7 +26565,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>2953600000</v>
+        <v>4316800000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -25311,7 +26575,7 @@
       <c r="A35" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="63">
         <v>11000000</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -25322,7 +26586,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -25330,7 +26594,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1144000000</v>
+        <v>1672000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -25348,7 +26612,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -25356,7 +26620,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>37264389</v>
+        <v>57362037</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -25374,7 +26638,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -25382,15 +26646,15 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-81000</v>
-      </c>
-      <c r="J37" s="65"/>
+        <v>-124200</v>
+      </c>
+      <c r="J37" s="64"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -25401,7 +26665,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -25409,7 +26673,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>176000000</v>
+        <v>272000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -25429,7 +26693,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -25437,7 +26701,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>176000000</v>
+        <v>272000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -25455,7 +26719,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -25463,7 +26727,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-15000000</v>
+        <v>-24600000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -25481,7 +26745,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -25489,7 +26753,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-46500000</v>
+        <v>-76260000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -25507,7 +26771,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -25515,7 +26779,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-9000000</v>
+        <v>-14760000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -25534,7 +26798,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -25542,7 +26806,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>46800000</v>
+        <v>78000000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -25560,7 +26824,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -25568,7 +26832,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-365000</v>
+        <v>-605000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -25586,7 +26850,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -25594,7 +26858,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2088000000</v>
+        <v>3480000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -25612,7 +26876,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -25620,7 +26884,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-13800000</v>
+        <v>-23400000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -25638,7 +26902,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -25646,7 +26910,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-13200000</v>
+        <v>-22800000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -25664,7 +26928,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -25672,7 +26936,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-13000000</v>
+        <v>-22600000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -25690,7 +26954,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -25698,14 +26962,14 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>177000000</v>
+        <v>321000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="B50" s="64">
+      <c r="B50" s="63">
         <v>3000000</v>
       </c>
       <c r="C50" s="12" t="s">
@@ -25716,7 +26980,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -25724,7 +26988,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>177000000</v>
+        <v>321000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -25742,7 +27006,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -25750,7 +27014,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>44416226</v>
+        <v>81174482</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -25768,7 +27032,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -25776,25 +27040,25 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-11800000</v>
+        <v>-21400000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B53" s="41">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -25802,25 +27066,25 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-20826000</v>
+        <v>-40050000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B54" s="41">
-        <v>-1000500</v>
+        <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -25828,25 +27092,25 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-43021500</v>
+        <v>-91036036</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B55" s="41">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -25854,25 +27118,25 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1480000000</v>
+        <v>-3400000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B56" s="41">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D56" s="11">
         <v>27</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -25880,25 +27144,25 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>23372604</v>
+        <v>64923900</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B57" s="41">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -25906,25 +27170,25 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-50200000</v>
+        <v>-2459800000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B58" s="41">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D58" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -25932,25 +27196,33 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-585624000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="A59" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B59" s="41">
+        <v>534906</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D59" s="11">
+        <v>45</v>
+      </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23535864</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -26109,7 +27381,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>2147737</v>
+        <v>2682747</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -26117,7 +27389,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>14389020926</v>
+        <v>14515657630</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -26151,7 +27423,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>62021641.922413796</v>
+        <v>51841634.392857142</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -26167,7 +27439,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -26186,8 +27458,8 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26237,7 +27509,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26245,7 +27517,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>37132800</v>
+        <v>40323900</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -26263,7 +27535,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -26271,7 +27543,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1146000000</v>
+        <v>1245000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -26287,7 +27559,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -26295,7 +27567,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-76000000</v>
+        <v>-82600000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -26311,7 +27583,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -26319,7 +27591,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-37800000</v>
+        <v>-41100000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -26335,7 +27607,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -26343,7 +27615,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-20735000</v>
+        <v>-22550000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -26359,7 +27631,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -26367,7 +27639,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-75200000</v>
+        <v>-81800000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -26379,11 +27651,11 @@
         <v>-200000</v>
       </c>
       <c r="C8" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -26391,7 +27663,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-74400000</v>
+        <v>-81000000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -26407,7 +27679,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -26415,7 +27687,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-345031500</v>
+        <v>-375447500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -26431,7 +27703,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -26439,7 +27711,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>722000000</v>
+        <v>786000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -26455,7 +27727,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -26463,7 +27735,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-383400000</v>
+        <v>-417480000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -26479,7 +27751,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -26487,7 +27759,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-16065000</v>
+        <v>-17505000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -26503,7 +27775,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -26511,7 +27783,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-712249200</v>
+        <v>-776271600</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -26527,7 +27799,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -26535,7 +27807,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-70400000</v>
+        <v>-76800000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -26551,7 +27823,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -26559,7 +27831,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>698000000</v>
+        <v>762000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -26575,7 +27847,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -26583,7 +27855,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>698000000</v>
+        <v>762000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -26599,7 +27871,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -26607,7 +27879,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>418800000</v>
+        <v>457200000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -26623,7 +27895,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -26631,7 +27903,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>349000000</v>
+        <v>381000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -26647,7 +27919,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -26655,7 +27927,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1044000000</v>
+        <v>1140000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -26674,7 +27946,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -26682,7 +27954,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-151012300</v>
+        <v>-164858700</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -26698,7 +27970,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -26706,7 +27978,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-151012300</v>
+        <v>-164858700</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -26722,7 +27994,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -26730,7 +28002,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-151012300</v>
+        <v>-164858700</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -26746,7 +28018,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -26754,7 +28026,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-151012300</v>
+        <v>-164858700</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -26770,7 +28042,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -26778,7 +28050,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-151012300</v>
+        <v>-164858700</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -26794,7 +28066,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -26802,7 +28074,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-69800000</v>
+        <v>-76200000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -26818,7 +28090,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -26826,7 +28098,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1041000000</v>
+        <v>1137000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -26842,7 +28114,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -26850,7 +28122,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-69200000</v>
+        <v>-75600000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -26866,7 +28138,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -26874,7 +28146,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>688000000</v>
+        <v>752000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -26890,7 +28162,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -26898,7 +28170,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2408275200</v>
+        <v>-2632300800</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -26914,7 +28186,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -26922,7 +28194,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1029308700</v>
+        <v>-1125337500</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -26938,7 +28210,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -26946,7 +28218,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-579997800</v>
+        <v>-634266600</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -26958,11 +28230,11 @@
         <v>994300</v>
       </c>
       <c r="C32" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -26970,7 +28242,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>336073400</v>
+        <v>367891000</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -26986,7 +28258,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -26994,7 +28266,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>11685303</v>
+        <v>12773124</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -27012,7 +28284,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -27020,7 +28292,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-283050000</v>
+        <v>-309400000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -27036,7 +28308,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -27044,7 +28316,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-61912500</v>
+        <v>-67818000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -27060,7 +28332,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -27068,7 +28340,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>64600000</v>
+        <v>70800000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -27084,7 +28356,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -27092,7 +28364,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-64800000</v>
+        <v>-71000000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -27108,7 +28380,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -27116,7 +28388,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>90542606</v>
+        <v>99867592</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -27134,7 +28406,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -27142,7 +28414,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-28595000</v>
+        <v>-31540000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -27158,7 +28430,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -27166,7 +28438,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-26519003</v>
+        <v>-29250196</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -27182,7 +28454,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -27190,7 +28462,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-35520000</v>
+        <v>-39240000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -27206,7 +28478,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -27214,7 +28486,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>273055692</v>
+        <v>304062016</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -27232,7 +28504,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -27240,7 +28512,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-21600000</v>
+        <v>-24080000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -27256,7 +28528,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -27264,7 +28536,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-56133714</v>
+        <v>-62675613</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -27280,7 +28552,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -27288,7 +28560,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-53000000</v>
+        <v>-59200000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -27304,7 +28576,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -27312,7 +28584,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-25080000</v>
+        <v>-28025000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -27328,7 +28600,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -27336,7 +28608,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-11790000</v>
+        <v>-13185000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -27352,7 +28624,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -27360,7 +28632,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-16815160</v>
+        <v>-18804740</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -27376,7 +28648,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -27384,7 +28656,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-7118356</v>
+        <v>-7970360</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -27400,7 +28672,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -27408,7 +28680,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-36378000</v>
+        <v>-40749000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -27424,7 +28696,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -27432,7 +28704,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-6900468</v>
+        <v>-7729594</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -27448,7 +28720,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -27456,7 +28728,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-13698100</v>
+        <v>-15350400</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -27472,7 +28744,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -27480,7 +28752,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>255000000</v>
+        <v>286000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -27496,7 +28768,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -27504,7 +28776,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5250000</v>
+        <v>-5901000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -27520,7 +28792,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -27528,7 +28800,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-244144500</v>
+        <v>-274540000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -27544,7 +28816,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -27552,7 +28824,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-11205000</v>
+        <v>-12600000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -27568,7 +28840,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -27576,7 +28848,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>706219415</v>
+        <v>799380274</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -27594,7 +28866,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -27602,7 +28874,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>470000000</v>
+        <v>532000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -27618,7 +28890,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -27626,7 +28898,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>468000000</v>
+        <v>530000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -27642,7 +28914,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -27650,7 +28922,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1645352500</v>
+        <v>-1862399000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -27666,7 +28938,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -27674,7 +28946,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>630000000</v>
+        <v>723000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -27690,7 +28962,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -27698,7 +28970,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-5692890</v>
+        <v>-6533269</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -27714,7 +28986,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -27722,7 +28994,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-6927690</v>
+        <v>-7950349</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -27738,7 +29010,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -27746,7 +29018,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>627000000</v>
+        <v>720000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -27762,7 +29034,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -27770,7 +29042,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>620730000</v>
+        <v>712800000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -27786,7 +29058,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -27794,7 +29066,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>209000000</v>
+        <v>240000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -27810,7 +29082,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -27818,7 +29090,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
-        <v>6270000</v>
+        <v>7200000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -27834,7 +29106,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -27842,7 +29114,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>6240000000</v>
+        <v>7170000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -27858,7 +29130,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -27866,7 +29138,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-41600000</v>
+        <v>-47800000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -27882,7 +29154,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -27890,7 +29162,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>289800000</v>
+        <v>333200000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -27906,7 +29178,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -27914,7 +29186,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>538200000</v>
+        <v>618800000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -27930,7 +29202,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -27938,7 +29210,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-208000000</v>
+        <v>-239000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -27954,7 +29226,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -27962,7 +29234,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>3075000000</v>
+        <v>3540000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -27978,7 +29250,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -27986,7 +29258,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-3015844200</v>
+        <v>-3480974400</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -28002,7 +29274,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -28010,7 +29282,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-597000000</v>
+        <v>-690000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -28026,7 +29298,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -28034,7 +29306,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-39800000</v>
+        <v>-46000000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -28050,7 +29322,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -28058,7 +29330,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2388597000</v>
+        <v>-2760690000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -28074,7 +29346,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -28082,7 +29354,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-585175500</v>
+        <v>-678203400</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -28098,7 +29370,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -28106,7 +29378,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>4347000000</v>
+        <v>5060000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -28122,7 +29394,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -28130,7 +29402,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-111092500</v>
+        <v>-129708000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -28146,7 +29418,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -28154,7 +29426,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-37000000</v>
+        <v>-43200000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -28170,7 +29442,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -28178,7 +29450,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>51829443</v>
+        <v>60609294</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -28196,7 +29468,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -28204,7 +29476,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-36800000</v>
+        <v>-43000000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -28220,7 +29492,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -28228,7 +29500,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>362000000</v>
+        <v>424000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -28244,7 +29516,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -28252,7 +29524,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-35800000</v>
+        <v>-42000000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -28268,7 +29540,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -28276,7 +29548,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-34600000</v>
+        <v>-40800000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -28292,7 +29564,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -28300,7 +29572,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-226575000</v>
+        <v>-267650000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -28316,7 +29588,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -28324,7 +29596,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-78000000</v>
+        <v>-93500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -28340,7 +29612,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -28348,7 +29620,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-18720000</v>
+        <v>-22440000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -28364,7 +29636,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -28372,7 +29644,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>65515365</v>
+        <v>78789720</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -28390,7 +29662,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -28398,7 +29670,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-453302000</v>
+        <v>-546364000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -28416,7 +29688,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -28424,7 +29696,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-30545000</v>
+        <v>-36900000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -28442,7 +29714,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -28450,7 +29722,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-52224500</v>
+        <v>-63090000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -28468,7 +29740,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -28476,7 +29748,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>137000000</v>
+        <v>168000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -28494,7 +29766,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -28502,7 +29774,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1188000000</v>
+        <v>1467000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -28521,7 +29793,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -28529,7 +29801,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-3406000000</v>
+        <v>-4212000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -28547,7 +29819,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -28555,7 +29827,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-3406000000</v>
+        <v>-4212000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -28571,7 +29843,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -28579,7 +29851,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>3380000000</v>
+        <v>4186000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -28595,7 +29867,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -28603,7 +29875,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-26200000</v>
+        <v>-32400000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -28622,7 +29894,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -28630,7 +29902,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>3737600000</v>
+        <v>4642800000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -28646,7 +29918,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -28654,7 +29926,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>49193235</v>
+        <v>61591530</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -28672,7 +29944,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -28680,7 +29952,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>244000000</v>
+        <v>306000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -28698,7 +29970,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -28706,7 +29978,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>907500000</v>
+        <v>1140000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -28724,7 +29996,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -28732,7 +30004,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-8052000000</v>
+        <v>-10098000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -28750,7 +30022,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -28758,7 +30030,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-17690000</v>
+        <v>-22185000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -28776,7 +30048,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -28784,7 +30056,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>714000000</v>
+        <v>900000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -28802,7 +30074,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -28810,7 +30082,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-708696200</v>
+        <v>-894879100</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -28828,7 +30100,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -28836,7 +30108,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>684000000</v>
+        <v>870000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -28854,7 +30126,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -28862,7 +30134,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-12360000</v>
+        <v>-16080000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -28880,7 +30152,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -28888,7 +30160,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>404000000</v>
+        <v>528000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -28906,7 +30178,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -28914,7 +30186,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>280000000</v>
+        <v>366800000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -28932,7 +30204,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -28940,7 +30212,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-19400000</v>
+        <v>-25600000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -28958,7 +30230,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -28966,7 +30238,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>6869450</v>
+        <v>9111060</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>515</v>
@@ -28984,7 +30256,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -28992,7 +30264,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-15800000</v>
+        <v>-22000000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -29013,7 +30285,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -29021,7 +30293,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-858000000</v>
+        <v>-1199000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>516</v>
@@ -29039,7 +30311,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -29047,7 +30319,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-15600000</v>
+        <v>-21800000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -29068,7 +30340,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -29076,7 +30348,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-34238000</v>
+        <v>-48203500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>518</v>
@@ -29094,7 +30366,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -29102,7 +30374,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-15200000</v>
+        <v>-21400000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>519</v>
@@ -29123,7 +30395,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -29131,7 +30403,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-10818500</v>
+        <v>-15609550</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>522</v>
@@ -29149,7 +30421,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -29157,7 +30429,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-22400</v>
+        <v>-32320</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>523</v>
@@ -29175,7 +30447,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -29183,7 +30455,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-29808000</v>
+        <v>-43200000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>525</v>
@@ -29201,7 +30473,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -29209,7 +30481,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>4590666</v>
+        <v>6885999</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>527</v>
@@ -29223,11 +30495,11 @@
         <v>-52000</v>
       </c>
       <c r="C123" s="11">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -29235,7 +30507,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-2184000</v>
+        <v>-3796000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>554</v>
@@ -29243,7 +30515,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -29253,7 +30525,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -29261,15 +30533,15 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>35610</v>
+        <v>36797</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -29279,7 +30551,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -29287,15 +30559,15 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>69600000</v>
+        <v>72000000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -29305,7 +30577,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -29313,15 +30585,15 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>36255600</v>
+        <v>37598400</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -29331,7 +30603,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -29339,15 +30611,15 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>36255600</v>
+        <v>37598400</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -29357,7 +30629,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -29365,7 +30637,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-3200000</v>
+        <v>-3400000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -29373,7 +30645,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -29383,7 +30655,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -29391,10 +30663,10 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-218652</v>
+        <v>-234270</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -29402,7 +30674,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -29412,7 +30684,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -29420,7 +30692,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-2600000</v>
+        <v>-2800000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>519</v>
@@ -29428,7 +30700,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -29438,7 +30710,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D146" si="6">D132+C131</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
@@ -29446,15 +30718,15 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-2400000</v>
+        <v>-2600000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -29464,7 +30736,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -29472,15 +30744,15 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-4290000</v>
+        <v>-4680000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -29490,7 +30762,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -29498,15 +30770,15 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-269500</v>
+        <v>-294000</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -29516,7 +30788,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -29524,7 +30796,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-950000</v>
+        <v>-1045000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
@@ -29532,7 +30804,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -29542,7 +30814,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -29550,15 +30822,15 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-1200000</v>
+        <v>-1400000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -29568,7 +30840,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -29576,15 +30848,15 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>150000000</v>
+        <v>200000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -29594,7 +30866,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -29602,15 +30874,15 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>24000000</v>
+        <v>36000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -29620,7 +30892,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -29628,29 +30900,37 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="11"/>
+      <c r="A139" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B139" s="3">
+        <v>87538</v>
+      </c>
+      <c r="C139" s="11">
+        <v>1</v>
+      </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G139" s="11"/>
+      <c r="G139" s="11" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
@@ -29687,6 +30967,9 @@
         <v>0</v>
       </c>
       <c r="G141" s="11"/>
+      <c r="K141" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
@@ -29804,14 +31087,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="31">
         <f>SUM(B2:B146)</f>
-        <v>67807573</v>
+        <v>67895111</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="31">
         <f>SUM(F2:F146)</f>
-        <v>4606126452</v>
+        <v>4678666545</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -29845,7 +31128,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>11963964.81038961</v>
+        <v>11192982.165071771</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -29867,7 +31150,7 @@
     </row>
     <row r="160" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="E160" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -29879,8 +31162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30052,7 +31335,7 @@
         <v>-1243924</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -30080,16 +31363,15 @@
         <f t="shared" si="2"/>
         <v>172686177.57000002</v>
       </c>
-      <c r="F6" s="63">
-        <f>K23</f>
-        <v>175365095.7260274</v>
+      <c r="F6" s="72">
+        <v>176261287</v>
       </c>
       <c r="G6" s="31">
         <f>E6-F6</f>
-        <v>-2678918.1560273767</v>
+        <v>-3575109.4299999774</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -30123,19 +31405,25 @@
         <f t="shared" si="2"/>
         <v>178169078.94090003</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="73">
+        <f>K23</f>
+        <v>177270273.02739727</v>
+      </c>
+      <c r="G7" s="31">
+        <f>E7-F7</f>
+        <v>898805.91350275278</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K7" s="46">
         <f>2*(J31+L31)</f>
-        <v>47276493.15068493</v>
+        <v>47949150.684931509</v>
       </c>
       <c r="L7" s="3">
         <f>K7</f>
-        <v>47276493.15068493</v>
+        <v>47949150.684931509</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ref="M7:M8" si="3">K7-L7</f>
@@ -30167,18 +31455,18 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K8" s="46">
         <f>J31+L31</f>
-        <v>23638246.575342465</v>
+        <v>23974575.342465755</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>23638246.575342465</v>
+        <v>23974575.342465755</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -30208,11 +31496,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B148</f>
-        <v>67807573</v>
+        <v>67895111</v>
       </c>
       <c r="L9" s="3">
         <f>K9-M9</f>
-        <v>21807573</v>
+        <v>21895111</v>
       </c>
       <c r="M9" s="3">
         <v>46000000</v>
@@ -30252,7 +31540,7 @@
         <v>50000</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M9:M22" si="4">K10-L10</f>
+        <f t="shared" ref="M10:M22" si="4">K10-L10</f>
         <v>0</v>
       </c>
     </row>
@@ -30283,14 +31571,14 @@
       </c>
       <c r="K11" s="46">
         <f>سارا!D129</f>
-        <v>32258329</v>
+        <v>32531972</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
-        <v>32258329</v>
+        <v>32531972</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -30320,14 +31608,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>2147737</v>
+        <v>2682747</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>2147737</v>
+        <v>2682747</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -30390,7 +31678,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K14" s="46">
         <v>1150000</v>
@@ -30413,7 +31701,7 @@
       <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <v>97</v>
       </c>
       <c r="B15" s="11">
@@ -30464,7 +31752,7 @@
       <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <v>97</v>
       </c>
       <c r="B16" s="11">
@@ -30520,7 +31808,7 @@
       <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <v>97</v>
       </c>
       <c r="B17" s="11">
@@ -30574,7 +31862,7 @@
       <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <v>97</v>
       </c>
       <c r="B18" s="11">
@@ -30626,7 +31914,7 @@
       <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <v>97</v>
       </c>
       <c r="B19" s="11">
@@ -30677,7 +31965,7 @@
       <c r="V19" s="27"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <v>97</v>
       </c>
       <c r="B20" s="11">
@@ -30728,7 +32016,7 @@
       <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+      <c r="A21" s="66">
         <v>97</v>
       </c>
       <c r="B21" s="11">
@@ -30772,7 +32060,7 @@
       <c r="V21" s="27"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <v>97</v>
       </c>
       <c r="B22" s="11">
@@ -30816,7 +32104,7 @@
       <c r="V22" s="27"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <v>97</v>
       </c>
       <c r="B23" s="11">
@@ -30838,19 +32126,19 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>175365095.7260274</v>
+        <v>177270273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62524066.150684923</v>
+        <v>63284261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112841029.57534246</v>
+        <v>113986011.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -30868,7 +32156,7 @@
       <c r="V23" s="27"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <v>97</v>
       </c>
       <c r="B24" s="11">
@@ -30890,19 +32178,19 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>103300356</v>
+        <v>104196547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22597573</v>
+        <v>22685111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>80702783</v>
+        <v>81511436</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -30915,7 +32203,7 @@
       <c r="V24" s="27"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <v>97</v>
       </c>
       <c r="B25" s="11">
@@ -30958,7 +32246,7 @@
       <c r="V25" s="27"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <v>97</v>
       </c>
       <c r="B26" s="11">
@@ -30990,7 +32278,7 @@
       <c r="W26" s="27"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="68">
+      <c r="A27" s="67">
         <v>98</v>
       </c>
       <c r="B27" s="11">
@@ -31022,7 +32310,7 @@
       <c r="W27" s="27"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="68">
+      <c r="A28" s="67">
         <v>98</v>
       </c>
       <c r="B28" s="11">
@@ -31054,7 +32342,7 @@
       <c r="W28" s="27"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
+      <c r="A29" s="67">
         <v>98</v>
       </c>
       <c r="B29" s="11">
@@ -31088,7 +32376,7 @@
       <c r="W29" s="27"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="68">
+      <c r="A30" s="67">
         <v>98</v>
       </c>
       <c r="B30" s="11">
@@ -31137,7 +32425,7 @@
       <c r="V30" s="27"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="68">
+      <c r="A31" s="67">
         <v>98</v>
       </c>
       <c r="B31" s="11">
@@ -31162,15 +32450,15 @@
         <v>22000000</v>
       </c>
       <c r="K31" s="11">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="L31" s="46">
         <f>J31*0.18*K31/365</f>
-        <v>1638246.5753424657</v>
+        <v>1974575.3424657534</v>
       </c>
       <c r="M31" s="46">
         <f>J31*0.24*K31/365</f>
-        <v>2184328.7671232875</v>
+        <v>2632767.1232876712</v>
       </c>
       <c r="N31" s="27"/>
       <c r="P31" s="1" t="s">
@@ -31186,7 +32474,7 @@
       <c r="V31" s="27"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="68">
+      <c r="A32" s="67">
         <v>98</v>
       </c>
       <c r="B32" s="11">
@@ -31209,7 +32497,7 @@
       <c r="H32" s="11"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
@@ -31229,7 +32517,7 @@
       <c r="W32" s="27"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="68">
+      <c r="A33" s="67">
         <v>98</v>
       </c>
       <c r="B33" s="11">
@@ -31252,7 +32540,7 @@
       <c r="H33" s="11"/>
       <c r="L33" s="7">
         <f>M31-L31</f>
-        <v>546082.19178082189</v>
+        <v>658191.78082191781</v>
       </c>
       <c r="O33" s="33" t="s">
         <v>25</v>
@@ -31271,7 +32559,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="68">
+      <c r="A34" s="67">
         <v>98</v>
       </c>
       <c r="B34" s="11">
@@ -31307,7 +32595,7 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="68">
+      <c r="A35" s="67">
         <v>98</v>
       </c>
       <c r="B35" s="11">
@@ -31343,7 +32631,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="68">
+      <c r="A36" s="67">
         <v>98</v>
       </c>
       <c r="B36" s="11">
@@ -31382,7 +32670,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="68">
+      <c r="A37" s="67">
         <v>98</v>
       </c>
       <c r="B37" s="11">
@@ -31418,7 +32706,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
+      <c r="A38" s="67">
         <v>98</v>
       </c>
       <c r="B38" s="11">
@@ -31454,7 +32742,7 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+      <c r="A39" s="68">
         <v>99</v>
       </c>
       <c r="B39" s="11">
@@ -31479,7 +32767,7 @@
         <v>1481000000</v>
       </c>
       <c r="K39" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
@@ -31496,7 +32784,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+      <c r="A40" s="68">
         <v>99</v>
       </c>
       <c r="B40" s="11">
@@ -31522,7 +32810,7 @@
         <v>32.195652173913047</v>
       </c>
       <c r="K40" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">
@@ -31540,7 +32828,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+      <c r="A41" s="68">
         <v>99</v>
       </c>
       <c r="B41" s="11">
@@ -31570,7 +32858,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+      <c r="A42" s="68">
         <v>99</v>
       </c>
       <c r="B42" s="11">
@@ -31600,7 +32888,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="68">
         <v>99</v>
       </c>
       <c r="B43" s="11">
@@ -31630,7 +32918,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+      <c r="A44" s="68">
         <v>99</v>
       </c>
       <c r="B44" s="11">
@@ -31660,7 +32948,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="A45" s="68">
         <v>99</v>
       </c>
       <c r="B45" s="11">
@@ -31690,7 +32978,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+      <c r="A46" s="68">
         <v>99</v>
       </c>
       <c r="B46" s="11">
@@ -31720,7 +33008,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+      <c r="A47" s="68">
         <v>99</v>
       </c>
       <c r="B47" s="11">
@@ -31750,28 +33038,28 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
+      <c r="A48" s="70">
         <v>99</v>
       </c>
-      <c r="B48" s="71">
+      <c r="B48" s="70">
         <v>46</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="71">
         <f t="shared" si="7"/>
         <v>8058775.3482377408</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="71">
         <f t="shared" si="8"/>
         <v>5007394.3911380144</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="71">
         <f t="shared" si="6"/>
         <v>554664640.75728595</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="P48" s="35" t="s">
         <v>329</v>
@@ -31781,7 +33069,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="69">
+      <c r="A49" s="68">
         <v>99</v>
       </c>
       <c r="B49" s="11">
@@ -31810,7 +33098,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+      <c r="A50" s="68">
         <v>99</v>
       </c>
       <c r="B50" s="11">
@@ -31839,7 +33127,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="69">
         <v>1400</v>
       </c>
       <c r="B51" s="11">
@@ -31868,7 +33156,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="A52" s="69">
         <v>1400</v>
       </c>
       <c r="B52" s="11">
@@ -31893,7 +33181,7 @@
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="69">
         <v>1400</v>
       </c>
       <c r="B53" s="11">
@@ -31918,7 +33206,7 @@
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
+      <c r="A54" s="69">
         <v>1400</v>
       </c>
       <c r="B54" s="11">
@@ -31943,7 +33231,7 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="69">
         <v>1400</v>
       </c>
       <c r="B55" s="11">
@@ -31968,7 +33256,7 @@
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
+      <c r="A56" s="69">
         <v>1400</v>
       </c>
       <c r="B56" s="11">
@@ -31993,7 +33281,7 @@
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="69">
         <v>1400</v>
       </c>
       <c r="B57" s="11">
@@ -32018,7 +33306,7 @@
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+      <c r="A58" s="69">
         <v>1400</v>
       </c>
       <c r="B58" s="11">
@@ -32048,7 +33336,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="69">
         <v>1400</v>
       </c>
       <c r="B59" s="11">
@@ -32078,7 +33366,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+      <c r="A60" s="69">
         <v>1400</v>
       </c>
       <c r="B60" s="11">
@@ -32101,7 +33389,7 @@
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
+      <c r="A61" s="69">
         <v>1400</v>
       </c>
       <c r="B61" s="11">
@@ -32124,7 +33412,7 @@
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
+      <c r="A62" s="69">
         <v>1400</v>
       </c>
       <c r="B62" s="11">
@@ -33091,10 +34379,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33108,6 +34396,13 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -33566,16 +34861,16 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -33584,13 +34879,13 @@
         <v>55000</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -33599,13 +34894,13 @@
         <v>20000</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
@@ -33614,7 +34909,7 @@
         <v>2500</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I31" s="11">
         <v>217500</v>
@@ -33628,7 +34923,7 @@
         <f t="shared" si="6"/>
         <v>35000</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="65">
         <v>34617</v>
       </c>
       <c r="I32" s="11">
@@ -33638,52 +34933,52 @@
         <v>578</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G33" s="11">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I33" s="11">
         <v>217000</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="34" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G34" s="11">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I34" s="11">
         <v>217000</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G35" s="11">
         <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I35" s="11">
         <v>217500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="36" spans="6:23" ht="165" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>25</v>
       </c>
@@ -33691,58 +34986,344 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="O36" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>661</v>
+      </c>
+      <c r="P40" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>659</v>
+      </c>
+      <c r="R40" t="s">
+        <v>662</v>
+      </c>
+      <c r="S40" t="s">
+        <v>664</v>
+      </c>
+      <c r="T40" t="s">
+        <v>663</v>
+      </c>
+      <c r="U40" t="s">
+        <v>665</v>
+      </c>
+      <c r="V40" t="s">
+        <v>666</v>
+      </c>
+      <c r="W40" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
         <v>220000</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="N41" t="s">
+        <v>668</v>
+      </c>
+      <c r="O41" s="18">
+        <v>9322000000</v>
+      </c>
+      <c r="P41">
+        <v>137</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>68000000</v>
+      </c>
+      <c r="R41" s="18">
+        <f>P41*Q41</f>
+        <v>9316000000</v>
+      </c>
+      <c r="S41" s="7">
+        <f>Q41-S45</f>
+        <v>45518867.924528301</v>
+      </c>
+      <c r="T41" s="7">
+        <f>S41*106</f>
+        <v>4825000000</v>
+      </c>
+      <c r="U41" s="7">
+        <f>Q43-U42</f>
+        <v>112499998</v>
+      </c>
+      <c r="V41" s="7">
+        <f>U41*31</f>
+        <v>3487499938</v>
+      </c>
+      <c r="W41" s="7">
+        <f>T41+V41</f>
+        <v>8312499938</v>
+      </c>
+    </row>
+    <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>669</v>
+      </c>
+      <c r="O42" s="18">
+        <v>7100000000</v>
+      </c>
+      <c r="P42">
+        <v>106</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>44500000</v>
+      </c>
+      <c r="R42" s="18">
+        <f>P42*Q42</f>
+        <v>4717000000</v>
+      </c>
+      <c r="S42" s="7">
+        <f>O42/P42</f>
+        <v>66981132.075471699</v>
+      </c>
+      <c r="T42" s="7">
+        <f>S42*106</f>
+        <v>7100000000</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42" s="7">
+        <f>U42*31</f>
+        <v>62</v>
+      </c>
+      <c r="W42" s="7">
+        <f>T42+V42</f>
+        <v>7100000062</v>
+      </c>
+    </row>
+    <row r="43" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="Q43" s="7">
+        <f>Q41+Q42</f>
+        <v>112500000</v>
+      </c>
+      <c r="S43" s="7">
+        <f>S41+S42</f>
+        <v>112500000</v>
+      </c>
+    </row>
+    <row r="44" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="S45" s="7">
+        <f>S42-Q42</f>
+        <v>22481132.075471699</v>
+      </c>
+    </row>
+    <row r="50" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>670</v>
+      </c>
+      <c r="R50" t="s">
+        <v>660</v>
+      </c>
+      <c r="S50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>677</v>
+      </c>
+      <c r="P51" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>-6000000</v>
+      </c>
+      <c r="R51">
+        <v>122</v>
+      </c>
+      <c r="S51" s="18">
+        <f>Q51*R51</f>
+        <v>-732000000</v>
+      </c>
+    </row>
+    <row r="52" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O52" s="74" t="s">
+        <v>678</v>
+      </c>
+      <c r="P52" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="R52">
+        <v>107</v>
+      </c>
+      <c r="S52" s="18">
+        <f>Q52*R52</f>
+        <v>428000000</v>
+      </c>
+    </row>
+    <row r="53" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O53" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="P53" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="R53">
+        <v>76</v>
+      </c>
+      <c r="S53" s="18">
+        <f>Q53*R53</f>
+        <v>304000000</v>
+      </c>
+    </row>
+    <row r="54" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>680</v>
+      </c>
+      <c r="P54" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="R54">
+        <v>46</v>
+      </c>
+      <c r="S54" s="18">
+        <f>Q54*R54</f>
+        <v>184000000</v>
+      </c>
+    </row>
+    <row r="55" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>681</v>
+      </c>
+      <c r="P55" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="R55">
+        <v>15</v>
+      </c>
+      <c r="S55" s="18">
+        <f>Q55*R55</f>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="56" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>682</v>
+      </c>
+      <c r="P56" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q56" s="18">
+        <v>5500000</v>
+      </c>
+      <c r="R56">
+        <v>61</v>
+      </c>
+      <c r="S56" s="18">
+        <f>Q56*R56</f>
+        <v>335500000</v>
+      </c>
+    </row>
+    <row r="57" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>679</v>
+      </c>
+      <c r="P57" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>24000000</v>
+      </c>
+      <c r="R57">
+        <v>76</v>
+      </c>
+      <c r="S57" s="18">
+        <f>Q57*R57</f>
+        <v>1824000000</v>
+      </c>
+    </row>
+    <row r="58" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="Q58" s="18"/>
+      <c r="S58" s="18">
+        <f>Q58*R58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="Q59" s="18"/>
+      <c r="S59" s="18"/>
+    </row>
+    <row r="60" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="Q60" s="18"/>
+      <c r="S60" s="18"/>
+    </row>
+    <row r="61" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="Q61" s="18"/>
+      <c r="S61" s="18"/>
+    </row>
+    <row r="62" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="S63" s="7">
+        <f>SUM(S51:S58)</f>
+        <v>2403500000</v>
+      </c>
+      <c r="T63" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="684">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1527,9 +1527,6 @@
   </si>
   <si>
     <t xml:space="preserve">خرید وسایل خانه </t>
-  </si>
-  <si>
-    <t>جریمه</t>
   </si>
   <si>
     <t>دو بار 110 هزار تومان دستی گرفتم</t>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -2881,7 +2878,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" s="42">
         <v>384551</v>
@@ -2894,7 +2891,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -2923,7 +2920,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -15201,7 +15198,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -15222,7 +15219,7 @@
         <v>36</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19699,7 +19696,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B111" s="42">
         <v>174678</v>
@@ -19740,7 +19737,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B112" s="18">
         <v>-28400000</v>
@@ -19753,7 +19750,7 @@
         <v>-28400000</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F112" s="39">
         <v>15</v>
@@ -19781,7 +19778,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B113" s="42">
         <v>163040</v>
@@ -19794,7 +19791,7 @@
         <v>40529</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F113" s="39">
         <v>0</v>
@@ -19822,7 +19819,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B114" s="18">
         <v>-5700</v>
@@ -19835,7 +19832,7 @@
         <v>-3200</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F114" s="39">
         <v>13</v>
@@ -19863,7 +19860,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B115" s="18">
         <v>0</v>
@@ -19876,7 +19873,7 @@
         <v>-500000</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F115" s="39">
         <v>8</v>
@@ -19904,7 +19901,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B116" s="18">
         <v>-160000</v>
@@ -19917,7 +19914,7 @@
         <v>-160000</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F116" s="39">
         <v>9</v>
@@ -19945,7 +19942,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B117" s="42">
         <v>1480</v>
@@ -19958,7 +19955,7 @@
         <v>-105461</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F117" s="39">
         <v>22</v>
@@ -19987,7 +19984,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B118" s="18">
         <v>39399500</v>
@@ -20000,7 +19997,7 @@
         <v>39399500</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F118" s="39">
         <v>9</v>
@@ -20029,7 +20026,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B119" s="42">
         <v>95521</v>
@@ -20042,7 +20039,7 @@
         <v>-14533</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F119" s="39">
         <v>4</v>
@@ -20070,7 +20067,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B120" s="18">
         <v>2000000</v>
@@ -20083,7 +20080,7 @@
         <v>2000000</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F120" s="11">
         <v>26</v>
@@ -20112,7 +20109,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -20125,7 +20122,7 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
@@ -20153,7 +20150,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B122" s="42">
         <v>384551</v>
@@ -20166,7 +20163,7 @@
         <v>273643</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F122" s="11">
         <v>0</v>
@@ -20361,23 +20358,23 @@
         <v>283</v>
       </c>
       <c r="C130" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>506</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="K130" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="K130" s="11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -20425,13 +20422,13 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J133" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="K133" s="11" t="s">
         <v>509</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -20560,7 +20557,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B3" s="42">
         <v>174678</v>
@@ -20602,7 +20599,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="18">
         <v>-28400000</v>
@@ -20615,7 +20612,7 @@
         <v>-28400000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -21530,7 +21527,7 @@
         <v>220000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -21547,7 +21544,7 @@
         <v>-450000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -21781,7 +21778,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B3" s="42">
         <v>163040</v>
@@ -21794,7 +21791,7 @@
         <v>40529</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -21823,7 +21820,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="18">
         <v>-5700</v>
@@ -21836,7 +21833,7 @@
         <v>-3200</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -21865,7 +21862,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -21878,7 +21875,7 @@
         <v>-500000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F5">
         <v>17</v>
@@ -21907,7 +21904,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="18">
         <v>-160000</v>
@@ -21920,7 +21917,7 @@
         <v>-160000</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -22772,7 +22769,7 @@
         <v>150000</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>415</v>
@@ -22799,7 +22796,7 @@
         <v>200000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -22813,7 +22810,7 @@
         <v>620000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
@@ -22821,7 +22818,7 @@
         <v>5000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
@@ -22829,7 +22826,7 @@
         <v>-800000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -22845,7 +22842,7 @@
         <v>160000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
@@ -22853,7 +22850,7 @@
         <v>200000</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
@@ -22861,7 +22858,7 @@
         <v>255000</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
@@ -22869,7 +22866,7 @@
         <v>-200000</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -22980,7 +22977,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="3">
         <f>'اردیبهشت 96'!B25</f>
@@ -23024,7 +23021,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B3" s="42">
         <v>1481</v>
@@ -23037,7 +23034,7 @@
         <v>-105460</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -23066,7 +23063,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B4" s="18">
         <v>39399500</v>
@@ -23079,7 +23076,7 @@
         <v>39399500</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -23968,7 +23965,7 @@
         <v>200000</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -23995,7 +23992,7 @@
         <v>-50000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -24012,7 +24009,7 @@
         <v>120000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -24026,7 +24023,7 @@
         <v>-40000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -24034,7 +24031,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -24042,7 +24039,7 @@
         <v>1000000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -24050,7 +24047,7 @@
         <v>600000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -24058,7 +24055,7 @@
         <v>-40000</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -24174,7 +24171,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B2" s="3">
         <f>'خرداد 96'!B24</f>
@@ -24218,7 +24215,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" s="42">
         <v>95521</v>
@@ -24231,7 +24228,7 @@
         <v>-14533</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -24260,7 +24257,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" s="18">
         <v>2000000</v>
@@ -24273,7 +24270,7 @@
         <v>2000000</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -24302,7 +24299,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B5" s="18">
         <v>2600000</v>
@@ -24315,7 +24312,7 @@
         <v>2600000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -25163,7 +25160,7 @@
         <v>1342800</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -25190,7 +25187,7 @@
         <v>-44000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -25207,7 +25204,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -25221,7 +25218,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -25229,7 +25226,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -25237,7 +25234,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -25245,7 +25242,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -26517,7 +26514,7 @@
         <v>327005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D33" s="11">
         <v>18</v>
@@ -26544,13 +26541,13 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B34" s="41">
         <v>28400000</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -26573,13 +26570,13 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B35" s="63">
         <v>11000000</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D35" s="11">
         <v>15</v>
@@ -26599,13 +26596,13 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="41">
         <v>418701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D36" s="11">
         <v>0</v>
@@ -26625,13 +26622,13 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B37" s="41">
         <v>-900</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -26652,13 +26649,13 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B38" s="63">
         <v>2000000</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -26680,13 +26677,13 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B39" s="41">
         <v>2000000</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D39" s="11">
         <v>14</v>
@@ -26706,13 +26703,13 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B40" s="41">
         <v>-200000</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D40" s="11">
         <v>0</v>
@@ -26732,13 +26729,13 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B41" s="41">
         <v>-620000</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -26758,13 +26755,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B42" s="41">
         <v>-120000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D42" s="11">
         <v>2</v>
@@ -26785,13 +26782,13 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B43" s="41">
         <v>650000</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D43" s="11">
         <v>0</v>
@@ -26811,7 +26808,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B44" s="41">
         <v>-5000</v>
@@ -26837,13 +26834,13 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B45" s="41">
         <v>29000000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D45" s="11">
         <v>4</v>
@@ -26863,13 +26860,13 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B46" s="41">
         <v>-200000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D46" s="11">
         <v>3</v>
@@ -26889,13 +26886,13 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B47" s="41">
         <v>-200000</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D47" s="11">
         <v>1</v>
@@ -26915,7 +26912,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B48" s="41">
         <v>-200000</v>
@@ -26941,13 +26938,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B49" s="41">
         <v>3000000</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -26967,13 +26964,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B50" s="63">
         <v>3000000</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D50" s="11">
         <v>1</v>
@@ -26993,13 +26990,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B51" s="41">
         <v>765797</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D51" s="11">
         <v>0</v>
@@ -27019,7 +27016,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B52" s="41">
         <v>-200000</v>
@@ -27045,13 +27042,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B53" s="41">
         <v>-400500</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D53" s="11">
         <v>9</v>
@@ -27071,13 +27068,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B54" s="41">
         <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -27097,13 +27094,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B55" s="41">
         <v>-40000000</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D55" s="11">
         <v>9</v>
@@ -27123,13 +27120,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B56" s="41">
         <v>865652</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D56" s="11">
         <v>27</v>
@@ -27149,13 +27146,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B57" s="41">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -27175,13 +27172,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B58" s="41">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D58" s="11">
         <v>3</v>
@@ -27201,13 +27198,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B59" s="41">
         <v>534906</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D59" s="11">
         <v>45</v>
@@ -27439,7 +27436,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -30241,12 +30238,12 @@
         <v>9111060</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B114" s="3">
         <v>-200000</v>
@@ -30275,7 +30272,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B115" s="38">
         <v>-11000000</v>
@@ -30296,12 +30293,12 @@
         <v>-1199000000</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B116" s="3">
         <v>-200000</v>
@@ -30330,7 +30327,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B117" s="3">
         <v>-450500</v>
@@ -30351,12 +30348,12 @@
         <v>-48203500</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B118" s="3">
         <v>-200000</v>
@@ -30377,7 +30374,7 @@
         <v>-21400000</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -30385,7 +30382,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B119" s="3">
         <v>-154550</v>
@@ -30406,12 +30403,12 @@
         <v>-15609550</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B120" s="3">
         <v>-320</v>
@@ -30432,12 +30429,12 @@
         <v>-32320</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B121" s="3">
         <v>-432000</v>
@@ -30458,12 +30455,12 @@
         <v>-43200000</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B122" s="3">
         <v>74043</v>
@@ -30484,12 +30481,12 @@
         <v>6885999</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B123" s="3">
         <v>-52000</v>
@@ -30510,12 +30507,12 @@
         <v>-3796000</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B124" s="3">
         <v>1187</v>
@@ -30536,12 +30533,12 @@
         <v>36797</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B125" s="3">
         <v>2400000</v>
@@ -30562,12 +30559,12 @@
         <v>72000000</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B126" s="3">
         <v>1342800</v>
@@ -30588,12 +30585,12 @@
         <v>37598400</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B127" s="3">
         <v>1342800</v>
@@ -30614,12 +30611,12 @@
         <v>37598400</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B128" s="3">
         <v>-200000</v>
@@ -30645,7 +30642,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B129" s="3">
         <v>-15618</v>
@@ -30666,7 +30663,7 @@
         <v>-234270</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K129" t="s">
         <v>25</v>
@@ -30674,7 +30671,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B130" s="3">
         <v>-200000</v>
@@ -30695,12 +30692,12 @@
         <v>-2800000</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -30721,12 +30718,12 @@
         <v>-2600000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -30747,12 +30744,12 @@
         <v>-4680000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -30773,12 +30770,12 @@
         <v>-294000</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -30804,7 +30801,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -30825,12 +30822,12 @@
         <v>-1400000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -30851,12 +30848,12 @@
         <v>200000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -30877,12 +30874,12 @@
         <v>36000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -30903,12 +30900,12 @@
         <v>2000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B139" s="3">
         <v>87538</v>
@@ -31150,7 +31147,7 @@
     </row>
     <row r="160" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="E160" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -31162,8 +31159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31200,7 +31197,7 @@
         <v>454</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>466</v>
@@ -31236,11 +31233,11 @@
         <v>152000000</v>
       </c>
       <c r="G2" s="31">
-        <f>E2-F2</f>
+        <f t="shared" ref="G2:G7" si="0">E2-F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K2" s="11">
         <v>1.01</v>
@@ -31271,11 +31268,11 @@
         <v>156964000</v>
       </c>
       <c r="G3" s="31">
-        <f>E3-F3</f>
+        <f t="shared" si="0"/>
         <v>26000</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -31286,26 +31283,26 @@
         <v>2</v>
       </c>
       <c r="C4" s="47">
-        <f t="shared" ref="C4:C35" si="0">C3*$K$2</f>
+        <f t="shared" ref="C4:C35" si="1">C3*$K$2</f>
         <v>5201500</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D35" si="1">D3*$K$2</f>
+        <f t="shared" ref="D4:D35" si="2">D3*$K$2</f>
         <v>3232000</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E34" si="2">E3*$L$2+C4-D4</f>
+        <f t="shared" ref="E4:E34" si="3">E3*$L$2+C4-D4</f>
         <v>162099300</v>
       </c>
       <c r="F4" s="48">
         <v>162894000</v>
       </c>
       <c r="G4" s="31">
-        <f>E4-F4</f>
+        <f t="shared" si="0"/>
         <v>-794700</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -31316,26 +31313,26 @@
         <v>3</v>
       </c>
       <c r="C5" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5253515</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3264320</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167330481</v>
       </c>
       <c r="F5" s="48">
         <v>168574405</v>
       </c>
       <c r="G5" s="31">
-        <f>E5-F5</f>
+        <f t="shared" si="0"/>
         <v>-1243924</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -31352,26 +31349,26 @@
         <v>4</v>
       </c>
       <c r="C6" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5306050.1500000004</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3296963.2</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172686177.57000002</v>
       </c>
       <c r="F6" s="72">
         <v>176261287</v>
       </c>
       <c r="G6" s="31">
-        <f>E6-F6</f>
+        <f t="shared" si="0"/>
         <v>-3575109.4299999774</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -31394,28 +31391,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5359110.6515000006</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3329932.8320000004</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178169078.94090003</v>
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>177270273.02739727</v>
+        <v>176780273.02739727</v>
       </c>
       <c r="G7" s="31">
-        <f>E7-F7</f>
-        <v>898805.91350275278</v>
+        <f t="shared" si="0"/>
+        <v>1388805.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K7" s="46">
         <f>2*(J31+L31)</f>
@@ -31426,7 +31423,7 @@
         <v>47949150.684931509</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" ref="M7:M8" si="3">K7-L7</f>
+        <f t="shared" ref="M7:M8" si="4">K7-L7</f>
         <v>0</v>
       </c>
     </row>
@@ -31438,15 +31435,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5412701.7580150003</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3363232.1603200003</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183781930.11741301</v>
       </c>
       <c r="F8" s="3"/>
@@ -31455,7 +31452,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K8" s="46">
         <f>J31+L31</f>
@@ -31465,7 +31462,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23974575.342465755</v>
       </c>
     </row>
@@ -31477,15 +31474,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5466828.77559515</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3396864.4819232002</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189527533.01343325</v>
       </c>
       <c r="F9" s="3"/>
@@ -31514,15 +31511,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5521497.0633511012</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3430833.1267424324</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195408747.61031058</v>
       </c>
       <c r="F10" s="3"/>
@@ -31540,7 +31537,7 @@
         <v>50000</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M10:M22" si="4">K10-L10</f>
+        <f t="shared" ref="M10:M22" si="5">K10-L10</f>
         <v>0</v>
       </c>
     </row>
@@ -31552,15 +31549,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5576712.0339846127</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3465141.4580098568</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201428493.13849154</v>
       </c>
       <c r="F11" s="3"/>
@@ -31577,7 +31574,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32531972</v>
       </c>
     </row>
@@ -31589,15 +31586,15 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5632479.1543244589</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3499792.8725899556</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>207589749.28299591</v>
       </c>
       <c r="F12" s="3"/>
@@ -31614,7 +31611,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2682747</v>
       </c>
     </row>
@@ -31626,15 +31623,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5688803.9458677033</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3534790.8013158552</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>213895557.41320771</v>
       </c>
       <c r="F13" s="3"/>
@@ -31651,7 +31648,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96717</v>
       </c>
     </row>
@@ -31663,22 +31660,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5745691.9853263805</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3570138.7093290137</v>
       </c>
       <c r="E14" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220349021.83746925</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K14" s="46">
         <v>1150000</v>
@@ -31687,7 +31684,7 @@
         <v>1150000</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N14" s="27"/>
@@ -31708,15 +31705,15 @@
         <v>13</v>
       </c>
       <c r="C15" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5803148.905179644</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3605840.0964223039</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>226953311.08297598</v>
       </c>
       <c r="F15" s="3"/>
@@ -31732,7 +31729,7 @@
         <v>-8500000</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8500000</v>
       </c>
       <c r="N15" s="27"/>
@@ -31759,15 +31756,15 @@
         <v>14</v>
       </c>
       <c r="C16" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5861180.3942314405</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3641898.4973865268</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>233711659.20148042</v>
       </c>
       <c r="F16" s="3"/>
@@ -31777,14 +31774,14 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>740000</v>
+        <v>250000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>740000</v>
+        <v>250000</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N16" s="27"/>
@@ -31815,15 +31812,15 @@
         <v>15</v>
       </c>
       <c r="C17" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5919792.1981737548</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3678317.4823603919</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240627367.1013234</v>
       </c>
       <c r="F17" s="3"/>
@@ -31839,7 +31836,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
       <c r="N17" s="27"/>
@@ -31853,7 +31850,7 @@
         <v>30000000</v>
       </c>
       <c r="R17" s="31">
-        <f t="shared" ref="R17:R23" si="5">P17-Q17</f>
+        <f t="shared" ref="R17:R23" si="6">P17-Q17</f>
         <v>50000000</v>
       </c>
       <c r="S17" s="30"/>
@@ -31869,15 +31866,15 @@
         <v>16</v>
       </c>
       <c r="C18" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5978990.1201554928</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3715100.6571839959</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>247703803.90632135</v>
       </c>
       <c r="F18" s="3"/>
@@ -31891,7 +31888,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N18" s="27"/>
@@ -31905,7 +31902,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18" s="30"/>
@@ -31921,15 +31918,15 @@
         <v>17</v>
       </c>
       <c r="C19" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6038780.0213570474</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3752251.663755836</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>254944408.342049</v>
       </c>
       <c r="F19" s="3"/>
@@ -31941,7 +31938,7 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N19" s="27"/>
@@ -31956,7 +31953,7 @@
         <v>12480000</v>
       </c>
       <c r="R19" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24000000</v>
       </c>
       <c r="S19" s="30"/>
@@ -31972,15 +31969,15 @@
         <v>18</v>
       </c>
       <c r="C20" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6099167.8215706181</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3789774.1803933945</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>262352690.15006718</v>
       </c>
       <c r="F20" s="3"/>
@@ -31992,7 +31989,7 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N20" s="27"/>
@@ -32007,7 +32004,7 @@
         <v>-24480000</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-23700000</v>
       </c>
       <c r="S20" s="30"/>
@@ -32023,15 +32020,15 @@
         <v>19</v>
       </c>
       <c r="C21" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6160159.4997863239</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3827671.9221973284</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269932231.53065753</v>
       </c>
       <c r="F21" s="3"/>
@@ -32043,7 +32040,7 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N21" s="27"/>
@@ -32051,7 +32048,7 @@
       <c r="P21" s="31"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S21" s="30"/>
@@ -32067,15 +32064,15 @@
         <v>20</v>
       </c>
       <c r="C22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6221761.0947841872</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3865948.6414193017</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>277686688.61463559</v>
       </c>
       <c r="F22" s="3"/>
@@ -32087,7 +32084,7 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N22" s="27"/>
@@ -32095,7 +32092,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="31"/>
       <c r="R22" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S22" s="30"/>
@@ -32111,30 +32108,30 @@
         <v>21</v>
       </c>
       <c r="C23" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6283978.7057320289</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3904608.1278334949</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>285619792.96482688</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="J23" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>177270273.02739727</v>
+        <v>176780273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>63284261.684931517</v>
+        <v>62794261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -32147,7 +32144,7 @@
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
       <c r="R23" s="31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S23" s="30"/>
@@ -32163,30 +32160,30 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6346818.4927893495</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3943654.2091118298</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293735353.10780096</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="J24" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>104196547</v>
+        <v>103706547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22685111</v>
+        <v>22195111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
@@ -32210,15 +32207,15 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6410286.6777172433</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3983090.7512029479</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302037256.09647131</v>
       </c>
       <c r="F25" s="3"/>
@@ -32253,15 +32250,15 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6474389.5444944156</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4022921.6587149776</v>
       </c>
       <c r="E26" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>310529469.10418016</v>
       </c>
       <c r="F26" s="3"/>
@@ -32285,15 +32282,15 @@
         <v>25</v>
       </c>
       <c r="C27" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6539133.4399393601</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4063150.8753021276</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>319216041.050901</v>
       </c>
       <c r="F27" s="3"/>
@@ -32317,15 +32314,15 @@
         <v>26</v>
       </c>
       <c r="C28" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6604524.7743387539</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4103782.3840551488</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>328101104.26220268</v>
       </c>
       <c r="F28" s="3"/>
@@ -32349,15 +32346,15 @@
         <v>27</v>
       </c>
       <c r="C29" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6670570.0220821416</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4144820.2078957004</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>337188876.16163319</v>
       </c>
       <c r="F29" s="3"/>
@@ -32383,31 +32380,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6737275.722302963</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4186268.4099746575</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>346483660.99719423</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>183</v>
       </c>
       <c r="L30" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>538</v>
       </c>
       <c r="N30" s="27"/>
       <c r="P30" s="1" t="s">
@@ -32432,15 +32429,15 @@
         <v>29</v>
       </c>
       <c r="C31" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6804648.4795259926</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4228131.0940744039</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>355989851.60258967</v>
       </c>
       <c r="F31" s="3"/>
@@ -32481,15 +32478,15 @@
         <v>30</v>
       </c>
       <c r="C32" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6872694.9643212529</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4270412.4050151482</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>365711931.19394755</v>
       </c>
       <c r="F32" s="3"/>
@@ -32497,7 +32494,7 @@
       <c r="H32" s="11"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
@@ -32524,15 +32521,15 @@
         <v>31</v>
       </c>
       <c r="C33" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6941421.9139644653</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4313116.5290652998</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>375654475.20272565</v>
       </c>
       <c r="F33" s="3"/>
@@ -32566,15 +32563,15 @@
         <v>32</v>
       </c>
       <c r="C34" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7010836.1331041101</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4356247.6943559526</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>385822153.14552832</v>
       </c>
       <c r="F34" s="3"/>
@@ -32588,7 +32585,7 @@
         <v>300000</v>
       </c>
       <c r="S34" s="59">
-        <v>880000</v>
+        <v>850000</v>
       </c>
       <c r="T34" s="60" t="s">
         <v>490</v>
@@ -32602,15 +32599,15 @@
         <v>33</v>
       </c>
       <c r="C35" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7080944.4944351511</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4399810.1712995125</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" ref="E35:E62" si="6">E34*$L$2+C35-D35</f>
+        <f t="shared" ref="E35:E62" si="7">E34*$L$2+C35-D35</f>
         <v>396219730.53157449</v>
       </c>
       <c r="F35" s="3"/>
@@ -32638,15 +32635,15 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ref="C36:C62" si="7">C35*$K$2</f>
+        <f t="shared" ref="C36:C62" si="8">C35*$K$2</f>
         <v>7151753.939379503</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" ref="D36:D62" si="8">D35*$K$2</f>
+        <f t="shared" ref="D36:D62" si="9">D35*$K$2</f>
         <v>4443808.2730125077</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>406852070.80857301</v>
       </c>
       <c r="F36" s="3"/>
@@ -32663,7 +32660,7 @@
         <v>130000</v>
       </c>
       <c r="T36" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V36" t="s">
         <v>25</v>
@@ -32677,15 +32674,15 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
+        <f t="shared" si="8"/>
+        <v>7223271.4787732977</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="9"/>
+        <v>4488246.3557426324</v>
+      </c>
+      <c r="E37" s="3">
         <f t="shared" si="7"/>
-        <v>7223271.4787732977</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="8"/>
-        <v>4488246.3557426324</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="6"/>
         <v>417724137.34777516</v>
       </c>
       <c r="F37" s="3"/>
@@ -32713,15 +32710,15 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
+        <f t="shared" si="8"/>
+        <v>7295504.1935610306</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="9"/>
+        <v>4533128.8193000592</v>
+      </c>
+      <c r="E38" s="49">
         <f t="shared" si="7"/>
-        <v>7295504.1935610306</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="8"/>
-        <v>4533128.8193000592</v>
-      </c>
-      <c r="E38" s="49">
-        <f t="shared" si="6"/>
         <v>428840995.46899164</v>
       </c>
       <c r="F38" s="3"/>
@@ -32734,11 +32731,11 @@
       <c r="Q38" s="1">
         <v>200000</v>
       </c>
-      <c r="S38" s="59">
-        <v>140000</v>
-      </c>
-      <c r="T38" s="60" t="s">
-        <v>497</v>
+      <c r="S38" s="50">
+        <v>280000</v>
+      </c>
+      <c r="T38" s="51" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -32749,15 +32746,15 @@
         <v>37</v>
       </c>
       <c r="C39" s="47">
+        <f t="shared" si="8"/>
+        <v>7368459.2354966411</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="9"/>
+        <v>4578460.1074930597</v>
+      </c>
+      <c r="E39" s="3">
         <f t="shared" si="7"/>
-        <v>7368459.2354966411</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="8"/>
-        <v>4578460.1074930597</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="6"/>
         <v>440207814.50637507</v>
       </c>
       <c r="F39" s="3"/>
@@ -32767,7 +32764,7 @@
         <v>1481000000</v>
       </c>
       <c r="K39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
@@ -32777,10 +32774,11 @@
         <v>20000</v>
       </c>
       <c r="S39" s="50">
-        <v>280000</v>
+        <f>SUM(S34:S38)</f>
+        <v>2010000</v>
       </c>
       <c r="T39" s="51" t="s">
-        <v>319</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -32791,15 +32789,15 @@
         <v>38</v>
       </c>
       <c r="C40" s="47">
+        <f t="shared" si="8"/>
+        <v>7442143.8278516075</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="9"/>
+        <v>4624244.70856799</v>
+      </c>
+      <c r="E40" s="3">
         <f t="shared" si="7"/>
-        <v>7442143.8278516075</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="8"/>
-        <v>4624244.70856799</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="6"/>
         <v>451829869.91578621</v>
       </c>
       <c r="F40" s="3"/>
@@ -32810,7 +32808,7 @@
         <v>32.195652173913047</v>
       </c>
       <c r="K40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">
@@ -32819,13 +32817,6 @@
       <c r="Q40" s="1">
         <v>50000</v>
       </c>
-      <c r="S40" s="50">
-        <f>SUM(S34:S39)</f>
-        <v>2180000</v>
-      </c>
-      <c r="T40" s="51" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="68">
@@ -32835,15 +32826,15 @@
         <v>39</v>
       </c>
       <c r="C41" s="47">
+        <f t="shared" si="8"/>
+        <v>7516565.2661301233</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="9"/>
+        <v>4670487.1556536695</v>
+      </c>
+      <c r="E41" s="3">
         <f t="shared" si="7"/>
-        <v>7516565.2661301233</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="8"/>
-        <v>4670487.1556536695</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="6"/>
         <v>463712545.42457843</v>
       </c>
       <c r="F41" s="3"/>
@@ -32865,15 +32856,15 @@
         <v>40</v>
       </c>
       <c r="C42" s="52">
+        <f t="shared" si="8"/>
+        <v>7591730.9187914245</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="9"/>
+        <v>4717192.0272102058</v>
+      </c>
+      <c r="E42" s="3">
         <f t="shared" si="7"/>
-        <v>7591730.9187914245</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="8"/>
-        <v>4717192.0272102058</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="6"/>
         <v>475861335.22465122</v>
       </c>
       <c r="F42" s="3"/>
@@ -32895,15 +32886,15 @@
         <v>41</v>
       </c>
       <c r="C43" s="52">
+        <f t="shared" si="8"/>
+        <v>7667648.2279793387</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="9"/>
+        <v>4764363.9474823074</v>
+      </c>
+      <c r="E43" s="3">
         <f t="shared" si="7"/>
-        <v>7667648.2279793387</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="8"/>
-        <v>4764363.9474823074</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="6"/>
         <v>488281846.20964134</v>
       </c>
       <c r="F43" s="3"/>
@@ -32925,15 +32916,15 @@
         <v>42</v>
       </c>
       <c r="C44" s="52">
+        <f t="shared" si="8"/>
+        <v>7744324.7102591321</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="9"/>
+        <v>4812007.5869571306</v>
+      </c>
+      <c r="E44" s="3">
         <f t="shared" si="7"/>
-        <v>7744324.7102591321</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="8"/>
-        <v>4812007.5869571306</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="6"/>
         <v>500979800.25713617</v>
       </c>
       <c r="F44" s="3"/>
@@ -32955,15 +32946,15 @@
         <v>43</v>
       </c>
       <c r="C45" s="53">
+        <f t="shared" si="8"/>
+        <v>7821767.9573617233</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="9"/>
+        <v>4860127.662826702</v>
+      </c>
+      <c r="E45" s="3">
         <f t="shared" si="7"/>
-        <v>7821767.9573617233</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="8"/>
-        <v>4860127.662826702</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="6"/>
         <v>513961036.5568139</v>
       </c>
       <c r="F45" s="3"/>
@@ -32985,15 +32976,15 @@
         <v>44</v>
       </c>
       <c r="C46" s="53">
+        <f t="shared" si="8"/>
+        <v>7899985.6369353402</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="9"/>
+        <v>4908728.939454969</v>
+      </c>
+      <c r="E46" s="3">
         <f t="shared" si="7"/>
-        <v>7899985.6369353402</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="8"/>
-        <v>4908728.939454969</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="6"/>
         <v>527231513.98543054</v>
       </c>
       <c r="F46" s="3"/>
@@ -33015,15 +33006,15 @@
         <v>45</v>
       </c>
       <c r="C47" s="53">
+        <f t="shared" si="8"/>
+        <v>7978985.4933046941</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="9"/>
+        <v>4957816.228849519</v>
+      </c>
+      <c r="E47" s="3">
         <f t="shared" si="7"/>
-        <v>7978985.4933046941</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="8"/>
-        <v>4957816.228849519</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="6"/>
         <v>540797313.5295943</v>
       </c>
       <c r="F47" s="3"/>
@@ -33045,21 +33036,21 @@
         <v>46</v>
       </c>
       <c r="C48" s="71">
+        <f t="shared" si="8"/>
+        <v>8058775.3482377408</v>
+      </c>
+      <c r="D48" s="71">
+        <f t="shared" si="9"/>
+        <v>5007394.3911380144</v>
+      </c>
+      <c r="E48" s="71">
         <f t="shared" si="7"/>
-        <v>8058775.3482377408</v>
-      </c>
-      <c r="D48" s="71">
-        <f t="shared" si="8"/>
-        <v>5007394.3911380144</v>
-      </c>
-      <c r="E48" s="71">
-        <f t="shared" si="6"/>
         <v>554664640.75728595</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P48" s="35" t="s">
         <v>329</v>
@@ -33076,15 +33067,15 @@
         <v>47</v>
       </c>
       <c r="C49" s="3">
+        <f t="shared" si="8"/>
+        <v>8139363.101720118</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="9"/>
+        <v>5057468.3350493945</v>
+      </c>
+      <c r="E49" s="3">
         <f t="shared" si="7"/>
-        <v>8139363.101720118</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="8"/>
-        <v>5057468.3350493945</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="6"/>
         <v>568839828.33910239</v>
       </c>
       <c r="F49" s="3"/>
@@ -33105,15 +33096,15 @@
         <v>48</v>
       </c>
       <c r="C50" s="54">
+        <f t="shared" si="8"/>
+        <v>8220756.7327373195</v>
+      </c>
+      <c r="D50" s="54">
+        <f t="shared" si="9"/>
+        <v>5108043.0183998886</v>
+      </c>
+      <c r="E50" s="55">
         <f t="shared" si="7"/>
-        <v>8220756.7327373195</v>
-      </c>
-      <c r="D50" s="54">
-        <f t="shared" si="8"/>
-        <v>5108043.0183998886</v>
-      </c>
-      <c r="E50" s="55">
-        <f t="shared" si="6"/>
         <v>583329338.62022197</v>
       </c>
       <c r="F50" s="54"/>
@@ -33134,15 +33125,15 @@
         <v>49</v>
       </c>
       <c r="C51" s="47">
+        <f t="shared" si="8"/>
+        <v>8302964.3000646932</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="9"/>
+        <v>5159123.4485838879</v>
+      </c>
+      <c r="E51" s="3">
         <f t="shared" si="7"/>
-        <v>8302964.3000646932</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="8"/>
-        <v>5159123.4485838879</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="6"/>
         <v>598139766.24410725</v>
       </c>
       <c r="F51" s="3"/>
@@ -33163,15 +33154,15 @@
         <v>50</v>
       </c>
       <c r="C52" s="47">
+        <f t="shared" si="8"/>
+        <v>8385993.9430653406</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="9"/>
+        <v>5210714.6830697265</v>
+      </c>
+      <c r="E52" s="3">
         <f t="shared" si="7"/>
-        <v>8385993.9430653406</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="8"/>
-        <v>5210714.6830697265</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="6"/>
         <v>613277840.82898498</v>
       </c>
       <c r="F52" s="3"/>
@@ -33188,15 +33179,15 @@
         <v>51</v>
       </c>
       <c r="C53" s="47">
+        <f t="shared" si="8"/>
+        <v>8469853.8824959937</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="9"/>
+        <v>5262821.829900424</v>
+      </c>
+      <c r="E53" s="3">
         <f t="shared" si="7"/>
-        <v>8469853.8824959937</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="8"/>
-        <v>5262821.829900424</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="6"/>
         <v>628750429.69816029</v>
       </c>
       <c r="F53" s="3"/>
@@ -33213,15 +33204,15 @@
         <v>52</v>
       </c>
       <c r="C54" s="52">
+        <f t="shared" si="8"/>
+        <v>8554552.4213209543</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="9"/>
+        <v>5315450.0481994282</v>
+      </c>
+      <c r="E54" s="3">
         <f t="shared" si="7"/>
-        <v>8554552.4213209543</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="8"/>
-        <v>5315450.0481994282</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="6"/>
         <v>644564540.66524506</v>
       </c>
       <c r="F54" s="3"/>
@@ -33238,15 +33229,15 @@
         <v>53</v>
       </c>
       <c r="C55" s="52">
+        <f t="shared" si="8"/>
+        <v>8640097.9455341641</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="9"/>
+        <v>5368604.5486814221</v>
+      </c>
+      <c r="E55" s="3">
         <f t="shared" si="7"/>
-        <v>8640097.9455341641</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="8"/>
-        <v>5368604.5486814221</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="6"/>
         <v>660727324.87540269</v>
       </c>
       <c r="F55" s="3"/>
@@ -33263,15 +33254,15 @@
         <v>54</v>
       </c>
       <c r="C56" s="52">
+        <f t="shared" si="8"/>
+        <v>8726498.9249895066</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="9"/>
+        <v>5422290.5941682365</v>
+      </c>
+      <c r="E56" s="3">
         <f t="shared" si="7"/>
-        <v>8726498.9249895066</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" si="8"/>
-        <v>5422290.5941682365</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="6"/>
         <v>677246079.70373201</v>
       </c>
       <c r="F56" s="3"/>
@@ -33288,15 +33279,15 @@
         <v>55</v>
       </c>
       <c r="C57" s="53">
+        <f t="shared" si="8"/>
+        <v>8813763.914239401</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="9"/>
+        <v>5476513.5001099193</v>
+      </c>
+      <c r="E57" s="3">
         <f t="shared" si="7"/>
-        <v>8813763.914239401</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="8"/>
-        <v>5476513.5001099193</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="6"/>
         <v>694128251.71193612</v>
       </c>
       <c r="F57" s="3"/>
@@ -33313,15 +33304,15 @@
         <v>56</v>
       </c>
       <c r="C58" s="53">
+        <f t="shared" si="8"/>
+        <v>8901901.5533817951</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="9"/>
+        <v>5531278.635111019</v>
+      </c>
+      <c r="E58" s="3">
         <f t="shared" si="7"/>
-        <v>8901901.5533817951</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="8"/>
-        <v>5531278.635111019</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="6"/>
         <v>711381439.66444564</v>
       </c>
       <c r="F58" s="3"/>
@@ -33343,15 +33334,15 @@
         <v>57</v>
       </c>
       <c r="C59" s="53">
+        <f t="shared" si="8"/>
+        <v>8990920.568915613</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="9"/>
+        <v>5586591.4214621289</v>
+      </c>
+      <c r="E59" s="3">
         <f t="shared" si="7"/>
-        <v>8990920.568915613</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="8"/>
-        <v>5586591.4214621289</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="6"/>
         <v>729013397.60518801</v>
       </c>
       <c r="F59" s="3"/>
@@ -33373,15 +33364,15 @@
         <v>58</v>
       </c>
       <c r="C60" s="3">
+        <f t="shared" si="8"/>
+        <v>9080829.7746047694</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="9"/>
+        <v>5642457.3356767502</v>
+      </c>
+      <c r="E60" s="3">
         <f t="shared" si="7"/>
-        <v>9080829.7746047694</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="8"/>
-        <v>5642457.3356767502</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="6"/>
         <v>747032037.99621975</v>
       </c>
       <c r="F60" s="3"/>
@@ -33396,15 +33387,15 @@
         <v>59</v>
       </c>
       <c r="C61" s="3">
+        <f t="shared" si="8"/>
+        <v>9171638.0723508168</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="9"/>
+        <v>5698881.9090335174</v>
+      </c>
+      <c r="E61" s="3">
         <f t="shared" si="7"/>
-        <v>9171638.0723508168</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="8"/>
-        <v>5698881.9090335174</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="6"/>
         <v>765445434.91946149</v>
       </c>
       <c r="F61" s="3"/>
@@ -33419,15 +33410,15 @@
         <v>60</v>
       </c>
       <c r="C62" s="3">
+        <f t="shared" si="8"/>
+        <v>9263354.4530743249</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="9"/>
+        <v>5755870.728123853</v>
+      </c>
+      <c r="E62" s="49">
         <f t="shared" si="7"/>
-        <v>9263354.4530743249</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="8"/>
-        <v>5755870.728123853</v>
-      </c>
-      <c r="E62" s="49">
-        <f t="shared" si="6"/>
         <v>784261827.34280121</v>
       </c>
       <c r="F62" s="3"/>
@@ -34381,7 +34372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
+    <sheetView topLeftCell="F28" workbookViewId="0">
       <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
@@ -34599,7 +34590,7 @@
       <c r="D11" s="18"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18">
         <f t="shared" si="1"/>
@@ -34861,16 +34852,16 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G28" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>180</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -34879,13 +34870,13 @@
         <v>55000</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I29" s="11">
         <v>165000</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -34894,13 +34885,13 @@
         <v>20000</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I30" s="11">
         <v>200000</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
@@ -34909,7 +34900,7 @@
         <v>2500</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I31" s="11">
         <v>217500</v>
@@ -34930,7 +34921,7 @@
         <v>185000</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="6:23" x14ac:dyDescent="0.25">
@@ -34939,13 +34930,13 @@
         <v>3000</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I33" s="11">
         <v>217000</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.25">
@@ -34954,13 +34945,13 @@
         <v>3000</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I34" s="11">
         <v>217000</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.25">
@@ -34969,16 +34960,16 @@
         <v>2500</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I35" s="11">
         <v>217500</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="36" spans="6:23" ht="165" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="6:23" ht="75" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>25</v>
       </c>
@@ -34987,7 +34978,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="O36" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
@@ -35014,31 +35005,31 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" t="s">
+        <v>660</v>
+      </c>
+      <c r="P40" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>658</v>
+      </c>
+      <c r="R40" t="s">
         <v>661</v>
       </c>
-      <c r="P40" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>659</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
+        <v>663</v>
+      </c>
+      <c r="T40" t="s">
         <v>662</v>
       </c>
-      <c r="S40" t="s">
+      <c r="U40" t="s">
         <v>664</v>
       </c>
-      <c r="T40" t="s">
-        <v>663</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>665</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>666</v>
-      </c>
-      <c r="W40" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
@@ -35048,10 +35039,10 @@
         <v>220000</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O41" s="18">
         <v>9322000000</v>
@@ -35093,7 +35084,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="N42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O42" s="18">
         <v>7100000000</v>
@@ -35156,13 +35147,13 @@
     </row>
     <row r="50" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q50" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R50" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S50" t="s">
         <v>282</v>
@@ -35170,10 +35161,10 @@
     </row>
     <row r="51" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O51" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q51" s="18">
         <v>-6000000</v>
@@ -35182,16 +35173,16 @@
         <v>122</v>
       </c>
       <c r="S51" s="18">
-        <f>Q51*R51</f>
+        <f t="shared" ref="S51:S58" si="7">Q51*R51</f>
         <v>-732000000</v>
       </c>
     </row>
     <row r="52" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O52" s="74" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P52" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q52" s="18">
         <v>4000000</v>
@@ -35200,16 +35191,16 @@
         <v>107</v>
       </c>
       <c r="S52" s="18">
-        <f>Q52*R52</f>
+        <f t="shared" si="7"/>
         <v>428000000</v>
       </c>
     </row>
     <row r="53" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O53" s="74" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q53" s="18">
         <v>4000000</v>
@@ -35218,16 +35209,16 @@
         <v>76</v>
       </c>
       <c r="S53" s="18">
-        <f>Q53*R53</f>
+        <f t="shared" si="7"/>
         <v>304000000</v>
       </c>
     </row>
     <row r="54" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P54" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q54" s="18">
         <v>4000000</v>
@@ -35236,16 +35227,16 @@
         <v>46</v>
       </c>
       <c r="S54" s="18">
-        <f>Q54*R54</f>
+        <f t="shared" si="7"/>
         <v>184000000</v>
       </c>
     </row>
     <row r="55" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Q55" s="18">
         <v>4000000</v>
@@ -35254,16 +35245,16 @@
         <v>15</v>
       </c>
       <c r="S55" s="18">
-        <f>Q55*R55</f>
+        <f t="shared" si="7"/>
         <v>60000000</v>
       </c>
     </row>
     <row r="56" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
+        <v>681</v>
+      </c>
+      <c r="P56" t="s">
         <v>682</v>
-      </c>
-      <c r="P56" t="s">
-        <v>683</v>
       </c>
       <c r="Q56" s="18">
         <v>5500000</v>
@@ -35272,16 +35263,16 @@
         <v>61</v>
       </c>
       <c r="S56" s="18">
-        <f>Q56*R56</f>
+        <f t="shared" si="7"/>
         <v>335500000</v>
       </c>
     </row>
     <row r="57" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q57" s="18">
         <v>24000000</v>
@@ -35290,14 +35281,14 @@
         <v>76</v>
       </c>
       <c r="S57" s="18">
-        <f>Q57*R57</f>
+        <f t="shared" si="7"/>
         <v>1824000000</v>
       </c>
     </row>
     <row r="58" spans="15:20" x14ac:dyDescent="0.25">
       <c r="Q58" s="18"/>
       <c r="S58" s="18">
-        <f>Q58*R58</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="688">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2088,6 +2088,18 @@
   </si>
   <si>
     <t xml:space="preserve">حواله اچ سی </t>
+  </si>
+  <si>
+    <t>کفش ایلیا و پاپیون و جوراب</t>
+  </si>
+  <si>
+    <t>2/5/1396</t>
+  </si>
+  <si>
+    <t>مریم خرید کرد لباس برای عروسی</t>
+  </si>
+  <si>
+    <t>طبق گفته مریم سارا برای لباس کارت کشید</t>
   </si>
 </sst>
 </file>
@@ -2776,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2846,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -2878,7 +2890,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="B3" s="42">
         <v>384551</v>
@@ -2920,21 +2932,23 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>616</v>
+        <v>685</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="20"/>
+        <v>-800000</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>687</v>
+      </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -2942,11 +2956,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23200000</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-23200000</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -3686,11 +3700,11 @@
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
-        <v>12004426</v>
+        <v>12804426</v>
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>32531973</v>
+        <v>31731973</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3710,11 +3724,11 @@
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
-        <v>372026298</v>
+        <v>395226298</v>
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>1008217520</v>
+        <v>985017520</v>
       </c>
       <c r="O25">
         <v>24</v>
@@ -3798,11 +3812,11 @@
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>103650.58916148538</v>
+        <v>110114.36250620324</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>280900.41083851462</v>
+        <v>274436.63749379676</v>
       </c>
       <c r="O30">
         <v>29</v>
@@ -3816,9 +3830,11 @@
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="57"/>
+        <v>-65000</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>684</v>
+      </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
       </c>
@@ -3913,7 +3929,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8478102</v>
+        <v>8413102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15166,8 +15182,8 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138:M168"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15244,7 +15260,7 @@
       </c>
       <c r="G2" s="39">
         <f>G3+F2</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H2" s="39">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15252,11 +15268,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>7832300</v>
+        <v>7849000</v>
       </c>
       <c r="J2" s="56">
         <f>C2*(G2-H2)</f>
-        <v>7832300</v>
+        <v>7849000</v>
       </c>
       <c r="K2" s="56">
         <f>D2*(G2-H2)</f>
@@ -15285,7 +15301,7 @@
       </c>
       <c r="G3" s="39">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H3" s="39">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15293,15 +15309,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>9313200000</v>
+        <v>9333100000</v>
       </c>
       <c r="J3" s="56">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>5329116000</v>
+        <v>5340503000</v>
       </c>
       <c r="K3" s="56">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>3984084000</v>
+        <v>3992597000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15326,7 +15342,7 @@
       </c>
       <c r="G4" s="39">
         <f t="shared" si="1"/>
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H4" s="39">
         <f t="shared" si="2"/>
@@ -15338,11 +15354,11 @@
       </c>
       <c r="J4" s="56">
         <f t="shared" si="4"/>
-        <v>3986500</v>
+        <v>3995000</v>
       </c>
       <c r="K4" s="56">
         <f t="shared" si="5"/>
-        <v>-3986500</v>
+        <v>-3995000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15367,7 +15383,7 @@
       </c>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
@@ -15375,7 +15391,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>932000000</v>
+        <v>934000000</v>
       </c>
       <c r="J5" s="56">
         <f t="shared" si="4"/>
@@ -15383,7 +15399,7 @@
       </c>
       <c r="K5" s="56">
         <f t="shared" si="5"/>
-        <v>932000000</v>
+        <v>934000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15408,7 +15424,7 @@
       </c>
       <c r="G6" s="39">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H6" s="39">
         <f t="shared" si="2"/>
@@ -15416,7 +15432,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2300000</v>
+        <v>-2305000</v>
       </c>
       <c r="J6" s="56">
         <f t="shared" si="4"/>
@@ -15424,7 +15440,7 @@
       </c>
       <c r="K6" s="56">
         <f t="shared" si="5"/>
-        <v>-2300000</v>
+        <v>-2305000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15449,7 +15465,7 @@
       </c>
       <c r="G7" s="39">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="2"/>
@@ -15457,7 +15473,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-547428000</v>
+        <v>-548628500</v>
       </c>
       <c r="J7" s="56">
         <f t="shared" si="4"/>
@@ -15465,7 +15481,7 @@
       </c>
       <c r="K7" s="56">
         <f t="shared" si="5"/>
-        <v>-547428000</v>
+        <v>-548628500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15490,7 +15506,7 @@
       </c>
       <c r="G8" s="39">
         <f t="shared" si="1"/>
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" si="2"/>
@@ -15498,7 +15514,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-91000000</v>
+        <v>-91200000</v>
       </c>
       <c r="J8" s="56">
         <f t="shared" si="4"/>
@@ -15506,7 +15522,7 @@
       </c>
       <c r="K8" s="56">
         <f t="shared" si="5"/>
-        <v>-91000000</v>
+        <v>-91200000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15531,7 +15547,7 @@
       </c>
       <c r="G9" s="39">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="2"/>
@@ -15539,7 +15555,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-319591500</v>
+        <v>-320297000</v>
       </c>
       <c r="J9" s="56">
         <f t="shared" si="4"/>
@@ -15547,7 +15563,7 @@
       </c>
       <c r="K9" s="56">
         <f t="shared" si="5"/>
-        <v>-319591500</v>
+        <v>-320297000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15572,7 +15588,7 @@
       </c>
       <c r="G10" s="39">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" si="2"/>
@@ -15580,7 +15596,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-88800000</v>
+        <v>-89000000</v>
       </c>
       <c r="J10" s="56">
         <f t="shared" si="4"/>
@@ -15588,7 +15604,7 @@
       </c>
       <c r="K10" s="56">
         <f t="shared" si="5"/>
-        <v>-88800000</v>
+        <v>-89000000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15613,7 +15629,7 @@
       </c>
       <c r="G11" s="39">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" si="2"/>
@@ -15621,7 +15637,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>443000000</v>
+        <v>444000000</v>
       </c>
       <c r="J11" s="56">
         <f t="shared" si="4"/>
@@ -15629,7 +15645,7 @@
       </c>
       <c r="K11" s="56">
         <f t="shared" si="5"/>
-        <v>443000000</v>
+        <v>444000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15654,7 +15670,7 @@
       </c>
       <c r="G12" s="39">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" si="2"/>
@@ -15662,7 +15678,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-132000000</v>
+        <v>-132300000</v>
       </c>
       <c r="J12" s="56">
         <f t="shared" si="4"/>
@@ -15670,7 +15686,7 @@
       </c>
       <c r="K12" s="56">
         <f t="shared" si="5"/>
-        <v>-132000000</v>
+        <v>-132300000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15695,7 +15711,7 @@
       </c>
       <c r="G13" s="39">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" si="2"/>
@@ -15703,7 +15719,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-26970000</v>
+        <v>-27032000</v>
       </c>
       <c r="J13" s="56">
         <f t="shared" si="4"/>
@@ -15711,7 +15727,7 @@
       </c>
       <c r="K13" s="56">
         <f t="shared" si="5"/>
-        <v>-26970000</v>
+        <v>-27032000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15736,7 +15752,7 @@
       </c>
       <c r="G14" s="39">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" si="2"/>
@@ -15744,7 +15760,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>868000000</v>
+        <v>870000000</v>
       </c>
       <c r="J14" s="56">
         <f t="shared" si="4"/>
@@ -15752,7 +15768,7 @@
       </c>
       <c r="K14" s="56">
         <f t="shared" si="5"/>
-        <v>868000000</v>
+        <v>870000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15777,7 +15793,7 @@
       </c>
       <c r="G15" s="39">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H15" s="39">
         <f t="shared" si="2"/>
@@ -15785,7 +15801,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>779400000</v>
+        <v>781200000</v>
       </c>
       <c r="J15" s="56">
         <f t="shared" si="4"/>
@@ -15793,7 +15809,7 @@
       </c>
       <c r="K15" s="56">
         <f t="shared" si="5"/>
-        <v>779400000</v>
+        <v>781200000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15818,7 +15834,7 @@
       </c>
       <c r="G16" s="39">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
@@ -15826,7 +15842,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-86800000</v>
+        <v>-87000000</v>
       </c>
       <c r="J16" s="56">
         <f t="shared" si="4"/>
@@ -15834,7 +15850,7 @@
       </c>
       <c r="K16" s="56">
         <f t="shared" si="5"/>
-        <v>-86800000</v>
+        <v>-87000000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -15859,7 +15875,7 @@
       </c>
       <c r="G17" s="39">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H17" s="39">
         <f t="shared" si="2"/>
@@ -15867,7 +15883,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-860000000</v>
+        <v>-862000000</v>
       </c>
       <c r="J17" s="56">
         <f t="shared" si="4"/>
@@ -15875,7 +15891,7 @@
       </c>
       <c r="K17" s="56">
         <f t="shared" si="5"/>
-        <v>-860000000</v>
+        <v>-862000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -15903,7 +15919,7 @@
       </c>
       <c r="G18" s="39">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="2"/>
@@ -15911,7 +15927,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-128700000</v>
+        <v>-129000000</v>
       </c>
       <c r="J18" s="56">
         <f t="shared" si="4"/>
@@ -15919,7 +15935,7 @@
       </c>
       <c r="K18" s="56">
         <f t="shared" si="5"/>
-        <v>-128700000</v>
+        <v>-129000000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -15944,7 +15960,7 @@
       </c>
       <c r="G19" s="39">
         <f t="shared" si="1"/>
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H19" s="39">
         <f t="shared" si="2"/>
@@ -15952,7 +15968,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-85600000</v>
+        <v>-85800000</v>
       </c>
       <c r="J19" s="56">
         <f t="shared" si="4"/>
@@ -15960,7 +15976,7 @@
       </c>
       <c r="K19" s="56">
         <f t="shared" si="5"/>
-        <v>-85600000</v>
+        <v>-85800000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -15985,7 +16001,7 @@
       </c>
       <c r="G20" s="39">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H20" s="39">
         <f t="shared" si="2"/>
@@ -15993,15 +16009,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>115212825</v>
+        <v>115483914</v>
       </c>
       <c r="J20" s="56">
         <f t="shared" si="4"/>
-        <v>62667100</v>
+        <v>62814552</v>
       </c>
       <c r="K20" s="56">
         <f t="shared" si="5"/>
-        <v>52545725</v>
+        <v>52669362</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16026,7 +16042,7 @@
       </c>
       <c r="G21" s="39">
         <f t="shared" si="1"/>
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="2"/>
@@ -16034,7 +16050,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-638416800</v>
+        <v>-639922500</v>
       </c>
       <c r="J21" s="56">
         <f t="shared" si="4"/>
@@ -16042,7 +16058,7 @@
       </c>
       <c r="K21" s="56">
         <f t="shared" si="5"/>
-        <v>-638416800</v>
+        <v>-639922500</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16067,7 +16083,7 @@
       </c>
       <c r="G22" s="39">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H22" s="39">
         <f t="shared" si="2"/>
@@ -16075,7 +16091,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1260000000</v>
+        <v>1263000000</v>
       </c>
       <c r="J22" s="56">
         <f t="shared" si="4"/>
@@ -16083,7 +16099,7 @@
       </c>
       <c r="K22" s="56">
         <f t="shared" si="5"/>
-        <v>1260000000</v>
+        <v>1263000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16108,7 +16124,7 @@
       </c>
       <c r="G23" s="39">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H23" s="39">
         <f t="shared" si="2"/>
@@ -16116,7 +16132,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>419000000</v>
+        <v>420000000</v>
       </c>
       <c r="J23" s="56">
         <f t="shared" si="4"/>
@@ -16124,7 +16140,7 @@
       </c>
       <c r="K23" s="56">
         <f t="shared" si="5"/>
-        <v>419000000</v>
+        <v>420000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16149,7 +16165,7 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="1"/>
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="2"/>
@@ -16157,7 +16173,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1257377100</v>
+        <v>-1260378000</v>
       </c>
       <c r="J24" s="56">
         <f t="shared" si="4"/>
@@ -16165,7 +16181,7 @@
       </c>
       <c r="K24" s="56">
         <f t="shared" si="5"/>
-        <v>-1257377100</v>
+        <v>-1260378000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16190,7 +16206,7 @@
       </c>
       <c r="G25" s="39">
         <f t="shared" si="1"/>
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H25" s="39">
         <f t="shared" si="2"/>
@@ -16198,7 +16214,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>604500000</v>
+        <v>606000000</v>
       </c>
       <c r="J25" s="56">
         <f t="shared" si="4"/>
@@ -16206,7 +16222,7 @@
       </c>
       <c r="K25" s="56">
         <f t="shared" si="5"/>
-        <v>604500000</v>
+        <v>606000000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16231,7 +16247,7 @@
       </c>
       <c r="G26" s="39">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H26" s="39">
         <f t="shared" si="2"/>
@@ -16239,7 +16255,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-64944000</v>
+        <v>-65108000</v>
       </c>
       <c r="J26" s="56">
         <f t="shared" si="4"/>
@@ -16247,7 +16263,7 @@
       </c>
       <c r="K26" s="56">
         <f t="shared" si="5"/>
-        <v>-64944000</v>
+        <v>-65108000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16272,7 +16288,7 @@
       </c>
       <c r="G27" s="39">
         <f t="shared" si="1"/>
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="2"/>
@@ -16280,15 +16296,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>78560842</v>
+        <v>78760235</v>
       </c>
       <c r="J27" s="56">
         <f t="shared" si="4"/>
-        <v>42320722</v>
+        <v>42428135</v>
       </c>
       <c r="K27" s="56">
         <f t="shared" si="5"/>
-        <v>36240120</v>
+        <v>36332100</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16313,7 +16329,7 @@
       </c>
       <c r="G28" s="39">
         <f t="shared" si="1"/>
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
@@ -16321,11 +16337,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-86853000</v>
+        <v>-87074000</v>
       </c>
       <c r="J28" s="56">
         <f t="shared" si="4"/>
-        <v>-86853000</v>
+        <v>-87074000</v>
       </c>
       <c r="K28" s="56">
         <f t="shared" si="5"/>
@@ -16354,7 +16370,7 @@
       </c>
       <c r="G29" s="39">
         <f t="shared" si="1"/>
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="2"/>
@@ -16362,7 +16378,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-196696500</v>
+        <v>-197197000</v>
       </c>
       <c r="J29" s="56">
         <f t="shared" si="4"/>
@@ -16370,7 +16386,7 @@
       </c>
       <c r="K29" s="56">
         <f t="shared" si="5"/>
-        <v>-196696500</v>
+        <v>-197197000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16395,7 +16411,7 @@
       </c>
       <c r="G30" s="39">
         <f t="shared" si="1"/>
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H30" s="39">
         <f t="shared" si="2"/>
@@ -16403,11 +16419,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-5895000000</v>
+        <v>-5910000000</v>
       </c>
       <c r="J30" s="56">
         <f t="shared" si="4"/>
-        <v>-5895000000</v>
+        <v>-5910000000</v>
       </c>
       <c r="K30" s="56">
         <f t="shared" si="5"/>
@@ -16436,7 +16452,7 @@
       </c>
       <c r="G31" s="39">
         <f t="shared" si="1"/>
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="2"/>
@@ -16444,7 +16460,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1132098400</v>
+        <v>-1135109300</v>
       </c>
       <c r="J31" s="56">
         <f t="shared" si="4"/>
@@ -16452,7 +16468,7 @@
       </c>
       <c r="K31" s="56">
         <f t="shared" si="5"/>
-        <v>-1132098400</v>
+        <v>-1135109300</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16477,7 +16493,7 @@
       </c>
       <c r="G32" s="39">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H32" s="39">
         <f t="shared" si="2"/>
@@ -16485,7 +16501,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1124206600</v>
+        <v>-1127212500</v>
       </c>
       <c r="J32" s="56">
         <f t="shared" si="4"/>
@@ -16493,7 +16509,7 @@
       </c>
       <c r="K32" s="56">
         <f t="shared" si="5"/>
-        <v>-1124206600</v>
+        <v>-1127212500</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16518,7 +16534,7 @@
       </c>
       <c r="G33" s="39">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H33" s="39">
         <f t="shared" si="2"/>
@@ -16526,7 +16542,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-334021500</v>
+        <v>-334917000</v>
       </c>
       <c r="J33" s="56">
         <f t="shared" si="4"/>
@@ -16534,7 +16550,7 @@
       </c>
       <c r="K33" s="56">
         <f t="shared" si="5"/>
-        <v>-334021500</v>
+        <v>-334917000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16559,7 +16575,7 @@
       </c>
       <c r="G34" s="39">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H34" s="39">
         <f t="shared" si="2"/>
@@ -16571,11 +16587,11 @@
       </c>
       <c r="J34" s="56">
         <f t="shared" si="4"/>
-        <v>373000000</v>
+        <v>374000000</v>
       </c>
       <c r="K34" s="56">
         <f t="shared" si="5"/>
-        <v>-373000000</v>
+        <v>-374000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16600,7 +16616,7 @@
       </c>
       <c r="G35" s="39">
         <f t="shared" si="1"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H35" s="39">
         <f t="shared" si="2"/>
@@ -16608,15 +16624,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>19047336</v>
+        <v>19099808</v>
       </c>
       <c r="J35" s="56">
         <f t="shared" si="4"/>
-        <v>-7863669</v>
+        <v>-7885332</v>
       </c>
       <c r="K35" s="56">
         <f t="shared" si="5"/>
-        <v>26911005</v>
+        <v>26985140</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16641,7 +16657,7 @@
       </c>
       <c r="G36" s="39">
         <f t="shared" si="1"/>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H36" s="39">
         <f t="shared" si="2"/>
@@ -16653,11 +16669,11 @@
       </c>
       <c r="J36" s="56">
         <f t="shared" si="4"/>
-        <v>7885332</v>
+        <v>7906995</v>
       </c>
       <c r="K36" s="56">
         <f t="shared" si="5"/>
-        <v>-7885332</v>
+        <v>-7906995</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16682,7 +16698,7 @@
       </c>
       <c r="G37" s="39">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="2"/>
@@ -16690,7 +16706,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-19470000</v>
+        <v>-19525000</v>
       </c>
       <c r="J37" s="56">
         <f t="shared" si="4"/>
@@ -16698,7 +16714,7 @@
       </c>
       <c r="K37" s="56">
         <f t="shared" si="5"/>
-        <v>-19470000</v>
+        <v>-19525000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16723,7 +16739,7 @@
       </c>
       <c r="G38" s="39">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H38" s="39">
         <f t="shared" si="2"/>
@@ -16731,11 +16747,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1056000000</v>
+        <v>1059000000</v>
       </c>
       <c r="J38" s="56">
         <f t="shared" si="4"/>
-        <v>1056000000</v>
+        <v>1059000000</v>
       </c>
       <c r="K38" s="56">
         <f t="shared" si="5"/>
@@ -16764,7 +16780,7 @@
       </c>
       <c r="G39" s="39">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="2"/>
@@ -16772,11 +16788,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>877500000</v>
+        <v>880000000</v>
       </c>
       <c r="J39" s="56">
         <f t="shared" si="4"/>
-        <v>877500000</v>
+        <v>880000000</v>
       </c>
       <c r="K39" s="56">
         <f t="shared" si="5"/>
@@ -16805,7 +16821,7 @@
       </c>
       <c r="G40" s="39">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="2"/>
@@ -16813,7 +16829,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-17600000</v>
+        <v>-17650000</v>
       </c>
       <c r="J40" s="56">
         <f t="shared" si="4"/>
@@ -16821,7 +16837,7 @@
       </c>
       <c r="K40" s="56">
         <f t="shared" si="5"/>
-        <v>-17600000</v>
+        <v>-17650000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -16846,7 +16862,7 @@
       </c>
       <c r="G41" s="39">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="2"/>
@@ -16854,7 +16870,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1053000000</v>
+        <v>1056000000</v>
       </c>
       <c r="J41" s="56">
         <f t="shared" si="4"/>
@@ -16862,7 +16878,7 @@
       </c>
       <c r="K41" s="56">
         <f t="shared" si="5"/>
-        <v>1053000000</v>
+        <v>1056000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -16887,7 +16903,7 @@
       </c>
       <c r="G42" s="39">
         <f t="shared" si="1"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="2"/>
@@ -16895,7 +16911,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-31130800</v>
+        <v>-31220000</v>
       </c>
       <c r="J42" s="56">
         <f t="shared" si="4"/>
@@ -16903,7 +16919,7 @@
       </c>
       <c r="K42" s="56">
         <f t="shared" si="5"/>
-        <v>-31130800</v>
+        <v>-31220000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -16928,7 +16944,7 @@
       </c>
       <c r="G43" s="39">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="2"/>
@@ -16936,7 +16952,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-69000000</v>
+        <v>-69200000</v>
       </c>
       <c r="J43" s="56">
         <f t="shared" si="4"/>
@@ -16944,7 +16960,7 @@
       </c>
       <c r="K43" s="56">
         <f t="shared" si="5"/>
-        <v>-69000000</v>
+        <v>-69200000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -16969,7 +16985,7 @@
       </c>
       <c r="G44" s="39">
         <f t="shared" si="1"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="2"/>
@@ -16977,7 +16993,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-68600000</v>
+        <v>-68800000</v>
       </c>
       <c r="J44" s="56">
         <f t="shared" si="4"/>
@@ -16985,7 +17001,7 @@
       </c>
       <c r="K44" s="56">
         <f t="shared" si="5"/>
-        <v>-68600000</v>
+        <v>-68800000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17010,7 +17026,7 @@
       </c>
       <c r="G45" s="39">
         <f t="shared" si="1"/>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H45" s="39">
         <f t="shared" si="2"/>
@@ -17018,7 +17034,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-192080000</v>
+        <v>-192640000</v>
       </c>
       <c r="J45" s="56">
         <f t="shared" si="4"/>
@@ -17026,7 +17042,7 @@
       </c>
       <c r="K45" s="56">
         <f t="shared" si="5"/>
-        <v>-192080000</v>
+        <v>-192640000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17051,7 +17067,7 @@
       </c>
       <c r="G46" s="39">
         <f t="shared" si="1"/>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H46" s="39">
         <f t="shared" si="2"/>
@@ -17059,7 +17075,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-239164500</v>
+        <v>-239870000</v>
       </c>
       <c r="J46" s="56">
         <f t="shared" si="4"/>
@@ -17067,7 +17083,7 @@
       </c>
       <c r="K46" s="56">
         <f t="shared" si="5"/>
-        <v>-239164500</v>
+        <v>-239870000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17092,7 +17108,7 @@
       </c>
       <c r="G47" s="39">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H47" s="39">
         <f t="shared" si="2"/>
@@ -17100,15 +17116,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>13679728</v>
+        <v>13720932</v>
       </c>
       <c r="J47" s="56">
         <f t="shared" si="4"/>
-        <v>2228716</v>
+        <v>2235429</v>
       </c>
       <c r="K47" s="56">
         <f t="shared" si="5"/>
-        <v>11451012</v>
+        <v>11485503</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17133,7 +17149,7 @@
       </c>
       <c r="G48" s="39">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H48" s="39">
         <f t="shared" si="2"/>
@@ -17141,7 +17157,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>565960400</v>
+        <v>567665100</v>
       </c>
       <c r="J48" s="56">
         <f t="shared" si="4"/>
@@ -17149,7 +17165,7 @@
       </c>
       <c r="K48" s="56">
         <f t="shared" si="5"/>
-        <v>565960400</v>
+        <v>567665100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17174,7 +17190,7 @@
       </c>
       <c r="G49" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H49" s="39">
         <f t="shared" si="2"/>
@@ -17182,7 +17198,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-50220000</v>
+        <v>-50375000</v>
       </c>
       <c r="J49" s="56">
         <f t="shared" si="4"/>
@@ -17190,7 +17206,7 @@
       </c>
       <c r="K49" s="56">
         <f t="shared" si="5"/>
-        <v>-50220000</v>
+        <v>-50375000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17215,7 +17231,7 @@
       </c>
       <c r="G50" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="2"/>
@@ -17223,7 +17239,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-44712000</v>
+        <v>-44850000</v>
       </c>
       <c r="J50" s="56">
         <f t="shared" si="4"/>
@@ -17231,7 +17247,7 @@
       </c>
       <c r="K50" s="56">
         <f t="shared" si="5"/>
-        <v>-44712000</v>
+        <v>-44850000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17256,7 +17272,7 @@
       </c>
       <c r="G51" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="2"/>
@@ -17264,7 +17280,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-239760000</v>
+        <v>-240500000</v>
       </c>
       <c r="J51" s="56">
         <f t="shared" si="4"/>
@@ -17272,7 +17288,7 @@
       </c>
       <c r="K51" s="56">
         <f t="shared" si="5"/>
-        <v>-239760000</v>
+        <v>-240500000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17297,7 +17313,7 @@
       </c>
       <c r="G52" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="2"/>
@@ -17305,7 +17321,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-64800000</v>
+        <v>-65000000</v>
       </c>
       <c r="J52" s="56">
         <f t="shared" si="4"/>
@@ -17313,7 +17329,7 @@
       </c>
       <c r="K52" s="56">
         <f t="shared" si="5"/>
-        <v>-64800000</v>
+        <v>-65000000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17338,7 +17354,7 @@
       </c>
       <c r="G53" s="39">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="2"/>
@@ -17346,7 +17362,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-340765000</v>
+        <v>-341820000</v>
       </c>
       <c r="J53" s="56">
         <f t="shared" si="4"/>
@@ -17354,7 +17370,7 @@
       </c>
       <c r="K53" s="56">
         <f t="shared" si="5"/>
-        <v>-340765000</v>
+        <v>-341820000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17379,7 +17395,7 @@
       </c>
       <c r="G54" s="39">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="2"/>
@@ -17387,7 +17403,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-64600000</v>
+        <v>-64800000</v>
       </c>
       <c r="J54" s="56">
         <f t="shared" si="4"/>
@@ -17395,7 +17411,7 @@
       </c>
       <c r="K54" s="56">
         <f t="shared" si="5"/>
-        <v>-64600000</v>
+        <v>-64800000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17420,7 +17436,7 @@
       </c>
       <c r="G55" s="39">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" si="2"/>
@@ -17428,7 +17444,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-323161500</v>
+        <v>-324162000</v>
       </c>
       <c r="J55" s="56">
         <f t="shared" si="4"/>
@@ -17436,7 +17452,7 @@
       </c>
       <c r="K55" s="56">
         <f t="shared" si="5"/>
-        <v>-323161500</v>
+        <v>-324162000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17461,7 +17477,7 @@
       </c>
       <c r="G56" s="39">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="2"/>
@@ -17469,7 +17485,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-12274000</v>
+        <v>-12312000</v>
       </c>
       <c r="J56" s="56">
         <f t="shared" si="4"/>
@@ -17477,7 +17493,7 @@
       </c>
       <c r="K56" s="56">
         <f t="shared" si="5"/>
-        <v>-12274000</v>
+        <v>-12312000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17502,7 +17518,7 @@
       </c>
       <c r="G57" s="39">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="2"/>
@@ -17510,7 +17526,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-33915000</v>
+        <v>-34020000</v>
       </c>
       <c r="J57" s="56">
         <f t="shared" si="4"/>
@@ -17518,7 +17534,7 @@
       </c>
       <c r="K57" s="56">
         <f t="shared" si="5"/>
-        <v>-33915000</v>
+        <v>-34020000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17543,7 +17559,7 @@
       </c>
       <c r="G58" s="39">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="2"/>
@@ -17551,7 +17567,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-19380000</v>
+        <v>-19440000</v>
       </c>
       <c r="J58" s="56">
         <f t="shared" si="4"/>
@@ -17559,7 +17575,7 @@
       </c>
       <c r="K58" s="56">
         <f t="shared" si="5"/>
-        <v>-19380000</v>
+        <v>-19440000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17584,7 +17600,7 @@
       </c>
       <c r="G59" s="39">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H59" s="39">
         <f t="shared" si="2"/>
@@ -17592,11 +17608,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>319000000</v>
+        <v>320000000</v>
       </c>
       <c r="J59" s="56">
         <f t="shared" si="4"/>
-        <v>319000000</v>
+        <v>320000000</v>
       </c>
       <c r="K59" s="56">
         <f t="shared" si="5"/>
@@ -17625,7 +17641,7 @@
       </c>
       <c r="G60" s="39">
         <f t="shared" si="1"/>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H60" s="39">
         <f t="shared" si="2"/>
@@ -17633,11 +17649,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1113000000</v>
+        <v>1116500000</v>
       </c>
       <c r="J60" s="56">
         <f t="shared" si="4"/>
-        <v>1113000000</v>
+        <v>1116500000</v>
       </c>
       <c r="K60" s="56">
         <f t="shared" si="5"/>
@@ -17666,7 +17682,7 @@
       </c>
       <c r="G61" s="39">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="2"/>
@@ -17674,11 +17690,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>316000000</v>
+        <v>317000000</v>
       </c>
       <c r="J61" s="56">
         <f t="shared" si="4"/>
-        <v>316000000</v>
+        <v>317000000</v>
       </c>
       <c r="K61" s="56">
         <f t="shared" si="5"/>
@@ -17707,7 +17723,7 @@
       </c>
       <c r="G62" s="39">
         <f t="shared" si="1"/>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H62" s="39">
         <f t="shared" si="2"/>
@@ -17715,11 +17731,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>948000000</v>
+        <v>951000000</v>
       </c>
       <c r="J62" s="56">
         <f t="shared" si="4"/>
-        <v>948000000</v>
+        <v>951000000</v>
       </c>
       <c r="K62" s="56">
         <f t="shared" si="5"/>
@@ -17748,7 +17764,7 @@
       </c>
       <c r="G63" s="39">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H63" s="39">
         <f t="shared" si="2"/>
@@ -17756,7 +17772,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-63000000</v>
+        <v>-63200000</v>
       </c>
       <c r="J63" s="56">
         <f t="shared" si="4"/>
@@ -17764,7 +17780,7 @@
       </c>
       <c r="K63" s="56">
         <f t="shared" si="5"/>
-        <v>-63000000</v>
+        <v>-63200000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -17789,7 +17805,7 @@
       </c>
       <c r="G64" s="39">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H64" s="39">
         <f t="shared" si="2"/>
@@ -17797,7 +17813,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-15500000</v>
+        <v>-15550000</v>
       </c>
       <c r="J64" s="56">
         <f t="shared" si="4"/>
@@ -17805,7 +17821,7 @@
       </c>
       <c r="K64" s="56">
         <f t="shared" si="5"/>
-        <v>-15500000</v>
+        <v>-15550000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -17830,7 +17846,7 @@
       </c>
       <c r="G65" s="39">
         <f t="shared" si="1"/>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="2"/>
@@ -17838,7 +17854,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-61200000</v>
+        <v>-61400000</v>
       </c>
       <c r="J65" s="56">
         <f t="shared" si="4"/>
@@ -17846,7 +17862,7 @@
       </c>
       <c r="K65" s="56">
         <f t="shared" si="5"/>
-        <v>-61200000</v>
+        <v>-61400000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -17871,7 +17887,7 @@
       </c>
       <c r="G66" s="39">
         <f t="shared" si="1"/>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H66" s="39">
         <f t="shared" si="2"/>
@@ -17879,7 +17895,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-51510000</v>
+        <v>-51680000</v>
       </c>
       <c r="J66" s="56">
         <f t="shared" si="4"/>
@@ -17887,7 +17903,7 @@
       </c>
       <c r="K66" s="56">
         <f t="shared" si="5"/>
-        <v>-51510000</v>
+        <v>-51680000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -17912,23 +17928,23 @@
       </c>
       <c r="G67" s="39">
         <f t="shared" ref="G67:G128" si="7">G68+F67</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H67" s="39">
-        <f t="shared" ref="H67:H122" si="8">IF(B67&gt;0,1,0)</f>
+        <f t="shared" ref="H67:H123" si="8">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>27488825</v>
+        <v>27580150</v>
       </c>
       <c r="J67" s="56">
-        <f t="shared" ref="J67:J122" si="10">C67*(G67-H67)</f>
-        <v>19782623</v>
+        <f t="shared" ref="J67:J123" si="10">C67*(G67-H67)</f>
+        <v>19848346</v>
       </c>
       <c r="K67" s="56">
-        <f t="shared" ref="K67:K122" si="11">D67*(G67-H67)</f>
-        <v>7706202</v>
+        <f t="shared" ref="K67:K123" si="11">D67*(G67-H67)</f>
+        <v>7731804</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -17953,7 +17969,7 @@
       </c>
       <c r="G68" s="39">
         <f t="shared" si="7"/>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="8"/>
@@ -17961,7 +17977,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-41180000</v>
+        <v>-41325000</v>
       </c>
       <c r="J68" s="56">
         <f t="shared" si="10"/>
@@ -17969,7 +17985,7 @@
       </c>
       <c r="K68" s="56">
         <f t="shared" si="11"/>
-        <v>-41180000</v>
+        <v>-41325000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -17994,7 +18010,7 @@
       </c>
       <c r="G69" s="39">
         <f t="shared" si="7"/>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H69" s="39">
         <f t="shared" si="8"/>
@@ -18002,7 +18018,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>270480000</v>
+        <v>271460000</v>
       </c>
       <c r="J69" s="56">
         <f t="shared" si="10"/>
@@ -18010,7 +18026,7 @@
       </c>
       <c r="K69" s="56">
         <f t="shared" si="11"/>
-        <v>270480000</v>
+        <v>271460000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18035,7 +18051,7 @@
       </c>
       <c r="G70" s="39">
         <f t="shared" si="7"/>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H70" s="39">
         <f t="shared" si="8"/>
@@ -18043,7 +18059,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-12604000</v>
+        <v>-12650000</v>
       </c>
       <c r="J70" s="56">
         <f t="shared" si="10"/>
@@ -18051,7 +18067,7 @@
       </c>
       <c r="K70" s="56">
         <f t="shared" si="11"/>
-        <v>-12604000</v>
+        <v>-12650000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18076,7 +18092,7 @@
       </c>
       <c r="G71" s="39">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="8"/>
@@ -18084,15 +18100,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>31256598</v>
+        <v>31371936</v>
       </c>
       <c r="J71" s="56">
         <f t="shared" si="10"/>
-        <v>28133052</v>
+        <v>28236864</v>
       </c>
       <c r="K71" s="56">
         <f t="shared" si="11"/>
-        <v>3123546</v>
+        <v>3135072</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18117,7 +18133,7 @@
       </c>
       <c r="G72" s="39">
         <f t="shared" si="7"/>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H72" s="39">
         <f t="shared" si="8"/>
@@ -18125,7 +18141,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-41183599</v>
+        <v>-41335568</v>
       </c>
       <c r="J72" s="56">
         <f t="shared" si="10"/>
@@ -18133,7 +18149,7 @@
       </c>
       <c r="K72" s="56">
         <f t="shared" si="11"/>
-        <v>-41183599</v>
+        <v>-41335568</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18158,7 +18174,7 @@
       </c>
       <c r="G73" s="39">
         <f t="shared" si="7"/>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="8"/>
@@ -18166,7 +18182,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-217485000</v>
+        <v>-218290500</v>
       </c>
       <c r="J73" s="56">
         <f t="shared" si="10"/>
@@ -18174,7 +18190,7 @@
       </c>
       <c r="K73" s="56">
         <f t="shared" si="11"/>
-        <v>-217485000</v>
+        <v>-218290500</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18199,7 +18215,7 @@
       </c>
       <c r="G74" s="39">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="8"/>
@@ -18207,7 +18223,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>1832690000</v>
+        <v>1839685000</v>
       </c>
       <c r="J74" s="56">
         <f t="shared" si="10"/>
@@ -18215,7 +18231,7 @@
       </c>
       <c r="K74" s="56">
         <f t="shared" si="11"/>
-        <v>1832690000</v>
+        <v>1839685000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18240,7 +18256,7 @@
       </c>
       <c r="G75" s="39">
         <f t="shared" si="7"/>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="8"/>
@@ -18248,7 +18264,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>783000000</v>
+        <v>786000000</v>
       </c>
       <c r="J75" s="56">
         <f t="shared" si="10"/>
@@ -18256,7 +18272,7 @@
       </c>
       <c r="K75" s="56">
         <f t="shared" si="11"/>
-        <v>783000000</v>
+        <v>786000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18281,7 +18297,7 @@
       </c>
       <c r="G76" s="39">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="8"/>
@@ -18289,7 +18305,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>777000000</v>
+        <v>780000000</v>
       </c>
       <c r="J76" s="56">
         <f t="shared" si="10"/>
@@ -18297,7 +18313,7 @@
       </c>
       <c r="K76" s="56">
         <f t="shared" si="11"/>
-        <v>777000000</v>
+        <v>780000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18322,7 +18338,7 @@
       </c>
       <c r="G77" s="39">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="8"/>
@@ -18330,7 +18346,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>774000000</v>
+        <v>777000000</v>
       </c>
       <c r="J77" s="56">
         <f t="shared" si="10"/>
@@ -18338,7 +18354,7 @@
       </c>
       <c r="K77" s="56">
         <f t="shared" si="11"/>
-        <v>774000000</v>
+        <v>777000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18363,7 +18379,7 @@
       </c>
       <c r="G78" s="39">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="8"/>
@@ -18371,11 +18387,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-825600000</v>
+        <v>-828800000</v>
       </c>
       <c r="J78" s="56">
         <f t="shared" si="10"/>
-        <v>-825600000</v>
+        <v>-828800000</v>
       </c>
       <c r="K78" s="56">
         <f t="shared" si="11"/>
@@ -18404,7 +18420,7 @@
       </c>
       <c r="G79" s="39">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="8"/>
@@ -18412,11 +18428,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-205600000</v>
+        <v>-206400000</v>
       </c>
       <c r="J79" s="56">
         <f t="shared" si="10"/>
-        <v>-205600000</v>
+        <v>-206400000</v>
       </c>
       <c r="K79" s="56">
         <f t="shared" si="11"/>
@@ -18445,7 +18461,7 @@
       </c>
       <c r="G80" s="39">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H80" s="39">
         <f t="shared" si="8"/>
@@ -18453,7 +18469,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-12388608</v>
+        <v>-12437001</v>
       </c>
       <c r="J80" s="56">
         <f t="shared" si="10"/>
@@ -18461,7 +18477,7 @@
       </c>
       <c r="K80" s="56">
         <f t="shared" si="11"/>
-        <v>-12388608</v>
+        <v>-12437001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18486,7 +18502,7 @@
       </c>
       <c r="G81" s="39">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H81" s="39">
         <f t="shared" si="8"/>
@@ -18494,7 +18510,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-35700000</v>
+        <v>-35840000</v>
       </c>
       <c r="J81" s="56">
         <f t="shared" si="10"/>
@@ -18502,7 +18518,7 @@
       </c>
       <c r="K81" s="56">
         <f t="shared" si="11"/>
-        <v>-35700000</v>
+        <v>-35840000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18527,7 +18543,7 @@
       </c>
       <c r="G82" s="39">
         <f t="shared" si="7"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H82" s="39">
         <f t="shared" si="8"/>
@@ -18535,7 +18551,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-63500000</v>
+        <v>-63750000</v>
       </c>
       <c r="J82" s="56">
         <f t="shared" si="10"/>
@@ -18543,7 +18559,7 @@
       </c>
       <c r="K82" s="56">
         <f t="shared" si="11"/>
-        <v>-63500000</v>
+        <v>-63750000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18568,7 +18584,7 @@
       </c>
       <c r="G83" s="39">
         <f t="shared" si="7"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H83" s="39">
         <f t="shared" si="8"/>
@@ -18576,7 +18592,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-50600000</v>
+        <v>-50800000</v>
       </c>
       <c r="J83" s="56">
         <f t="shared" si="10"/>
@@ -18584,7 +18600,7 @@
       </c>
       <c r="K83" s="56">
         <f t="shared" si="11"/>
-        <v>-50600000</v>
+        <v>-50800000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18609,7 +18625,7 @@
       </c>
       <c r="G84" s="39">
         <f t="shared" si="7"/>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="8"/>
@@ -18617,7 +18633,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>407164800</v>
+        <v>408800000</v>
       </c>
       <c r="J84" s="56">
         <f t="shared" si="10"/>
@@ -18625,7 +18641,7 @@
       </c>
       <c r="K84" s="56">
         <f t="shared" si="11"/>
-        <v>407164800</v>
+        <v>408800000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18650,7 +18666,7 @@
       </c>
       <c r="G85" s="39">
         <f t="shared" si="7"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="8"/>
@@ -18658,7 +18674,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>612500000</v>
+        <v>615000000</v>
       </c>
       <c r="J85" s="56">
         <f t="shared" si="10"/>
@@ -18666,7 +18682,7 @@
       </c>
       <c r="K85" s="56">
         <f t="shared" si="11"/>
-        <v>612500000</v>
+        <v>615000000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18691,7 +18707,7 @@
       </c>
       <c r="G86" s="39">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="8"/>
@@ -18699,15 +18715,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>44898300</v>
+        <v>45084600</v>
       </c>
       <c r="J86" s="56">
         <f t="shared" si="10"/>
-        <v>20472950</v>
+        <v>20557900</v>
       </c>
       <c r="K86" s="56">
         <f t="shared" si="11"/>
-        <v>24425350</v>
+        <v>24526700</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18732,7 +18748,7 @@
       </c>
       <c r="G87" s="39">
         <f t="shared" si="7"/>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="8"/>
@@ -18740,7 +18756,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-47800000</v>
+        <v>-48000000</v>
       </c>
       <c r="J87" s="56">
         <f t="shared" si="10"/>
@@ -18748,7 +18764,7 @@
       </c>
       <c r="K87" s="56">
         <f t="shared" si="11"/>
-        <v>-47800000</v>
+        <v>-48000000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18773,7 +18789,7 @@
       </c>
       <c r="G88" s="39">
         <f t="shared" si="7"/>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="8"/>
@@ -18781,15 +18797,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-28084000</v>
+        <v>-28202000</v>
       </c>
       <c r="J88" s="56">
         <f t="shared" si="10"/>
-        <v>-16422000</v>
+        <v>-16491000</v>
       </c>
       <c r="K88" s="56">
         <f t="shared" si="11"/>
-        <v>-11662000</v>
+        <v>-11711000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -18814,7 +18830,7 @@
       </c>
       <c r="G89" s="39">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H89" s="39">
         <f t="shared" si="8"/>
@@ -18822,7 +18838,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-736207000</v>
+        <v>-739407900</v>
       </c>
       <c r="J89" s="56">
         <f t="shared" si="10"/>
@@ -18830,7 +18846,7 @@
       </c>
       <c r="K89" s="56">
         <f t="shared" si="11"/>
-        <v>-736207000</v>
+        <v>-739407900</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -18855,7 +18871,7 @@
       </c>
       <c r="G90" s="39">
         <f t="shared" si="7"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H90" s="39">
         <f t="shared" si="8"/>
@@ -18863,7 +18879,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-733006100</v>
+        <v>-736207000</v>
       </c>
       <c r="J90" s="56">
         <f t="shared" si="10"/>
@@ -18871,7 +18887,7 @@
       </c>
       <c r="K90" s="56">
         <f t="shared" si="11"/>
-        <v>-733006100</v>
+        <v>-736207000</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -18896,7 +18912,7 @@
       </c>
       <c r="G91" s="39">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H91" s="39">
         <f t="shared" si="8"/>
@@ -18904,7 +18920,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-729805200</v>
+        <v>-733006100</v>
       </c>
       <c r="J91" s="56">
         <f t="shared" si="10"/>
@@ -18912,7 +18928,7 @@
       </c>
       <c r="K91" s="56">
         <f t="shared" si="11"/>
-        <v>-729805200</v>
+        <v>-733006100</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -18937,7 +18953,7 @@
       </c>
       <c r="G92" s="39">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H92" s="39">
         <f t="shared" si="8"/>
@@ -18945,7 +18961,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-726604300</v>
+        <v>-729805200</v>
       </c>
       <c r="J92" s="56">
         <f t="shared" si="10"/>
@@ -18953,7 +18969,7 @@
       </c>
       <c r="K92" s="56">
         <f t="shared" si="11"/>
-        <v>-726604300</v>
+        <v>-729805200</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -18978,7 +18994,7 @@
       </c>
       <c r="G93" s="39">
         <f t="shared" si="7"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H93" s="39">
         <f t="shared" si="8"/>
@@ -18986,7 +19002,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-723403400</v>
+        <v>-726604300</v>
       </c>
       <c r="J93" s="56">
         <f t="shared" si="10"/>
@@ -18994,7 +19010,7 @@
       </c>
       <c r="K93" s="56">
         <f t="shared" si="11"/>
-        <v>-723403400</v>
+        <v>-726604300</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19019,7 +19035,7 @@
       </c>
       <c r="G94" s="39">
         <f t="shared" si="7"/>
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H94" s="39">
         <f t="shared" si="8"/>
@@ -19027,7 +19043,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-720202500</v>
+        <v>-723403400</v>
       </c>
       <c r="J94" s="56">
         <f t="shared" si="10"/>
@@ -19035,7 +19051,7 @@
       </c>
       <c r="K94" s="56">
         <f t="shared" si="11"/>
-        <v>-720202500</v>
+        <v>-723403400</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19060,7 +19076,7 @@
       </c>
       <c r="G95" s="39">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H95" s="39">
         <f t="shared" si="8"/>
@@ -19068,7 +19084,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-266840908</v>
+        <v>-268037504</v>
       </c>
       <c r="J95" s="56">
         <f t="shared" si="10"/>
@@ -19076,7 +19092,7 @@
       </c>
       <c r="K95" s="56">
         <f t="shared" si="11"/>
-        <v>-266840908</v>
+        <v>-268037504</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19101,7 +19117,7 @@
       </c>
       <c r="G96" s="39">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H96" s="39">
         <f t="shared" si="8"/>
@@ -19109,7 +19125,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-42600000</v>
+        <v>-42800000</v>
       </c>
       <c r="J96" s="56">
         <f t="shared" si="10"/>
@@ -19117,7 +19133,7 @@
       </c>
       <c r="K96" s="56">
         <f t="shared" si="11"/>
-        <v>-42600000</v>
+        <v>-42800000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19142,7 +19158,7 @@
       </c>
       <c r="G97" s="39">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H97" s="39">
         <f t="shared" si="8"/>
@@ -19150,15 +19166,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>33666738</v>
+        <v>33826296</v>
       </c>
       <c r="J97" s="56">
         <f t="shared" si="10"/>
-        <v>14543386</v>
+        <v>14612312</v>
       </c>
       <c r="K97" s="56">
         <f t="shared" si="11"/>
-        <v>19123352</v>
+        <v>19213984</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19183,7 +19199,7 @@
       </c>
       <c r="G98" s="39">
         <f t="shared" si="7"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H98" s="39">
         <f t="shared" si="8"/>
@@ -19191,7 +19207,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>23559808</v>
+        <v>23674176</v>
       </c>
       <c r="J98" s="56">
         <f t="shared" si="10"/>
@@ -19199,7 +19215,7 @@
       </c>
       <c r="K98" s="56">
         <f t="shared" si="11"/>
-        <v>23559808</v>
+        <v>23674176</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19224,7 +19240,7 @@
       </c>
       <c r="G99" s="39">
         <f t="shared" si="7"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="8"/>
@@ -19232,7 +19248,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-270300000</v>
+        <v>-271625000</v>
       </c>
       <c r="J99" s="56">
         <f t="shared" si="10"/>
@@ -19240,7 +19256,7 @@
       </c>
       <c r="K99" s="56">
         <f t="shared" si="11"/>
-        <v>-270300000</v>
+        <v>-271625000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19265,7 +19281,7 @@
       </c>
       <c r="G100" s="39">
         <f t="shared" si="7"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H100" s="39">
         <f t="shared" si="8"/>
@@ -19273,7 +19289,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>262350000</v>
+        <v>263675000</v>
       </c>
       <c r="J100" s="56">
         <f t="shared" si="10"/>
@@ -19281,7 +19297,7 @@
       </c>
       <c r="K100" s="56">
         <f t="shared" si="11"/>
-        <v>262350000</v>
+        <v>263675000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19306,7 +19322,7 @@
       </c>
       <c r="G101" s="39">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H101" s="39">
         <f t="shared" si="8"/>
@@ -19314,11 +19330,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>12098945</v>
+        <v>12165790</v>
       </c>
       <c r="J101" s="56">
         <f t="shared" si="10"/>
-        <v>12098945</v>
+        <v>12165790</v>
       </c>
       <c r="K101" s="56">
         <f t="shared" si="11"/>
@@ -19347,7 +19363,7 @@
       </c>
       <c r="G102" s="39">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H102" s="39">
         <f t="shared" si="8"/>
@@ -19355,7 +19371,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>534000000</v>
+        <v>537000000</v>
       </c>
       <c r="J102" s="56">
         <f t="shared" si="10"/>
@@ -19363,7 +19379,7 @@
       </c>
       <c r="K102" s="56">
         <f t="shared" si="11"/>
-        <v>534000000</v>
+        <v>537000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19388,7 +19404,7 @@
       </c>
       <c r="G103" s="39">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H103" s="39">
         <f t="shared" si="8"/>
@@ -19396,11 +19412,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-172000000</v>
+        <v>-173000000</v>
       </c>
       <c r="J103" s="56">
         <f t="shared" si="10"/>
-        <v>-172000000</v>
+        <v>-173000000</v>
       </c>
       <c r="K103" s="56">
         <f t="shared" si="11"/>
@@ -19429,7 +19445,7 @@
       </c>
       <c r="G104" s="39">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H104" s="39">
         <f t="shared" si="8"/>
@@ -19437,11 +19453,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>483000000</v>
+        <v>486000000</v>
       </c>
       <c r="J104" s="56">
         <f t="shared" si="10"/>
-        <v>483000000</v>
+        <v>486000000</v>
       </c>
       <c r="K104" s="56">
         <f t="shared" si="11"/>
@@ -19470,7 +19486,7 @@
       </c>
       <c r="G105" s="39">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H105" s="39">
         <f t="shared" si="8"/>
@@ -19478,11 +19494,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>179200000</v>
+        <v>180320000</v>
       </c>
       <c r="J105" s="56">
         <f t="shared" si="10"/>
-        <v>179200000</v>
+        <v>180320000</v>
       </c>
       <c r="K105" s="56">
         <f t="shared" si="11"/>
@@ -19511,7 +19527,7 @@
       </c>
       <c r="G106" s="39">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H106" s="39">
         <f t="shared" si="8"/>
@@ -19519,7 +19535,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-483000000</v>
+        <v>-486000000</v>
       </c>
       <c r="J106" s="56">
         <f t="shared" si="10"/>
@@ -19527,7 +19543,7 @@
       </c>
       <c r="K106" s="56">
         <f t="shared" si="11"/>
-        <v>-483000000</v>
+        <v>-486000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19552,7 +19568,7 @@
       </c>
       <c r="G107" s="39">
         <f t="shared" si="7"/>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H107" s="39">
         <f t="shared" si="8"/>
@@ -19560,15 +19576,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>13664594</v>
+        <v>13755088</v>
       </c>
       <c r="J107" s="56">
         <f t="shared" si="10"/>
-        <v>11342365</v>
+        <v>11417480</v>
       </c>
       <c r="K107" s="56">
         <f t="shared" si="11"/>
-        <v>2322229</v>
+        <v>2337608</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19593,7 +19609,7 @@
       </c>
       <c r="G108" s="39">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H108" s="39">
         <f t="shared" si="8"/>
@@ -19601,7 +19617,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-255105000</v>
+        <v>-256805700</v>
       </c>
       <c r="J108" s="56">
         <f t="shared" si="10"/>
@@ -19609,7 +19625,7 @@
       </c>
       <c r="K108" s="56">
         <f t="shared" si="11"/>
-        <v>-255105000</v>
+        <v>-256805700</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19634,7 +19650,7 @@
       </c>
       <c r="G109" s="39">
         <f t="shared" si="7"/>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H109" s="39">
         <f t="shared" si="8"/>
@@ -19642,7 +19658,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-146073000</v>
+        <v>-147073500</v>
       </c>
       <c r="J109" s="56">
         <f t="shared" si="10"/>
@@ -19650,7 +19666,7 @@
       </c>
       <c r="K109" s="56">
         <f t="shared" si="11"/>
-        <v>-146073000</v>
+        <v>-147073500</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19675,7 +19691,7 @@
       </c>
       <c r="G110" s="39">
         <f t="shared" si="7"/>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H110" s="39">
         <f t="shared" si="8"/>
@@ -19683,7 +19699,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>2840000000</v>
+        <v>2860000000</v>
       </c>
       <c r="J110" s="56">
         <f t="shared" si="10"/>
@@ -19691,7 +19707,7 @@
       </c>
       <c r="K110" s="56">
         <f t="shared" si="11"/>
-        <v>2840000000</v>
+        <v>2860000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19716,7 +19732,7 @@
       </c>
       <c r="G111" s="39">
         <f t="shared" si="7"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H111" s="39">
         <f t="shared" si="8"/>
@@ -19724,15 +19740,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>21310716</v>
+        <v>21485394</v>
       </c>
       <c r="J111" s="56">
         <f t="shared" si="10"/>
-        <v>10658286</v>
+        <v>10745649</v>
       </c>
       <c r="K111" s="56">
         <f t="shared" si="11"/>
-        <v>10652430</v>
+        <v>10739745</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19757,7 +19773,7 @@
       </c>
       <c r="G112" s="39">
         <f t="shared" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="8"/>
@@ -19765,7 +19781,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-3038800000</v>
+        <v>-3067200000</v>
       </c>
       <c r="J112" s="56">
         <f t="shared" si="10"/>
@@ -19773,7 +19789,7 @@
       </c>
       <c r="K112" s="56">
         <f t="shared" si="11"/>
-        <v>-3038800000</v>
+        <v>-3067200000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -19798,7 +19814,7 @@
       </c>
       <c r="G113" s="39">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H113" s="39">
         <f t="shared" si="8"/>
@@ -19806,15 +19822,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>14836640</v>
+        <v>14999680</v>
       </c>
       <c r="J113" s="56">
         <f t="shared" si="10"/>
-        <v>11148501</v>
+        <v>11271012</v>
       </c>
       <c r="K113" s="56">
         <f t="shared" si="11"/>
-        <v>3688139</v>
+        <v>3728668</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -19839,7 +19855,7 @@
       </c>
       <c r="G114" s="39">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H114" s="39">
         <f t="shared" si="8"/>
@@ -19847,15 +19863,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-524400</v>
+        <v>-530100</v>
       </c>
       <c r="J114" s="56">
         <f t="shared" si="10"/>
-        <v>-230000</v>
+        <v>-232500</v>
       </c>
       <c r="K114" s="56">
         <f t="shared" si="11"/>
-        <v>-294400</v>
+        <v>-297600</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -19880,7 +19896,7 @@
       </c>
       <c r="G115" s="39">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H115" s="39">
         <f t="shared" si="8"/>
@@ -19892,11 +19908,11 @@
       </c>
       <c r="J115" s="56">
         <f t="shared" si="10"/>
-        <v>39500000</v>
+        <v>40000000</v>
       </c>
       <c r="K115" s="56">
         <f t="shared" si="11"/>
-        <v>-39500000</v>
+        <v>-40000000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -19921,7 +19937,7 @@
       </c>
       <c r="G116" s="39">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H116" s="39">
         <f t="shared" si="8"/>
@@ -19929,7 +19945,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-11360000</v>
+        <v>-11520000</v>
       </c>
       <c r="J116" s="56">
         <f t="shared" si="10"/>
@@ -19937,7 +19953,7 @@
       </c>
       <c r="K116" s="56">
         <f t="shared" si="11"/>
-        <v>-11360000</v>
+        <v>-11520000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -19962,7 +19978,7 @@
       </c>
       <c r="G117" s="39">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H117" s="39">
         <f t="shared" si="8"/>
@@ -19970,15 +19986,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>90280</v>
+        <v>91760</v>
       </c>
       <c r="J117" s="56">
         <f t="shared" si="10"/>
-        <v>6523401</v>
+        <v>6630342</v>
       </c>
       <c r="K117" s="56">
         <f t="shared" si="11"/>
-        <v>-6433121</v>
+        <v>-6538582</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20004,7 +20020,7 @@
       </c>
       <c r="G118" s="39">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H118" s="39">
         <f t="shared" si="8"/>
@@ -20012,7 +20028,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>1536580500</v>
+        <v>1575980000</v>
       </c>
       <c r="J118" s="56">
         <f t="shared" si="10"/>
@@ -20020,7 +20036,7 @@
       </c>
       <c r="K118" s="56">
         <f t="shared" si="11"/>
-        <v>1536580500</v>
+        <v>1575980000</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20046,7 +20062,7 @@
       </c>
       <c r="G119" s="39">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H119" s="39">
         <f t="shared" si="8"/>
@@ -20054,15 +20070,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>2865630</v>
+        <v>2961151</v>
       </c>
       <c r="J119" s="56">
         <f t="shared" si="10"/>
-        <v>3301620</v>
+        <v>3411674</v>
       </c>
       <c r="K119" s="56">
         <f t="shared" si="11"/>
-        <v>-435990</v>
+        <v>-450523</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20087,7 +20103,7 @@
       </c>
       <c r="G120" s="39">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20095,7 +20111,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I126" si="13">B120*(G120-H120)</f>
-        <v>52000000</v>
+        <v>54000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20103,7 +20119,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>52000000</v>
+        <v>54000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20129,7 +20145,7 @@
       </c>
       <c r="G121" s="39">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20137,7 +20153,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2600000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20145,7 +20161,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -20166,11 +20182,11 @@
         <v>655</v>
       </c>
       <c r="F122" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="39">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20178,29 +20194,37 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>-384551</v>
+        <v>0</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>-110908</v>
+        <v>0</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>-273643</v>
+        <v>0</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
+      <c r="A123" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B123" s="18">
+        <v>0</v>
+      </c>
+      <c r="C123" s="18">
+        <v>800000</v>
+      </c>
       <c r="D123" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E123" s="11"/>
+        <v>-800000</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>687</v>
+      </c>
       <c r="F123" s="11">
         <v>0</v>
       </c>
@@ -20208,13 +20232,22 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H123" s="11"/>
+      <c r="H123" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="I123" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
+      <c r="J123" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
@@ -20329,27 +20362,27 @@
       </c>
       <c r="C129" s="31">
         <f>SUM(C2:C127)</f>
-        <v>12004426</v>
+        <v>12804426</v>
       </c>
       <c r="D129" s="31">
         <f>SUM(D2:D127)</f>
-        <v>32531972</v>
+        <v>31731972</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="31">
-        <f>SUM(I2:I124)</f>
-        <v>6913008039</v>
+        <f>SUM(I2:I126)</f>
+        <v>6957544437</v>
       </c>
       <c r="J129" s="31">
-        <f>SUM(J2:J124)</f>
-        <v>4088562222</v>
+        <f>SUM(J2:J126)</f>
+        <v>4100566648</v>
       </c>
       <c r="K129" s="31">
-        <f>SUM(K2:K124)</f>
-        <v>2824445817</v>
+        <f>SUM(K2:K126)</f>
+        <v>2856977789</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20401,15 +20434,15 @@
       <c r="H132" s="11"/>
       <c r="I132" s="3">
         <f>I129/G2</f>
-        <v>14708527.742553191</v>
+        <v>14771856.554140128</v>
       </c>
       <c r="J132" s="31">
         <f>J129/G2</f>
-        <v>8699068.5574468076</v>
+        <v>8706086.3014861997</v>
       </c>
       <c r="K132" s="31">
         <f>K129/G2</f>
-        <v>6009459.1851063827</v>
+        <v>6065770.2526539275</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20434,11 +20467,11 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J136">
         <f>J129/I129*1448696</f>
-        <v>856802.66872932995</v>
+        <v>853817.68732941954</v>
       </c>
       <c r="K136">
         <f>K129/I129*1448696</f>
-        <v>591893.33127067005</v>
+        <v>594878.31267058046</v>
       </c>
     </row>
   </sheetData>
@@ -25308,8 +25341,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25386,7 +25419,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -25394,7 +25427,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>13950000</v>
+        <v>11800000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -25428,7 +25461,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -25436,7 +25469,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>825000000</v>
+        <v>696000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -25470,7 +25503,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -25478,7 +25511,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>822000000</v>
+        <v>693000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -25505,7 +25538,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -25513,7 +25546,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>4110000000</v>
+        <v>3465000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -25552,7 +25585,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -25560,7 +25593,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>819000000</v>
+        <v>690000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -25599,7 +25632,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -25607,7 +25640,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-819000000</v>
+        <v>-690000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -25649,7 +25682,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -25657,7 +25690,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-54600000</v>
+        <v>-46000000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -25699,7 +25732,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -25707,7 +25740,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>816000000</v>
+        <v>687000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -25746,7 +25779,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -25754,7 +25787,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>813000000</v>
+        <v>684000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -25781,7 +25814,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -25789,7 +25822,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>6775000000</v>
+        <v>5700000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -25822,7 +25855,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -25830,7 +25863,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>267552440</v>
+        <v>224624250</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -25863,7 +25896,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -25871,7 +25904,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>804000000</v>
+        <v>675000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -25898,7 +25931,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -25906,7 +25939,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>319213728</v>
+        <v>267996600</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -25933,7 +25966,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -25941,7 +25974,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>512000000</v>
+        <v>426000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -25964,7 +25997,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -25972,7 +26005,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>732000000</v>
+        <v>603000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -25995,7 +26028,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -26003,7 +26036,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>729000000</v>
+        <v>600000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -26026,7 +26059,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -26034,7 +26067,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>459800000</v>
+        <v>378100000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -26059,7 +26092,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -26067,7 +26100,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>182624451</v>
+        <v>148030392</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -26092,7 +26125,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -26100,7 +26133,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>678000000</v>
+        <v>549000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -26125,7 +26158,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -26133,7 +26166,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>110000000</v>
+        <v>88500000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -26158,7 +26191,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -26166,7 +26199,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-621000000</v>
+        <v>-492000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -26191,7 +26224,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -26199,7 +26232,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>594000000</v>
+        <v>465000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -26224,7 +26257,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -26232,7 +26265,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>124906914</v>
+        <v>97780665</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -26257,7 +26290,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -26265,7 +26298,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-630577300</v>
+        <v>-492938600</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -26290,7 +26323,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -26298,7 +26331,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-585175500</v>
+        <v>-456136800</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -26323,7 +26356,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -26331,7 +26364,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>192000000</v>
+        <v>149000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -26356,7 +26389,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -26364,7 +26397,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>1152000000</v>
+        <v>894000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -26389,7 +26422,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -26397,7 +26430,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>1113600000</v>
+        <v>864200000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -26422,7 +26455,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -26430,7 +26463,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-965000</v>
+        <v>-750000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -26455,7 +26488,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -26463,7 +26496,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-4992000000</v>
+        <v>-3874000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -26488,7 +26521,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -26496,7 +26529,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-4978000000</v>
+        <v>-3851400000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -26521,7 +26554,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -26529,7 +26562,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>55590850</v>
+        <v>41529635</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -26554,7 +26587,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -26562,7 +26595,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>4316800000</v>
+        <v>3095600000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -26583,7 +26616,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -26591,7 +26624,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1672000000</v>
+        <v>1199000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -26609,7 +26642,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -26617,7 +26650,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>57362037</v>
+        <v>39357894</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -26635,7 +26668,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -26643,7 +26676,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-124200</v>
+        <v>-85500</v>
       </c>
       <c r="J37" s="64"/>
     </row>
@@ -26662,7 +26695,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -26670,7 +26703,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>272000000</v>
+        <v>186000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -26690,7 +26723,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -26698,7 +26731,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>272000000</v>
+        <v>186000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -26716,7 +26749,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -26724,7 +26757,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-24600000</v>
+        <v>-16000000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -26742,7 +26775,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -26750,7 +26783,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-76260000</v>
+        <v>-49600000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -26768,7 +26801,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -26776,7 +26809,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-14760000</v>
+        <v>-9600000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -26795,7 +26828,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -26803,7 +26836,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>78000000</v>
+        <v>50050000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -26821,7 +26854,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -26829,7 +26862,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-605000</v>
+        <v>-390000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -26847,7 +26880,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -26855,7 +26888,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>3480000000</v>
+        <v>2233000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -26873,7 +26906,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -26881,7 +26914,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-23400000</v>
+        <v>-14800000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -26899,7 +26932,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -26907,7 +26940,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-22800000</v>
+        <v>-14200000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -26925,7 +26958,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -26933,7 +26966,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-22600000</v>
+        <v>-14000000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -26951,7 +26984,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -26959,7 +26992,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>321000000</v>
+        <v>192000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -26977,7 +27010,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -26985,7 +27018,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>321000000</v>
+        <v>192000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -27003,7 +27036,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -27011,7 +27044,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>81174482</v>
+        <v>48245211</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -27029,7 +27062,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -27037,7 +27070,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-21400000</v>
+        <v>-12800000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -27055,7 +27088,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -27063,7 +27096,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-40050000</v>
+        <v>-22828500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -27081,7 +27114,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -27089,7 +27122,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-91036036</v>
+        <v>-48019008</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -27107,7 +27140,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -27115,7 +27148,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-3400000000</v>
+        <v>-1680000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -27133,7 +27166,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -27141,7 +27174,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>64923900</v>
+        <v>27700864</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -27159,7 +27192,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -27167,7 +27200,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-2459800000</v>
+        <v>-301200000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -27185,7 +27218,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -27193,7 +27226,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-585624000</v>
+        <v>-61002500</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -27207,11 +27240,11 @@
         <v>655</v>
       </c>
       <c r="D59" s="11">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -27219,17 +27252,25 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>23535864</v>
+        <v>534906</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B60" s="41">
+        <v>-338000</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D60" s="11">
+        <v>1</v>
+      </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -27237,7 +27278,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-338000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -27378,7 +27419,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>2682747</v>
+        <v>2344747</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -27386,7 +27427,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>14515657630</v>
+        <v>14399961509</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -27420,7 +27461,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>51841634.392857142</v>
+        <v>60759331.261603378</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -27454,7 +27495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
@@ -31159,8 +31200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31404,11 +31445,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>176780273.02739727</v>
+        <v>175572273.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>1388805.9135027528</v>
+        <v>2596805.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31568,14 +31609,14 @@
       </c>
       <c r="K11" s="46">
         <f>سارا!D129</f>
-        <v>32531972</v>
+        <v>31731972</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>32531972</v>
+        <v>31731972</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -31605,14 +31646,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>2682747</v>
+        <v>2344747</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>2682747</v>
+        <v>2344747</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -31774,11 +31815,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32127,15 +32168,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>176780273.02739727</v>
+        <v>175572273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62794261.684931517</v>
+        <v>62724261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>113986011.34246576</v>
+        <v>112848011.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -32179,15 +32220,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>103706547</v>
+        <v>102498547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22195111</v>
+        <v>22125111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>81511436</v>
+        <v>80373436</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="692">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2096,10 +2096,22 @@
     <t>2/5/1396</t>
   </si>
   <si>
-    <t>مریم خرید کرد لباس برای عروسی</t>
-  </si>
-  <si>
     <t>طبق گفته مریم سارا برای لباس کارت کشید</t>
+  </si>
+  <si>
+    <t>مریم خرید کرد لباس برای عروسی 288 , 50</t>
+  </si>
+  <si>
+    <t>4/5/1396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مریم آرایشگاه </t>
+  </si>
+  <si>
+    <t>هرزگرد تسمه دینام</t>
+  </si>
+  <si>
+    <t>15/4/1396</t>
   </si>
 </sst>
 </file>
@@ -2788,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2957,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -20223,7 +20235,7 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F123" s="11">
         <v>0</v>
@@ -25341,8 +25353,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25419,7 +25431,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -25427,7 +25439,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>11800000</v>
+        <v>11900000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -25461,7 +25473,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -25469,7 +25481,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>696000000</v>
+        <v>702000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -25503,7 +25515,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -25511,7 +25523,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>693000000</v>
+        <v>699000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -25538,7 +25550,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -25546,7 +25558,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3465000000</v>
+        <v>3495000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -25585,7 +25597,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -25593,7 +25605,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>690000000</v>
+        <v>696000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -25632,7 +25644,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -25640,7 +25652,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-690000000</v>
+        <v>-696000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -25682,7 +25694,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -25690,7 +25702,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-46000000</v>
+        <v>-46400000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -25732,7 +25744,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -25740,7 +25752,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>687000000</v>
+        <v>693000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -25779,7 +25791,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -25787,7 +25799,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>684000000</v>
+        <v>690000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -25814,7 +25826,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -25822,7 +25834,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5700000000</v>
+        <v>5750000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -25855,7 +25867,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -25863,7 +25875,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>224624250</v>
+        <v>226620910</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -25896,7 +25908,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -25904,7 +25916,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>675000000</v>
+        <v>681000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -25931,7 +25943,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -25939,7 +25951,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>267996600</v>
+        <v>270378792</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -25966,7 +25978,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -25974,7 +25986,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>426000000</v>
+        <v>430000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -25997,7 +26009,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -26005,7 +26017,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>603000000</v>
+        <v>609000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -26028,7 +26040,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -26036,7 +26048,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>600000000</v>
+        <v>606000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -26059,7 +26071,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -26067,7 +26079,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>378100000</v>
+        <v>381900000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -26092,7 +26104,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -26100,7 +26112,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>148030392</v>
+        <v>149639418</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -26125,7 +26137,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -26133,7 +26145,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>549000000</v>
+        <v>555000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -26158,7 +26170,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -26166,7 +26178,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>88500000</v>
+        <v>89500000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -26191,7 +26203,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -26199,7 +26211,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-492000000</v>
+        <v>-498000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -26224,7 +26236,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -26232,7 +26244,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>465000000</v>
+        <v>471000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -26257,7 +26269,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -26265,7 +26277,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>97780665</v>
+        <v>99042351</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -26290,7 +26302,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -26298,7 +26310,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-492938600</v>
+        <v>-499340400</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -26323,7 +26335,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -26331,7 +26343,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-456136800</v>
+        <v>-462138600</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -26356,7 +26368,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -26364,7 +26376,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>149000000</v>
+        <v>151000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -26389,7 +26401,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -26397,7 +26409,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>894000000</v>
+        <v>906000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -26422,7 +26434,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -26430,7 +26442,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>864200000</v>
+        <v>875800000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -26455,7 +26467,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -26463,7 +26475,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-750000</v>
+        <v>-760000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -26488,7 +26500,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -26496,7 +26508,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3874000000</v>
+        <v>-3926000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -26521,7 +26533,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -26529,7 +26541,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3851400000</v>
+        <v>-3903800000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -26554,7 +26566,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -26562,7 +26574,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>41529635</v>
+        <v>42183645</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -26587,7 +26599,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -26595,7 +26607,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>3095600000</v>
+        <v>3152400000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -26616,7 +26628,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -26624,7 +26636,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1199000000</v>
+        <v>1221000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -26642,7 +26654,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -26650,7 +26662,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>39357894</v>
+        <v>40195296</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -26668,7 +26680,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -26676,7 +26688,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-85500</v>
+        <v>-87300</v>
       </c>
       <c r="J37" s="64"/>
     </row>
@@ -26695,7 +26707,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -26703,7 +26715,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>186000000</v>
+        <v>190000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -26723,7 +26735,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -26731,7 +26743,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>186000000</v>
+        <v>190000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -26749,7 +26761,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -26757,7 +26769,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-16000000</v>
+        <v>-16400000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -26775,7 +26787,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -26783,7 +26795,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-49600000</v>
+        <v>-50840000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -26801,7 +26813,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -26809,7 +26821,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-9600000</v>
+        <v>-9840000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -26828,7 +26840,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -26836,7 +26848,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>50050000</v>
+        <v>51350000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -26854,7 +26866,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -26862,7 +26874,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-390000</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -26880,7 +26892,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -26888,7 +26900,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2233000000</v>
+        <v>2291000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -26906,7 +26918,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -26914,7 +26926,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-14800000</v>
+        <v>-15200000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -26932,7 +26944,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -26940,7 +26952,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-14200000</v>
+        <v>-14600000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -26958,7 +26970,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -26966,7 +26978,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-14000000</v>
+        <v>-14400000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -26984,7 +26996,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -26992,7 +27004,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>192000000</v>
+        <v>198000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -27010,7 +27022,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -27018,7 +27030,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>192000000</v>
+        <v>198000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -27036,7 +27048,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -27044,7 +27056,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>48245211</v>
+        <v>49776805</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -27062,7 +27074,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -27070,7 +27082,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-12800000</v>
+        <v>-13200000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -27088,7 +27100,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -27096,7 +27108,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-22828500</v>
+        <v>-23629500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -27114,7 +27126,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -27122,7 +27134,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-48019008</v>
+        <v>-50019800</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -27140,7 +27152,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -27148,7 +27160,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1680000000</v>
+        <v>-1760000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -27166,7 +27178,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -27174,7 +27186,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>27700864</v>
+        <v>29432168</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -27192,7 +27204,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -27200,7 +27212,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-301200000</v>
+        <v>-401600000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -27218,7 +27230,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -27226,7 +27238,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-61002500</v>
+        <v>-85403500</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -27244,7 +27256,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -27252,7 +27264,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>534906</v>
+        <v>1604718</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -27263,14 +27275,14 @@
         <v>-338000</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D60" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -27278,17 +27290,25 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-338000</v>
+        <v>-1014000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B61" s="41">
+        <v>-150000</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D61" s="11">
+        <v>1</v>
+      </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -27296,7 +27316,7 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-150000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -27419,7 +27439,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>2344747</v>
+        <v>2194747</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -27427,7 +27447,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>14399961509</v>
+        <v>14404501003</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -27461,7 +27481,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>60759331.261603378</v>
+        <v>60269878.673640169</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -27495,7 +27515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
@@ -31200,8 +31220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31445,11 +31465,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>175572273.02739727</v>
+        <v>175337273.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>2596805.9135027528</v>
+        <v>2831805.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31646,14 +31666,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>2344747</v>
+        <v>2194747</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>2344747</v>
+        <v>2194747</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -31767,11 +31787,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8500000</v>
+        <v>-8400000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>8500000</v>
+        <v>8400000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -31815,11 +31835,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>180000</v>
+        <v>95000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>180000</v>
+        <v>95000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32168,15 +32188,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>175572273.02739727</v>
+        <v>175337273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62724261.684931517</v>
+        <v>62739261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112848011.34246576</v>
+        <v>112598011.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -32220,15 +32240,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>102498547</v>
+        <v>102263547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22125111</v>
+        <v>22040111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>80373436</v>
+        <v>80223436</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -32626,7 +32646,7 @@
         <v>300000</v>
       </c>
       <c r="S34" s="59">
-        <v>850000</v>
+        <v>820000</v>
       </c>
       <c r="T34" s="60" t="s">
         <v>490</v>
@@ -32816,7 +32836,7 @@
       </c>
       <c r="S39" s="50">
         <f>SUM(S34:S38)</f>
-        <v>2010000</v>
+        <v>1980000</v>
       </c>
       <c r="T39" s="51" t="s">
         <v>6</v>
@@ -34413,8 +34433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34432,7 +34452,8 @@
     <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
     <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -34922,7 +34943,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
-        <f t="shared" ref="G30:G35" si="6">$I$41-I30</f>
+        <f t="shared" ref="G30:G36" si="6">$I$41-I30</f>
         <v>20000</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -35014,10 +35035,19 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="11">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="I36" s="11">
+        <v>219000</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>690</v>
+      </c>
       <c r="O36" s="22" t="s">
         <v>657</v>
       </c>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="696">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2112,6 +2112,18 @@
   </si>
   <si>
     <t>15/4/1396</t>
+  </si>
+  <si>
+    <t>آرایشگاه و 8 دستی دادم</t>
+  </si>
+  <si>
+    <t>تاریخ 8 مرداد از کارت مسکن یاران برداشتم</t>
+  </si>
+  <si>
+    <t>8/5/1396</t>
+  </si>
+  <si>
+    <t>احتمالا مریم</t>
   </si>
 </sst>
 </file>
@@ -2801,7 +2813,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3869,9 +3881,11 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="45">
-        <v>0</v>
-      </c>
-      <c r="E32" s="44"/>
+        <v>-28000</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>692</v>
+      </c>
       <c r="O32">
         <v>31</v>
       </c>
@@ -3884,9 +3898,11 @@
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" s="45">
-        <v>0</v>
-      </c>
-      <c r="E33" s="44"/>
+        <v>100000</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>693</v>
+      </c>
       <c r="P33" t="s">
         <v>60</v>
       </c>
@@ -3941,7 +3957,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8413102</v>
+        <v>8485102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -25353,8 +25369,8 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25431,7 +25447,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -25439,7 +25455,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>11900000</v>
+        <v>12100000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -25473,7 +25489,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -25481,7 +25497,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>702000000</v>
+        <v>714000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -25515,7 +25531,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -25523,7 +25539,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>699000000</v>
+        <v>711000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -25550,7 +25566,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -25558,7 +25574,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3495000000</v>
+        <v>3555000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -25597,7 +25613,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -25605,7 +25621,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>696000000</v>
+        <v>708000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -25644,7 +25660,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -25652,7 +25668,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-696000000</v>
+        <v>-708000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -25694,7 +25710,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -25702,7 +25718,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-46400000</v>
+        <v>-47200000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -25744,7 +25760,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -25752,7 +25768,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>693000000</v>
+        <v>705000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -25791,7 +25807,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -25799,7 +25815,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>690000000</v>
+        <v>702000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -25826,7 +25842,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -25834,7 +25850,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5750000000</v>
+        <v>5850000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -25867,7 +25883,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -25875,7 +25891,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>226620910</v>
+        <v>230614230</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -25908,7 +25924,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -25916,7 +25932,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>681000000</v>
+        <v>693000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -25943,7 +25959,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -25951,7 +25967,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>270378792</v>
+        <v>275143176</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -25978,7 +25994,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -25986,7 +26002,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>430000000</v>
+        <v>438000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -26009,7 +26025,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -26017,7 +26033,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>609000000</v>
+        <v>621000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -26040,7 +26056,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -26048,7 +26064,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>606000000</v>
+        <v>618000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -26071,7 +26087,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -26079,7 +26095,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>381900000</v>
+        <v>389500000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -26104,7 +26120,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -26112,7 +26128,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>149639418</v>
+        <v>152857470</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -26137,7 +26153,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -26145,7 +26161,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>555000000</v>
+        <v>567000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -26170,7 +26186,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -26178,7 +26194,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>89500000</v>
+        <v>91500000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -26203,7 +26219,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -26211,7 +26227,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-498000000</v>
+        <v>-510000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -26236,7 +26252,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -26244,7 +26260,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>471000000</v>
+        <v>483000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -26269,7 +26285,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -26277,7 +26293,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>99042351</v>
+        <v>101565723</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -26302,7 +26318,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -26310,7 +26326,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-499340400</v>
+        <v>-512144000</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -26335,7 +26351,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -26343,7 +26359,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-462138600</v>
+        <v>-474142200</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -26368,7 +26384,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -26376,7 +26392,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>151000000</v>
+        <v>155000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -26401,7 +26417,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -26409,7 +26425,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>906000000</v>
+        <v>930000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -26434,7 +26450,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -26442,7 +26458,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>875800000</v>
+        <v>899000000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -26467,7 +26483,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -26475,7 +26491,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-760000</v>
+        <v>-780000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -26500,7 +26516,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -26508,7 +26524,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-3926000000</v>
+        <v>-4030000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -26533,7 +26549,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -26541,7 +26557,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-3903800000</v>
+        <v>-4008600000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -26566,7 +26582,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -26574,7 +26590,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>42183645</v>
+        <v>43491665</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -26599,7 +26615,7 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
@@ -26607,7 +26623,7 @@
       </c>
       <c r="G34" s="11">
         <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>3152400000</v>
+        <v>3266000000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -26628,7 +26644,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -26636,7 +26652,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1221000000</v>
+        <v>1265000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -26654,7 +26670,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -26662,7 +26678,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>40195296</v>
+        <v>41870100</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -26680,7 +26696,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -26688,7 +26704,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-87300</v>
+        <v>-90900</v>
       </c>
       <c r="J37" s="64"/>
     </row>
@@ -26707,7 +26723,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -26715,7 +26731,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>190000000</v>
+        <v>198000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -26735,7 +26751,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -26743,7 +26759,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>190000000</v>
+        <v>198000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -26761,7 +26777,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -26769,7 +26785,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-16400000</v>
+        <v>-17200000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -26787,7 +26803,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -26795,7 +26811,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-50840000</v>
+        <v>-53320000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -26813,7 +26829,7 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
@@ -26821,7 +26837,7 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-9840000</v>
+        <v>-10320000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -26840,7 +26856,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -26848,7 +26864,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>51350000</v>
+        <v>53950000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -26866,7 +26882,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -26874,7 +26890,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-400000</v>
+        <v>-420000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -26892,7 +26908,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -26900,7 +26916,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2291000000</v>
+        <v>2407000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -26918,7 +26934,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -26926,7 +26942,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-15200000</v>
+        <v>-16000000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -26944,7 +26960,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -26952,7 +26968,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-14600000</v>
+        <v>-15400000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -26970,7 +26986,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -26978,7 +26994,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-14400000</v>
+        <v>-15200000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -26996,7 +27012,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -27004,7 +27020,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>198000000</v>
+        <v>210000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -27022,7 +27038,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -27030,7 +27046,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>198000000</v>
+        <v>210000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -27048,7 +27064,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -27056,7 +27072,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>49776805</v>
+        <v>52839993</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -27074,7 +27090,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -27082,7 +27098,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-13200000</v>
+        <v>-14000000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -27100,7 +27116,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -27108,7 +27124,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-23629500</v>
+        <v>-25231500</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -27126,7 +27142,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -27134,7 +27150,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-50019800</v>
+        <v>-54021384</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -27152,7 +27168,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -27160,7 +27176,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1760000000</v>
+        <v>-1920000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -27178,7 +27194,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -27186,7 +27202,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>29432168</v>
+        <v>32894776</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -27204,7 +27220,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -27212,7 +27228,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-401600000</v>
+        <v>-602400000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -27230,7 +27246,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -27238,7 +27254,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-85403500</v>
+        <v>-134205500</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -27256,7 +27272,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -27264,7 +27280,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>1604718</v>
+        <v>3744342</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -27282,7 +27298,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -27290,7 +27306,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-1014000</v>
+        <v>-2366000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -27304,11 +27320,11 @@
         <v>689</v>
       </c>
       <c r="D61" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -27316,19 +27332,25 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>-150000</v>
+        <v>-750000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+        <v>688</v>
+      </c>
+      <c r="B62" s="41">
+        <v>-5000</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D62" s="11">
+        <v>4</v>
+      </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="5"/>
@@ -27336,17 +27358,25 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B63" s="41">
+        <v>-100000</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1</v>
+      </c>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="5"/>
@@ -27354,14 +27384,16 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="41"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="D64" s="11">
+        <v>0</v>
+      </c>
       <c r="E64" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -27439,7 +27471,7 @@
       <c r="A68" s="11"/>
       <c r="B68" s="31">
         <f>SUM(B2:B66)</f>
-        <v>2194747</v>
+        <v>2089747</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -27447,7 +27479,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="31">
         <f>SUM(G2:G67)</f>
-        <v>14404501003</v>
+        <v>14413154991</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -27481,7 +27513,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="3">
         <f>G68/E2</f>
-        <v>60269878.673640169</v>
+        <v>59313395.024691358</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -31220,8 +31252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31465,11 +31497,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>175337273.02739727</v>
+        <v>175302273.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>2831805.9135027528</v>
+        <v>2866805.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31666,14 +31698,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B68</f>
-        <v>2194747</v>
+        <v>2089747</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>2194747</v>
+        <v>2089747</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -31787,11 +31819,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8400000</v>
+        <v>-8500000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>8400000</v>
+        <v>8500000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -31835,11 +31867,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>95000</v>
+        <v>165000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>95000</v>
+        <v>165000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32188,15 +32220,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>175337273.02739727</v>
+        <v>175302273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62739261.684931517</v>
+        <v>62709261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112598011.34246576</v>
+        <v>112593011.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -32240,15 +32272,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>102263547</v>
+        <v>102228547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22040111</v>
+        <v>22110111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>80223436</v>
+        <v>80118436</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -1913,9 +1913,6 @@
     <t>19/4/1396</t>
   </si>
   <si>
-    <t>طلب علی(500 خانه، 500 علیرضا، 150 ماجدی)</t>
-  </si>
-  <si>
     <t>دستی برای دکتر رفتن دادم</t>
   </si>
   <si>
@@ -2124,6 +2121,9 @@
   </si>
   <si>
     <t>احتمالا مریم</t>
+  </si>
+  <si>
+    <t>طلب علی(500 خانه، 500 علیرضا)</t>
   </si>
 </sst>
 </file>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" s="3">
         <f>'تیر 96'!B24</f>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B3" s="42">
         <v>384551</v>
@@ -2927,7 +2927,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>-65000</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -3884,7 +3884,7 @@
         <v>-28000</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -3901,7 +3901,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -20153,7 +20153,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B121" s="18">
         <v>2600000</v>
@@ -20166,7 +20166,7 @@
         <v>2600000</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
@@ -20194,7 +20194,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B122" s="42">
         <v>384551</v>
@@ -20207,7 +20207,7 @@
         <v>273643</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
@@ -20251,7 +20251,7 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F123" s="11">
         <v>0</v>
@@ -24360,7 +24360,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="18">
         <v>2600000</v>
@@ -24373,7 +24373,7 @@
         <v>2600000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -25265,7 +25265,7 @@
         <v>-25000</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -25279,7 +25279,7 @@
         <v>-13000</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -25287,7 +25287,7 @@
         <v>200000</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -25295,7 +25295,7 @@
         <v>-120000</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -25303,7 +25303,7 @@
         <v>200000</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -27135,7 +27135,7 @@
         <v>-1000396</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D54" s="11">
         <v>6</v>
@@ -27207,13 +27207,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B57" s="41">
         <v>-50200000</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -27233,13 +27233,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B58" s="41">
         <v>-12200500</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D58" s="11">
         <v>3</v>
@@ -27259,13 +27259,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B59" s="41">
         <v>534906</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -27285,13 +27285,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B60" s="41">
         <v>-338000</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D60" s="11">
         <v>2</v>
@@ -27311,13 +27311,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B61" s="41">
         <v>-150000</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D61" s="11">
         <v>0</v>
@@ -27337,13 +27337,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B62" s="41">
         <v>-5000</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D62" s="11">
         <v>4</v>
@@ -27363,7 +27363,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B63" s="41">
         <v>-100000</v>
@@ -30790,7 +30790,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B131" s="3">
         <v>-200000</v>
@@ -30811,12 +30811,12 @@
         <v>-2600000</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B132" s="3">
         <v>-390000</v>
@@ -30837,12 +30837,12 @@
         <v>-4680000</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B133" s="3">
         <v>-24500</v>
@@ -30863,12 +30863,12 @@
         <v>-294000</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B134" s="3">
         <v>-95000</v>
@@ -30894,7 +30894,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B135" s="3">
         <v>-200000</v>
@@ -30915,12 +30915,12 @@
         <v>-1400000</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B136" s="3">
         <v>50000000</v>
@@ -30941,12 +30941,12 @@
         <v>200000000</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B137" s="3">
         <v>12000000</v>
@@ -30967,12 +30967,12 @@
         <v>36000000</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B138" s="3">
         <v>2000000</v>
@@ -30993,12 +30993,12 @@
         <v>2000000</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B139" s="3">
         <v>87538</v>
@@ -31461,7 +31461,7 @@
         <v>-3575109.4299999774</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>8</v>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K7" s="46">
         <f>2*(J31+L31)</f>
@@ -31545,7 +31545,7 @@
         <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K8" s="46">
         <f>J31+L31</f>
@@ -31768,13 +31768,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="K14" s="46">
-        <v>1150000</v>
+        <v>1000000</v>
       </c>
       <c r="L14" s="3">
-        <v>1150000</v>
+        <v>1000000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="5"/>
@@ -31867,11 +31867,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>165000</v>
+        <v>315000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>165000</v>
+        <v>315000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32272,11 +32272,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>102228547</v>
+        <v>102378547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22110111</v>
+        <v>22260111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
@@ -32587,7 +32587,7 @@
       <c r="H32" s="11"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
@@ -32857,7 +32857,7 @@
         <v>1481000000</v>
       </c>
       <c r="K39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O39" s="27"/>
       <c r="P39" s="35" t="s">
@@ -32901,7 +32901,7 @@
         <v>32.195652173913047</v>
       </c>
       <c r="K40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O40" s="27"/>
       <c r="P40" s="35" t="s">
@@ -33143,7 +33143,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P48" s="35" t="s">
         <v>329</v>
@@ -35072,16 +35072,16 @@
         <v>1000</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I36" s="11">
         <v>219000</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
@@ -35108,31 +35108,31 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="O40" t="s">
+        <v>659</v>
+      </c>
+      <c r="P40" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>657</v>
+      </c>
+      <c r="R40" t="s">
         <v>660</v>
       </c>
-      <c r="P40" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>658</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
+        <v>662</v>
+      </c>
+      <c r="T40" t="s">
         <v>661</v>
       </c>
-      <c r="S40" t="s">
+      <c r="U40" t="s">
         <v>663</v>
       </c>
-      <c r="T40" t="s">
-        <v>662</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>664</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>665</v>
-      </c>
-      <c r="W40" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="41" spans="6:23" x14ac:dyDescent="0.25">
@@ -35145,7 +35145,7 @@
         <v>594</v>
       </c>
       <c r="N41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O41" s="18">
         <v>9322000000</v>
@@ -35187,7 +35187,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="N42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O42" s="18">
         <v>7100000000</v>
@@ -35250,13 +35250,13 @@
     </row>
     <row r="50" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q50" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S50" t="s">
         <v>282</v>
@@ -35264,10 +35264,10 @@
     </row>
     <row r="51" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P51" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q51" s="18">
         <v>-6000000</v>
@@ -35282,10 +35282,10 @@
     </row>
     <row r="52" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O52" s="74" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q52" s="18">
         <v>4000000</v>
@@ -35300,10 +35300,10 @@
     </row>
     <row r="53" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O53" s="74" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q53" s="18">
         <v>4000000</v>
@@ -35318,10 +35318,10 @@
     </row>
     <row r="54" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O54" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P54" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q54" s="18">
         <v>4000000</v>
@@ -35336,10 +35336,10 @@
     </row>
     <row r="55" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q55" s="18">
         <v>4000000</v>
@@ -35354,10 +35354,10 @@
     </row>
     <row r="56" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O56" t="s">
+        <v>680</v>
+      </c>
+      <c r="P56" t="s">
         <v>681</v>
-      </c>
-      <c r="P56" t="s">
-        <v>682</v>
       </c>
       <c r="Q56" s="18">
         <v>5500000</v>
@@ -35372,10 +35372,10 @@
     </row>
     <row r="57" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q57" s="18">
         <v>24000000</v>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="699">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2123,7 +2123,16 @@
     <t>8/5/1396</t>
   </si>
   <si>
-    <t>احتمالا مریم</t>
+    <t>مرداد 12 از عابر بانک مسکن یاران گرفتم</t>
+  </si>
+  <si>
+    <t>12/5/1396</t>
+  </si>
+  <si>
+    <t>مریم گلدان خرید</t>
+  </si>
+  <si>
+    <t>مریم بشقاب تزیین شده و فانوس خرید</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2822,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,9 +3921,11 @@
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="44"/>
+        <v>200000</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="45">
@@ -3957,7 +3968,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8485102</v>
+        <v>8685102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -25366,11 +25377,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25447,7 +25458,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -25455,7 +25466,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>12100000</v>
+        <v>12250000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -25488,8 +25499,8 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>239</v>
+        <f t="shared" ref="E3:E73" si="0">D3+E4</f>
+        <v>242</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -25497,7 +25508,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>714000000</v>
+        <v>723000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -25531,7 +25542,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -25539,7 +25550,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>711000000</v>
+        <v>720000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -25566,7 +25577,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -25574,7 +25585,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3555000000</v>
+        <v>3600000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -25613,7 +25624,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -25621,7 +25632,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>708000000</v>
+        <v>717000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -25660,7 +25671,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -25668,7 +25679,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-708000000</v>
+        <v>-717000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -25710,7 +25721,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -25718,7 +25729,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-47200000</v>
+        <v>-47800000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -25760,7 +25771,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -25768,7 +25779,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>705000000</v>
+        <v>714000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -25807,7 +25818,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -25815,7 +25826,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>702000000</v>
+        <v>711000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -25842,7 +25853,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -25850,7 +25861,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5850000000</v>
+        <v>5925000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -25883,7 +25894,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -25891,7 +25902,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>230614230</v>
+        <v>233609220</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -25924,7 +25935,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -25932,7 +25943,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>693000000</v>
+        <v>702000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -25959,7 +25970,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -25967,7 +25978,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>275143176</v>
+        <v>278716464</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -25994,7 +26005,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -26002,7 +26013,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>438000000</v>
+        <v>444000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -26025,7 +26036,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -26033,7 +26044,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>621000000</v>
+        <v>630000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -26056,7 +26067,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -26064,7 +26075,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>618000000</v>
+        <v>627000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -26087,7 +26098,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -26095,7 +26106,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>389500000</v>
+        <v>395200000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -26120,7 +26131,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -26128,7 +26139,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>152857470</v>
+        <v>155271009</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -26153,7 +26164,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -26161,7 +26172,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>567000000</v>
+        <v>576000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -26186,7 +26197,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -26194,7 +26205,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>91500000</v>
+        <v>93000000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -26219,7 +26230,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -26227,7 +26238,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-510000000</v>
+        <v>-519000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -26252,7 +26263,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -26260,7 +26271,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>483000000</v>
+        <v>492000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -26285,7 +26296,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -26293,7 +26304,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>101565723</v>
+        <v>103458252</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -26318,7 +26329,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -26326,7 +26337,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-512144000</v>
+        <v>-521746700</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -26351,7 +26362,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -26359,7 +26370,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-474142200</v>
+        <v>-483144900</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -26384,7 +26395,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -26392,7 +26403,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>155000000</v>
+        <v>158000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -26417,7 +26428,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -26425,7 +26436,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>930000000</v>
+        <v>948000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -26450,7 +26461,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -26458,7 +26469,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>899000000</v>
+        <v>916400000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -26483,7 +26494,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -26491,7 +26502,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-780000</v>
+        <v>-795000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -26516,7 +26527,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -26524,7 +26535,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-4030000000</v>
+        <v>-4108000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -26549,7 +26560,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -26557,7 +26568,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-4008600000</v>
+        <v>-4087200000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -26582,7 +26593,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -26590,7 +26601,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>43491665</v>
+        <v>44472680</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -26615,15 +26626,15 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>3266000000</v>
+        <f t="shared" ref="G34:G73" si="4">B34*(E34-F34)</f>
+        <v>3351200000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -26644,7 +26655,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -26652,7 +26663,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1265000000</v>
+        <v>1298000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -26670,7 +26681,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -26678,7 +26689,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>41870100</v>
+        <v>43126203</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -26696,7 +26707,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -26704,7 +26715,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-90900</v>
+        <v>-93600</v>
       </c>
       <c r="J37" s="64"/>
     </row>
@@ -26723,7 +26734,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -26731,7 +26742,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>198000000</v>
+        <v>204000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -26751,7 +26762,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -26759,7 +26770,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>198000000</v>
+        <v>204000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -26777,7 +26788,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -26785,7 +26796,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-17200000</v>
+        <v>-17800000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -26803,7 +26814,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -26811,7 +26822,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-53320000</v>
+        <v>-55180000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -26829,15 +26840,15 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
+        <f t="shared" ref="F42:F73" si="5">IF(B42&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-10320000</v>
+        <v>-10680000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -26856,7 +26867,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -26864,7 +26875,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>53950000</v>
+        <v>55900000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -26882,7 +26893,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -26890,7 +26901,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-420000</v>
+        <v>-435000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -26908,7 +26919,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -26916,7 +26927,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2407000000</v>
+        <v>2494000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -26934,7 +26945,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -26942,7 +26953,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-16000000</v>
+        <v>-16600000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -26960,7 +26971,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -26968,7 +26979,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-15400000</v>
+        <v>-16000000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -26986,7 +26997,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -26994,7 +27005,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-15200000</v>
+        <v>-15800000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -27012,7 +27023,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -27020,7 +27031,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>210000000</v>
+        <v>219000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -27038,7 +27049,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -27046,7 +27057,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>210000000</v>
+        <v>219000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -27064,7 +27075,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -27072,7 +27083,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>52839993</v>
+        <v>55137384</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -27090,7 +27101,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -27098,7 +27109,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-14000000</v>
+        <v>-14600000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -27116,7 +27127,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -27124,7 +27135,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-25231500</v>
+        <v>-26433000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -27142,7 +27153,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -27150,7 +27161,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-54021384</v>
+        <v>-57022572</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -27168,7 +27179,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -27176,7 +27187,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1920000000</v>
+        <v>-2040000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -27194,7 +27205,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -27202,7 +27213,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>32894776</v>
+        <v>35491732</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -27220,7 +27231,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -27228,7 +27239,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-602400000</v>
+        <v>-753000000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -27246,7 +27257,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -27254,7 +27265,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-134205500</v>
+        <v>-170807000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -27272,7 +27283,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -27280,7 +27291,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>3744342</v>
+        <v>5349060</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -27298,7 +27309,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -27306,7 +27317,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-2366000</v>
+        <v>-3380000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -27320,11 +27331,11 @@
         <v>689</v>
       </c>
       <c r="D61" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -27332,25 +27343,25 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>-750000</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B62" s="41">
-        <v>-5000</v>
+        <v>-100000</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>695</v>
+        <v>158</v>
       </c>
       <c r="D62" s="11">
         <v>4</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="5"/>
@@ -27358,25 +27369,25 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>-25000</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B63" s="41">
-        <v>-100000</v>
+        <v>-200000</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D63" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="5"/>
@@ -27384,13 +27395,19 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>-100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B64" s="41">
+        <v>-25000</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>697</v>
+      </c>
       <c r="D64" s="11">
         <v>0</v>
       </c>
@@ -27408,14 +27425,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="B65" s="41">
+        <v>-62000</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>698</v>
+      </c>
       <c r="D65" s="11">
         <v>0</v>
       </c>
       <c r="E65" s="11">
-        <f t="shared" si="0"/>
+        <f>D65+E72</f>
         <v>0</v>
       </c>
       <c r="F65" s="11">
@@ -27428,14 +27451,14 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="41"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="11">
-        <v>0</v>
-      </c>
+      <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E66:E73" si="6">D66+E73</f>
         <v>0</v>
       </c>
       <c r="F66" s="11">
@@ -27449,13 +27472,11 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="11">
-        <v>0</v>
-      </c>
+      <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F67" s="11">
@@ -27469,71 +27490,183 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="31">
-        <f>SUM(B2:B66)</f>
-        <v>2089747</v>
-      </c>
+      <c r="B68" s="41"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="31">
-        <f>SUM(G2:G67)</f>
-        <v>14413154991</v>
+      <c r="E68" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="B69" s="41"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
-        <v>284</v>
+      <c r="E69" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="E70" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="3">
-        <f>G68/E2</f>
-        <v>59313395.024691358</v>
+      <c r="E71" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
+      <c r="D72" s="11">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="31">
+        <f>SUM(B2:B72)</f>
+        <v>1807747</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="31">
+        <f>SUM(G2:G73)</f>
+        <v>14419464232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="3">
+        <f>G74/E2</f>
+        <v>58615708.260162599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="41">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="41">
         <v>13400000000</v>
       </c>
     </row>
@@ -31252,8 +31385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31497,11 +31630,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>175302273.02739727</v>
+        <v>175080273.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>2866805.9135027528</v>
+        <v>3088805.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31697,15 +31830,15 @@
         <v>462</v>
       </c>
       <c r="K12" s="46">
-        <f>'مسکن مریم یاران'!B68</f>
-        <v>2089747</v>
+        <f>'مسکن مریم یاران'!B74</f>
+        <v>1807747</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>2089747</v>
+        <v>1807747</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -31819,11 +31952,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8500000</v>
+        <v>-8700000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>8500000</v>
+        <v>8700000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -31867,11 +32000,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>165000</v>
+        <v>225000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>165000</v>
+        <v>225000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32220,15 +32353,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>175302273.02739727</v>
+        <v>175080273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62709261.684931517</v>
+        <v>62569261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112593011.34246576</v>
+        <v>112511011.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -32272,15 +32405,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>102228547</v>
+        <v>102006547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22110111</v>
+        <v>22170111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>80118436</v>
+        <v>79836436</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="698">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2120,10 +2120,16 @@
     <t>8/5/1396</t>
   </si>
   <si>
-    <t>احتمالا مریم</t>
-  </si>
-  <si>
     <t>طلب علی(500 خانه، 500 علیرضا)</t>
+  </si>
+  <si>
+    <t>تاریخ 12 مرداد از کارت مسکن یاران گرفتم</t>
+  </si>
+  <si>
+    <t>12/5/1396</t>
+  </si>
+  <si>
+    <t>مریم گلدون و بشقاب و فانوس خرید</t>
   </si>
 </sst>
 </file>
@@ -2812,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,9 +3918,11 @@
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="44"/>
+        <v>200000</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="45">
@@ -3957,7 +3965,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8485102</v>
+        <v>8685102</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -25366,11 +25374,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25447,7 +25455,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -25455,7 +25463,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>12100000</v>
+        <v>12250000</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -25488,8 +25496,8 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E67" si="0">D3+E4</f>
-        <v>239</v>
+        <f t="shared" ref="E3:E71" si="0">D3+E4</f>
+        <v>242</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -25497,7 +25505,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>714000000</v>
+        <v>723000000</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -25531,7 +25539,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -25539,7 +25547,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>711000000</v>
+        <v>720000000</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -25566,7 +25574,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -25574,7 +25582,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3555000000</v>
+        <v>3600000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -25613,7 +25621,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -25621,7 +25629,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>708000000</v>
+        <v>717000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -25660,7 +25668,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -25668,7 +25676,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-708000000</v>
+        <v>-717000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -25710,7 +25718,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -25718,7 +25726,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-47200000</v>
+        <v>-47800000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -25760,7 +25768,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -25768,7 +25776,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>705000000</v>
+        <v>714000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -25807,7 +25815,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -25815,7 +25823,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>702000000</v>
+        <v>711000000</v>
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -25842,7 +25850,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -25850,7 +25858,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5850000000</v>
+        <v>5925000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -25883,7 +25891,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -25891,7 +25899,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>230614230</v>
+        <v>233609220</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -25924,7 +25932,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -25932,7 +25940,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>693000000</v>
+        <v>702000000</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
@@ -25959,7 +25967,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -25967,7 +25975,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>275143176</v>
+        <v>278716464</v>
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -25994,7 +26002,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -26002,7 +26010,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>438000000</v>
+        <v>444000000</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
@@ -26025,7 +26033,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -26033,7 +26041,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>621000000</v>
+        <v>630000000</v>
       </c>
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
@@ -26056,7 +26064,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -26064,7 +26072,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>618000000</v>
+        <v>627000000</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
@@ -26087,7 +26095,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -26095,7 +26103,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>389500000</v>
+        <v>395200000</v>
       </c>
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
@@ -26120,7 +26128,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -26128,7 +26136,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>152857470</v>
+        <v>155271009</v>
       </c>
       <c r="U19" s="27"/>
       <c r="V19" s="28"/>
@@ -26153,7 +26161,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -26161,7 +26169,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>567000000</v>
+        <v>576000000</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
@@ -26186,7 +26194,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -26194,7 +26202,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>91500000</v>
+        <v>93000000</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
@@ -26219,7 +26227,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -26227,7 +26235,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-510000000</v>
+        <v>-519000000</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
@@ -26252,7 +26260,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -26260,7 +26268,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>483000000</v>
+        <v>492000000</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
@@ -26285,7 +26293,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -26293,7 +26301,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>101565723</v>
+        <v>103458252</v>
       </c>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
@@ -26318,7 +26326,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -26326,7 +26334,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-512144000</v>
+        <v>-521746700</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
@@ -26351,7 +26359,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -26359,7 +26367,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-474142200</v>
+        <v>-483144900</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -26384,7 +26392,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -26392,7 +26400,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>155000000</v>
+        <v>158000000</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -26417,7 +26425,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -26425,7 +26433,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>930000000</v>
+        <v>948000000</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -26450,7 +26458,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -26458,7 +26466,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>899000000</v>
+        <v>916400000</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="30"/>
@@ -26483,7 +26491,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
@@ -26491,7 +26499,7 @@
       </c>
       <c r="G30" s="11">
         <f t="shared" si="3"/>
-        <v>-780000</v>
+        <v>-795000</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -26516,7 +26524,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
@@ -26524,7 +26532,7 @@
       </c>
       <c r="G31" s="11">
         <f>B31*(E31-F31)</f>
-        <v>-4030000000</v>
+        <v>-4108000000</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -26549,7 +26557,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
@@ -26557,7 +26565,7 @@
       </c>
       <c r="G32" s="11">
         <f>B32*(E32-F32)</f>
-        <v>-4008600000</v>
+        <v>-4087200000</v>
       </c>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
@@ -26582,7 +26590,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
@@ -26590,7 +26598,7 @@
       </c>
       <c r="G33" s="11">
         <f>B33*(E33-F33)</f>
-        <v>43491665</v>
+        <v>44472680</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="27"/>
@@ -26615,15 +26623,15 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" ref="G34:G67" si="4">B34*(E34-F34)</f>
-        <v>3266000000</v>
+        <f t="shared" ref="G34:G71" si="4">B34*(E34-F34)</f>
+        <v>3351200000</v>
       </c>
       <c r="V34" s="27"/>
       <c r="W34" s="28"/>
@@ -26644,7 +26652,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
@@ -26652,7 +26660,7 @@
       </c>
       <c r="G35" s="12">
         <f t="shared" si="4"/>
-        <v>1265000000</v>
+        <v>1298000000</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -26670,7 +26678,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="1"/>
@@ -26678,7 +26686,7 @@
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>41870100</v>
+        <v>43126203</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -26696,7 +26704,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="1"/>
@@ -26704,7 +26712,7 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>-90900</v>
+        <v>-93600</v>
       </c>
       <c r="J37" s="64"/>
     </row>
@@ -26723,7 +26731,7 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="1"/>
@@ -26731,7 +26739,7 @@
       </c>
       <c r="G38" s="12">
         <f t="shared" si="4"/>
-        <v>198000000</v>
+        <v>204000000</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -26751,7 +26759,7 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F39" s="11">
         <f>IF(B39&gt;0,1,0)</f>
@@ -26759,7 +26767,7 @@
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>198000000</v>
+        <v>204000000</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -26777,7 +26785,7 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F40" s="11">
         <f>IF(B40&gt;0,1,0)</f>
@@ -26785,7 +26793,7 @@
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>-17200000</v>
+        <v>-17800000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -26803,7 +26811,7 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F41" s="11">
         <f>IF(B41&gt;0,1,0)</f>
@@ -26811,7 +26819,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>-53320000</v>
+        <v>-55180000</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
@@ -26829,15 +26837,15 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" ref="F42:F67" si="5">IF(B42&gt;0,1,0)</f>
+        <f t="shared" ref="F42:F71" si="5">IF(B42&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>-10320000</v>
+        <v>-10680000</v>
       </c>
       <c r="J42" s="7"/>
     </row>
@@ -26856,7 +26864,7 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="5"/>
@@ -26864,7 +26872,7 @@
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>53950000</v>
+        <v>55900000</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -26882,7 +26890,7 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="5"/>
@@ -26890,7 +26898,7 @@
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>-420000</v>
+        <v>-435000</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -26908,7 +26916,7 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="5"/>
@@ -26916,7 +26924,7 @@
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>2407000000</v>
+        <v>2494000000</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -26934,7 +26942,7 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="5"/>
@@ -26942,7 +26950,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>-16000000</v>
+        <v>-16600000</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -26960,7 +26968,7 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="5"/>
@@ -26968,7 +26976,7 @@
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>-15400000</v>
+        <v>-16000000</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
@@ -26986,7 +26994,7 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="5"/>
@@ -26994,7 +27002,7 @@
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>-15200000</v>
+        <v>-15800000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -27012,7 +27020,7 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="5"/>
@@ -27020,7 +27028,7 @@
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>210000000</v>
+        <v>219000000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -27038,7 +27046,7 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="5"/>
@@ -27046,7 +27054,7 @@
       </c>
       <c r="G50" s="12">
         <f t="shared" si="4"/>
-        <v>210000000</v>
+        <v>219000000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -27064,7 +27072,7 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="5"/>
@@ -27072,7 +27080,7 @@
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>52839993</v>
+        <v>55137384</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -27090,7 +27098,7 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="5"/>
@@ -27098,7 +27106,7 @@
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>-14000000</v>
+        <v>-14600000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -27116,7 +27124,7 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="5"/>
@@ -27124,7 +27132,7 @@
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>-25231500</v>
+        <v>-26433000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -27142,7 +27150,7 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="5"/>
@@ -27150,7 +27158,7 @@
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>-54021384</v>
+        <v>-57022572</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -27168,7 +27176,7 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="5"/>
@@ -27176,7 +27184,7 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>-1920000000</v>
+        <v>-2040000000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -27194,7 +27202,7 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="5"/>
@@ -27202,7 +27210,7 @@
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>32894776</v>
+        <v>35491732</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -27220,7 +27228,7 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="5"/>
@@ -27228,7 +27236,7 @@
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>-602400000</v>
+        <v>-753000000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -27246,7 +27254,7 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="5"/>
@@ -27254,7 +27262,7 @@
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>-134205500</v>
+        <v>-170807000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -27272,7 +27280,7 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="5"/>
@@ -27280,7 +27288,7 @@
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>3744342</v>
+        <v>5349060</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -27298,7 +27306,7 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="5"/>
@@ -27306,7 +27314,7 @@
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>-2366000</v>
+        <v>-3380000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -27320,11 +27328,11 @@
         <v>688</v>
       </c>
       <c r="D61" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="5"/>
@@ -27332,25 +27340,25 @@
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>-750000</v>
+        <v>-1200000</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B62" s="41">
-        <v>-5000</v>
+        <v>-100000</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>694</v>
+        <v>26</v>
       </c>
       <c r="D62" s="11">
         <v>4</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="5"/>
@@ -27358,25 +27366,25 @@
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>-25000</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B63" s="41">
-        <v>-100000</v>
+        <v>-200000</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D63" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D63+E68</f>
+        <v>0</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="5"/>
@@ -27384,19 +27392,25 @@
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>-100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="41">
+        <v>-87000</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>697</v>
+      </c>
       <c r="D64" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E64:E71" si="6">D64+E69</f>
+        <v>1</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="5"/>
@@ -27404,18 +27418,16 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-87000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="11">
-        <v>0</v>
-      </c>
+      <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F65" s="11">
@@ -27429,13 +27441,11 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="11">
-        <v>0</v>
-      </c>
+      <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F66" s="11">
@@ -27449,13 +27459,11 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="11">
-        <v>0</v>
-      </c>
+      <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F67" s="11">
@@ -27469,71 +27477,151 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="B68" s="31">
-        <f>SUM(B2:B66)</f>
-        <v>2089747</v>
-      </c>
+      <c r="B68" s="41"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="31">
-        <f>SUM(G2:G67)</f>
-        <v>14413154991</v>
+      <c r="D68" s="11">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="B69" s="11"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
-        <v>284</v>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="D70" s="11">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="3">
-        <f>G68/E2</f>
-        <v>59313395.024691358</v>
+      <c r="D71" s="11">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="B72" s="31">
+        <f>SUM(B2:B70)</f>
+        <v>1807747</v>
+      </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="31">
+        <f>SUM(G2:G71)</f>
+        <v>14419377232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="3">
+        <f>G72/E2</f>
+        <v>58615354.601626016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="41">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="41">
         <v>13400000000</v>
       </c>
     </row>
@@ -31252,8 +31340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31497,11 +31585,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>175302273.02739727</v>
+        <v>174830273.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>2866805.9135027528</v>
+        <v>3338805.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31697,15 +31785,15 @@
         <v>462</v>
       </c>
       <c r="K12" s="46">
-        <f>'مسکن مریم یاران'!B68</f>
-        <v>2089747</v>
+        <f>'مسکن مریم یاران'!B72</f>
+        <v>1807747</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>2089747</v>
+        <v>1807747</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -31768,7 +31856,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K14" s="46">
         <v>1000000</v>
@@ -31819,11 +31907,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8500000</v>
+        <v>-8700000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>8500000</v>
+        <v>8700000</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="11"/>
@@ -31867,11 +31955,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>315000</v>
+        <v>225000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -31923,14 +32011,14 @@
         <v>469</v>
       </c>
       <c r="K17" s="46">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="5"/>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="11" t="s">
@@ -32220,15 +32308,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>175302273.02739727</v>
+        <v>174830273.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62709261.684931517</v>
+        <v>62419261.684931517</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112593011.34246576</v>
+        <v>112411011.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -32272,15 +32360,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>102378547</v>
+        <v>101906547</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22260111</v>
+        <v>22170111</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>80118436</v>
+        <v>79736436</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="702">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2130,6 +2130,18 @@
   </si>
   <si>
     <t>مریم گلدون و بشقاب و فانوس خرید</t>
+  </si>
+  <si>
+    <t>14/5/1396</t>
+  </si>
+  <si>
+    <t>انتقال به کارت بانک سپه جهت رهن</t>
+  </si>
+  <si>
+    <t>15/3/1396</t>
+  </si>
+  <si>
+    <t>باطری</t>
   </si>
 </sst>
 </file>
@@ -25496,7 +25508,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E71" si="0">D3+E4</f>
+        <f t="shared" ref="E3:E62" si="0">D3+E4</f>
         <v>242</v>
       </c>
       <c r="F3" s="11">
@@ -27636,8 +27648,8 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27687,7 +27699,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -27695,7 +27707,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>40323900</v>
+        <v>41677700</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -27713,7 +27725,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -27721,7 +27733,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1245000000</v>
+        <v>1287000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -27737,7 +27749,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -27745,7 +27757,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-82600000</v>
+        <v>-85400000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -27761,7 +27773,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -27769,7 +27781,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-41100000</v>
+        <v>-42500000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -27785,7 +27797,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -27793,7 +27805,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-22550000</v>
+        <v>-23320000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -27809,7 +27821,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -27817,7 +27829,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-81800000</v>
+        <v>-84600000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -27833,7 +27845,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -27841,7 +27853,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-81000000</v>
+        <v>-83800000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -27857,7 +27869,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -27865,7 +27877,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-375447500</v>
+        <v>-388754500</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -27881,7 +27893,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -27889,7 +27901,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>786000000</v>
+        <v>814000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -27905,7 +27917,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -27913,7 +27925,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-417480000</v>
+        <v>-432390000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -27929,7 +27941,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -27937,7 +27949,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-17505000</v>
+        <v>-18135000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -27953,7 +27965,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -27961,7 +27973,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-776271600</v>
+        <v>-804281400</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -27977,7 +27989,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -27985,7 +27997,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-76800000</v>
+        <v>-79600000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -28001,7 +28013,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -28009,7 +28021,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>762000000</v>
+        <v>790000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -28025,7 +28037,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -28033,7 +28045,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>762000000</v>
+        <v>790000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -28049,7 +28061,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -28057,7 +28069,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>457200000</v>
+        <v>474000000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -28073,7 +28085,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -28081,7 +28093,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>381000000</v>
+        <v>395000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -28097,7 +28109,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -28105,7 +28117,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1140000000</v>
+        <v>1182000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -28124,7 +28136,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -28132,7 +28144,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-164858700</v>
+        <v>-170916500</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -28148,7 +28160,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -28156,7 +28168,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-164858700</v>
+        <v>-170916500</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -28172,7 +28184,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -28180,7 +28192,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-164858700</v>
+        <v>-170916500</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -28196,7 +28208,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -28204,7 +28216,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-164858700</v>
+        <v>-170916500</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -28220,7 +28232,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -28228,7 +28240,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-164858700</v>
+        <v>-170916500</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -28244,7 +28256,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -28252,7 +28264,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-76200000</v>
+        <v>-79000000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -28268,7 +28280,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -28276,7 +28288,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1137000000</v>
+        <v>1179000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -28292,7 +28304,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -28300,7 +28312,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-75600000</v>
+        <v>-78400000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -28316,7 +28328,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -28324,7 +28336,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>752000000</v>
+        <v>780000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -28340,7 +28352,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -28348,7 +28360,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2632300800</v>
+        <v>-2730312000</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -28364,7 +28376,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -28372,7 +28384,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1125337500</v>
+        <v>-1167350100</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -28388,7 +28400,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -28396,7 +28408,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-634266600</v>
+        <v>-658009200</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -28412,7 +28424,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -28420,7 +28432,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>367891000</v>
+        <v>381811200</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -28436,7 +28448,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -28444,7 +28456,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>12773124</v>
+        <v>13264398</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -28462,7 +28474,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -28470,7 +28482,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-309400000</v>
+        <v>-321300000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -28486,7 +28498,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -28494,7 +28506,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-67818000</v>
+        <v>-70485000</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -28510,7 +28522,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -28518,7 +28530,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>70800000</v>
+        <v>73600000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -28534,7 +28546,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -28542,7 +28554,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-71000000</v>
+        <v>-73800000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -28558,7 +28570,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -28566,7 +28578,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>99867592</v>
+        <v>104078876</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -28584,7 +28596,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -28592,7 +28604,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-31540000</v>
+        <v>-32870000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -28608,7 +28620,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -28616,7 +28628,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-29250196</v>
+        <v>-30483638</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -28632,7 +28644,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -28640,7 +28652,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-39240000</v>
+        <v>-40920000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -28656,7 +28668,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -28664,7 +28676,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>304062016</v>
+        <v>318064872</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -28682,7 +28694,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -28690,7 +28702,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-24080000</v>
+        <v>-25200000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -28706,7 +28718,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -28714,7 +28726,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-62675613</v>
+        <v>-65630019</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -28730,7 +28742,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -28738,7 +28750,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-59200000</v>
+        <v>-62000000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -28754,7 +28766,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -28762,7 +28774,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-28025000</v>
+        <v>-29355000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -28778,7 +28790,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -28786,7 +28798,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-13185000</v>
+        <v>-13815000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -28802,7 +28814,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -28810,7 +28822,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-18804740</v>
+        <v>-19703260</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -28826,7 +28838,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -28834,7 +28846,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-7970360</v>
+        <v>-8355136</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -28850,7 +28862,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -28858,7 +28870,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-40749000</v>
+        <v>-42723000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -28874,7 +28886,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -28882,7 +28894,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-7729594</v>
+        <v>-8104038</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -28898,7 +28910,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -28906,7 +28918,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-15350400</v>
+        <v>-16096600</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -28922,7 +28934,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -28930,7 +28942,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>286000000</v>
+        <v>300000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -28946,7 +28958,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -28954,7 +28966,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-5901000</v>
+        <v>-6195000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -28970,7 +28982,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -28978,7 +28990,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-274540000</v>
+        <v>-288267000</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -28994,7 +29006,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -29002,7 +29014,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-12600000</v>
+        <v>-13230000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -29018,7 +29030,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -29026,7 +29038,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>799380274</v>
+        <v>841452920</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -29044,7 +29056,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -29052,7 +29064,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>532000000</v>
+        <v>560000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -29068,7 +29080,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -29076,7 +29088,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>530000000</v>
+        <v>558000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -29092,7 +29104,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -29100,7 +29112,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-1862399000</v>
+        <v>-1960420000</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -29116,7 +29128,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -29124,7 +29136,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>723000000</v>
+        <v>765000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -29140,7 +29152,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -29148,7 +29160,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-6533269</v>
+        <v>-6912795</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -29164,7 +29176,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -29172,7 +29184,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-7950349</v>
+        <v>-8412195</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -29188,7 +29200,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -29196,7 +29208,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>720000000</v>
+        <v>762000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -29212,7 +29224,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -29220,7 +29232,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>712800000</v>
+        <v>754380000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -29236,7 +29248,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -29244,7 +29256,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>240000000</v>
+        <v>254000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -29260,7 +29272,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -29268,7 +29280,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
-        <v>7200000</v>
+        <v>7620000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -29284,7 +29296,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -29292,7 +29304,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>7170000000</v>
+        <v>7590000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -29308,7 +29320,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -29316,7 +29328,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-47800000</v>
+        <v>-50600000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -29332,7 +29344,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -29340,7 +29352,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>333200000</v>
+        <v>352800000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -29356,7 +29368,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -29364,7 +29376,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>618800000</v>
+        <v>655200000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -29380,7 +29392,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -29388,7 +29400,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-239000000</v>
+        <v>-253000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -29404,7 +29416,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -29412,7 +29424,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>3540000000</v>
+        <v>3750000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -29428,7 +29440,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -29436,7 +29448,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-3480974400</v>
+        <v>-3691033200</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -29452,7 +29464,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -29460,7 +29472,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-690000000</v>
+        <v>-732000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -29476,7 +29488,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -29484,7 +29496,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-46000000</v>
+        <v>-48800000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -29500,7 +29512,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -29508,7 +29520,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-2760690000</v>
+        <v>-2928732000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -29524,7 +29536,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -29532,7 +29544,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-678203400</v>
+        <v>-720216000</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -29548,7 +29560,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -29556,7 +29568,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>5060000000</v>
+        <v>5382000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -29572,7 +29584,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -29580,7 +29592,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-129708000</v>
+        <v>-138115000</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -29596,7 +29608,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -29604,7 +29616,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-43200000</v>
+        <v>-46000000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -29620,7 +29632,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -29628,7 +29640,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>60609294</v>
+        <v>64574388</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -29646,7 +29658,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -29654,7 +29666,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-43000000</v>
+        <v>-45800000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -29670,7 +29682,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -29678,7 +29690,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>424000000</v>
+        <v>452000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -29694,7 +29706,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -29702,7 +29714,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-42000000</v>
+        <v>-44800000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -29718,7 +29730,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -29726,7 +29738,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-40800000</v>
+        <v>-43600000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -29742,7 +29754,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -29750,7 +29762,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-267650000</v>
+        <v>-286200000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -29766,7 +29778,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -29774,7 +29786,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-93500000</v>
+        <v>-100500000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -29790,7 +29802,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -29798,7 +29810,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-22440000</v>
+        <v>-24120000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -29814,7 +29826,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -29822,7 +29834,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>78789720</v>
+        <v>84784590</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -29840,7 +29852,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -29848,7 +29860,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-546364000</v>
+        <v>-588392000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -29866,7 +29878,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -29874,7 +29886,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-36900000</v>
+        <v>-39770000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -29892,7 +29904,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -29900,7 +29912,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-63090000</v>
+        <v>-67997000</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -29918,7 +29930,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -29926,7 +29938,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>168000000</v>
+        <v>182000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -29944,7 +29956,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -29952,7 +29964,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1467000000</v>
+        <v>1593000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -29971,7 +29983,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -29979,7 +29991,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-4212000000</v>
+        <v>-4576000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -29997,7 +30009,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -30005,7 +30017,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-4212000000</v>
+        <v>-4576000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -30021,7 +30033,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -30029,7 +30041,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>4186000000</v>
+        <v>4550000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -30045,7 +30057,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -30053,7 +30065,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-32400000</v>
+        <v>-35200000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -30072,7 +30084,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -30080,7 +30092,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>4642800000</v>
+        <v>5051600000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -30096,7 +30108,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -30104,7 +30116,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>61591530</v>
+        <v>67190760</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -30122,7 +30134,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -30130,7 +30142,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>306000000</v>
+        <v>334000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -30148,7 +30160,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -30156,7 +30168,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1140000000</v>
+        <v>1245000000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -30174,7 +30186,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -30182,7 +30194,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-10098000000</v>
+        <v>-11022000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -30200,7 +30212,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -30208,7 +30220,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-22185000</v>
+        <v>-24215000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -30226,7 +30238,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -30234,7 +30246,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>900000000</v>
+        <v>984000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -30252,7 +30264,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -30260,7 +30272,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-894879100</v>
+        <v>-978961700</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -30278,7 +30290,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -30286,7 +30298,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>870000000</v>
+        <v>954000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -30304,7 +30316,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -30312,7 +30324,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-16080000</v>
+        <v>-17760000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -30330,7 +30342,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -30338,7 +30350,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>528000000</v>
+        <v>584000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -30356,7 +30368,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -30364,7 +30376,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>366800000</v>
+        <v>406000000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -30382,7 +30394,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -30390,7 +30402,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-25600000</v>
+        <v>-28400000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -30408,7 +30420,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -30416,7 +30428,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>9111060</v>
+        <v>10123400</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>514</v>
@@ -30434,7 +30446,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -30442,7 +30454,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-22000000</v>
+        <v>-24800000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -30463,7 +30475,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -30471,7 +30483,7 @@
       </c>
       <c r="F115" s="25">
         <f t="shared" si="5"/>
-        <v>-1199000000</v>
+        <v>-1353000000</v>
       </c>
       <c r="G115" s="25" t="s">
         <v>515</v>
@@ -30489,7 +30501,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -30497,7 +30509,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-21800000</v>
+        <v>-24600000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -30518,7 +30530,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -30526,7 +30538,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-48203500</v>
+        <v>-54510500</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>517</v>
@@ -30544,7 +30556,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -30552,7 +30564,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-21400000</v>
+        <v>-24200000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>518</v>
@@ -30573,7 +30585,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -30581,7 +30593,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-15609550</v>
+        <v>-17773250</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>521</v>
@@ -30599,7 +30611,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -30607,7 +30619,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-32320</v>
+        <v>-36800</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>522</v>
@@ -30625,7 +30637,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -30633,7 +30645,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-43200000</v>
+        <v>-49248000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>524</v>
@@ -30651,7 +30663,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -30659,7 +30671,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>6885999</v>
+        <v>7922601</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>526</v>
@@ -30677,7 +30689,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -30685,7 +30697,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-3796000</v>
+        <v>-4524000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>553</v>
@@ -30703,7 +30715,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -30711,7 +30723,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>36797</v>
+        <v>53415</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>606</v>
@@ -30729,7 +30741,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -30737,7 +30749,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>72000000</v>
+        <v>105600000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>604</v>
@@ -30755,7 +30767,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -30763,7 +30775,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>37598400</v>
+        <v>56397600</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>613</v>
@@ -30781,7 +30793,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -30789,7 +30801,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>37598400</v>
+        <v>56397600</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>614</v>
@@ -30807,7 +30819,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -30815,7 +30827,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-3400000</v>
+        <v>-6200000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -30833,7 +30845,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -30841,7 +30853,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-234270</v>
+        <v>-452922</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>623</v>
@@ -30862,7 +30874,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -30870,7 +30882,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-2800000</v>
+        <v>-5600000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>518</v>
@@ -30888,7 +30900,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D146" si="6">D132+C131</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
@@ -30896,7 +30908,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-2600000</v>
+        <v>-5400000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>627</v>
@@ -30914,7 +30926,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -30922,7 +30934,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-4680000</v>
+        <v>-10140000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>629</v>
@@ -30940,7 +30952,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -30948,7 +30960,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-294000</v>
+        <v>-637000</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>630</v>
@@ -30966,7 +30978,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -30974,7 +30986,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-1045000</v>
+        <v>-2375000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
@@ -30992,7 +31004,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -31000,7 +31012,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-1400000</v>
+        <v>-4200000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>634</v>
@@ -31018,7 +31030,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -31026,7 +31038,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>200000000</v>
+        <v>900000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>637</v>
@@ -31044,7 +31056,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -31052,7 +31064,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>36000000</v>
+        <v>204000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>637</v>
@@ -31070,7 +31082,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -31078,7 +31090,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>2000000</v>
+        <v>30000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>649</v>
@@ -31092,11 +31104,11 @@
         <v>87538</v>
       </c>
       <c r="C139" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -31104,19 +31116,25 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1225532</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="11"/>
+      <c r="A140" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B140" s="3">
+        <v>-3000900</v>
+      </c>
+      <c r="C140" s="11">
+        <v>1</v>
+      </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -31124,17 +31142,25 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="11"/>
+        <v>-6001800</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="11"/>
+      <c r="A141" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B141" s="3">
+        <v>-3000900</v>
+      </c>
+      <c r="C141" s="11">
+        <v>1</v>
+      </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -31142,9 +31168,11 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G141" s="11"/>
+        <v>-3000900</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>699</v>
+      </c>
       <c r="K141" t="s">
         <v>25</v>
       </c>
@@ -31265,14 +31293,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="31">
         <f>SUM(B2:B146)</f>
-        <v>67895111</v>
+        <v>61893311</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="31">
         <f>SUM(F2:F146)</f>
-        <v>4678666545</v>
+        <v>5620195399</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -31306,7 +31334,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>11192982.165071771</v>
+        <v>13009711.571759259</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -31340,8 +31368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31585,11 +31613,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>174830273.02739727</v>
+        <v>168778473.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>3338805.9135027528</v>
+        <v>9390605.9135027528</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31674,11 +31702,11 @@
       </c>
       <c r="K9" s="46">
         <f>'مسکن ایلیا'!B148</f>
-        <v>67895111</v>
+        <v>61893311</v>
       </c>
       <c r="L9" s="3">
         <f>K9-M9</f>
-        <v>21895111</v>
+        <v>15893311</v>
       </c>
       <c r="M9" s="3">
         <v>46000000</v>
@@ -31955,11 +31983,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="46">
-        <v>225000</v>
+        <v>175000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>225000</v>
+        <v>175000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32308,11 +32336,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>174830273.02739727</v>
+        <v>168778473.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>62419261.684931517</v>
+        <v>56367461.684931509</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -32360,11 +32388,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>101906547</v>
+        <v>95854747</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>22170111</v>
+        <v>16118311</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
@@ -32766,7 +32794,7 @@
         <v>300000</v>
       </c>
       <c r="S34" s="59">
-        <v>820000</v>
+        <v>740000</v>
       </c>
       <c r="T34" s="60" t="s">
         <v>490</v>
@@ -32956,7 +32984,7 @@
       </c>
       <c r="S39" s="50">
         <f>SUM(S34:S38)</f>
-        <v>1980000</v>
+        <v>1900000</v>
       </c>
       <c r="T39" s="51" t="s">
         <v>6</v>
@@ -34553,8 +34581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35063,7 +35091,7 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G30" s="11">
-        <f t="shared" ref="G30:G36" si="6">$I$41-I30</f>
+        <f t="shared" ref="G30:G37" si="6">$I$41-I30</f>
         <v>20000</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -35173,10 +35201,19 @@
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="11">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="I37" s="11">
+        <v>218000</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="G38" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="707">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2142,6 +2142,21 @@
   </si>
   <si>
     <t>باطری</t>
+  </si>
+  <si>
+    <t>تاریخ 16 مرداد خرید از جامبو</t>
+  </si>
+  <si>
+    <t>16/5/1396</t>
+  </si>
+  <si>
+    <t>خرید از جامبو</t>
+  </si>
+  <si>
+    <t>انتقال به کارت حاج ایوب بابت بخشی از فرش</t>
+  </si>
+  <si>
+    <t>خرید فرش 9 متری</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2496,6 +2511,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2830,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,25 +3034,27 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>-3000000</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="20"/>
+        <v>-3000000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>705</v>
+      </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-48000000</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -3042,7 +3062,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-48000000</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -3738,7 +3758,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>44536399</v>
+        <v>41536399</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -3746,7 +3766,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>31731973</v>
+        <v>28731973</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3762,7 +3782,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1380243818</v>
+        <v>1332243818</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
@@ -3770,7 +3790,7 @@
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>985017520</v>
+        <v>937017520</v>
       </c>
       <c r="O25">
         <v>24</v>
@@ -3854,11 +3874,11 @@
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>110114.36250620324</v>
+        <v>114081.72143021195</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>274436.63749379676</v>
+        <v>270469.27856978803</v>
       </c>
       <c r="O30">
         <v>29</v>
@@ -3938,9 +3958,11 @@
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="E35" s="44"/>
+        <v>27470</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="45">
@@ -3977,7 +3999,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8685102</v>
+        <v>8712572</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15231,7 +15253,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15308,7 +15330,7 @@
       </c>
       <c r="G2" s="39">
         <f>G3+F2</f>
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="H2" s="39">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15316,11 +15338,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>7849000</v>
+        <v>8099500</v>
       </c>
       <c r="J2" s="56">
         <f>C2*(G2-H2)</f>
-        <v>7849000</v>
+        <v>8099500</v>
       </c>
       <c r="K2" s="56">
         <f>D2*(G2-H2)</f>
@@ -15349,7 +15371,7 @@
       </c>
       <c r="G3" s="39">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H3" s="39">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15357,15 +15379,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>9333100000</v>
+        <v>9631600000</v>
       </c>
       <c r="J3" s="56">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>5340503000</v>
+        <v>5511308000</v>
       </c>
       <c r="K3" s="56">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>3992597000</v>
+        <v>4120292000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15390,7 +15412,7 @@
       </c>
       <c r="G4" s="39">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H4" s="39">
         <f t="shared" si="2"/>
@@ -15402,11 +15424,11 @@
       </c>
       <c r="J4" s="56">
         <f t="shared" si="4"/>
-        <v>3995000</v>
+        <v>4122500</v>
       </c>
       <c r="K4" s="56">
         <f t="shared" si="5"/>
-        <v>-3995000</v>
+        <v>-4122500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15431,7 +15453,7 @@
       </c>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
@@ -15439,7 +15461,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>934000000</v>
+        <v>964000000</v>
       </c>
       <c r="J5" s="56">
         <f t="shared" si="4"/>
@@ -15447,7 +15469,7 @@
       </c>
       <c r="K5" s="56">
         <f t="shared" si="5"/>
-        <v>934000000</v>
+        <v>964000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15472,7 +15494,7 @@
       </c>
       <c r="G6" s="39">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H6" s="39">
         <f t="shared" si="2"/>
@@ -15480,7 +15502,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2305000</v>
+        <v>-2380000</v>
       </c>
       <c r="J6" s="56">
         <f t="shared" si="4"/>
@@ -15488,7 +15510,7 @@
       </c>
       <c r="K6" s="56">
         <f t="shared" si="5"/>
-        <v>-2305000</v>
+        <v>-2380000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15513,7 +15535,7 @@
       </c>
       <c r="G7" s="39">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="2"/>
@@ -15521,7 +15543,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-548628500</v>
+        <v>-566636000</v>
       </c>
       <c r="J7" s="56">
         <f t="shared" si="4"/>
@@ -15529,7 +15551,7 @@
       </c>
       <c r="K7" s="56">
         <f t="shared" si="5"/>
-        <v>-548628500</v>
+        <v>-566636000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15554,7 +15576,7 @@
       </c>
       <c r="G8" s="39">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" si="2"/>
@@ -15562,7 +15584,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-91200000</v>
+        <v>-94200000</v>
       </c>
       <c r="J8" s="56">
         <f t="shared" si="4"/>
@@ -15570,7 +15592,7 @@
       </c>
       <c r="K8" s="56">
         <f t="shared" si="5"/>
-        <v>-91200000</v>
+        <v>-94200000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15595,7 +15617,7 @@
       </c>
       <c r="G9" s="39">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="H9" s="39">
         <f t="shared" si="2"/>
@@ -15603,7 +15625,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-320297000</v>
+        <v>-330879500</v>
       </c>
       <c r="J9" s="56">
         <f t="shared" si="4"/>
@@ -15611,7 +15633,7 @@
       </c>
       <c r="K9" s="56">
         <f t="shared" si="5"/>
-        <v>-320297000</v>
+        <v>-330879500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15636,7 +15658,7 @@
       </c>
       <c r="G10" s="39">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" si="2"/>
@@ -15644,7 +15666,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-89000000</v>
+        <v>-92000000</v>
       </c>
       <c r="J10" s="56">
         <f t="shared" si="4"/>
@@ -15652,7 +15674,7 @@
       </c>
       <c r="K10" s="56">
         <f t="shared" si="5"/>
-        <v>-89000000</v>
+        <v>-92000000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15677,7 +15699,7 @@
       </c>
       <c r="G11" s="39">
         <f t="shared" si="1"/>
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="H11" s="39">
         <f t="shared" si="2"/>
@@ -15685,7 +15707,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>444000000</v>
+        <v>459000000</v>
       </c>
       <c r="J11" s="56">
         <f t="shared" si="4"/>
@@ -15693,7 +15715,7 @@
       </c>
       <c r="K11" s="56">
         <f t="shared" si="5"/>
-        <v>444000000</v>
+        <v>459000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15718,7 +15740,7 @@
       </c>
       <c r="G12" s="39">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="H12" s="39">
         <f t="shared" si="2"/>
@@ -15726,7 +15748,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-132300000</v>
+        <v>-136800000</v>
       </c>
       <c r="J12" s="56">
         <f t="shared" si="4"/>
@@ -15734,7 +15756,7 @@
       </c>
       <c r="K12" s="56">
         <f t="shared" si="5"/>
-        <v>-132300000</v>
+        <v>-136800000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15759,7 +15781,7 @@
       </c>
       <c r="G13" s="39">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="H13" s="39">
         <f t="shared" si="2"/>
@@ -15767,7 +15789,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-27032000</v>
+        <v>-27962000</v>
       </c>
       <c r="J13" s="56">
         <f t="shared" si="4"/>
@@ -15775,7 +15797,7 @@
       </c>
       <c r="K13" s="56">
         <f t="shared" si="5"/>
-        <v>-27032000</v>
+        <v>-27962000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15800,7 +15822,7 @@
       </c>
       <c r="G14" s="39">
         <f t="shared" si="1"/>
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="H14" s="39">
         <f t="shared" si="2"/>
@@ -15808,7 +15830,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>870000000</v>
+        <v>900000000</v>
       </c>
       <c r="J14" s="56">
         <f t="shared" si="4"/>
@@ -15816,7 +15838,7 @@
       </c>
       <c r="K14" s="56">
         <f t="shared" si="5"/>
-        <v>870000000</v>
+        <v>900000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15841,7 +15863,7 @@
       </c>
       <c r="G15" s="39">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H15" s="39">
         <f t="shared" si="2"/>
@@ -15849,7 +15871,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>781200000</v>
+        <v>808200000</v>
       </c>
       <c r="J15" s="56">
         <f t="shared" si="4"/>
@@ -15857,7 +15879,7 @@
       </c>
       <c r="K15" s="56">
         <f t="shared" si="5"/>
-        <v>781200000</v>
+        <v>808200000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15882,7 +15904,7 @@
       </c>
       <c r="G16" s="39">
         <f t="shared" si="1"/>
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="H16" s="39">
         <f t="shared" si="2"/>
@@ -15890,7 +15912,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-87000000</v>
+        <v>-90000000</v>
       </c>
       <c r="J16" s="56">
         <f t="shared" si="4"/>
@@ -15898,7 +15920,7 @@
       </c>
       <c r="K16" s="56">
         <f t="shared" si="5"/>
-        <v>-87000000</v>
+        <v>-90000000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -15923,7 +15945,7 @@
       </c>
       <c r="G17" s="39">
         <f t="shared" si="1"/>
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H17" s="39">
         <f t="shared" si="2"/>
@@ -15931,7 +15953,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-862000000</v>
+        <v>-892000000</v>
       </c>
       <c r="J17" s="56">
         <f t="shared" si="4"/>
@@ -15939,7 +15961,7 @@
       </c>
       <c r="K17" s="56">
         <f t="shared" si="5"/>
-        <v>-862000000</v>
+        <v>-892000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -15967,7 +15989,7 @@
       </c>
       <c r="G18" s="39">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="2"/>
@@ -15975,7 +15997,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-129000000</v>
+        <v>-133500000</v>
       </c>
       <c r="J18" s="56">
         <f t="shared" si="4"/>
@@ -15983,7 +16005,7 @@
       </c>
       <c r="K18" s="56">
         <f t="shared" si="5"/>
-        <v>-129000000</v>
+        <v>-133500000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16008,7 +16030,7 @@
       </c>
       <c r="G19" s="39">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="H19" s="39">
         <f t="shared" si="2"/>
@@ -16016,7 +16038,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-85800000</v>
+        <v>-88800000</v>
       </c>
       <c r="J19" s="56">
         <f t="shared" si="4"/>
@@ -16024,7 +16046,7 @@
       </c>
       <c r="K19" s="56">
         <f t="shared" si="5"/>
-        <v>-85800000</v>
+        <v>-88800000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16049,7 +16071,7 @@
       </c>
       <c r="G20" s="39">
         <f t="shared" si="1"/>
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="H20" s="39">
         <f t="shared" si="2"/>
@@ -16057,15 +16079,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>115483914</v>
+        <v>119550249</v>
       </c>
       <c r="J20" s="56">
         <f t="shared" si="4"/>
-        <v>62814552</v>
+        <v>65026332</v>
       </c>
       <c r="K20" s="56">
         <f t="shared" si="5"/>
-        <v>52669362</v>
+        <v>54523917</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16090,7 +16112,7 @@
       </c>
       <c r="G21" s="39">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H21" s="39">
         <f t="shared" si="2"/>
@@ -16098,7 +16120,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-639922500</v>
+        <v>-662508000</v>
       </c>
       <c r="J21" s="56">
         <f t="shared" si="4"/>
@@ -16106,7 +16128,7 @@
       </c>
       <c r="K21" s="56">
         <f t="shared" si="5"/>
-        <v>-639922500</v>
+        <v>-662508000</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16131,7 +16153,7 @@
       </c>
       <c r="G22" s="39">
         <f t="shared" si="1"/>
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H22" s="39">
         <f t="shared" si="2"/>
@@ -16139,7 +16161,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1263000000</v>
+        <v>1308000000</v>
       </c>
       <c r="J22" s="56">
         <f t="shared" si="4"/>
@@ -16147,7 +16169,7 @@
       </c>
       <c r="K22" s="56">
         <f t="shared" si="5"/>
-        <v>1263000000</v>
+        <v>1308000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16172,7 +16194,7 @@
       </c>
       <c r="G23" s="39">
         <f t="shared" si="1"/>
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="H23" s="39">
         <f t="shared" si="2"/>
@@ -16180,7 +16202,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>420000000</v>
+        <v>435000000</v>
       </c>
       <c r="J23" s="56">
         <f t="shared" si="4"/>
@@ -16188,7 +16210,7 @@
       </c>
       <c r="K23" s="56">
         <f t="shared" si="5"/>
-        <v>420000000</v>
+        <v>435000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16213,7 +16235,7 @@
       </c>
       <c r="G24" s="39">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="H24" s="39">
         <f t="shared" si="2"/>
@@ -16221,7 +16243,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1260378000</v>
+        <v>-1305391500</v>
       </c>
       <c r="J24" s="56">
         <f t="shared" si="4"/>
@@ -16229,7 +16251,7 @@
       </c>
       <c r="K24" s="56">
         <f t="shared" si="5"/>
-        <v>-1260378000</v>
+        <v>-1305391500</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16254,7 +16276,7 @@
       </c>
       <c r="G25" s="39">
         <f t="shared" si="1"/>
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="H25" s="39">
         <f t="shared" si="2"/>
@@ -16262,7 +16284,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>606000000</v>
+        <v>628500000</v>
       </c>
       <c r="J25" s="56">
         <f t="shared" si="4"/>
@@ -16270,7 +16292,7 @@
       </c>
       <c r="K25" s="56">
         <f t="shared" si="5"/>
-        <v>606000000</v>
+        <v>628500000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16295,7 +16317,7 @@
       </c>
       <c r="G26" s="39">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H26" s="39">
         <f t="shared" si="2"/>
@@ -16303,7 +16325,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-65108000</v>
+        <v>-67568000</v>
       </c>
       <c r="J26" s="56">
         <f t="shared" si="4"/>
@@ -16311,7 +16333,7 @@
       </c>
       <c r="K26" s="56">
         <f t="shared" si="5"/>
-        <v>-65108000</v>
+        <v>-67568000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16336,7 +16358,7 @@
       </c>
       <c r="G27" s="39">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="2"/>
@@ -16344,15 +16366,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>78760235</v>
+        <v>81751130</v>
       </c>
       <c r="J27" s="56">
         <f t="shared" si="4"/>
-        <v>42428135</v>
+        <v>44039330</v>
       </c>
       <c r="K27" s="56">
         <f t="shared" si="5"/>
-        <v>36332100</v>
+        <v>37711800</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16377,7 +16399,7 @@
       </c>
       <c r="G28" s="39">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
@@ -16385,11 +16407,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-87074000</v>
+        <v>-90389000</v>
       </c>
       <c r="J28" s="56">
         <f t="shared" si="4"/>
-        <v>-87074000</v>
+        <v>-90389000</v>
       </c>
       <c r="K28" s="56">
         <f t="shared" si="5"/>
@@ -16418,7 +16440,7 @@
       </c>
       <c r="G29" s="39">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="2"/>
@@ -16426,7 +16448,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-197197000</v>
+        <v>-204704500</v>
       </c>
       <c r="J29" s="56">
         <f t="shared" si="4"/>
@@ -16434,7 +16456,7 @@
       </c>
       <c r="K29" s="56">
         <f t="shared" si="5"/>
-        <v>-197197000</v>
+        <v>-204704500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16459,7 +16481,7 @@
       </c>
       <c r="G30" s="39">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H30" s="39">
         <f t="shared" si="2"/>
@@ -16467,11 +16489,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-5910000000</v>
+        <v>-6135000000</v>
       </c>
       <c r="J30" s="56">
         <f t="shared" si="4"/>
-        <v>-5910000000</v>
+        <v>-6135000000</v>
       </c>
       <c r="K30" s="56">
         <f t="shared" si="5"/>
@@ -16500,7 +16522,7 @@
       </c>
       <c r="G31" s="39">
         <f t="shared" si="1"/>
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H31" s="39">
         <f t="shared" si="2"/>
@@ -16508,7 +16530,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1135109300</v>
+        <v>-1180272800</v>
       </c>
       <c r="J31" s="56">
         <f t="shared" si="4"/>
@@ -16516,7 +16538,7 @@
       </c>
       <c r="K31" s="56">
         <f t="shared" si="5"/>
-        <v>-1135109300</v>
+        <v>-1180272800</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16541,7 +16563,7 @@
       </c>
       <c r="G32" s="39">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H32" s="39">
         <f t="shared" si="2"/>
@@ -16549,7 +16571,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1127212500</v>
+        <v>-1172301000</v>
       </c>
       <c r="J32" s="56">
         <f t="shared" si="4"/>
@@ -16557,7 +16579,7 @@
       </c>
       <c r="K32" s="56">
         <f t="shared" si="5"/>
-        <v>-1127212500</v>
+        <v>-1172301000</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16582,7 +16604,7 @@
       </c>
       <c r="G33" s="39">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H33" s="39">
         <f t="shared" si="2"/>
@@ -16590,7 +16612,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-334917000</v>
+        <v>-348349500</v>
       </c>
       <c r="J33" s="56">
         <f t="shared" si="4"/>
@@ -16598,7 +16620,7 @@
       </c>
       <c r="K33" s="56">
         <f t="shared" si="5"/>
-        <v>-334917000</v>
+        <v>-348349500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16623,7 +16645,7 @@
       </c>
       <c r="G34" s="39">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H34" s="39">
         <f t="shared" si="2"/>
@@ -16635,11 +16657,11 @@
       </c>
       <c r="J34" s="56">
         <f t="shared" si="4"/>
-        <v>374000000</v>
+        <v>389000000</v>
       </c>
       <c r="K34" s="56">
         <f t="shared" si="5"/>
-        <v>-374000000</v>
+        <v>-389000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16664,7 +16686,7 @@
       </c>
       <c r="G35" s="39">
         <f t="shared" si="1"/>
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H35" s="39">
         <f t="shared" si="2"/>
@@ -16672,15 +16694,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>19099808</v>
+        <v>19886888</v>
       </c>
       <c r="J35" s="56">
         <f t="shared" si="4"/>
-        <v>-7885332</v>
+        <v>-8210277</v>
       </c>
       <c r="K35" s="56">
         <f t="shared" si="5"/>
-        <v>26985140</v>
+        <v>28097165</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16705,7 +16727,7 @@
       </c>
       <c r="G36" s="39">
         <f t="shared" si="1"/>
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H36" s="39">
         <f t="shared" si="2"/>
@@ -16717,11 +16739,11 @@
       </c>
       <c r="J36" s="56">
         <f t="shared" si="4"/>
-        <v>7906995</v>
+        <v>8231940</v>
       </c>
       <c r="K36" s="56">
         <f t="shared" si="5"/>
-        <v>-7906995</v>
+        <v>-8231940</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16746,7 +16768,7 @@
       </c>
       <c r="G37" s="39">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H37" s="39">
         <f t="shared" si="2"/>
@@ -16754,7 +16776,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-19525000</v>
+        <v>-20350000</v>
       </c>
       <c r="J37" s="56">
         <f t="shared" si="4"/>
@@ -16762,7 +16784,7 @@
       </c>
       <c r="K37" s="56">
         <f t="shared" si="5"/>
-        <v>-19525000</v>
+        <v>-20350000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16787,7 +16809,7 @@
       </c>
       <c r="G38" s="39">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H38" s="39">
         <f t="shared" si="2"/>
@@ -16795,11 +16817,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1059000000</v>
+        <v>1104000000</v>
       </c>
       <c r="J38" s="56">
         <f t="shared" si="4"/>
-        <v>1059000000</v>
+        <v>1104000000</v>
       </c>
       <c r="K38" s="56">
         <f t="shared" si="5"/>
@@ -16828,7 +16850,7 @@
       </c>
       <c r="G39" s="39">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="2"/>
@@ -16836,11 +16858,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>880000000</v>
+        <v>917500000</v>
       </c>
       <c r="J39" s="56">
         <f t="shared" si="4"/>
-        <v>880000000</v>
+        <v>917500000</v>
       </c>
       <c r="K39" s="56">
         <f t="shared" si="5"/>
@@ -16869,7 +16891,7 @@
       </c>
       <c r="G40" s="39">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H40" s="39">
         <f t="shared" si="2"/>
@@ -16877,7 +16899,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-17650000</v>
+        <v>-18400000</v>
       </c>
       <c r="J40" s="56">
         <f t="shared" si="4"/>
@@ -16885,7 +16907,7 @@
       </c>
       <c r="K40" s="56">
         <f t="shared" si="5"/>
-        <v>-17650000</v>
+        <v>-18400000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -16910,7 +16932,7 @@
       </c>
       <c r="G41" s="39">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H41" s="39">
         <f t="shared" si="2"/>
@@ -16918,7 +16940,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1056000000</v>
+        <v>1101000000</v>
       </c>
       <c r="J41" s="56">
         <f t="shared" si="4"/>
@@ -16926,7 +16948,7 @@
       </c>
       <c r="K41" s="56">
         <f t="shared" si="5"/>
-        <v>1056000000</v>
+        <v>1101000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -16951,7 +16973,7 @@
       </c>
       <c r="G42" s="39">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H42" s="39">
         <f t="shared" si="2"/>
@@ -16959,7 +16981,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-31220000</v>
+        <v>-32558000</v>
       </c>
       <c r="J42" s="56">
         <f t="shared" si="4"/>
@@ -16967,7 +16989,7 @@
       </c>
       <c r="K42" s="56">
         <f t="shared" si="5"/>
-        <v>-31220000</v>
+        <v>-32558000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -16992,7 +17014,7 @@
       </c>
       <c r="G43" s="39">
         <f t="shared" si="1"/>
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H43" s="39">
         <f t="shared" si="2"/>
@@ -17000,7 +17022,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-69200000</v>
+        <v>-72200000</v>
       </c>
       <c r="J43" s="56">
         <f t="shared" si="4"/>
@@ -17008,7 +17030,7 @@
       </c>
       <c r="K43" s="56">
         <f t="shared" si="5"/>
-        <v>-69200000</v>
+        <v>-72200000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17033,7 +17055,7 @@
       </c>
       <c r="G44" s="39">
         <f t="shared" si="1"/>
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H44" s="39">
         <f t="shared" si="2"/>
@@ -17041,7 +17063,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-68800000</v>
+        <v>-71800000</v>
       </c>
       <c r="J44" s="56">
         <f t="shared" si="4"/>
@@ -17049,7 +17071,7 @@
       </c>
       <c r="K44" s="56">
         <f t="shared" si="5"/>
-        <v>-68800000</v>
+        <v>-71800000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17074,7 +17096,7 @@
       </c>
       <c r="G45" s="39">
         <f t="shared" si="1"/>
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H45" s="39">
         <f t="shared" si="2"/>
@@ -17082,7 +17104,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-192640000</v>
+        <v>-201040000</v>
       </c>
       <c r="J45" s="56">
         <f t="shared" si="4"/>
@@ -17090,7 +17112,7 @@
       </c>
       <c r="K45" s="56">
         <f t="shared" si="5"/>
-        <v>-192640000</v>
+        <v>-201040000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17115,7 +17137,7 @@
       </c>
       <c r="G46" s="39">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H46" s="39">
         <f t="shared" si="2"/>
@@ -17123,7 +17145,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-239870000</v>
+        <v>-250452500</v>
       </c>
       <c r="J46" s="56">
         <f t="shared" si="4"/>
@@ -17131,7 +17153,7 @@
       </c>
       <c r="K46" s="56">
         <f t="shared" si="5"/>
-        <v>-239870000</v>
+        <v>-250452500</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17156,7 +17178,7 @@
       </c>
       <c r="G47" s="39">
         <f t="shared" si="1"/>
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H47" s="39">
         <f t="shared" si="2"/>
@@ -17164,15 +17186,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>13720932</v>
+        <v>14338992</v>
       </c>
       <c r="J47" s="56">
         <f t="shared" si="4"/>
-        <v>2235429</v>
+        <v>2336124</v>
       </c>
       <c r="K47" s="56">
         <f t="shared" si="5"/>
-        <v>11485503</v>
+        <v>12002868</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17197,7 +17219,7 @@
       </c>
       <c r="G48" s="39">
         <f t="shared" si="1"/>
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H48" s="39">
         <f t="shared" si="2"/>
@@ -17205,7 +17227,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>567665100</v>
+        <v>593235600</v>
       </c>
       <c r="J48" s="56">
         <f t="shared" si="4"/>
@@ -17213,7 +17235,7 @@
       </c>
       <c r="K48" s="56">
         <f t="shared" si="5"/>
-        <v>567665100</v>
+        <v>593235600</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17238,7 +17260,7 @@
       </c>
       <c r="G49" s="39">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H49" s="39">
         <f t="shared" si="2"/>
@@ -17246,7 +17268,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-50375000</v>
+        <v>-52700000</v>
       </c>
       <c r="J49" s="56">
         <f t="shared" si="4"/>
@@ -17254,7 +17276,7 @@
       </c>
       <c r="K49" s="56">
         <f t="shared" si="5"/>
-        <v>-50375000</v>
+        <v>-52700000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17279,7 +17301,7 @@
       </c>
       <c r="G50" s="39">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H50" s="39">
         <f t="shared" si="2"/>
@@ -17287,7 +17309,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-44850000</v>
+        <v>-46920000</v>
       </c>
       <c r="J50" s="56">
         <f t="shared" si="4"/>
@@ -17295,7 +17317,7 @@
       </c>
       <c r="K50" s="56">
         <f t="shared" si="5"/>
-        <v>-44850000</v>
+        <v>-46920000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17320,7 +17342,7 @@
       </c>
       <c r="G51" s="39">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H51" s="39">
         <f t="shared" si="2"/>
@@ -17328,7 +17350,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-240500000</v>
+        <v>-251600000</v>
       </c>
       <c r="J51" s="56">
         <f t="shared" si="4"/>
@@ -17336,7 +17358,7 @@
       </c>
       <c r="K51" s="56">
         <f t="shared" si="5"/>
-        <v>-240500000</v>
+        <v>-251600000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17361,7 +17383,7 @@
       </c>
       <c r="G52" s="39">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H52" s="39">
         <f t="shared" si="2"/>
@@ -17369,7 +17391,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-65000000</v>
+        <v>-68000000</v>
       </c>
       <c r="J52" s="56">
         <f t="shared" si="4"/>
@@ -17377,7 +17399,7 @@
       </c>
       <c r="K52" s="56">
         <f t="shared" si="5"/>
-        <v>-65000000</v>
+        <v>-68000000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17402,7 +17424,7 @@
       </c>
       <c r="G53" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H53" s="39">
         <f t="shared" si="2"/>
@@ -17410,7 +17432,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-341820000</v>
+        <v>-357645000</v>
       </c>
       <c r="J53" s="56">
         <f t="shared" si="4"/>
@@ -17418,7 +17440,7 @@
       </c>
       <c r="K53" s="56">
         <f t="shared" si="5"/>
-        <v>-341820000</v>
+        <v>-357645000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17443,7 +17465,7 @@
       </c>
       <c r="G54" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H54" s="39">
         <f t="shared" si="2"/>
@@ -17451,7 +17473,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-64800000</v>
+        <v>-67800000</v>
       </c>
       <c r="J54" s="56">
         <f t="shared" si="4"/>
@@ -17459,7 +17481,7 @@
       </c>
       <c r="K54" s="56">
         <f t="shared" si="5"/>
-        <v>-64800000</v>
+        <v>-67800000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17484,7 +17506,7 @@
       </c>
       <c r="G55" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H55" s="39">
         <f t="shared" si="2"/>
@@ -17492,7 +17514,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-324162000</v>
+        <v>-339169500</v>
       </c>
       <c r="J55" s="56">
         <f t="shared" si="4"/>
@@ -17500,7 +17522,7 @@
       </c>
       <c r="K55" s="56">
         <f t="shared" si="5"/>
-        <v>-324162000</v>
+        <v>-339169500</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17525,7 +17547,7 @@
       </c>
       <c r="G56" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H56" s="39">
         <f t="shared" si="2"/>
@@ -17533,7 +17555,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-12312000</v>
+        <v>-12882000</v>
       </c>
       <c r="J56" s="56">
         <f t="shared" si="4"/>
@@ -17541,7 +17563,7 @@
       </c>
       <c r="K56" s="56">
         <f t="shared" si="5"/>
-        <v>-12312000</v>
+        <v>-12882000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17566,7 +17588,7 @@
       </c>
       <c r="G57" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H57" s="39">
         <f t="shared" si="2"/>
@@ -17574,7 +17596,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-34020000</v>
+        <v>-35595000</v>
       </c>
       <c r="J57" s="56">
         <f t="shared" si="4"/>
@@ -17582,7 +17604,7 @@
       </c>
       <c r="K57" s="56">
         <f t="shared" si="5"/>
-        <v>-34020000</v>
+        <v>-35595000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17607,7 +17629,7 @@
       </c>
       <c r="G58" s="39">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H58" s="39">
         <f t="shared" si="2"/>
@@ -17615,7 +17637,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-19440000</v>
+        <v>-20340000</v>
       </c>
       <c r="J58" s="56">
         <f t="shared" si="4"/>
@@ -17623,7 +17645,7 @@
       </c>
       <c r="K58" s="56">
         <f t="shared" si="5"/>
-        <v>-19440000</v>
+        <v>-20340000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17648,7 +17670,7 @@
       </c>
       <c r="G59" s="39">
         <f t="shared" si="1"/>
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="H59" s="39">
         <f t="shared" si="2"/>
@@ -17656,11 +17678,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>320000000</v>
+        <v>335000000</v>
       </c>
       <c r="J59" s="56">
         <f t="shared" si="4"/>
-        <v>320000000</v>
+        <v>335000000</v>
       </c>
       <c r="K59" s="56">
         <f t="shared" si="5"/>
@@ -17689,7 +17711,7 @@
       </c>
       <c r="G60" s="39">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H60" s="39">
         <f t="shared" si="2"/>
@@ -17697,11 +17719,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1116500000</v>
+        <v>1169000000</v>
       </c>
       <c r="J60" s="56">
         <f t="shared" si="4"/>
-        <v>1116500000</v>
+        <v>1169000000</v>
       </c>
       <c r="K60" s="56">
         <f t="shared" si="5"/>
@@ -17730,7 +17752,7 @@
       </c>
       <c r="G61" s="39">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H61" s="39">
         <f t="shared" si="2"/>
@@ -17738,11 +17760,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>317000000</v>
+        <v>332000000</v>
       </c>
       <c r="J61" s="56">
         <f t="shared" si="4"/>
-        <v>317000000</v>
+        <v>332000000</v>
       </c>
       <c r="K61" s="56">
         <f t="shared" si="5"/>
@@ -17771,7 +17793,7 @@
       </c>
       <c r="G62" s="39">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H62" s="39">
         <f t="shared" si="2"/>
@@ -17779,11 +17801,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>951000000</v>
+        <v>996000000</v>
       </c>
       <c r="J62" s="56">
         <f t="shared" si="4"/>
-        <v>951000000</v>
+        <v>996000000</v>
       </c>
       <c r="K62" s="56">
         <f t="shared" si="5"/>
@@ -17812,7 +17834,7 @@
       </c>
       <c r="G63" s="39">
         <f t="shared" si="1"/>
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H63" s="39">
         <f t="shared" si="2"/>
@@ -17820,7 +17842,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-63200000</v>
+        <v>-66200000</v>
       </c>
       <c r="J63" s="56">
         <f t="shared" si="4"/>
@@ -17828,7 +17850,7 @@
       </c>
       <c r="K63" s="56">
         <f t="shared" si="5"/>
-        <v>-63200000</v>
+        <v>-66200000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -17853,7 +17875,7 @@
       </c>
       <c r="G64" s="39">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H64" s="39">
         <f t="shared" si="2"/>
@@ -17861,7 +17883,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-15550000</v>
+        <v>-16300000</v>
       </c>
       <c r="J64" s="56">
         <f t="shared" si="4"/>
@@ -17869,7 +17891,7 @@
       </c>
       <c r="K64" s="56">
         <f t="shared" si="5"/>
-        <v>-15550000</v>
+        <v>-16300000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -17894,7 +17916,7 @@
       </c>
       <c r="G65" s="39">
         <f t="shared" si="1"/>
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H65" s="39">
         <f t="shared" si="2"/>
@@ -17902,7 +17924,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-61400000</v>
+        <v>-64400000</v>
       </c>
       <c r="J65" s="56">
         <f t="shared" si="4"/>
@@ -17910,7 +17932,7 @@
       </c>
       <c r="K65" s="56">
         <f t="shared" si="5"/>
-        <v>-61400000</v>
+        <v>-64400000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -17935,7 +17957,7 @@
       </c>
       <c r="G66" s="39">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="H66" s="39">
         <f t="shared" si="2"/>
@@ -17943,7 +17965,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-51680000</v>
+        <v>-54230000</v>
       </c>
       <c r="J66" s="56">
         <f t="shared" si="4"/>
@@ -17951,7 +17973,7 @@
       </c>
       <c r="K66" s="56">
         <f t="shared" si="5"/>
-        <v>-51680000</v>
+        <v>-54230000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -17976,23 +17998,23 @@
       </c>
       <c r="G67" s="39">
         <f t="shared" ref="G67:G128" si="7">G68+F67</f>
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H67" s="39">
-        <f t="shared" ref="H67:H123" si="8">IF(B67&gt;0,1,0)</f>
+        <f t="shared" ref="H67:H124" si="8">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>27580150</v>
+        <v>28950025</v>
       </c>
       <c r="J67" s="56">
-        <f t="shared" ref="J67:J123" si="10">C67*(G67-H67)</f>
-        <v>19848346</v>
+        <f t="shared" ref="J67:J124" si="10">C67*(G67-H67)</f>
+        <v>20834191</v>
       </c>
       <c r="K67" s="56">
-        <f t="shared" ref="K67:K123" si="11">D67*(G67-H67)</f>
-        <v>7731804</v>
+        <f t="shared" ref="K67:K124" si="11">D67*(G67-H67)</f>
+        <v>8115834</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18017,7 +18039,7 @@
       </c>
       <c r="G68" s="39">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="H68" s="39">
         <f t="shared" si="8"/>
@@ -18025,7 +18047,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-41325000</v>
+        <v>-43500000</v>
       </c>
       <c r="J68" s="56">
         <f t="shared" si="10"/>
@@ -18033,7 +18055,7 @@
       </c>
       <c r="K68" s="56">
         <f t="shared" si="11"/>
-        <v>-41325000</v>
+        <v>-43500000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18058,7 +18080,7 @@
       </c>
       <c r="G69" s="39">
         <f t="shared" si="7"/>
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H69" s="39">
         <f t="shared" si="8"/>
@@ -18066,7 +18088,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>271460000</v>
+        <v>286160000</v>
       </c>
       <c r="J69" s="56">
         <f t="shared" si="10"/>
@@ -18074,7 +18096,7 @@
       </c>
       <c r="K69" s="56">
         <f t="shared" si="11"/>
-        <v>271460000</v>
+        <v>286160000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18099,7 +18121,7 @@
       </c>
       <c r="G70" s="39">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H70" s="39">
         <f t="shared" si="8"/>
@@ -18107,7 +18129,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-12650000</v>
+        <v>-13340000</v>
       </c>
       <c r="J70" s="56">
         <f t="shared" si="10"/>
@@ -18115,7 +18137,7 @@
       </c>
       <c r="K70" s="56">
         <f t="shared" si="11"/>
-        <v>-12650000</v>
+        <v>-13340000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18140,7 +18162,7 @@
       </c>
       <c r="G71" s="39">
         <f t="shared" si="7"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H71" s="39">
         <f t="shared" si="8"/>
@@ -18148,15 +18170,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>31371936</v>
+        <v>33102006</v>
       </c>
       <c r="J71" s="56">
         <f t="shared" si="10"/>
-        <v>28236864</v>
+        <v>29794044</v>
       </c>
       <c r="K71" s="56">
         <f t="shared" si="11"/>
-        <v>3135072</v>
+        <v>3307962</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18181,7 +18203,7 @@
       </c>
       <c r="G72" s="39">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="H72" s="39">
         <f t="shared" si="8"/>
@@ -18189,7 +18211,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-41335568</v>
+        <v>-43615103</v>
       </c>
       <c r="J72" s="56">
         <f t="shared" si="10"/>
@@ -18197,7 +18219,7 @@
       </c>
       <c r="K72" s="56">
         <f t="shared" si="11"/>
-        <v>-41335568</v>
+        <v>-43615103</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18222,7 +18244,7 @@
       </c>
       <c r="G73" s="39">
         <f t="shared" si="7"/>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="H73" s="39">
         <f t="shared" si="8"/>
@@ -18230,7 +18252,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-218290500</v>
+        <v>-230373000</v>
       </c>
       <c r="J73" s="56">
         <f t="shared" si="10"/>
@@ -18238,7 +18260,7 @@
       </c>
       <c r="K73" s="56">
         <f t="shared" si="11"/>
-        <v>-218290500</v>
+        <v>-230373000</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18263,7 +18285,7 @@
       </c>
       <c r="G74" s="39">
         <f t="shared" si="7"/>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="H74" s="39">
         <f t="shared" si="8"/>
@@ -18271,7 +18293,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>1839685000</v>
+        <v>1944610000</v>
       </c>
       <c r="J74" s="56">
         <f t="shared" si="10"/>
@@ -18279,7 +18301,7 @@
       </c>
       <c r="K74" s="56">
         <f t="shared" si="11"/>
-        <v>1839685000</v>
+        <v>1944610000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18304,7 +18326,7 @@
       </c>
       <c r="G75" s="39">
         <f t="shared" si="7"/>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="H75" s="39">
         <f t="shared" si="8"/>
@@ -18312,7 +18334,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>786000000</v>
+        <v>831000000</v>
       </c>
       <c r="J75" s="56">
         <f t="shared" si="10"/>
@@ -18320,7 +18342,7 @@
       </c>
       <c r="K75" s="56">
         <f t="shared" si="11"/>
-        <v>786000000</v>
+        <v>831000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18345,7 +18367,7 @@
       </c>
       <c r="G76" s="39">
         <f t="shared" si="7"/>
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="H76" s="39">
         <f t="shared" si="8"/>
@@ -18353,7 +18375,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>780000000</v>
+        <v>825000000</v>
       </c>
       <c r="J76" s="56">
         <f t="shared" si="10"/>
@@ -18361,7 +18383,7 @@
       </c>
       <c r="K76" s="56">
         <f t="shared" si="11"/>
-        <v>780000000</v>
+        <v>825000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18386,7 +18408,7 @@
       </c>
       <c r="G77" s="39">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="H77" s="39">
         <f t="shared" si="8"/>
@@ -18394,7 +18416,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>777000000</v>
+        <v>822000000</v>
       </c>
       <c r="J77" s="56">
         <f t="shared" si="10"/>
@@ -18402,7 +18424,7 @@
       </c>
       <c r="K77" s="56">
         <f t="shared" si="11"/>
-        <v>777000000</v>
+        <v>822000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18427,7 +18449,7 @@
       </c>
       <c r="G78" s="39">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H78" s="39">
         <f t="shared" si="8"/>
@@ -18435,11 +18457,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-828800000</v>
+        <v>-876800000</v>
       </c>
       <c r="J78" s="56">
         <f t="shared" si="10"/>
-        <v>-828800000</v>
+        <v>-876800000</v>
       </c>
       <c r="K78" s="56">
         <f t="shared" si="11"/>
@@ -18468,7 +18490,7 @@
       </c>
       <c r="G79" s="39">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="H79" s="39">
         <f t="shared" si="8"/>
@@ -18476,11 +18498,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-206400000</v>
+        <v>-218400000</v>
       </c>
       <c r="J79" s="56">
         <f t="shared" si="10"/>
-        <v>-206400000</v>
+        <v>-218400000</v>
       </c>
       <c r="K79" s="56">
         <f t="shared" si="11"/>
@@ -18509,7 +18531,7 @@
       </c>
       <c r="G80" s="39">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H80" s="39">
         <f t="shared" si="8"/>
@@ -18517,7 +18539,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-12437001</v>
+        <v>-13162896</v>
       </c>
       <c r="J80" s="56">
         <f t="shared" si="10"/>
@@ -18525,7 +18547,7 @@
       </c>
       <c r="K80" s="56">
         <f t="shared" si="11"/>
-        <v>-12437001</v>
+        <v>-13162896</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18550,7 +18572,7 @@
       </c>
       <c r="G81" s="39">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H81" s="39">
         <f t="shared" si="8"/>
@@ -18558,7 +18580,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-35840000</v>
+        <v>-37940000</v>
       </c>
       <c r="J81" s="56">
         <f t="shared" si="10"/>
@@ -18566,7 +18588,7 @@
       </c>
       <c r="K81" s="56">
         <f t="shared" si="11"/>
-        <v>-35840000</v>
+        <v>-37940000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18591,7 +18613,7 @@
       </c>
       <c r="G82" s="39">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H82" s="39">
         <f t="shared" si="8"/>
@@ -18599,7 +18621,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-63750000</v>
+        <v>-67500000</v>
       </c>
       <c r="J82" s="56">
         <f t="shared" si="10"/>
@@ -18607,7 +18629,7 @@
       </c>
       <c r="K82" s="56">
         <f t="shared" si="11"/>
-        <v>-63750000</v>
+        <v>-67500000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18632,7 +18654,7 @@
       </c>
       <c r="G83" s="39">
         <f t="shared" si="7"/>
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="H83" s="39">
         <f t="shared" si="8"/>
@@ -18640,7 +18662,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-50800000</v>
+        <v>-53800000</v>
       </c>
       <c r="J83" s="56">
         <f t="shared" si="10"/>
@@ -18648,7 +18670,7 @@
       </c>
       <c r="K83" s="56">
         <f t="shared" si="11"/>
-        <v>-50800000</v>
+        <v>-53800000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18673,7 +18695,7 @@
       </c>
       <c r="G84" s="39">
         <f t="shared" si="7"/>
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H84" s="39">
         <f t="shared" si="8"/>
@@ -18681,7 +18703,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>408800000</v>
+        <v>433328000</v>
       </c>
       <c r="J84" s="56">
         <f t="shared" si="10"/>
@@ -18689,7 +18711,7 @@
       </c>
       <c r="K84" s="56">
         <f t="shared" si="11"/>
-        <v>408800000</v>
+        <v>433328000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18714,7 +18736,7 @@
       </c>
       <c r="G85" s="39">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H85" s="39">
         <f t="shared" si="8"/>
@@ -18722,7 +18744,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>615000000</v>
+        <v>652500000</v>
       </c>
       <c r="J85" s="56">
         <f t="shared" si="10"/>
@@ -18730,7 +18752,7 @@
       </c>
       <c r="K85" s="56">
         <f t="shared" si="11"/>
-        <v>615000000</v>
+        <v>652500000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18755,7 +18777,7 @@
       </c>
       <c r="G86" s="39">
         <f t="shared" si="7"/>
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H86" s="39">
         <f t="shared" si="8"/>
@@ -18763,15 +18785,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>45084600</v>
+        <v>47879100</v>
       </c>
       <c r="J86" s="56">
         <f t="shared" si="10"/>
-        <v>20557900</v>
+        <v>21832150</v>
       </c>
       <c r="K86" s="56">
         <f t="shared" si="11"/>
-        <v>24526700</v>
+        <v>26046950</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18796,7 +18818,7 @@
       </c>
       <c r="G87" s="39">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H87" s="39">
         <f t="shared" si="8"/>
@@ -18804,7 +18826,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-48000000</v>
+        <v>-51000000</v>
       </c>
       <c r="J87" s="56">
         <f t="shared" si="10"/>
@@ -18812,7 +18834,7 @@
       </c>
       <c r="K87" s="56">
         <f t="shared" si="11"/>
-        <v>-48000000</v>
+        <v>-51000000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18837,7 +18859,7 @@
       </c>
       <c r="G88" s="39">
         <f t="shared" si="7"/>
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H88" s="39">
         <f t="shared" si="8"/>
@@ -18845,15 +18867,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-28202000</v>
+        <v>-29972000</v>
       </c>
       <c r="J88" s="56">
         <f t="shared" si="10"/>
-        <v>-16491000</v>
+        <v>-17526000</v>
       </c>
       <c r="K88" s="56">
         <f t="shared" si="11"/>
-        <v>-11711000</v>
+        <v>-12446000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -18878,7 +18900,7 @@
       </c>
       <c r="G89" s="39">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H89" s="39">
         <f t="shared" si="8"/>
@@ -18886,7 +18908,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-739407900</v>
+        <v>-787421400</v>
       </c>
       <c r="J89" s="56">
         <f t="shared" si="10"/>
@@ -18894,7 +18916,7 @@
       </c>
       <c r="K89" s="56">
         <f t="shared" si="11"/>
-        <v>-739407900</v>
+        <v>-787421400</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -18919,7 +18941,7 @@
       </c>
       <c r="G90" s="39">
         <f t="shared" si="7"/>
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H90" s="39">
         <f t="shared" si="8"/>
@@ -18927,7 +18949,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-736207000</v>
+        <v>-784220500</v>
       </c>
       <c r="J90" s="56">
         <f t="shared" si="10"/>
@@ -18935,7 +18957,7 @@
       </c>
       <c r="K90" s="56">
         <f t="shared" si="11"/>
-        <v>-736207000</v>
+        <v>-784220500</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -18960,7 +18982,7 @@
       </c>
       <c r="G91" s="39">
         <f t="shared" si="7"/>
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H91" s="39">
         <f t="shared" si="8"/>
@@ -18968,7 +18990,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-733006100</v>
+        <v>-781019600</v>
       </c>
       <c r="J91" s="56">
         <f t="shared" si="10"/>
@@ -18976,7 +18998,7 @@
       </c>
       <c r="K91" s="56">
         <f t="shared" si="11"/>
-        <v>-733006100</v>
+        <v>-781019600</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -19001,7 +19023,7 @@
       </c>
       <c r="G92" s="39">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H92" s="39">
         <f t="shared" si="8"/>
@@ -19009,7 +19031,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-729805200</v>
+        <v>-777818700</v>
       </c>
       <c r="J92" s="56">
         <f t="shared" si="10"/>
@@ -19017,7 +19039,7 @@
       </c>
       <c r="K92" s="56">
         <f t="shared" si="11"/>
-        <v>-729805200</v>
+        <v>-777818700</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19042,7 +19064,7 @@
       </c>
       <c r="G93" s="39">
         <f t="shared" si="7"/>
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H93" s="39">
         <f t="shared" si="8"/>
@@ -19050,7 +19072,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-726604300</v>
+        <v>-774617800</v>
       </c>
       <c r="J93" s="56">
         <f t="shared" si="10"/>
@@ -19058,7 +19080,7 @@
       </c>
       <c r="K93" s="56">
         <f t="shared" si="11"/>
-        <v>-726604300</v>
+        <v>-774617800</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19083,7 +19105,7 @@
       </c>
       <c r="G94" s="39">
         <f t="shared" si="7"/>
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H94" s="39">
         <f t="shared" si="8"/>
@@ -19091,7 +19113,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-723403400</v>
+        <v>-771416900</v>
       </c>
       <c r="J94" s="56">
         <f t="shared" si="10"/>
@@ -19099,7 +19121,7 @@
       </c>
       <c r="K94" s="56">
         <f t="shared" si="11"/>
-        <v>-723403400</v>
+        <v>-771416900</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19124,7 +19146,7 @@
       </c>
       <c r="G95" s="39">
         <f t="shared" si="7"/>
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="H95" s="39">
         <f t="shared" si="8"/>
@@ -19132,7 +19154,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-268037504</v>
+        <v>-285986444</v>
       </c>
       <c r="J95" s="56">
         <f t="shared" si="10"/>
@@ -19140,7 +19162,7 @@
       </c>
       <c r="K95" s="56">
         <f t="shared" si="11"/>
-        <v>-268037504</v>
+        <v>-285986444</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19165,7 +19187,7 @@
       </c>
       <c r="G96" s="39">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H96" s="39">
         <f t="shared" si="8"/>
@@ -19173,7 +19195,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-42800000</v>
+        <v>-45800000</v>
       </c>
       <c r="J96" s="56">
         <f t="shared" si="10"/>
@@ -19181,7 +19203,7 @@
       </c>
       <c r="K96" s="56">
         <f t="shared" si="11"/>
-        <v>-42800000</v>
+        <v>-45800000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19206,7 +19228,7 @@
       </c>
       <c r="G97" s="39">
         <f t="shared" si="7"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H97" s="39">
         <f t="shared" si="8"/>
@@ -19214,15 +19236,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>33826296</v>
+        <v>36219666</v>
       </c>
       <c r="J97" s="56">
         <f t="shared" si="10"/>
-        <v>14612312</v>
+        <v>15646202</v>
       </c>
       <c r="K97" s="56">
         <f t="shared" si="11"/>
-        <v>19213984</v>
+        <v>20573464</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19247,7 +19269,7 @@
       </c>
       <c r="G98" s="39">
         <f t="shared" si="7"/>
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H98" s="39">
         <f t="shared" si="8"/>
@@ -19255,7 +19277,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>23674176</v>
+        <v>25389696</v>
       </c>
       <c r="J98" s="56">
         <f t="shared" si="10"/>
@@ -19263,7 +19285,7 @@
       </c>
       <c r="K98" s="56">
         <f t="shared" si="11"/>
-        <v>23674176</v>
+        <v>25389696</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19288,7 +19310,7 @@
       </c>
       <c r="G99" s="39">
         <f t="shared" si="7"/>
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H99" s="39">
         <f t="shared" si="8"/>
@@ -19296,7 +19318,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-271625000</v>
+        <v>-291500000</v>
       </c>
       <c r="J99" s="56">
         <f t="shared" si="10"/>
@@ -19304,7 +19326,7 @@
       </c>
       <c r="K99" s="56">
         <f t="shared" si="11"/>
-        <v>-271625000</v>
+        <v>-291500000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19329,7 +19351,7 @@
       </c>
       <c r="G100" s="39">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H100" s="39">
         <f t="shared" si="8"/>
@@ -19337,7 +19359,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>263675000</v>
+        <v>283550000</v>
       </c>
       <c r="J100" s="56">
         <f t="shared" si="10"/>
@@ -19345,7 +19367,7 @@
       </c>
       <c r="K100" s="56">
         <f t="shared" si="11"/>
-        <v>263675000</v>
+        <v>283550000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19370,7 +19392,7 @@
       </c>
       <c r="G101" s="39">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H101" s="39">
         <f t="shared" si="8"/>
@@ -19378,11 +19400,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>12165790</v>
+        <v>13168465</v>
       </c>
       <c r="J101" s="56">
         <f t="shared" si="10"/>
-        <v>12165790</v>
+        <v>13168465</v>
       </c>
       <c r="K101" s="56">
         <f t="shared" si="11"/>
@@ -19411,7 +19433,7 @@
       </c>
       <c r="G102" s="39">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H102" s="39">
         <f t="shared" si="8"/>
@@ -19419,7 +19441,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>537000000</v>
+        <v>582000000</v>
       </c>
       <c r="J102" s="56">
         <f t="shared" si="10"/>
@@ -19427,7 +19449,7 @@
       </c>
       <c r="K102" s="56">
         <f t="shared" si="11"/>
-        <v>537000000</v>
+        <v>582000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19452,7 +19474,7 @@
       </c>
       <c r="G103" s="39">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H103" s="39">
         <f t="shared" si="8"/>
@@ -19460,11 +19482,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-173000000</v>
+        <v>-188000000</v>
       </c>
       <c r="J103" s="56">
         <f t="shared" si="10"/>
-        <v>-173000000</v>
+        <v>-188000000</v>
       </c>
       <c r="K103" s="56">
         <f t="shared" si="11"/>
@@ -19493,7 +19515,7 @@
       </c>
       <c r="G104" s="39">
         <f t="shared" si="7"/>
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H104" s="39">
         <f t="shared" si="8"/>
@@ -19501,11 +19523,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>486000000</v>
+        <v>531000000</v>
       </c>
       <c r="J104" s="56">
         <f t="shared" si="10"/>
-        <v>486000000</v>
+        <v>531000000</v>
       </c>
       <c r="K104" s="56">
         <f t="shared" si="11"/>
@@ -19534,7 +19556,7 @@
       </c>
       <c r="G105" s="39">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H105" s="39">
         <f t="shared" si="8"/>
@@ -19542,11 +19564,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>180320000</v>
+        <v>197120000</v>
       </c>
       <c r="J105" s="56">
         <f t="shared" si="10"/>
-        <v>180320000</v>
+        <v>197120000</v>
       </c>
       <c r="K105" s="56">
         <f t="shared" si="11"/>
@@ -19575,7 +19597,7 @@
       </c>
       <c r="G106" s="39">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H106" s="39">
         <f t="shared" si="8"/>
@@ -19583,7 +19605,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-486000000</v>
+        <v>-531000000</v>
       </c>
       <c r="J106" s="56">
         <f t="shared" si="10"/>
@@ -19591,7 +19613,7 @@
       </c>
       <c r="K106" s="56">
         <f t="shared" si="11"/>
-        <v>-486000000</v>
+        <v>-531000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19616,7 +19638,7 @@
       </c>
       <c r="G107" s="39">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H107" s="39">
         <f t="shared" si="8"/>
@@ -19624,15 +19646,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>13755088</v>
+        <v>15112498</v>
       </c>
       <c r="J107" s="56">
         <f t="shared" si="10"/>
-        <v>11417480</v>
+        <v>12544205</v>
       </c>
       <c r="K107" s="56">
         <f t="shared" si="11"/>
-        <v>2337608</v>
+        <v>2568293</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19657,7 +19679,7 @@
       </c>
       <c r="G108" s="39">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="H108" s="39">
         <f t="shared" si="8"/>
@@ -19665,7 +19687,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-256805700</v>
+        <v>-282316200</v>
       </c>
       <c r="J108" s="56">
         <f t="shared" si="10"/>
@@ -19673,7 +19695,7 @@
       </c>
       <c r="K108" s="56">
         <f t="shared" si="11"/>
-        <v>-256805700</v>
+        <v>-282316200</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19698,7 +19720,7 @@
       </c>
       <c r="G109" s="39">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H109" s="39">
         <f t="shared" si="8"/>
@@ -19706,7 +19728,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-147073500</v>
+        <v>-162081000</v>
       </c>
       <c r="J109" s="56">
         <f t="shared" si="10"/>
@@ -19714,7 +19736,7 @@
       </c>
       <c r="K109" s="56">
         <f t="shared" si="11"/>
-        <v>-147073500</v>
+        <v>-162081000</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19739,7 +19761,7 @@
       </c>
       <c r="G110" s="39">
         <f t="shared" si="7"/>
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H110" s="39">
         <f t="shared" si="8"/>
@@ -19747,7 +19769,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>2860000000</v>
+        <v>3160000000</v>
       </c>
       <c r="J110" s="56">
         <f t="shared" si="10"/>
@@ -19755,7 +19777,7 @@
       </c>
       <c r="K110" s="56">
         <f t="shared" si="11"/>
-        <v>2860000000</v>
+        <v>3160000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19780,7 +19802,7 @@
       </c>
       <c r="G111" s="39">
         <f t="shared" si="7"/>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H111" s="39">
         <f t="shared" si="8"/>
@@ -19788,15 +19810,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>21485394</v>
+        <v>24105564</v>
       </c>
       <c r="J111" s="56">
         <f t="shared" si="10"/>
-        <v>10745649</v>
+        <v>12056094</v>
       </c>
       <c r="K111" s="56">
         <f t="shared" si="11"/>
-        <v>10739745</v>
+        <v>12049470</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19821,7 +19843,7 @@
       </c>
       <c r="G112" s="39">
         <f t="shared" si="7"/>
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H112" s="39">
         <f t="shared" si="8"/>
@@ -19829,7 +19851,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-3067200000</v>
+        <v>-3493200000</v>
       </c>
       <c r="J112" s="56">
         <f t="shared" si="10"/>
@@ -19837,7 +19859,7 @@
       </c>
       <c r="K112" s="56">
         <f t="shared" si="11"/>
-        <v>-3067200000</v>
+        <v>-3493200000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -19862,7 +19884,7 @@
       </c>
       <c r="G113" s="39">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="H113" s="39">
         <f t="shared" si="8"/>
@@ -19870,15 +19892,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>14999680</v>
+        <v>17445280</v>
       </c>
       <c r="J113" s="56">
         <f t="shared" si="10"/>
-        <v>11271012</v>
+        <v>13108677</v>
       </c>
       <c r="K113" s="56">
         <f t="shared" si="11"/>
-        <v>3728668</v>
+        <v>4336603</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -19903,7 +19925,7 @@
       </c>
       <c r="G114" s="39">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="H114" s="39">
         <f t="shared" si="8"/>
@@ -19911,15 +19933,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-530100</v>
+        <v>-615600</v>
       </c>
       <c r="J114" s="56">
         <f t="shared" si="10"/>
-        <v>-232500</v>
+        <v>-270000</v>
       </c>
       <c r="K114" s="56">
         <f t="shared" si="11"/>
-        <v>-297600</v>
+        <v>-345600</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -19944,7 +19966,7 @@
       </c>
       <c r="G115" s="39">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H115" s="39">
         <f t="shared" si="8"/>
@@ -19956,11 +19978,11 @@
       </c>
       <c r="J115" s="56">
         <f t="shared" si="10"/>
-        <v>40000000</v>
+        <v>47500000</v>
       </c>
       <c r="K115" s="56">
         <f t="shared" si="11"/>
-        <v>-40000000</v>
+        <v>-47500000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -19985,7 +20007,7 @@
       </c>
       <c r="G116" s="39">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H116" s="39">
         <f t="shared" si="8"/>
@@ -19993,7 +20015,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-11520000</v>
+        <v>-13920000</v>
       </c>
       <c r="J116" s="56">
         <f t="shared" si="10"/>
@@ -20001,7 +20023,7 @@
       </c>
       <c r="K116" s="56">
         <f t="shared" si="11"/>
-        <v>-11520000</v>
+        <v>-13920000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20026,7 +20048,7 @@
       </c>
       <c r="G117" s="39">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H117" s="39">
         <f t="shared" si="8"/>
@@ -20034,15 +20056,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>91760</v>
+        <v>113960</v>
       </c>
       <c r="J117" s="56">
         <f t="shared" si="10"/>
-        <v>6630342</v>
+        <v>8234457</v>
       </c>
       <c r="K117" s="56">
         <f t="shared" si="11"/>
-        <v>-6538582</v>
+        <v>-8120497</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20068,7 +20090,7 @@
       </c>
       <c r="G118" s="39">
         <f t="shared" si="7"/>
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H118" s="39">
         <f t="shared" si="8"/>
@@ -20076,7 +20098,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>1575980000</v>
+        <v>2166972500</v>
       </c>
       <c r="J118" s="56">
         <f t="shared" si="10"/>
@@ -20084,7 +20106,7 @@
       </c>
       <c r="K118" s="56">
         <f t="shared" si="11"/>
-        <v>1575980000</v>
+        <v>2166972500</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20110,7 +20132,7 @@
       </c>
       <c r="G119" s="39">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H119" s="39">
         <f t="shared" si="8"/>
@@ -20118,15 +20140,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>2961151</v>
+        <v>4393966</v>
       </c>
       <c r="J119" s="56">
         <f t="shared" si="10"/>
-        <v>3411674</v>
+        <v>5062484</v>
       </c>
       <c r="K119" s="56">
         <f t="shared" si="11"/>
-        <v>-450523</v>
+        <v>-668518</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20151,7 +20173,7 @@
       </c>
       <c r="G120" s="39">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
@@ -20159,7 +20181,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" ref="I120:I126" si="13">B120*(G120-H120)</f>
-        <v>54000000</v>
+        <v>84000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20167,7 +20189,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>54000000</v>
+        <v>84000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20193,7 +20215,7 @@
       </c>
       <c r="G121" s="39">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20201,7 +20223,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>2600000</v>
+        <v>41600000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20209,7 +20231,7 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>2600000</v>
+        <v>41600000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -20234,7 +20256,7 @@
       </c>
       <c r="G122" s="39">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20242,15 +20264,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5768265</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1663620</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4104645</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20274,11 +20296,11 @@
         <v>685</v>
       </c>
       <c r="F123" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G123" s="39">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20290,36 +20312,53 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-12000000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
+      <c r="A124" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B124" s="18">
+        <v>-3000000</v>
+      </c>
+      <c r="C124" s="18">
+        <v>0</v>
+      </c>
       <c r="D124" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E124" s="11"/>
+        <v>-3000000</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>705</v>
+      </c>
       <c r="F124" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="39">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H124" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H124" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
+        <v>-3000000</v>
+      </c>
+      <c r="J124" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="11">
+        <f t="shared" si="11"/>
+        <v>-3000000</v>
+      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
@@ -20406,7 +20445,7 @@
       <c r="A129" s="11"/>
       <c r="B129" s="31">
         <f>SUM(B2:B126)</f>
-        <v>44536398</v>
+        <v>41536398</v>
       </c>
       <c r="C129" s="31">
         <f>SUM(C2:C127)</f>
@@ -20414,7 +20453,7 @@
       </c>
       <c r="D129" s="31">
         <f>SUM(D2:D127)</f>
-        <v>31731972</v>
+        <v>28731972</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -20422,15 +20461,15 @@
       <c r="H129" s="11"/>
       <c r="I129" s="31">
         <f>SUM(I2:I126)</f>
-        <v>6957544437</v>
+        <v>7622590407</v>
       </c>
       <c r="J129" s="31">
         <f>SUM(J2:J126)</f>
-        <v>4100566648</v>
+        <v>4292633038</v>
       </c>
       <c r="K129" s="31">
         <f>SUM(K2:K126)</f>
-        <v>2856977789</v>
+        <v>3329957369</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20482,15 +20521,15 @@
       <c r="H132" s="11"/>
       <c r="I132" s="3">
         <f>I129/G2</f>
-        <v>14771856.554140128</v>
+        <v>15684342.401234567</v>
       </c>
       <c r="J132" s="31">
         <f>J129/G2</f>
-        <v>8706086.3014861997</v>
+        <v>8832578.2674897127</v>
       </c>
       <c r="K132" s="31">
         <f>K129/G2</f>
-        <v>6065770.2526539275</v>
+        <v>6851764.1337448563</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20515,11 +20554,11 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J136">
         <f>J129/I129*1448696</f>
-        <v>853817.68732941954</v>
+        <v>815827.68843353493</v>
       </c>
       <c r="K136">
         <f>K129/I129*1448696</f>
-        <v>594878.31267058046</v>
+        <v>632868.31156646507</v>
       </c>
     </row>
   </sheetData>
@@ -25390,7 +25429,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27418,11 +27457,11 @@
         <v>697</v>
       </c>
       <c r="D64" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" ref="E64:E71" si="6">D64+E69</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="5"/>
@@ -27430,17 +27469,25 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="4"/>
-        <v>-87000</v>
+        <v>-348000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B65" s="41">
+        <v>-27470</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
       <c r="E65" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="5"/>
@@ -27448,7 +27495,7 @@
       </c>
       <c r="G65" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-27470</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -27571,7 +27618,7 @@
       <c r="A72" s="11"/>
       <c r="B72" s="31">
         <f>SUM(B2:B70)</f>
-        <v>1807747</v>
+        <v>1780277</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -27579,7 +27626,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="31">
         <f>SUM(G2:G71)</f>
-        <v>14419377232</v>
+        <v>14419088762</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -27613,7 +27660,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="3">
         <f>G72/E2</f>
-        <v>58615354.601626016</v>
+        <v>58614181.959349595</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -31368,8 +31415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="M34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31613,11 +31660,11 @@
       </c>
       <c r="F7" s="73">
         <f>K23</f>
-        <v>168778473.02739727</v>
+        <v>165751003.02739727</v>
       </c>
       <c r="G7" s="31">
         <f t="shared" si="0"/>
-        <v>9390605.9135027528</v>
+        <v>12418075.913502753</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="62" t="s">
@@ -31777,14 +31824,14 @@
       </c>
       <c r="K11" s="46">
         <f>سارا!D129</f>
-        <v>31731972</v>
+        <v>28731972</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>31731972</v>
+        <v>28731972</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -31814,14 +31861,14 @@
       </c>
       <c r="K12" s="46">
         <f>'مسکن مریم یاران'!B72</f>
-        <v>1807747</v>
+        <v>1780277</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>1807747</v>
+        <v>1780277</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -32336,7 +32383,7 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>168778473.02739727</v>
+        <v>165751003.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
@@ -32344,7 +32391,7 @@
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>112411011.34246576</v>
+        <v>109383541.34246576</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="11" t="s">
@@ -32388,7 +32435,7 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>95854747</v>
+        <v>92827277</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
@@ -32396,7 +32443,7 @@
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>79736436</v>
+        <v>76708966</v>
       </c>
       <c r="N24" s="27"/>
       <c r="O24" s="11"/>
@@ -33085,6 +33132,15 @@
       </c>
       <c r="Q42" s="1">
         <v>50000</v>
+      </c>
+      <c r="S42">
+        <v>3000000</v>
+      </c>
+      <c r="T42" s="75" t="s">
+        <v>703</v>
+      </c>
+      <c r="U42" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="711">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2160,6 +2160,15 @@
   </si>
   <si>
     <t>کسری امتیاز</t>
+  </si>
+  <si>
+    <t>17/5/1396</t>
+  </si>
+  <si>
+    <t>علی 200 از عابر بانک و 134 گوشت</t>
+  </si>
+  <si>
+    <t>تاریخ 17 مرداد 200 عابر و 134 گوشت</t>
   </si>
 </sst>
 </file>
@@ -2851,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,9 +3978,11 @@
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="43">
-        <v>0</v>
-      </c>
-      <c r="E36" s="42"/>
+        <v>334000</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
@@ -4002,7 +4013,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>8712572</v>
+        <v>9046572</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -25431,8 +25442,8 @@
   <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27502,13 +27513,21 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B66" s="39">
+        <v>-334000</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="D66" s="11">
+        <v>1</v>
+      </c>
       <c r="E66" s="11">
         <f t="shared" ref="E66:E89" si="6">D66+E89</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="5"/>
@@ -27516,7 +27535,7 @@
       </c>
       <c r="G66" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-334000</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -27951,7 +27970,7 @@
       <c r="A90" s="11"/>
       <c r="B90" s="29">
         <f>SUM(B2:B89)</f>
-        <v>1780277</v>
+        <v>1446277</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -27959,7 +27978,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="29">
         <f>SUM(G2:G89)</f>
-        <v>14419088762</v>
+        <v>14418754762</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -27993,7 +28012,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="3">
         <f>G90/E2</f>
-        <v>58614181.959349595</v>
+        <v>58612824.235772356</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -31748,8 +31767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31993,11 +32012,11 @@
       </c>
       <c r="F7" s="71">
         <f>K23</f>
-        <v>165710003.02739727</v>
+        <v>165427003.02739727</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>12459075.913502753</v>
+        <v>12742075.913502753</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="60" t="s">
@@ -32194,14 +32213,14 @@
       </c>
       <c r="K12" s="44">
         <f>'مسکن مریم یاران'!B90</f>
-        <v>1780277</v>
+        <v>1446277</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>1780277</v>
+        <v>1446277</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -32315,11 +32334,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-8700000</v>
+        <v>-9050000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>8700000</v>
+        <v>9050000</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="11"/>
@@ -32363,11 +32382,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="44">
-        <v>134000</v>
+        <v>185000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>134000</v>
+        <v>185000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32716,15 +32735,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>165710003.02739727</v>
+        <v>165427003.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>56326461.684931509</v>
+        <v>56027461.684931509</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>109383541.34246576</v>
+        <v>109399541.34246576</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="11" t="s">
@@ -32768,15 +32787,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>92786277</v>
+        <v>92503277</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>16077311</v>
+        <v>16128311</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>76708966</v>
+        <v>76374966</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="11"/>
@@ -34970,7 +34989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+    <sheetView topLeftCell="F25" workbookViewId="0">
       <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
@@ -35815,7 +35834,7 @@
         <v>107</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" ref="S51:S58" si="7">Q52*R52</f>
+        <f t="shared" ref="S52:S58" si="7">Q52*R52</f>
         <v>588500000</v>
       </c>
       <c r="U52" s="7">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="718">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2105,9 +2105,6 @@
     <t>8/5/1396</t>
   </si>
   <si>
-    <t>طلب علی(500 خانه، 500 علیرضا)</t>
-  </si>
-  <si>
     <t>تاریخ 12 مرداد از کارت مسکن یاران گرفتم</t>
   </si>
   <si>
@@ -2169,6 +2166,30 @@
   </si>
   <si>
     <t>تاریخ 17 مرداد 200 عابر و 134 گوشت</t>
+  </si>
+  <si>
+    <t>23/5/1396</t>
+  </si>
+  <si>
+    <t>22/5/1396</t>
+  </si>
+  <si>
+    <t>کرم ضد آفتاب مریم</t>
+  </si>
+  <si>
+    <t>پول روغن حیوانی</t>
+  </si>
+  <si>
+    <t>علی دستی از عابربانک</t>
+  </si>
+  <si>
+    <t>تاریخ 23/5 300 روغن و100 نقدی</t>
+  </si>
+  <si>
+    <t>طلب علی(500 خانه، 500 علیرضا، 100 داود)</t>
+  </si>
+  <si>
+    <t>15/5/1396</t>
   </si>
 </sst>
 </file>
@@ -2860,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,7 +3067,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B5" s="18">
         <v>-3000000</v>
@@ -3059,7 +3080,7 @@
         <v>-3000000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -3965,7 +3986,7 @@
         <v>200000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -3973,7 +3994,7 @@
         <v>27470</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -3981,14 +4002,16 @@
         <v>334000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="42"/>
+        <v>400000</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" s="7">
@@ -4013,7 +4036,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>9046572</v>
+        <v>9446572</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -20335,7 +20358,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B124" s="18">
         <v>-3000000</v>
@@ -20348,7 +20371,7 @@
         <v>-3000000</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F124" s="11">
         <v>15</v>
@@ -25443,7 +25466,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27436,7 +27459,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B63" s="39">
         <v>-200000</v>
@@ -27468,7 +27491,7 @@
         <v>-87000</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D64" s="11">
         <v>4</v>
@@ -27488,13 +27511,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B65" s="39">
         <v>-27470</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
@@ -27514,20 +27537,20 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B66" s="39">
         <v>-334000</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D66" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" ref="E66:E89" si="6">D66+E89</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="5"/>
@@ -27535,17 +27558,25 @@
       </c>
       <c r="G66" s="11">
         <f t="shared" si="4"/>
-        <v>-334000</v>
+        <v>-1670000</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B67" s="39">
+        <v>-20000</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="D67" s="11">
+        <v>1</v>
+      </c>
       <c r="E67" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="5"/>
@@ -27553,14 +27584,22 @@
       </c>
       <c r="G67" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B68" s="39">
+        <v>-300500</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0</v>
+      </c>
       <c r="E68" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -27575,13 +27614,21 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="A69" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B69" s="39">
+        <v>-100000</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
       <c r="E69" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
@@ -27589,7 +27636,7 @@
       </c>
       <c r="G69" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -27970,7 +28017,7 @@
       <c r="A90" s="11"/>
       <c r="B90" s="29">
         <f>SUM(B2:B89)</f>
-        <v>1446277</v>
+        <v>1025777</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -27978,7 +28025,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="29">
         <f>SUM(G2:G89)</f>
-        <v>14418754762</v>
+        <v>14417298762</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -28012,7 +28059,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="3">
         <f>G90/E2</f>
-        <v>58612824.235772356</v>
+        <v>58606905.536585368</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -28048,7 +28095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31523,7 +31570,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B140" s="3">
         <v>-3000900</v>
@@ -31544,12 +31591,12 @@
         <v>-48014400</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="B141" s="3">
         <v>-3000900</v>
@@ -31570,7 +31617,7 @@
         <v>-45013500</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K141" t="s">
         <v>25</v>
@@ -31768,7 +31815,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32012,11 +32059,11 @@
       </c>
       <c r="F7" s="71">
         <f>K23</f>
-        <v>165427003.02739727</v>
+        <v>164991503.02739727</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>12742075.913502753</v>
+        <v>13177575.913502753</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="60" t="s">
@@ -32213,14 +32260,14 @@
       </c>
       <c r="K12" s="44">
         <f>'مسکن مریم یاران'!B90</f>
-        <v>1446277</v>
+        <v>1025777</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>1446277</v>
+        <v>1025777</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -32283,13 +32330,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="K14" s="44">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="L14" s="3">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="5"/>
@@ -32334,11 +32381,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-9050000</v>
+        <v>-9450000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>9050000</v>
+        <v>9450000</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="11"/>
@@ -32382,11 +32429,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="44">
-        <v>185000</v>
+        <v>70000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>185000</v>
+        <v>70000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32735,15 +32782,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>165427003.02739727</v>
+        <v>164991503.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>56027461.684931509</v>
+        <v>55612461.684931509</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>109399541.34246576</v>
+        <v>109379041.34246576</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="11" t="s">
@@ -32787,15 +32834,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>92503277</v>
+        <v>91967777</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>16128311</v>
+        <v>16013311</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>76374966</v>
+        <v>75954466</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="11"/>
@@ -33489,10 +33536,10 @@
         <v>3000000</v>
       </c>
       <c r="T42" s="73" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -35613,7 +35660,7 @@
         <v>684</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="37" spans="6:23" x14ac:dyDescent="0.25">
@@ -35622,13 +35669,13 @@
         <v>3000</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I37" s="11">
         <v>218000</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="6:23" x14ac:dyDescent="0.25">
@@ -35661,10 +35708,10 @@
         <v>659</v>
       </c>
       <c r="S40" t="s">
+        <v>703</v>
+      </c>
+      <c r="T40" t="s">
         <v>704</v>
-      </c>
-      <c r="T40" t="s">
-        <v>705</v>
       </c>
       <c r="U40" t="s">
         <v>660</v>
@@ -35686,7 +35733,7 @@
         <v>594</v>
       </c>
       <c r="M41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N41" t="s">
         <v>663</v>
@@ -35731,7 +35778,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="M42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N42" t="s">
         <v>664</v>
@@ -35809,7 +35856,7 @@
         <v>282</v>
       </c>
       <c r="U50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="15:21" x14ac:dyDescent="0.25">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -2186,10 +2186,10 @@
     <t>تاریخ 23/5 300 روغن و100 نقدی</t>
   </si>
   <si>
-    <t>طلب علی(500 خانه، 500 علیرضا، 100 داود)</t>
-  </si>
-  <si>
     <t>15/5/1396</t>
+  </si>
+  <si>
+    <t>طلب علی(500 خانه، 500 علیرضا،)</t>
   </si>
 </sst>
 </file>
@@ -15289,7 +15289,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
@@ -25465,7 +25465,7 @@
   <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -28094,7 +28094,7 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
@@ -31596,7 +31596,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B141" s="3">
         <v>-3000900</v>
@@ -31815,7 +31815,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32059,11 +32059,11 @@
       </c>
       <c r="F7" s="71">
         <f>K23</f>
-        <v>164991503.02739727</v>
+        <v>165064503.02739727</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>13177575.913502753</v>
+        <v>13104575.913502753</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="60" t="s">
@@ -32330,13 +32330,13 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="J14" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K14" s="44">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="L14" s="3">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="5"/>
@@ -32429,11 +32429,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="44">
-        <v>70000</v>
+        <v>243000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>70000</v>
+        <v>243000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>164991503.02739727</v>
+        <v>165064503.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>55612461.684931509</v>
+        <v>55685461.684931509</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -32834,11 +32834,11 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>91967777</v>
+        <v>92140777</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>16013311</v>
+        <v>16186311</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
@@ -33240,7 +33240,7 @@
         <v>300000</v>
       </c>
       <c r="S34" s="57">
-        <v>740000</v>
+        <v>705000</v>
       </c>
       <c r="T34" s="58" t="s">
         <v>490</v>
@@ -33430,7 +33430,7 @@
       </c>
       <c r="S39" s="48">
         <f>SUM(S34:S38)</f>
-        <v>1900000</v>
+        <v>1865000</v>
       </c>
       <c r="T39" s="49" t="s">
         <v>6</v>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="719">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2190,6 +2190,9 @@
   </si>
   <si>
     <t>طلب علی(500 خانه، 500 علیرضا،)</t>
+  </si>
+  <si>
+    <t>28/5/1396</t>
   </si>
 </sst>
 </file>
@@ -25464,9 +25467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27624,11 +27627,11 @@
         <v>714</v>
       </c>
       <c r="D69" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
@@ -27636,17 +27639,25 @@
       </c>
       <c r="G69" s="11">
         <f t="shared" si="4"/>
-        <v>-100000</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B70" s="39">
+        <v>-200000</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
       <c r="E70" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
@@ -27654,7 +27665,7 @@
       </c>
       <c r="G70" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-200000</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -28017,7 +28028,7 @@
       <c r="A90" s="11"/>
       <c r="B90" s="29">
         <f>SUM(B2:B89)</f>
-        <v>1025777</v>
+        <v>825777</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -28025,7 +28036,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="29">
         <f>SUM(G2:G89)</f>
-        <v>14417298762</v>
+        <v>14416698762</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -28059,7 +28070,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="3">
         <f>G90/E2</f>
-        <v>58606905.536585368</v>
+        <v>58604466.512195125</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -31814,8 +31825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32059,11 +32070,11 @@
       </c>
       <c r="F7" s="71">
         <f>K23</f>
-        <v>165064503.02739727</v>
+        <v>164901503.02739727</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>13104575.913502753</v>
+        <v>13267575.913502753</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="60" t="s">
@@ -32260,14 +32271,14 @@
       </c>
       <c r="K12" s="44">
         <f>'مسکن مریم یاران'!B90</f>
-        <v>1025777</v>
+        <v>825777</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>1025777</v>
+        <v>825777</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -32381,11 +32392,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>-9450000</v>
+        <v>-9650000</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>9450000</v>
+        <v>9650000</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="11"/>
@@ -32429,11 +32440,11 @@
         <v>468</v>
       </c>
       <c r="K16" s="44">
-        <v>243000</v>
+        <v>280000</v>
       </c>
       <c r="L16" s="3">
         <f>K16</f>
-        <v>243000</v>
+        <v>280000</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -32782,11 +32793,11 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>165064503.02739727</v>
+        <v>164901503.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>55685461.684931509</v>
+        <v>55522461.684931509</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
@@ -32834,15 +32845,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>92140777</v>
+        <v>91977777</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>16186311</v>
+        <v>16223311</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>75954466</v>
+        <v>75754466</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="11"/>

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="مرداد 96" sheetId="24" r:id="rId1"/>
+    <sheet name="شهریور 96" sheetId="25" r:id="rId1"/>
     <sheet name="سارا" sheetId="20" r:id="rId2"/>
     <sheet name="مسکن مریم یاران" sheetId="13" r:id="rId3"/>
     <sheet name="مسکن ایلیا" sheetId="15" r:id="rId4"/>
@@ -30,13 +30,14 @@
     <sheet name="اردیبهشت 96" sheetId="21" r:id="rId21"/>
     <sheet name="خرداد 96" sheetId="22" r:id="rId22"/>
     <sheet name="تیر 96" sheetId="23" r:id="rId23"/>
+    <sheet name="مرداد 96" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="723">
   <si>
     <t>18/1/95</t>
   </si>
@@ -2193,6 +2194,18 @@
   </si>
   <si>
     <t>28/5/1396</t>
+  </si>
+  <si>
+    <t>سود تیرماه</t>
+  </si>
+  <si>
+    <t>سود مرداد</t>
+  </si>
+  <si>
+    <t>تاریخ 28/5 از عابربانک</t>
+  </si>
+  <si>
+    <t>213 تا آخر شهریور</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2549,6 +2562,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2885,7 +2901,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,16 +2961,16 @@
         <v>647</v>
       </c>
       <c r="B2" s="3">
-        <f>'تیر 96'!B24</f>
-        <v>44151848</v>
+        <f>'مرداد 96'!B24</f>
+        <v>41536399</v>
       </c>
       <c r="C2" s="1">
-        <f>'تیر 96'!C24</f>
-        <v>11893518</v>
+        <f>'مرداد 96'!C24</f>
+        <v>12804426</v>
       </c>
       <c r="D2" s="3">
         <f>B2-C2</f>
-        <v>32258330</v>
+        <v>28731973</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>59</v>
@@ -2964,15 +2980,15 @@
       </c>
       <c r="G2">
         <f>B2*F2</f>
-        <v>1368707288</v>
+        <v>1287628369</v>
       </c>
       <c r="H2">
         <f>C2*F2</f>
-        <v>368699058</v>
+        <v>396937206</v>
       </c>
       <c r="I2">
         <f>D2*F2</f>
-        <v>1000008230</v>
+        <v>890691163</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2989,32 +3005,32 @@
         <v>653</v>
       </c>
       <c r="B3" s="40">
-        <v>384551</v>
+        <v>400710</v>
       </c>
       <c r="C3" s="40">
-        <v>110908</v>
+        <v>118875</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D22" si="0">B3-C3</f>
-        <v>273643</v>
+        <v>281835</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>654</v>
+        <v>720</v>
       </c>
       <c r="F3">
         <v>30</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G23" si="1">B3*F3</f>
-        <v>11536530</v>
+        <v>12021300</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H23" si="2">C3*F3</f>
-        <v>3327240</v>
+        <v>3566250</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I23" si="3">D3*F3</f>
-        <v>8209290</v>
+        <v>8455050</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -3034,15 +3050,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>-800000</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4">
         <v>29</v>
       </c>
@@ -3052,11 +3066,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>23200000</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>-23200000</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -3073,24 +3087,22 @@
         <v>697</v>
       </c>
       <c r="B5" s="18">
-        <v>-3000000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>-3000000</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5">
         <v>16</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-48000000</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -3098,7 +3110,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>-48000000</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -3794,15 +3806,15 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>41536399</v>
+        <v>41937109</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
-        <v>12804426</v>
+        <v>12923301</v>
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>28731973</v>
+        <v>29013808</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3818,15 +3830,15 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1332243818</v>
+        <v>1299649669</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
-        <v>395226298</v>
+        <v>400503456</v>
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>937017520</v>
+        <v>899146213</v>
       </c>
       <c r="O25">
         <v>24</v>
@@ -3900,21 +3912,21 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D30" s="43">
-        <v>8478102</v>
+        <v>9646572</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>95</v>
       </c>
       <c r="G30" s="18">
-        <v>384551</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>114081.72143021195</v>
+        <v>308.16262686248564</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>270469.27856978803</v>
+        <v>691.83737313751431</v>
       </c>
       <c r="O30">
         <v>29</v>
@@ -3928,11 +3940,9 @@
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="43">
-        <v>-65000</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E31" s="55"/>
       <c r="G31" s="9" t="s">
         <v>415</v>
       </c>
@@ -3955,11 +3965,9 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="D32" s="43">
-        <v>-28000</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="42"/>
       <c r="O32">
         <v>31</v>
       </c>
@@ -3972,11 +3980,9 @@
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" s="43">
-        <v>100000</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" s="42"/>
       <c r="P33" t="s">
         <v>60</v>
       </c>
@@ -3986,35 +3992,27 @@
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" s="43">
-        <v>200000</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" s="43">
-        <v>27470</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>696</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" s="43">
-        <v>334000</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" s="7">
-        <v>400000</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" s="7">
@@ -4039,7 +4037,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>9446572</v>
+        <v>9646572</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15293,7 +15291,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18041,7 +18039,7 @@
         <v>332</v>
       </c>
       <c r="H67" s="37">
-        <f t="shared" ref="H67:H124" si="8">IF(B67&gt;0,1,0)</f>
+        <f t="shared" ref="H67:H125" si="8">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67" s="11">
@@ -18049,11 +18047,11 @@
         <v>30228575</v>
       </c>
       <c r="J67" s="54">
-        <f t="shared" ref="J67:J124" si="10">C67*(G67-H67)</f>
+        <f t="shared" ref="J67:J125" si="10">C67*(G67-H67)</f>
         <v>21754313</v>
       </c>
       <c r="K67" s="54">
-        <f t="shared" ref="K67:K124" si="11">D67*(G67-H67)</f>
+        <f t="shared" ref="K67:K125" si="11">D67*(G67-H67)</f>
         <v>8474262</v>
       </c>
     </row>
@@ -20401,14 +20399,22 @@
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
+      <c r="A125" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B125" s="18">
+        <v>400710</v>
+      </c>
+      <c r="C125" s="18">
+        <v>118875</v>
+      </c>
       <c r="D125" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E125" s="11"/>
+        <v>281835</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>719</v>
+      </c>
       <c r="F125" s="11">
         <v>0</v>
       </c>
@@ -20416,13 +20422,22 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H125" s="11"/>
+      <c r="H125" s="11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
+        <v>-400710</v>
+      </c>
+      <c r="J125" s="11">
+        <f t="shared" si="10"/>
+        <v>-118875</v>
+      </c>
+      <c r="K125" s="11">
+        <f t="shared" si="11"/>
+        <v>-281835</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
@@ -20485,15 +20500,15 @@
       <c r="A129" s="11"/>
       <c r="B129" s="29">
         <f>SUM(B2:B126)</f>
-        <v>41536398</v>
+        <v>41937108</v>
       </c>
       <c r="C129" s="29">
         <f>SUM(C2:C127)</f>
-        <v>12804426</v>
+        <v>12923301</v>
       </c>
       <c r="D129" s="29">
         <f>SUM(D2:D127)</f>
-        <v>28731972</v>
+        <v>29013807</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -20501,15 +20516,15 @@
       <c r="H129" s="11"/>
       <c r="I129" s="29">
         <f>SUM(I2:I126)</f>
-        <v>8204099979</v>
+        <v>8203699269</v>
       </c>
       <c r="J129" s="29">
         <f>SUM(J2:J126)</f>
-        <v>4471895002</v>
+        <v>4471776127</v>
       </c>
       <c r="K129" s="29">
         <f>SUM(K2:K126)</f>
-        <v>3732204977</v>
+        <v>3731923142</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -20561,15 +20576,15 @@
       <c r="H132" s="11"/>
       <c r="I132" s="3">
         <f>I129/G2</f>
-        <v>16408199.958000001</v>
+        <v>16407398.538000001</v>
       </c>
       <c r="J132" s="29">
         <f>J129/G2</f>
-        <v>8943790.0040000007</v>
+        <v>8943552.2540000007</v>
       </c>
       <c r="K132" s="29">
         <f>K129/G2</f>
-        <v>7464409.9539999999</v>
+        <v>7463846.284</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -20594,11 +20609,11 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J136">
         <f>J129/I129*1448696</f>
-        <v>789655.95475435047</v>
+        <v>789673.53332420066</v>
       </c>
       <c r="K136">
         <f>K129/I129*1448696</f>
-        <v>659040.04524564953</v>
+        <v>659022.46667579934</v>
       </c>
     </row>
   </sheetData>
@@ -25463,13 +25478,1193 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="3">
+        <f>'تیر 96'!B24</f>
+        <v>44151848</v>
+      </c>
+      <c r="C2" s="1">
+        <f>'تیر 96'!C24</f>
+        <v>11893518</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2-C2</f>
+        <v>32258330</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <f>B2*F2</f>
+        <v>1368707288</v>
+      </c>
+      <c r="H2">
+        <f>C2*F2</f>
+        <v>368699058</v>
+      </c>
+      <c r="I2">
+        <f>D2*F2</f>
+        <v>1000008230</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" s="40">
+        <v>384551</v>
+      </c>
+      <c r="C3" s="40">
+        <v>110908</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D22" si="0">B3-C3</f>
+        <v>273643</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="1">B3*F3</f>
+        <v>11536530</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="2">C3*F3</f>
+        <v>3327240</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I23" si="3">D3*F3</f>
+        <v>8209290</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>800000</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>23200000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>-23200000</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" s="18">
+        <v>-3000000</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>-3000000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-48000000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>-48000000</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>22</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>0</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>B13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>19</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>18</v>
+      </c>
+      <c r="Q14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>0</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>0</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18">
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(B2:B22)</f>
+        <v>41536399</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C2:C22)</f>
+        <v>12804426</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(D2:D22)</f>
+        <v>28731973</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="O24">
+        <v>23</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="18">
+        <f>SUM(G2:G23)</f>
+        <v>1332243818</v>
+      </c>
+      <c r="H25" s="18">
+        <f>SUM(H2:H23)</f>
+        <v>395226298</v>
+      </c>
+      <c r="I25" s="18">
+        <f>SUM(I2:I23)</f>
+        <v>937017520</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28">
+        <v>27</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="42"/>
+      <c r="E29" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="43">
+        <v>8478102</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="18">
+        <v>400710</v>
+      </c>
+      <c r="H30" s="18">
+        <f>G30*H25/G25</f>
+        <v>118875.48490135309</v>
+      </c>
+      <c r="I30" s="18">
+        <f>G30*I25/G25</f>
+        <v>281834.51509864692</v>
+      </c>
+      <c r="O30">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="43">
+        <v>-65000</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="D32" s="43">
+        <v>-28000</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="O32">
+        <v>31</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="43">
+        <v>100000</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="P33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D34" s="43">
+        <v>200000</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35" s="43">
+        <v>27470</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="43">
+        <v>334000</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <v>400000</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D42" s="7">
+        <f>SUM(D30:D39)</f>
+        <v>9646572</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+      <c r="E44" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27653,11 +28848,11 @@
         <v>26</v>
       </c>
       <c r="D70" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
@@ -27665,21 +28860,29 @@
       </c>
       <c r="G70" s="11">
         <f t="shared" si="4"/>
-        <v>-200000</v>
+        <v>-800000</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="A71" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B71" s="39">
+        <v>15389</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
       <c r="E71" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="11">
         <f t="shared" si="4"/>
@@ -28028,7 +29231,7 @@
       <c r="A90" s="11"/>
       <c r="B90" s="29">
         <f>SUM(B2:B89)</f>
-        <v>825777</v>
+        <v>841166</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -28036,7 +29239,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="29">
         <f>SUM(G2:G89)</f>
-        <v>14416698762</v>
+        <v>14416098762</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -28070,7 +29273,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="3">
         <f>G90/E2</f>
-        <v>58604466.512195125</v>
+        <v>58602027.487804875</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -28105,8 +29308,8 @@
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28156,7 +29359,7 @@
       </c>
       <c r="D2" s="11">
         <f>D3+C2</f>
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -28164,7 +29367,7 @@
       </c>
       <c r="F2" s="11">
         <f>B2*(D2-E2)</f>
-        <v>43031500</v>
+        <v>43321600</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -28182,7 +29385,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D66" si="0">D4+C3</f>
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E66" si="1">IF(B3&gt;0,1,0)</f>
@@ -28190,7 +29393,7 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F66" si="2">B3*(D3-E3)</f>
-        <v>1329000000</v>
+        <v>1338000000</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -28206,7 +29409,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="1"/>
@@ -28214,7 +29417,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="2"/>
-        <v>-88200000</v>
+        <v>-88800000</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -28230,7 +29433,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -28238,7 +29441,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="2"/>
-        <v>-43900000</v>
+        <v>-44200000</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -28254,7 +29457,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="1"/>
@@ -28262,7 +29465,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>-24090000</v>
+        <v>-24255000</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -28278,7 +29481,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="1"/>
@@ -28286,7 +29489,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>-87400000</v>
+        <v>-88000000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -28302,7 +29505,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="1"/>
@@ -28310,7 +29513,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-86600000</v>
+        <v>-87200000</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -28326,7 +29529,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="1"/>
@@ -28334,7 +29537,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-402061500</v>
+        <v>-404913000</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -28350,7 +29553,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
@@ -28358,7 +29561,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
-        <v>842000000</v>
+        <v>848000000</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -28374,7 +29577,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="1"/>
@@ -28382,7 +29585,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="2"/>
-        <v>-447300000</v>
+        <v>-450495000</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -28398,7 +29601,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="1"/>
@@ -28406,7 +29609,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="2"/>
-        <v>-18765000</v>
+        <v>-18900000</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -28422,7 +29625,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
@@ -28430,7 +29633,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>-832291200</v>
+        <v>-838293300</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -28446,7 +29649,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="1"/>
@@ -28454,7 +29657,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
-        <v>-82400000</v>
+        <v>-83000000</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -28470,7 +29673,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="1"/>
@@ -28478,7 +29681,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
-        <v>818000000</v>
+        <v>824000000</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -28494,7 +29697,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="1"/>
@@ -28502,7 +29705,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
-        <v>818000000</v>
+        <v>824000000</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -28518,7 +29721,7 @@
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="1"/>
@@ -28526,7 +29729,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>490800000</v>
+        <v>494400000</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -28542,7 +29745,7 @@
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="1"/>
@@ -28550,7 +29753,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
-        <v>409000000</v>
+        <v>412000000</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -28566,7 +29769,7 @@
       </c>
       <c r="D19" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
@@ -28574,7 +29777,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
-        <v>1224000000</v>
+        <v>1233000000</v>
       </c>
       <c r="G19" s="11"/>
       <c r="L19" t="s">
@@ -28593,7 +29796,7 @@
       </c>
       <c r="D20" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="1"/>
@@ -28601,7 +29804,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-176974300</v>
+        <v>-178272400</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -28617,7 +29820,7 @@
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="1"/>
@@ -28625,7 +29828,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
-        <v>-176974300</v>
+        <v>-178272400</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -28641,7 +29844,7 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="1"/>
@@ -28649,7 +29852,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
-        <v>-176974300</v>
+        <v>-178272400</v>
       </c>
       <c r="G22" s="11"/>
     </row>
@@ -28665,7 +29868,7 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="1"/>
@@ -28673,7 +29876,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="2"/>
-        <v>-176974300</v>
+        <v>-178272400</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -28689,7 +29892,7 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="1"/>
@@ -28697,7 +29900,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
-        <v>-176974300</v>
+        <v>-178272400</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -28713,7 +29916,7 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="1"/>
@@ -28721,7 +29924,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-81800000</v>
+        <v>-82400000</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -28737,7 +29940,7 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
@@ -28745,7 +29948,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
-        <v>1221000000</v>
+        <v>1230000000</v>
       </c>
       <c r="G26" s="11"/>
     </row>
@@ -28761,7 +29964,7 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="0"/>
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="1"/>
@@ -28769,7 +29972,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
-        <v>-81200000</v>
+        <v>-81800000</v>
       </c>
       <c r="G27" s="11"/>
     </row>
@@ -28785,7 +29988,7 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="1"/>
@@ -28793,7 +29996,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
-        <v>808000000</v>
+        <v>814000000</v>
       </c>
       <c r="G28" s="11"/>
     </row>
@@ -28809,7 +30012,7 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
@@ -28817,7 +30020,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>-2828323200</v>
+        <v>-2849325600</v>
       </c>
       <c r="G29" s="11"/>
     </row>
@@ -28833,7 +30036,7 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
@@ -28841,7 +30044,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>-1209362700</v>
+        <v>-1218365400</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -28857,7 +30060,7 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
@@ -28865,7 +30068,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>-681751800</v>
+        <v>-686839500</v>
       </c>
       <c r="G31" s="11"/>
     </row>
@@ -28881,7 +30084,7 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
@@ -28889,7 +30092,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>395731400</v>
+        <v>398714300</v>
       </c>
       <c r="G32" s="11"/>
     </row>
@@ -28905,7 +30108,7 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
@@ -28913,7 +30116,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>13755672</v>
+        <v>13860945</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>382</v>
@@ -28931,7 +30134,7 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="0"/>
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
@@ -28939,7 +30142,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>-333200000</v>
+        <v>-335750000</v>
       </c>
       <c r="G34" s="11"/>
     </row>
@@ -28955,7 +30158,7 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
@@ -28963,7 +30166,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>-73152000</v>
+        <v>-73723500</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -28979,7 +30182,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="1"/>
@@ -28987,7 +30190,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>76400000</v>
+        <v>77000000</v>
       </c>
       <c r="G36" s="11"/>
     </row>
@@ -29003,7 +30206,7 @@
       </c>
       <c r="D37" s="11">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="1"/>
@@ -29011,7 +30214,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>-76600000</v>
+        <v>-77200000</v>
       </c>
       <c r="G37" s="11"/>
     </row>
@@ -29027,7 +30230,7 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="1"/>
@@ -29035,7 +30238,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>108290160</v>
+        <v>109192578</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>402</v>
@@ -29053,7 +30256,7 @@
       </c>
       <c r="D39" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="1"/>
@@ -29061,7 +30264,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="2"/>
-        <v>-34200000</v>
+        <v>-34485000</v>
       </c>
       <c r="G39" s="11"/>
     </row>
@@ -29077,7 +30280,7 @@
       </c>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="1"/>
@@ -29085,7 +30288,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="2"/>
-        <v>-31717080</v>
+        <v>-31981389</v>
       </c>
       <c r="G40" s="11"/>
     </row>
@@ -29101,7 +30304,7 @@
       </c>
       <c r="D41" s="11">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="1"/>
@@ -29109,7 +30312,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="2"/>
-        <v>-42600000</v>
+        <v>-42960000</v>
       </c>
       <c r="G41" s="11"/>
     </row>
@@ -29125,7 +30328,7 @@
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="1"/>
@@ -29133,7 +30336,7 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="2"/>
-        <v>332067728</v>
+        <v>335068340</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>403</v>
@@ -29151,7 +30354,7 @@
       </c>
       <c r="D43" s="11">
         <f t="shared" si="0"/>
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="1"/>
@@ -29159,7 +30362,7 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="2"/>
-        <v>-26320000</v>
+        <v>-26560000</v>
       </c>
       <c r="G43" s="11"/>
     </row>
@@ -29175,7 +30378,7 @@
       </c>
       <c r="D44" s="11">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="1"/>
@@ -29183,7 +30386,7 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="2"/>
-        <v>-68584425</v>
+        <v>-69217512</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -29199,7 +30402,7 @@
       </c>
       <c r="D45" s="11">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="1"/>
@@ -29207,7 +30410,7 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="2"/>
-        <v>-64800000</v>
+        <v>-65400000</v>
       </c>
       <c r="G45" s="11"/>
     </row>
@@ -29223,7 +30426,7 @@
       </c>
       <c r="D46" s="11">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="1"/>
@@ -29231,7 +30434,7 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="2"/>
-        <v>-30685000</v>
+        <v>-30970000</v>
       </c>
       <c r="G46" s="11"/>
     </row>
@@ -29247,7 +30450,7 @@
       </c>
       <c r="D47" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="1"/>
@@ -29255,7 +30458,7 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="2"/>
-        <v>-14445000</v>
+        <v>-14580000</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -29271,7 +30474,7 @@
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="1"/>
@@ -29279,7 +30482,7 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="2"/>
-        <v>-20601780</v>
+        <v>-20794320</v>
       </c>
       <c r="G48" s="11"/>
     </row>
@@ -29295,7 +30498,7 @@
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="1"/>
@@ -29303,7 +30506,7 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="2"/>
-        <v>-8739912</v>
+        <v>-8822364</v>
       </c>
       <c r="G49" s="11"/>
     </row>
@@ -29319,7 +30522,7 @@
       </c>
       <c r="D50" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="1"/>
@@ -29327,7 +30530,7 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="2"/>
-        <v>-44697000</v>
+        <v>-45120000</v>
       </c>
       <c r="G50" s="11"/>
     </row>
@@ -29343,7 +30546,7 @@
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="1"/>
@@ -29351,7 +30554,7 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="2"/>
-        <v>-8478482</v>
+        <v>-8558720</v>
       </c>
       <c r="G51" s="11"/>
     </row>
@@ -29367,7 +30570,7 @@
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E52" s="11">
         <f t="shared" si="1"/>
@@ -29375,7 +30578,7 @@
       </c>
       <c r="F52" s="11">
         <f t="shared" si="2"/>
-        <v>-16842800</v>
+        <v>-17002700</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -29391,7 +30594,7 @@
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="1"/>
@@ -29399,7 +30602,7 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="2"/>
-        <v>314000000</v>
+        <v>317000000</v>
       </c>
       <c r="G53" s="11"/>
     </row>
@@ -29415,7 +30618,7 @@
       </c>
       <c r="D54" s="11">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="1"/>
@@ -29423,7 +30626,7 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="2"/>
-        <v>-6489000</v>
+        <v>-6552000</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -29439,7 +30642,7 @@
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="1"/>
@@ -29447,7 +30650,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="2"/>
-        <v>-301994000</v>
+        <v>-304935500</v>
       </c>
       <c r="G55" s="11"/>
     </row>
@@ -29463,7 +30666,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="1"/>
@@ -29471,7 +30674,7 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="2"/>
-        <v>-13860000</v>
+        <v>-13995000</v>
       </c>
       <c r="G56" s="11"/>
     </row>
@@ -29487,7 +30690,7 @@
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="1"/>
@@ -29495,7 +30698,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="2"/>
-        <v>883525566</v>
+        <v>892541133</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>404</v>
@@ -29513,7 +30716,7 @@
       </c>
       <c r="D58" s="11">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="1"/>
@@ -29521,7 +30724,7 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="2"/>
-        <v>588000000</v>
+        <v>594000000</v>
       </c>
       <c r="G58" s="11"/>
     </row>
@@ -29537,7 +30740,7 @@
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E59" s="11">
         <f t="shared" si="1"/>
@@ -29545,7 +30748,7 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="2"/>
-        <v>586000000</v>
+        <v>592000000</v>
       </c>
       <c r="G59" s="11"/>
     </row>
@@ -29561,7 +30764,7 @@
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E60" s="11">
         <f t="shared" si="1"/>
@@ -29569,7 +30772,7 @@
       </c>
       <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>-2058441000</v>
+        <v>-2079445500</v>
       </c>
       <c r="G60" s="11"/>
     </row>
@@ -29585,7 +30788,7 @@
       </c>
       <c r="D61" s="11">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E61" s="11">
         <f t="shared" si="1"/>
@@ -29593,7 +30796,7 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="2"/>
-        <v>807000000</v>
+        <v>816000000</v>
       </c>
       <c r="G61" s="11"/>
     </row>
@@ -29609,7 +30812,7 @@
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
@@ -29617,7 +30820,7 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="2"/>
-        <v>-7292321</v>
+        <v>-7373648</v>
       </c>
       <c r="G62" s="11"/>
     </row>
@@ -29633,7 +30836,7 @@
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E63" s="11">
         <f t="shared" si="1"/>
@@ -29641,7 +30844,7 @@
       </c>
       <c r="F63" s="11">
         <f t="shared" si="2"/>
-        <v>-8874041</v>
+        <v>-8973008</v>
       </c>
       <c r="G63" s="11"/>
     </row>
@@ -29657,7 +30860,7 @@
       </c>
       <c r="D64" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="1"/>
@@ -29665,7 +30868,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="2"/>
-        <v>804000000</v>
+        <v>813000000</v>
       </c>
       <c r="G64" s="11"/>
     </row>
@@ -29681,7 +30884,7 @@
       </c>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E65" s="11">
         <f t="shared" si="1"/>
@@ -29689,7 +30892,7 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="2"/>
-        <v>795960000</v>
+        <v>804870000</v>
       </c>
       <c r="G65" s="11"/>
     </row>
@@ -29705,7 +30908,7 @@
       </c>
       <c r="D66" s="11">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E66" s="11">
         <f t="shared" si="1"/>
@@ -29713,7 +30916,7 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="2"/>
-        <v>268000000</v>
+        <v>271000000</v>
       </c>
       <c r="G66" s="11"/>
     </row>
@@ -29729,7 +30932,7 @@
       </c>
       <c r="D67" s="11">
         <f t="shared" ref="D67:D130" si="3">D68+C67</f>
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E67" s="11">
         <f t="shared" ref="E67:E130" si="4">IF(B67&gt;0,1,0)</f>
@@ -29737,7 +30940,7 @@
       </c>
       <c r="F67" s="11">
         <f t="shared" ref="F67:F146" si="5">B67*(D67-E67)</f>
-        <v>8040000</v>
+        <v>8130000</v>
       </c>
       <c r="G67" s="11"/>
     </row>
@@ -29753,7 +30956,7 @@
       </c>
       <c r="D68" s="11">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E68" s="11">
         <f t="shared" si="4"/>
@@ -29761,7 +30964,7 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="5"/>
-        <v>8010000000</v>
+        <v>8100000000</v>
       </c>
       <c r="G68" s="11"/>
     </row>
@@ -29777,7 +30980,7 @@
       </c>
       <c r="D69" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="4"/>
@@ -29785,7 +30988,7 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="5"/>
-        <v>-53400000</v>
+        <v>-54000000</v>
       </c>
       <c r="G69" s="11"/>
     </row>
@@ -29801,7 +31004,7 @@
       </c>
       <c r="D70" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="4"/>
@@ -29809,7 +31012,7 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>372400000</v>
+        <v>376600000</v>
       </c>
       <c r="G70" s="11"/>
     </row>
@@ -29825,7 +31028,7 @@
       </c>
       <c r="D71" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="4"/>
@@ -29833,7 +31036,7 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>691600000</v>
+        <v>699400000</v>
       </c>
       <c r="G71" s="11"/>
     </row>
@@ -29849,7 +31052,7 @@
       </c>
       <c r="D72" s="11">
         <f t="shared" si="3"/>
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="4"/>
@@ -29857,7 +31060,7 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="5"/>
-        <v>-267000000</v>
+        <v>-270000000</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -29873,7 +31076,7 @@
       </c>
       <c r="D73" s="11">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="4"/>
@@ -29881,7 +31084,7 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="5"/>
-        <v>3960000000</v>
+        <v>4005000000</v>
       </c>
       <c r="G73" s="11"/>
     </row>
@@ -29897,7 +31100,7 @@
       </c>
       <c r="D74" s="11">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="4"/>
@@ -29905,7 +31108,7 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="5"/>
-        <v>-3901092000</v>
+        <v>-3946104600</v>
       </c>
       <c r="G74" s="11"/>
     </row>
@@ -29921,7 +31124,7 @@
       </c>
       <c r="D75" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="4"/>
@@ -29929,7 +31132,7 @@
       </c>
       <c r="F75" s="11">
         <f t="shared" si="5"/>
-        <v>-774000000</v>
+        <v>-783000000</v>
       </c>
       <c r="G75" s="11"/>
     </row>
@@ -29945,7 +31148,7 @@
       </c>
       <c r="D76" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="4"/>
@@ -29953,7 +31156,7 @@
       </c>
       <c r="F76" s="11">
         <f t="shared" si="5"/>
-        <v>-51600000</v>
+        <v>-52200000</v>
       </c>
       <c r="G76" s="11"/>
     </row>
@@ -29969,7 +31172,7 @@
       </c>
       <c r="D77" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E77" s="11">
         <f t="shared" si="4"/>
@@ -29977,7 +31180,7 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="5"/>
-        <v>-3096774000</v>
+        <v>-3132783000</v>
       </c>
       <c r="G77" s="11"/>
     </row>
@@ -29993,7 +31196,7 @@
       </c>
       <c r="D78" s="11">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E78" s="11">
         <f t="shared" si="4"/>
@@ -30001,7 +31204,7 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="5"/>
-        <v>-762228600</v>
+        <v>-771231300</v>
       </c>
       <c r="G78" s="11"/>
     </row>
@@ -30017,7 +31220,7 @@
       </c>
       <c r="D79" s="11">
         <f t="shared" si="3"/>
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" si="4"/>
@@ -30025,7 +31228,7 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="5"/>
-        <v>5704000000</v>
+        <v>5773000000</v>
       </c>
       <c r="G79" s="11"/>
     </row>
@@ -30041,7 +31244,7 @@
       </c>
       <c r="D80" s="11">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E80" s="11">
         <f t="shared" si="4"/>
@@ -30049,7 +31252,7 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="5"/>
-        <v>-146522000</v>
+        <v>-148323500</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -30065,7 +31268,7 @@
       </c>
       <c r="D81" s="11">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E81" s="11">
         <f t="shared" si="4"/>
@@ -30073,7 +31276,7 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="5"/>
-        <v>-48800000</v>
+        <v>-49400000</v>
       </c>
       <c r="G81" s="11"/>
     </row>
@@ -30089,7 +31292,7 @@
       </c>
       <c r="D82" s="11">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E82" s="11">
         <f t="shared" si="4"/>
@@ -30097,7 +31300,7 @@
       </c>
       <c r="F82" s="11">
         <f t="shared" si="5"/>
-        <v>68539482</v>
+        <v>69389145</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>242</v>
@@ -30115,7 +31318,7 @@
       </c>
       <c r="D83" s="11">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E83" s="11">
         <f t="shared" si="4"/>
@@ -30123,7 +31326,7 @@
       </c>
       <c r="F83" s="11">
         <f t="shared" si="5"/>
-        <v>-48600000</v>
+        <v>-49200000</v>
       </c>
       <c r="G83" s="11"/>
     </row>
@@ -30139,7 +31342,7 @@
       </c>
       <c r="D84" s="11">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E84" s="11">
         <f t="shared" si="4"/>
@@ -30147,7 +31350,7 @@
       </c>
       <c r="F84" s="11">
         <f t="shared" si="5"/>
-        <v>480000000</v>
+        <v>486000000</v>
       </c>
       <c r="G84" s="11"/>
     </row>
@@ -30163,7 +31366,7 @@
       </c>
       <c r="D85" s="11">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E85" s="11">
         <f t="shared" si="4"/>
@@ -30171,7 +31374,7 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>-47600000</v>
+        <v>-48200000</v>
       </c>
       <c r="G85" s="11"/>
     </row>
@@ -30187,7 +31390,7 @@
       </c>
       <c r="D86" s="11">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E86" s="11">
         <f t="shared" si="4"/>
@@ -30195,7 +31398,7 @@
       </c>
       <c r="F86" s="11">
         <f t="shared" si="5"/>
-        <v>-46400000</v>
+        <v>-47000000</v>
       </c>
       <c r="G86" s="11"/>
     </row>
@@ -30211,7 +31414,7 @@
       </c>
       <c r="D87" s="11">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E87" s="11">
         <f t="shared" si="4"/>
@@ -30219,7 +31422,7 @@
       </c>
       <c r="F87" s="11">
         <f t="shared" si="5"/>
-        <v>-304750000</v>
+        <v>-308725000</v>
       </c>
       <c r="G87" s="11"/>
     </row>
@@ -30235,7 +31438,7 @@
       </c>
       <c r="D88" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E88" s="11">
         <f t="shared" si="4"/>
@@ -30243,7 +31446,7 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="5"/>
-        <v>-107500000</v>
+        <v>-109000000</v>
       </c>
       <c r="G88" s="11"/>
     </row>
@@ -30259,7 +31462,7 @@
       </c>
       <c r="D89" s="11">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E89" s="11">
         <f t="shared" si="4"/>
@@ -30267,7 +31470,7 @@
       </c>
       <c r="F89" s="11">
         <f t="shared" si="5"/>
-        <v>-25800000</v>
+        <v>-26160000</v>
       </c>
       <c r="G89" s="11"/>
     </row>
@@ -30283,7 +31486,7 @@
       </c>
       <c r="D90" s="11">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E90" s="11">
         <f t="shared" si="4"/>
@@ -30291,7 +31494,7 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>90779460</v>
+        <v>92064075</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>264</v>
@@ -30309,7 +31512,7 @@
       </c>
       <c r="D91" s="11">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E91" s="11">
         <f t="shared" si="4"/>
@@ -30317,7 +31520,7 @@
       </c>
       <c r="F91" s="11">
         <f t="shared" si="5"/>
-        <v>-630420000</v>
+        <v>-639426000</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>344</v>
@@ -30335,7 +31538,7 @@
       </c>
       <c r="D92" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E92" s="11">
         <f t="shared" si="4"/>
@@ -30343,7 +31546,7 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="5"/>
-        <v>-42640000</v>
+        <v>-43255000</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>345</v>
@@ -30361,7 +31564,7 @@
       </c>
       <c r="D93" s="11">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E93" s="11">
         <f t="shared" si="4"/>
@@ -30369,7 +31572,7 @@
       </c>
       <c r="F93" s="11">
         <f t="shared" si="5"/>
-        <v>-72904000</v>
+        <v>-73955500</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>342</v>
@@ -30387,7 +31590,7 @@
       </c>
       <c r="D94" s="11">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E94" s="11">
         <f t="shared" si="4"/>
@@ -30395,7 +31598,7 @@
       </c>
       <c r="F94" s="11">
         <f t="shared" si="5"/>
-        <v>196000000</v>
+        <v>199000000</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>340</v>
@@ -30413,7 +31616,7 @@
       </c>
       <c r="D95" s="11">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E95" s="11">
         <f t="shared" si="4"/>
@@ -30421,7 +31624,7 @@
       </c>
       <c r="F95" s="11">
         <f t="shared" si="5"/>
-        <v>1719000000</v>
+        <v>1746000000</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>352</v>
@@ -30440,7 +31643,7 @@
       </c>
       <c r="D96" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E96" s="11">
         <f t="shared" si="4"/>
@@ -30448,7 +31651,7 @@
       </c>
       <c r="F96" s="11">
         <f t="shared" si="5"/>
-        <v>-4940000000</v>
+        <v>-5018000000</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>354</v>
@@ -30466,7 +31669,7 @@
       </c>
       <c r="D97" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E97" s="11">
         <f t="shared" si="4"/>
@@ -30474,7 +31677,7 @@
       </c>
       <c r="F97" s="11">
         <f t="shared" si="5"/>
-        <v>-4940000000</v>
+        <v>-5018000000</v>
       </c>
       <c r="G97" s="11"/>
     </row>
@@ -30490,7 +31693,7 @@
       </c>
       <c r="D98" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E98" s="11">
         <f t="shared" si="4"/>
@@ -30498,7 +31701,7 @@
       </c>
       <c r="F98" s="11">
         <f t="shared" si="5"/>
-        <v>4914000000</v>
+        <v>4992000000</v>
       </c>
       <c r="G98" s="11"/>
     </row>
@@ -30514,7 +31717,7 @@
       </c>
       <c r="D99" s="11">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E99" s="11">
         <f t="shared" si="4"/>
@@ -30522,7 +31725,7 @@
       </c>
       <c r="F99" s="11">
         <f t="shared" si="5"/>
-        <v>-38000000</v>
+        <v>-38600000</v>
       </c>
       <c r="G99" s="11"/>
       <c r="I99" t="s">
@@ -30541,7 +31744,7 @@
       </c>
       <c r="D100" s="11">
         <f t="shared" si="3"/>
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E100" s="11">
         <f t="shared" si="4"/>
@@ -30549,7 +31752,7 @@
       </c>
       <c r="F100" s="11">
         <f t="shared" si="5"/>
-        <v>5460400000</v>
+        <v>5548000000</v>
       </c>
       <c r="G100" s="11"/>
     </row>
@@ -30565,7 +31768,7 @@
       </c>
       <c r="D101" s="11">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E101" s="11">
         <f t="shared" si="4"/>
@@ -30573,7 +31776,7 @@
       </c>
       <c r="F101" s="11">
         <f t="shared" si="5"/>
-        <v>72789990</v>
+        <v>73989825</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>407</v>
@@ -30591,7 +31794,7 @@
       </c>
       <c r="D102" s="11">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E102" s="11">
         <f t="shared" si="4"/>
@@ -30599,7 +31802,7 @@
       </c>
       <c r="F102" s="11">
         <f t="shared" si="5"/>
-        <v>362000000</v>
+        <v>368000000</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>409</v>
@@ -30617,7 +31820,7 @@
       </c>
       <c r="D103" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E103" s="11">
         <f t="shared" si="4"/>
@@ -30625,7 +31828,7 @@
       </c>
       <c r="F103" s="11">
         <f t="shared" si="5"/>
-        <v>1350000000</v>
+        <v>1372500000</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>417</v>
@@ -30643,7 +31846,7 @@
       </c>
       <c r="D104" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E104" s="11">
         <f t="shared" si="4"/>
@@ -30651,7 +31854,7 @@
       </c>
       <c r="F104" s="11">
         <f t="shared" si="5"/>
-        <v>-11946000000</v>
+        <v>-12144000000</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>431</v>
@@ -30669,7 +31872,7 @@
       </c>
       <c r="D105" s="11">
         <f t="shared" si="3"/>
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E105" s="11">
         <f t="shared" si="4"/>
@@ -30677,7 +31880,7 @@
       </c>
       <c r="F105" s="11">
         <f t="shared" si="5"/>
-        <v>-26245000</v>
+        <v>-26680000</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>432</v>
@@ -30695,7 +31898,7 @@
       </c>
       <c r="D106" s="11">
         <f t="shared" si="3"/>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E106" s="11">
         <f t="shared" si="4"/>
@@ -30703,7 +31906,7 @@
       </c>
       <c r="F106" s="11">
         <f t="shared" si="5"/>
-        <v>1068000000</v>
+        <v>1086000000</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>433</v>
@@ -30721,7 +31924,7 @@
       </c>
       <c r="D107" s="11">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E107" s="11">
         <f t="shared" si="4"/>
@@ -30729,7 +31932,7 @@
       </c>
       <c r="F107" s="11">
         <f t="shared" si="5"/>
-        <v>-1063044300</v>
+        <v>-1081062000</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>443</v>
@@ -30747,7 +31950,7 @@
       </c>
       <c r="D108" s="11">
         <f t="shared" si="3"/>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E108" s="11">
         <f t="shared" si="4"/>
@@ -30755,7 +31958,7 @@
       </c>
       <c r="F108" s="11">
         <f t="shared" si="5"/>
-        <v>1038000000</v>
+        <v>1056000000</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>451</v>
@@ -30773,7 +31976,7 @@
       </c>
       <c r="D109" s="11">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E109" s="11">
         <f t="shared" si="4"/>
@@ -30781,7 +31984,7 @@
       </c>
       <c r="F109" s="11">
         <f t="shared" si="5"/>
-        <v>-19440000</v>
+        <v>-19800000</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>472</v>
@@ -30799,7 +32002,7 @@
       </c>
       <c r="D110" s="11">
         <f t="shared" si="3"/>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E110" s="11">
         <f t="shared" si="4"/>
@@ -30807,7 +32010,7 @@
       </c>
       <c r="F110" s="11">
         <f t="shared" si="5"/>
-        <v>640000000</v>
+        <v>652000000</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>474</v>
@@ -30825,7 +32028,7 @@
       </c>
       <c r="D111" s="11">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E111" s="11">
         <f t="shared" si="4"/>
@@ -30833,7 +32036,7 @@
       </c>
       <c r="F111" s="11">
         <f t="shared" si="5"/>
-        <v>445200000</v>
+        <v>453600000</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>479</v>
@@ -30851,7 +32054,7 @@
       </c>
       <c r="D112" s="11">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E112" s="11">
         <f t="shared" si="4"/>
@@ -30859,7 +32062,7 @@
       </c>
       <c r="F112" s="11">
         <f t="shared" si="5"/>
-        <v>-31200000</v>
+        <v>-31800000</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>485</v>
@@ -30877,7 +32080,7 @@
       </c>
       <c r="D113" s="11">
         <f t="shared" si="3"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E113" s="11">
         <f t="shared" si="4"/>
@@ -30885,7 +32088,7 @@
       </c>
       <c r="F113" s="11">
         <f t="shared" si="5"/>
-        <v>11135740</v>
+        <v>11352670</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>514</v>
@@ -30903,7 +32106,7 @@
       </c>
       <c r="D114" s="11">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E114" s="11">
         <f t="shared" si="4"/>
@@ -30911,7 +32114,7 @@
       </c>
       <c r="F114" s="11">
         <f t="shared" si="5"/>
-        <v>-27600000</v>
+        <v>-28200000</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>472</v>
@@ -30932,7 +32135,7 @@
       </c>
       <c r="D115" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E115" s="11">
         <f t="shared" si="4"/>
@@ -30940,7 +32143,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="5"/>
-        <v>-1507000000</v>
+        <v>-1540000000</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>515</v>
@@ -30958,7 +32161,7 @@
       </c>
       <c r="D116" s="11">
         <f t="shared" si="3"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E116" s="11">
         <f t="shared" si="4"/>
@@ -30966,7 +32169,7 @@
       </c>
       <c r="F116" s="11">
         <f t="shared" si="5"/>
-        <v>-27400000</v>
+        <v>-28000000</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>472</v>
@@ -30987,7 +32190,7 @@
       </c>
       <c r="D117" s="11">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E117" s="11">
         <f t="shared" si="4"/>
@@ -30995,7 +32198,7 @@
       </c>
       <c r="F117" s="11">
         <f t="shared" si="5"/>
-        <v>-60817500</v>
+        <v>-62169000</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>517</v>
@@ -31013,7 +32216,7 @@
       </c>
       <c r="D118" s="11">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E118" s="11">
         <f t="shared" si="4"/>
@@ -31021,7 +32224,7 @@
       </c>
       <c r="F118" s="11">
         <f t="shared" si="5"/>
-        <v>-27000000</v>
+        <v>-27600000</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>518</v>
@@ -31042,7 +32245,7 @@
       </c>
       <c r="D119" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E119" s="11">
         <f t="shared" si="4"/>
@@ -31050,7 +32253,7 @@
       </c>
       <c r="F119" s="11">
         <f t="shared" si="5"/>
-        <v>-19936950</v>
+        <v>-20400600</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>521</v>
@@ -31068,7 +32271,7 @@
       </c>
       <c r="D120" s="11">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E120" s="11">
         <f t="shared" si="4"/>
@@ -31076,7 +32279,7 @@
       </c>
       <c r="F120" s="11">
         <f t="shared" si="5"/>
-        <v>-41280</v>
+        <v>-42240</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>522</v>
@@ -31094,7 +32297,7 @@
       </c>
       <c r="D121" s="11">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E121" s="11">
         <f t="shared" si="4"/>
@@ -31102,7 +32305,7 @@
       </c>
       <c r="F121" s="11">
         <f t="shared" si="5"/>
-        <v>-55296000</v>
+        <v>-56592000</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>524</v>
@@ -31120,7 +32323,7 @@
       </c>
       <c r="D122" s="11">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E122" s="11">
         <f t="shared" si="4"/>
@@ -31128,7 +32331,7 @@
       </c>
       <c r="F122" s="11">
         <f t="shared" si="5"/>
-        <v>8959203</v>
+        <v>9181332</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>526</v>
@@ -31146,7 +32349,7 @@
       </c>
       <c r="D123" s="11">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E123" s="11">
         <f t="shared" si="4"/>
@@ -31154,7 +32357,7 @@
       </c>
       <c r="F123" s="11">
         <f t="shared" si="5"/>
-        <v>-5252000</v>
+        <v>-5408000</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>553</v>
@@ -31172,7 +32375,7 @@
       </c>
       <c r="D124" s="11">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E124" s="11">
         <f t="shared" si="4"/>
@@ -31180,7 +32383,7 @@
       </c>
       <c r="F124" s="11">
         <f t="shared" si="5"/>
-        <v>70033</v>
+        <v>73594</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>606</v>
@@ -31198,7 +32401,7 @@
       </c>
       <c r="D125" s="11">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E125" s="11">
         <f t="shared" si="4"/>
@@ -31206,7 +32409,7 @@
       </c>
       <c r="F125" s="11">
         <f t="shared" si="5"/>
-        <v>139200000</v>
+        <v>146400000</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>604</v>
@@ -31224,7 +32427,7 @@
       </c>
       <c r="D126" s="11">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E126" s="11">
         <f t="shared" si="4"/>
@@ -31232,7 +32435,7 @@
       </c>
       <c r="F126" s="11">
         <f t="shared" si="5"/>
-        <v>75196800</v>
+        <v>79225200</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>613</v>
@@ -31250,7 +32453,7 @@
       </c>
       <c r="D127" s="11">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E127" s="11">
         <f t="shared" si="4"/>
@@ -31258,7 +32461,7 @@
       </c>
       <c r="F127" s="11">
         <f t="shared" si="5"/>
-        <v>75196800</v>
+        <v>79225200</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>614</v>
@@ -31276,7 +32479,7 @@
       </c>
       <c r="D128" s="11">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E128" s="11">
         <f t="shared" si="4"/>
@@ -31284,7 +32487,7 @@
       </c>
       <c r="F128" s="11">
         <f t="shared" si="5"/>
-        <v>-9000000</v>
+        <v>-9600000</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>158</v>
@@ -31302,7 +32505,7 @@
       </c>
       <c r="D129" s="11">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E129" s="11">
         <f t="shared" si="4"/>
@@ -31310,7 +32513,7 @@
       </c>
       <c r="F129" s="11">
         <f>B129*(D129-E129)</f>
-        <v>-671574</v>
+        <v>-718428</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>623</v>
@@ -31331,7 +32534,7 @@
       </c>
       <c r="D130" s="11">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E130" s="11">
         <f t="shared" si="4"/>
@@ -31339,7 +32542,7 @@
       </c>
       <c r="F130" s="11">
         <f t="shared" si="5"/>
-        <v>-8400000</v>
+        <v>-9000000</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>518</v>
@@ -31357,7 +32560,7 @@
       </c>
       <c r="D131" s="11">
         <f t="shared" ref="D131:D146" si="6">D132+C131</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E131" s="11">
         <f t="shared" ref="E131:E146" si="7">IF(B131&gt;0,1,0)</f>
@@ -31365,7 +32568,7 @@
       </c>
       <c r="F131" s="11">
         <f t="shared" si="5"/>
-        <v>-8200000</v>
+        <v>-8800000</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>627</v>
@@ -31383,7 +32586,7 @@
       </c>
       <c r="D132" s="11">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E132" s="11">
         <f t="shared" si="7"/>
@@ -31391,7 +32594,7 @@
       </c>
       <c r="F132" s="11">
         <f t="shared" si="5"/>
-        <v>-15600000</v>
+        <v>-16770000</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>629</v>
@@ -31409,7 +32612,7 @@
       </c>
       <c r="D133" s="11">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E133" s="11">
         <f t="shared" si="7"/>
@@ -31417,7 +32620,7 @@
       </c>
       <c r="F133" s="11">
         <f t="shared" si="5"/>
-        <v>-980000</v>
+        <v>-1053500</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>630</v>
@@ -31435,7 +32638,7 @@
       </c>
       <c r="D134" s="11">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E134" s="11">
         <f t="shared" si="7"/>
@@ -31443,7 +32646,7 @@
       </c>
       <c r="F134" s="11">
         <f t="shared" si="5"/>
-        <v>-3705000</v>
+        <v>-3990000</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>472</v>
@@ -31461,7 +32664,7 @@
       </c>
       <c r="D135" s="11">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E135" s="11">
         <f t="shared" si="7"/>
@@ -31469,7 +32672,7 @@
       </c>
       <c r="F135" s="11">
         <f t="shared" si="5"/>
-        <v>-7000000</v>
+        <v>-7600000</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>634</v>
@@ -31487,7 +32690,7 @@
       </c>
       <c r="D136" s="11">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E136" s="11">
         <f t="shared" si="7"/>
@@ -31495,7 +32698,7 @@
       </c>
       <c r="F136" s="11">
         <f t="shared" si="5"/>
-        <v>1600000000</v>
+        <v>1750000000</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>637</v>
@@ -31513,7 +32716,7 @@
       </c>
       <c r="D137" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E137" s="11">
         <f t="shared" si="7"/>
@@ -31521,7 +32724,7 @@
       </c>
       <c r="F137" s="11">
         <f t="shared" si="5"/>
-        <v>372000000</v>
+        <v>408000000</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>637</v>
@@ -31539,7 +32742,7 @@
       </c>
       <c r="D138" s="11">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E138" s="11">
         <f t="shared" si="7"/>
@@ -31547,7 +32750,7 @@
       </c>
       <c r="F138" s="11">
         <f t="shared" si="5"/>
-        <v>58000000</v>
+        <v>64000000</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>649</v>
@@ -31565,7 +32768,7 @@
       </c>
       <c r="D139" s="11">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E139" s="11">
         <f t="shared" si="7"/>
@@ -31573,7 +32776,7 @@
       </c>
       <c r="F139" s="11">
         <f t="shared" si="5"/>
-        <v>2451064</v>
+        <v>2713678</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>382</v>
@@ -31591,7 +32794,7 @@
       </c>
       <c r="D140" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E140" s="11">
         <f t="shared" si="7"/>
@@ -31599,7 +32802,7 @@
       </c>
       <c r="F140" s="11">
         <f t="shared" si="5"/>
-        <v>-48014400</v>
+        <v>-57017100</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>693</v>
@@ -31613,11 +32816,11 @@
         <v>-3000900</v>
       </c>
       <c r="C141" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D141" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E141" s="11">
         <f t="shared" si="7"/>
@@ -31625,7 +32828,7 @@
       </c>
       <c r="F141" s="11">
         <f t="shared" si="5"/>
-        <v>-45013500</v>
+        <v>-54016200</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>693</v>
@@ -31636,23 +32839,29 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="11"/>
+        <v>671</v>
+      </c>
+      <c r="B142" s="3">
+        <v>602025</v>
+      </c>
+      <c r="C142" s="11">
+        <v>1</v>
+      </c>
       <c r="D142" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G142" s="11"/>
+      <c r="G142" s="11" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
@@ -31750,14 +32959,14 @@
       <c r="A148" s="11"/>
       <c r="B148" s="29">
         <f>SUM(B2:B146)</f>
-        <v>61893311</v>
+        <v>62495336</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="29">
         <f>SUM(F2:F146)</f>
-        <v>6486701753</v>
+        <v>6672381686</v>
       </c>
       <c r="G148" s="11"/>
     </row>
@@ -31791,7 +33000,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="3">
         <f>F148/D2</f>
-        <v>14544174.334080717</v>
+        <v>14860538.276169265</v>
       </c>
       <c r="G151" s="11"/>
     </row>
@@ -31825,8 +33034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31844,7 +33053,7 @@
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.7109375" customWidth="1"/>
     <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -32070,11 +33279,11 @@
       </c>
       <c r="F7" s="71">
         <f>K23</f>
-        <v>164901503.02739727</v>
+        <v>165800752.02739727</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>13267575.913502753</v>
+        <v>12368326.913502753</v>
       </c>
       <c r="H7" s="11"/>
       <c r="J7" s="60" t="s">
@@ -32159,11 +33368,11 @@
       </c>
       <c r="K9" s="44">
         <f>'مسکن ایلیا'!B148</f>
-        <v>61893311</v>
+        <v>62495336</v>
       </c>
       <c r="L9" s="3">
         <f>K9-M9</f>
-        <v>15893311</v>
+        <v>16495336</v>
       </c>
       <c r="M9" s="3">
         <v>46000000</v>
@@ -32234,14 +33443,14 @@
       </c>
       <c r="K11" s="44">
         <f>سارا!D129</f>
-        <v>28731972</v>
+        <v>29013807</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>28731972</v>
+        <v>29013807</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -32271,14 +33480,14 @@
       </c>
       <c r="K12" s="44">
         <f>'مسکن مریم یاران'!B90</f>
-        <v>825777</v>
+        <v>841166</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>825777</v>
+        <v>841166</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -32793,15 +34002,15 @@
       </c>
       <c r="K23" s="3">
         <f>SUM(K7:K22)</f>
-        <v>164901503.02739727</v>
+        <v>165800752.02739727</v>
       </c>
       <c r="L23" s="3">
         <f>SUM(L7:L22)</f>
-        <v>55522461.684931509</v>
+        <v>56124486.684931509</v>
       </c>
       <c r="M23" s="3">
         <f>SUM(M7:M22)</f>
-        <v>109379041.34246576</v>
+        <v>109676265.34246576</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="11" t="s">
@@ -32845,15 +34054,15 @@
       </c>
       <c r="K24" s="3">
         <f>K9+K11+K12+K13+K10+K16+K17</f>
-        <v>91977777</v>
+        <v>92877026</v>
       </c>
       <c r="L24" s="3">
         <f>L9+L16+L12+L10</f>
-        <v>16223311</v>
+        <v>16825336</v>
       </c>
       <c r="M24" s="3">
         <f>M11+M12+M13+M17+M9</f>
-        <v>75754466</v>
+        <v>76051690</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="11"/>
@@ -33201,6 +34410,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
+      <c r="K33" s="76" t="s">
+        <v>722</v>
+      </c>
       <c r="L33" s="7">
         <f>M31-L31</f>
         <v>658191.78082191781</v>
@@ -35047,8 +36259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="V58" sqref="V58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35756,31 +36968,31 @@
         <v>106</v>
       </c>
       <c r="Q41" s="18">
-        <v>62000000</v>
+        <v>62495000</v>
       </c>
       <c r="R41" s="18">
         <f>P41*Q41</f>
-        <v>6572000000</v>
+        <v>6624470000</v>
       </c>
       <c r="S41" s="7">
         <f>Q41-S45</f>
-        <v>19500000</v>
+        <v>20432000</v>
       </c>
       <c r="T41" s="7">
         <f>S41*75</f>
-        <v>1462500000</v>
+        <v>1532400000</v>
       </c>
       <c r="U41" s="7">
         <f>Q43-U42</f>
-        <v>103400000</v>
+        <v>104332000</v>
       </c>
       <c r="V41" s="7">
         <f>U41*31</f>
-        <v>3205400000</v>
+        <v>3234292000</v>
       </c>
       <c r="W41" s="7">
         <f>T41+V41</f>
-        <v>4667900000</v>
+        <v>4766692000</v>
       </c>
     </row>
     <row r="42" spans="6:23" x14ac:dyDescent="0.25">
@@ -35801,11 +37013,11 @@
         <v>75</v>
       </c>
       <c r="Q42" s="18">
-        <v>41500000</v>
+        <v>41937000</v>
       </c>
       <c r="R42" s="18">
         <f>P42*Q42</f>
-        <v>3112500000</v>
+        <v>3145275000</v>
       </c>
       <c r="S42" s="7">
         <f>O42/P42</f>
@@ -35834,11 +37046,11 @@
       <c r="J43" s="11"/>
       <c r="Q43" s="7">
         <f>Q41+Q42</f>
-        <v>103500000</v>
+        <v>104432000</v>
       </c>
       <c r="S43" s="7">
         <f>S41+S42</f>
-        <v>103500000</v>
+        <v>104432000</v>
       </c>
     </row>
     <row r="44" spans="6:23" x14ac:dyDescent="0.25">
@@ -35850,7 +37062,7 @@
     <row r="45" spans="6:23" x14ac:dyDescent="0.25">
       <c r="S45" s="7">
         <f>S42-Q42</f>
-        <v>42500000</v>
+        <v>42063000</v>
       </c>
     </row>
     <row r="50" spans="15:21" x14ac:dyDescent="0.25">
@@ -35875,7 +37087,7 @@
       <c r="S51" s="18"/>
       <c r="U51" s="7">
         <f>O41-W41</f>
-        <v>3332100000</v>
+        <v>3233308000</v>
       </c>
     </row>
     <row r="52" spans="15:21" x14ac:dyDescent="0.25">
@@ -35897,7 +37109,7 @@
       </c>
       <c r="U52" s="7">
         <f>U51-S63</f>
-        <v>1654600000</v>
+        <v>1555808000</v>
       </c>
     </row>
     <row r="53" spans="15:21" x14ac:dyDescent="0.25">
@@ -35955,7 +37167,7 @@
       </c>
       <c r="U55" s="7">
         <f>U52/120</f>
-        <v>13788333.333333334</v>
+        <v>12965066.666666666</v>
       </c>
     </row>
     <row r="56" spans="15:21" x14ac:dyDescent="0.25">

--- a/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
+++ b/AudioDemo/finance/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="شهریور 96" sheetId="25" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="730">
   <si>
     <t>18/1/95</t>
   </si>
@@ -1992,12 +1992,6 @@
     <t>با احتساب حقوق تیر</t>
   </si>
   <si>
-    <t>حواله اچ سی علی 3 اسفند 18 درصد اخر مرداد</t>
-  </si>
-  <si>
-    <t>حواله اچ سی مریم 3 اسفند 18 درصد تا آخر مرداد</t>
-  </si>
-  <si>
     <t>1/5/1396</t>
   </si>
   <si>
@@ -2206,6 +2200,33 @@
   </si>
   <si>
     <t>213 تا آخر شهریور</t>
+  </si>
+  <si>
+    <t>انتقال 42 به کارت سارا و 4 به کارت مریم</t>
+  </si>
+  <si>
+    <t>روز 1 شهریور از کارت ملت علی به کارت یاران مریم</t>
+  </si>
+  <si>
+    <t>31/5/1396</t>
+  </si>
+  <si>
+    <t>از کارت ایلیا</t>
+  </si>
+  <si>
+    <t>از کارت ملت مریم حقوق مرداد</t>
+  </si>
+  <si>
+    <t>از کارت ملت علی حقوق مرداد</t>
+  </si>
+  <si>
+    <t>با احتساب حقوق مرداد</t>
+  </si>
+  <si>
+    <t>حواله اچ سی علی 3 اسفند 18 درصد اخر شهریور</t>
+  </si>
+  <si>
+    <t>حواله اچ سی مریم 3 اسفند 18 درصد تا آخر شهریور</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2591,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2900,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2999,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="B2" s="3">
         <f>'مرداد 96'!B24</f>
@@ -3002,7 +3043,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="B3" s="40">
         <v>400710</v>
@@ -3015,7 +3056,7 @@
         <v>281835</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -3044,25 +3085,27 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>42000000</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>42000000</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>513</v>
+      </c>
       <c r="F4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1260000000</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
@@ -3070,7 +3113,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1260000000</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -3084,7 +3127,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -3806,7 +3849,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B2:B22)</f>
-        <v>41937109</v>
+        <v>83937109</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C22)</f>
@@ -3814,7 +3857,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D2:D22)</f>
-        <v>29013808</v>
+        <v>71013808</v>
       </c>
       <c r="E24" s="2"/>
       <c r="O24">
@@ -3830,7 +3873,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" s="18">
         <f>SUM(G2:G23)</f>
-        <v>1299649669</v>
+        <v>2559649669</v>
       </c>
       <c r="H25" s="18">
         <f>SUM(H2:H23)</f>
@@ -3838,7 +3881,7 @@
       </c>
       <c r="I25" s="18">
         <f>SUM(I2:I23)</f>
-        <v>899146213</v>
+        <v>2159146213</v>
       </c>
       <c r="O25">
         <v>24</v>
@@ -3918,15 +3961,16 @@
         <v>95</v>
       </c>
       <c r="G30" s="18">
-        <v>1000</v>
+        <f>G25*11/36500</f>
+        <v>771401.2701095891</v>
       </c>
       <c r="H30" s="18">
         <f>G30*H25/G25</f>
-        <v>308.16262686248564</v>
+        <v>120699.67167123289</v>
       </c>
       <c r="I30" s="18">
         <f>G30*I25/G25</f>
-        <v>691.83737313751431</v>
+        <v>650701.5984383563</v>
       </c>
       <c r="O30">
         <v>29</v>
@@ -3940,9 +3984,11 @@
     </row>
     <row r="31" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="43">
-        <v>0</v>
-      </c>
-      <c r="E31" s="55"/>
+        <v>-3000000</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>722</v>
+      </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
       </c>
@@ -4037,7 +4083,7 @@
     <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
         <f>SUM(D30:D39)</f>
-        <v>9646572</v>
+        <v>6646572</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -15287,11 +15333,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15368,7 +15414,7 @@
       </c>
       <c r="G2" s="37">
         <f>G3+F2</f>
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H2" s="37">
         <f>IF(B2&gt;0,1,0)</f>
@@ -15376,11 +15422,11 @@
       </c>
       <c r="I2" s="11">
         <f>B2*(G2-H2)</f>
-        <v>8333300</v>
+        <v>8350000</v>
       </c>
       <c r="J2" s="54">
         <f>C2*(G2-H2)</f>
-        <v>8333300</v>
+        <v>8350000</v>
       </c>
       <c r="K2" s="54">
         <f>D2*(G2-H2)</f>
@@ -15409,7 +15455,7 @@
       </c>
       <c r="G3" s="37">
         <f t="shared" ref="G3:G66" si="1">G4+F3</f>
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H3" s="37">
         <f t="shared" ref="H3:H66" si="2">IF(B3&gt;0,1,0)</f>
@@ -15417,15 +15463,15 @@
       </c>
       <c r="I3" s="11">
         <f t="shared" ref="I3:I66" si="3">B3*(G3-H3)</f>
-        <v>9910200000</v>
+        <v>9930100000</v>
       </c>
       <c r="J3" s="54">
         <f t="shared" ref="J3:J66" si="4">C3*(G3-H3)</f>
-        <v>5670726000</v>
+        <v>5682113000</v>
       </c>
       <c r="K3" s="54">
         <f t="shared" ref="K3:K66" si="5">D3*(G3-H3)</f>
-        <v>4239474000</v>
+        <v>4247987000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -15450,7 +15496,7 @@
       </c>
       <c r="G4" s="37">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H4" s="37">
         <f t="shared" si="2"/>
@@ -15462,11 +15508,11 @@
       </c>
       <c r="J4" s="54">
         <f t="shared" si="4"/>
-        <v>4241500</v>
+        <v>4250000</v>
       </c>
       <c r="K4" s="54">
         <f t="shared" si="5"/>
-        <v>-4241500</v>
+        <v>-4250000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -15491,7 +15537,7 @@
       </c>
       <c r="G5" s="37">
         <f t="shared" si="1"/>
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H5" s="37">
         <f t="shared" si="2"/>
@@ -15499,7 +15545,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="3"/>
-        <v>992000000</v>
+        <v>994000000</v>
       </c>
       <c r="J5" s="54">
         <f t="shared" si="4"/>
@@ -15507,7 +15553,7 @@
       </c>
       <c r="K5" s="54">
         <f t="shared" si="5"/>
-        <v>992000000</v>
+        <v>994000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -15532,7 +15578,7 @@
       </c>
       <c r="G6" s="37">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="2"/>
@@ -15540,7 +15586,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>-2450000</v>
+        <v>-2455000</v>
       </c>
       <c r="J6" s="54">
         <f t="shared" si="4"/>
@@ -15548,7 +15594,7 @@
       </c>
       <c r="K6" s="54">
         <f t="shared" si="5"/>
-        <v>-2450000</v>
+        <v>-2455000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15573,7 +15619,7 @@
       </c>
       <c r="G7" s="37">
         <f t="shared" si="1"/>
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" si="2"/>
@@ -15581,7 +15627,7 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>-583443000</v>
+        <v>-584643500</v>
       </c>
       <c r="J7" s="54">
         <f t="shared" si="4"/>
@@ -15589,7 +15635,7 @@
       </c>
       <c r="K7" s="54">
         <f t="shared" si="5"/>
-        <v>-583443000</v>
+        <v>-584643500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -15614,7 +15660,7 @@
       </c>
       <c r="G8" s="37">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" si="2"/>
@@ -15622,7 +15668,7 @@
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>-97000000</v>
+        <v>-97200000</v>
       </c>
       <c r="J8" s="54">
         <f t="shared" si="4"/>
@@ -15630,7 +15676,7 @@
       </c>
       <c r="K8" s="54">
         <f t="shared" si="5"/>
-        <v>-97000000</v>
+        <v>-97200000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -15655,7 +15701,7 @@
       </c>
       <c r="G9" s="37">
         <f t="shared" si="1"/>
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" si="2"/>
@@ -15663,7 +15709,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>-340756500</v>
+        <v>-341462000</v>
       </c>
       <c r="J9" s="54">
         <f t="shared" si="4"/>
@@ -15671,7 +15717,7 @@
       </c>
       <c r="K9" s="54">
         <f t="shared" si="5"/>
-        <v>-340756500</v>
+        <v>-341462000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -15696,7 +15742,7 @@
       </c>
       <c r="G10" s="37">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="2"/>
@@ -15704,7 +15750,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>-94800000</v>
+        <v>-95000000</v>
       </c>
       <c r="J10" s="54">
         <f t="shared" si="4"/>
@@ -15712,7 +15758,7 @@
       </c>
       <c r="K10" s="54">
         <f t="shared" si="5"/>
-        <v>-94800000</v>
+        <v>-95000000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -15737,7 +15783,7 @@
       </c>
       <c r="G11" s="37">
         <f t="shared" si="1"/>
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H11" s="37">
         <f t="shared" si="2"/>
@@ -15745,7 +15791,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>473000000</v>
+        <v>474000000</v>
       </c>
       <c r="J11" s="54">
         <f t="shared" si="4"/>
@@ -15753,7 +15799,7 @@
       </c>
       <c r="K11" s="54">
         <f t="shared" si="5"/>
-        <v>473000000</v>
+        <v>474000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -15778,7 +15824,7 @@
       </c>
       <c r="G12" s="37">
         <f t="shared" si="1"/>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" si="2"/>
@@ -15786,7 +15832,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-141000000</v>
+        <v>-141300000</v>
       </c>
       <c r="J12" s="54">
         <f t="shared" si="4"/>
@@ -15794,7 +15840,7 @@
       </c>
       <c r="K12" s="54">
         <f t="shared" si="5"/>
-        <v>-141000000</v>
+        <v>-141300000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15819,7 +15865,7 @@
       </c>
       <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H13" s="37">
         <f t="shared" si="2"/>
@@ -15827,7 +15873,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>-28830000</v>
+        <v>-28892000</v>
       </c>
       <c r="J13" s="54">
         <f t="shared" si="4"/>
@@ -15835,7 +15881,7 @@
       </c>
       <c r="K13" s="54">
         <f t="shared" si="5"/>
-        <v>-28830000</v>
+        <v>-28892000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15860,7 +15906,7 @@
       </c>
       <c r="G14" s="37">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H14" s="37">
         <f t="shared" si="2"/>
@@ -15868,7 +15914,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>928000000</v>
+        <v>930000000</v>
       </c>
       <c r="J14" s="54">
         <f t="shared" si="4"/>
@@ -15876,7 +15922,7 @@
       </c>
       <c r="K14" s="54">
         <f t="shared" si="5"/>
-        <v>928000000</v>
+        <v>930000000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15901,7 +15947,7 @@
       </c>
       <c r="G15" s="37">
         <f t="shared" si="1"/>
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H15" s="37">
         <f t="shared" si="2"/>
@@ -15909,7 +15955,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>833400000</v>
+        <v>835200000</v>
       </c>
       <c r="J15" s="54">
         <f t="shared" si="4"/>
@@ -15917,7 +15963,7 @@
       </c>
       <c r="K15" s="54">
         <f t="shared" si="5"/>
-        <v>833400000</v>
+        <v>835200000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15942,7 +15988,7 @@
       </c>
       <c r="G16" s="37">
         <f t="shared" si="1"/>
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H16" s="37">
         <f t="shared" si="2"/>
@@ -15950,7 +15996,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>-92800000</v>
+        <v>-93000000</v>
       </c>
       <c r="J16" s="54">
         <f t="shared" si="4"/>
@@ -15958,7 +16004,7 @@
       </c>
       <c r="K16" s="54">
         <f t="shared" si="5"/>
-        <v>-92800000</v>
+        <v>-93000000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -15983,7 +16029,7 @@
       </c>
       <c r="G17" s="37">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H17" s="37">
         <f t="shared" si="2"/>
@@ -15991,7 +16037,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>-920000000</v>
+        <v>-922000000</v>
       </c>
       <c r="J17" s="54">
         <f t="shared" si="4"/>
@@ -15999,7 +16045,7 @@
       </c>
       <c r="K17" s="54">
         <f t="shared" si="5"/>
-        <v>-920000000</v>
+        <v>-922000000</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -16027,7 +16073,7 @@
       </c>
       <c r="G18" s="37">
         <f t="shared" si="1"/>
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="2"/>
@@ -16035,7 +16081,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>-137700000</v>
+        <v>-138000000</v>
       </c>
       <c r="J18" s="54">
         <f t="shared" si="4"/>
@@ -16043,7 +16089,7 @@
       </c>
       <c r="K18" s="54">
         <f t="shared" si="5"/>
-        <v>-137700000</v>
+        <v>-138000000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16068,7 +16114,7 @@
       </c>
       <c r="G19" s="37">
         <f t="shared" si="1"/>
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H19" s="37">
         <f t="shared" si="2"/>
@@ -16076,7 +16122,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>-91600000</v>
+        <v>-91800000</v>
       </c>
       <c r="J19" s="54">
         <f t="shared" si="4"/>
@@ -16084,7 +16130,7 @@
       </c>
       <c r="K19" s="54">
         <f t="shared" si="5"/>
-        <v>-91600000</v>
+        <v>-91800000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -16109,7 +16155,7 @@
       </c>
       <c r="G20" s="37">
         <f t="shared" si="1"/>
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H20" s="37">
         <f t="shared" si="2"/>
@@ -16117,15 +16163,15 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>123345495</v>
+        <v>123616584</v>
       </c>
       <c r="J20" s="54">
         <f t="shared" si="4"/>
-        <v>67090660</v>
+        <v>67238112</v>
       </c>
       <c r="K20" s="54">
         <f t="shared" si="5"/>
-        <v>56254835</v>
+        <v>56378472</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -16150,7 +16196,7 @@
       </c>
       <c r="G21" s="37">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H21" s="37">
         <f t="shared" si="2"/>
@@ -16158,7 +16204,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-683587800</v>
+        <v>-685093500</v>
       </c>
       <c r="J21" s="54">
         <f t="shared" si="4"/>
@@ -16166,7 +16212,7 @@
       </c>
       <c r="K21" s="54">
         <f t="shared" si="5"/>
-        <v>-683587800</v>
+        <v>-685093500</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -16191,7 +16237,7 @@
       </c>
       <c r="G22" s="37">
         <f t="shared" si="1"/>
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H22" s="37">
         <f t="shared" si="2"/>
@@ -16199,7 +16245,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1350000000</v>
+        <v>1353000000</v>
       </c>
       <c r="J22" s="54">
         <f t="shared" si="4"/>
@@ -16207,7 +16253,7 @@
       </c>
       <c r="K22" s="54">
         <f t="shared" si="5"/>
-        <v>1350000000</v>
+        <v>1353000000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -16232,7 +16278,7 @@
       </c>
       <c r="G23" s="37">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H23" s="37">
         <f t="shared" si="2"/>
@@ -16240,7 +16286,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>449000000</v>
+        <v>450000000</v>
       </c>
       <c r="J23" s="54">
         <f t="shared" si="4"/>
@@ -16248,7 +16294,7 @@
       </c>
       <c r="K23" s="54">
         <f t="shared" si="5"/>
-        <v>449000000</v>
+        <v>450000000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -16273,7 +16319,7 @@
       </c>
       <c r="G24" s="37">
         <f t="shared" si="1"/>
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H24" s="37">
         <f t="shared" si="2"/>
@@ -16281,7 +16327,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>-1347404100</v>
+        <v>-1350405000</v>
       </c>
       <c r="J24" s="54">
         <f t="shared" si="4"/>
@@ -16289,7 +16335,7 @@
       </c>
       <c r="K24" s="54">
         <f t="shared" si="5"/>
-        <v>-1347404100</v>
+        <v>-1350405000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -16314,7 +16360,7 @@
       </c>
       <c r="G25" s="37">
         <f t="shared" si="1"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="2"/>
@@ -16322,7 +16368,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>649500000</v>
+        <v>651000000</v>
       </c>
       <c r="J25" s="54">
         <f t="shared" si="4"/>
@@ -16330,7 +16376,7 @@
       </c>
       <c r="K25" s="54">
         <f t="shared" si="5"/>
-        <v>649500000</v>
+        <v>651000000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -16355,7 +16401,7 @@
       </c>
       <c r="G26" s="37">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H26" s="37">
         <f t="shared" si="2"/>
@@ -16363,7 +16409,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-69864000</v>
+        <v>-70028000</v>
       </c>
       <c r="J26" s="54">
         <f t="shared" si="4"/>
@@ -16371,7 +16417,7 @@
       </c>
       <c r="K26" s="54">
         <f t="shared" si="5"/>
-        <v>-69864000</v>
+        <v>-70028000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -16396,7 +16442,7 @@
       </c>
       <c r="G27" s="37">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" si="2"/>
@@ -16404,15 +16450,15 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>84542632</v>
+        <v>84742025</v>
       </c>
       <c r="J27" s="54">
         <f t="shared" si="4"/>
-        <v>45543112</v>
+        <v>45650525</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" si="5"/>
-        <v>38999520</v>
+        <v>39091500</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -16437,7 +16483,7 @@
       </c>
       <c r="G28" s="37">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H28" s="37">
         <f t="shared" si="2"/>
@@ -16445,11 +16491,11 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>-93483000</v>
+        <v>-93704000</v>
       </c>
       <c r="J28" s="54">
         <f t="shared" si="4"/>
-        <v>-93483000</v>
+        <v>-93704000</v>
       </c>
       <c r="K28" s="54">
         <f t="shared" si="5"/>
@@ -16478,7 +16524,7 @@
       </c>
       <c r="G29" s="37">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H29" s="37">
         <f t="shared" si="2"/>
@@ -16486,7 +16532,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>-211711500</v>
+        <v>-212212000</v>
       </c>
       <c r="J29" s="54">
         <f t="shared" si="4"/>
@@ -16494,7 +16540,7 @@
       </c>
       <c r="K29" s="54">
         <f t="shared" si="5"/>
-        <v>-211711500</v>
+        <v>-212212000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16519,7 +16565,7 @@
       </c>
       <c r="G30" s="37">
         <f t="shared" si="1"/>
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" si="2"/>
@@ -16527,11 +16573,11 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>-6345000000</v>
+        <v>-6360000000</v>
       </c>
       <c r="J30" s="54">
         <f t="shared" si="4"/>
-        <v>-6345000000</v>
+        <v>-6360000000</v>
       </c>
       <c r="K30" s="54">
         <f t="shared" si="5"/>
@@ -16560,7 +16606,7 @@
       </c>
       <c r="G31" s="37">
         <f t="shared" si="1"/>
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H31" s="37">
         <f t="shared" si="2"/>
@@ -16568,7 +16614,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-1222425400</v>
+        <v>-1225436300</v>
       </c>
       <c r="J31" s="54">
         <f t="shared" si="4"/>
@@ -16576,7 +16622,7 @@
       </c>
       <c r="K31" s="54">
         <f t="shared" si="5"/>
-        <v>-1222425400</v>
+        <v>-1225436300</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16601,7 +16647,7 @@
       </c>
       <c r="G32" s="37">
         <f t="shared" si="1"/>
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H32" s="37">
         <f t="shared" si="2"/>
@@ -16609,7 +16655,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-1214383600</v>
+        <v>-1217389500</v>
       </c>
       <c r="J32" s="54">
         <f t="shared" si="4"/>
@@ -16617,7 +16663,7 @@
       </c>
       <c r="K32" s="54">
         <f t="shared" si="5"/>
-        <v>-1214383600</v>
+        <v>-1217389500</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16642,7 +16688,7 @@
       </c>
       <c r="G33" s="37">
         <f t="shared" si="1"/>
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H33" s="37">
         <f t="shared" si="2"/>
@@ -16650,7 +16696,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>-360886500</v>
+        <v>-361782000</v>
       </c>
       <c r="J33" s="54">
         <f t="shared" si="4"/>
@@ -16658,7 +16704,7 @@
       </c>
       <c r="K33" s="54">
         <f t="shared" si="5"/>
-        <v>-360886500</v>
+        <v>-361782000</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16683,7 +16729,7 @@
       </c>
       <c r="G34" s="37">
         <f t="shared" si="1"/>
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H34" s="37">
         <f t="shared" si="2"/>
@@ -16695,11 +16741,11 @@
       </c>
       <c r="J34" s="54">
         <f t="shared" si="4"/>
-        <v>403000000</v>
+        <v>404000000</v>
       </c>
       <c r="K34" s="54">
         <f t="shared" si="5"/>
-        <v>-403000000</v>
+        <v>-404000000</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16724,7 +16770,7 @@
       </c>
       <c r="G35" s="37">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H35" s="37">
         <f t="shared" si="2"/>
@@ -16732,15 +16778,15 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>20621496</v>
+        <v>20673968</v>
       </c>
       <c r="J35" s="54">
         <f t="shared" si="4"/>
-        <v>-8513559</v>
+        <v>-8535222</v>
       </c>
       <c r="K35" s="54">
         <f t="shared" si="5"/>
-        <v>29135055</v>
+        <v>29209190</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16765,7 +16811,7 @@
       </c>
       <c r="G36" s="37">
         <f t="shared" si="1"/>
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" si="2"/>
@@ -16777,11 +16823,11 @@
       </c>
       <c r="J36" s="54">
         <f t="shared" si="4"/>
-        <v>8535222</v>
+        <v>8556885</v>
       </c>
       <c r="K36" s="54">
         <f t="shared" si="5"/>
-        <v>-8535222</v>
+        <v>-8556885</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16806,7 +16852,7 @@
       </c>
       <c r="G37" s="37">
         <f t="shared" si="1"/>
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
@@ -16814,7 +16860,7 @@
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>-21120000</v>
+        <v>-21175000</v>
       </c>
       <c r="J37" s="54">
         <f t="shared" si="4"/>
@@ -16822,7 +16868,7 @@
       </c>
       <c r="K37" s="54">
         <f t="shared" si="5"/>
-        <v>-21120000</v>
+        <v>-21175000</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -16847,7 +16893,7 @@
       </c>
       <c r="G38" s="37">
         <f t="shared" si="1"/>
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H38" s="37">
         <f t="shared" si="2"/>
@@ -16855,11 +16901,11 @@
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>1146000000</v>
+        <v>1149000000</v>
       </c>
       <c r="J38" s="54">
         <f t="shared" si="4"/>
-        <v>1146000000</v>
+        <v>1149000000</v>
       </c>
       <c r="K38" s="54">
         <f t="shared" si="5"/>
@@ -16888,7 +16934,7 @@
       </c>
       <c r="G39" s="37">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H39" s="37">
         <f t="shared" si="2"/>
@@ -16896,11 +16942,11 @@
       </c>
       <c r="I39" s="11">
         <f t="shared" si="3"/>
-        <v>952500000</v>
+        <v>955000000</v>
       </c>
       <c r="J39" s="54">
         <f t="shared" si="4"/>
-        <v>952500000</v>
+        <v>955000000</v>
       </c>
       <c r="K39" s="54">
         <f t="shared" si="5"/>
@@ -16929,7 +16975,7 @@
       </c>
       <c r="G40" s="37">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H40" s="37">
         <f t="shared" si="2"/>
@@ -16937,7 +16983,7 @@
       </c>
       <c r="I40" s="11">
         <f t="shared" si="3"/>
-        <v>-19100000</v>
+        <v>-19150000</v>
       </c>
       <c r="J40" s="54">
         <f t="shared" si="4"/>
@@ -16945,7 +16991,7 @@
       </c>
       <c r="K40" s="54">
         <f t="shared" si="5"/>
-        <v>-19100000</v>
+        <v>-19150000</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -16970,7 +17016,7 @@
       </c>
       <c r="G41" s="37">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H41" s="37">
         <f t="shared" si="2"/>
@@ -16978,7 +17024,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="3"/>
-        <v>1143000000</v>
+        <v>1146000000</v>
       </c>
       <c r="J41" s="54">
         <f t="shared" si="4"/>
@@ -16986,7 +17032,7 @@
       </c>
       <c r="K41" s="54">
         <f t="shared" si="5"/>
-        <v>1143000000</v>
+        <v>1146000000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -17011,7 +17057,7 @@
       </c>
       <c r="G42" s="37">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H42" s="37">
         <f t="shared" si="2"/>
@@ -17019,7 +17065,7 @@
       </c>
       <c r="I42" s="11">
         <f t="shared" si="3"/>
-        <v>-33806800</v>
+        <v>-33896000</v>
       </c>
       <c r="J42" s="54">
         <f t="shared" si="4"/>
@@ -17027,7 +17073,7 @@
       </c>
       <c r="K42" s="54">
         <f t="shared" si="5"/>
-        <v>-33806800</v>
+        <v>-33896000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -17052,7 +17098,7 @@
       </c>
       <c r="G43" s="37">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H43" s="37">
         <f t="shared" si="2"/>
@@ -17060,7 +17106,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="3"/>
-        <v>-75000000</v>
+        <v>-75200000</v>
       </c>
       <c r="J43" s="54">
         <f t="shared" si="4"/>
@@ -17068,7 +17114,7 @@
       </c>
       <c r="K43" s="54">
         <f t="shared" si="5"/>
-        <v>-75000000</v>
+        <v>-75200000</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17093,7 +17139,7 @@
       </c>
       <c r="G44" s="37">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H44" s="37">
         <f t="shared" si="2"/>
@@ -17101,7 +17147,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="3"/>
-        <v>-74600000</v>
+        <v>-74800000</v>
       </c>
       <c r="J44" s="54">
         <f t="shared" si="4"/>
@@ -17109,7 +17155,7 @@
       </c>
       <c r="K44" s="54">
         <f t="shared" si="5"/>
-        <v>-74600000</v>
+        <v>-74800000</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17134,7 +17180,7 @@
       </c>
       <c r="G45" s="37">
         <f t="shared" si="1"/>
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H45" s="37">
         <f t="shared" si="2"/>
@@ -17142,7 +17188,7 @@
       </c>
       <c r="I45" s="11">
         <f t="shared" si="3"/>
-        <v>-208880000</v>
+        <v>-209440000</v>
       </c>
       <c r="J45" s="54">
         <f t="shared" si="4"/>
@@ -17150,7 +17196,7 @@
       </c>
       <c r="K45" s="54">
         <f t="shared" si="5"/>
-        <v>-208880000</v>
+        <v>-209440000</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17175,7 +17221,7 @@
       </c>
       <c r="G46" s="37">
         <f t="shared" si="1"/>
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H46" s="37">
         <f t="shared" si="2"/>
@@ -17183,7 +17229,7 @@
       </c>
       <c r="I46" s="11">
         <f t="shared" si="3"/>
-        <v>-260329500</v>
+        <v>-261035000</v>
       </c>
       <c r="J46" s="54">
         <f t="shared" si="4"/>
@@ -17191,7 +17237,7 @@
       </c>
       <c r="K46" s="54">
         <f t="shared" si="5"/>
-        <v>-260329500</v>
+        <v>-261035000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17216,7 +17262,7 @@
       </c>
       <c r="G47" s="37">
         <f t="shared" si="1"/>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H47" s="37">
         <f t="shared" si="2"/>
@@ -17224,15 +17270,15 @@
       </c>
       <c r="I47" s="11">
         <f t="shared" si="3"/>
-        <v>14915848</v>
+        <v>14957052</v>
       </c>
       <c r="J47" s="54">
         <f t="shared" si="4"/>
-        <v>2430106</v>
+        <v>2436819</v>
       </c>
       <c r="K47" s="54">
         <f t="shared" si="5"/>
-        <v>12485742</v>
+        <v>12520233</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17257,7 +17303,7 @@
       </c>
       <c r="G48" s="37">
         <f t="shared" si="1"/>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H48" s="37">
         <f t="shared" si="2"/>
@@ -17265,7 +17311,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="3"/>
-        <v>617101400</v>
+        <v>618806100</v>
       </c>
       <c r="J48" s="54">
         <f t="shared" si="4"/>
@@ -17273,7 +17319,7 @@
       </c>
       <c r="K48" s="54">
         <f t="shared" si="5"/>
-        <v>617101400</v>
+        <v>618806100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17298,7 +17344,7 @@
       </c>
       <c r="G49" s="37">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H49" s="37">
         <f t="shared" si="2"/>
@@ -17306,7 +17352,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="3"/>
-        <v>-54870000</v>
+        <v>-55025000</v>
       </c>
       <c r="J49" s="54">
         <f t="shared" si="4"/>
@@ -17314,7 +17360,7 @@
       </c>
       <c r="K49" s="54">
         <f t="shared" si="5"/>
-        <v>-54870000</v>
+        <v>-55025000</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17339,7 +17385,7 @@
       </c>
       <c r="G50" s="37">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H50" s="37">
         <f t="shared" si="2"/>
@@ -17347,7 +17393,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="3"/>
-        <v>-48852000</v>
+        <v>-48990000</v>
       </c>
       <c r="J50" s="54">
         <f t="shared" si="4"/>
@@ -17355,7 +17401,7 @@
       </c>
       <c r="K50" s="54">
         <f t="shared" si="5"/>
-        <v>-48852000</v>
+        <v>-48990000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17380,7 +17426,7 @@
       </c>
       <c r="G51" s="37">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H51" s="37">
         <f t="shared" si="2"/>
@@ -17388,7 +17434,7 @@
       </c>
       <c r="I51" s="11">
         <f t="shared" si="3"/>
-        <v>-261960000</v>
+        <v>-262700000</v>
       </c>
       <c r="J51" s="54">
         <f t="shared" si="4"/>
@@ -17396,7 +17442,7 @@
       </c>
       <c r="K51" s="54">
         <f t="shared" si="5"/>
-        <v>-261960000</v>
+        <v>-262700000</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17421,7 +17467,7 @@
       </c>
       <c r="G52" s="37">
         <f t="shared" si="1"/>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H52" s="37">
         <f t="shared" si="2"/>
@@ -17429,7 +17475,7 @@
       </c>
       <c r="I52" s="11">
         <f t="shared" si="3"/>
-        <v>-70800000</v>
+        <v>-71000000</v>
       </c>
       <c r="J52" s="54">
         <f t="shared" si="4"/>
@@ -17437,7 +17483,7 @@
       </c>
       <c r="K52" s="54">
         <f t="shared" si="5"/>
-        <v>-70800000</v>
+        <v>-71000000</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -17462,7 +17508,7 @@
       </c>
       <c r="G53" s="37">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H53" s="37">
         <f t="shared" si="2"/>
@@ -17470,7 +17516,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="3"/>
-        <v>-372415000</v>
+        <v>-373470000</v>
       </c>
       <c r="J53" s="54">
         <f t="shared" si="4"/>
@@ -17478,7 +17524,7 @@
       </c>
       <c r="K53" s="54">
         <f t="shared" si="5"/>
-        <v>-372415000</v>
+        <v>-373470000</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17503,7 +17549,7 @@
       </c>
       <c r="G54" s="37">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H54" s="37">
         <f t="shared" si="2"/>
@@ -17511,7 +17557,7 @@
       </c>
       <c r="I54" s="11">
         <f t="shared" si="3"/>
-        <v>-70600000</v>
+        <v>-70800000</v>
       </c>
       <c r="J54" s="54">
         <f t="shared" si="4"/>
@@ -17519,7 +17565,7 @@
       </c>
       <c r="K54" s="54">
         <f t="shared" si="5"/>
-        <v>-70600000</v>
+        <v>-70800000</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17544,7 +17590,7 @@
       </c>
       <c r="G55" s="37">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H55" s="37">
         <f t="shared" si="2"/>
@@ -17552,7 +17598,7 @@
       </c>
       <c r="I55" s="11">
         <f t="shared" si="3"/>
-        <v>-353176500</v>
+        <v>-354177000</v>
       </c>
       <c r="J55" s="54">
         <f t="shared" si="4"/>
@@ -17560,7 +17606,7 @@
       </c>
       <c r="K55" s="54">
         <f t="shared" si="5"/>
-        <v>-353176500</v>
+        <v>-354177000</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17585,7 +17631,7 @@
       </c>
       <c r="G56" s="37">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H56" s="37">
         <f t="shared" si="2"/>
@@ -17593,7 +17639,7 @@
       </c>
       <c r="I56" s="11">
         <f t="shared" si="3"/>
-        <v>-13414000</v>
+        <v>-13452000</v>
       </c>
       <c r="J56" s="54">
         <f t="shared" si="4"/>
@@ -17601,7 +17647,7 @@
       </c>
       <c r="K56" s="54">
         <f t="shared" si="5"/>
-        <v>-13414000</v>
+        <v>-13452000</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17626,7 +17672,7 @@
       </c>
       <c r="G57" s="37">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H57" s="37">
         <f t="shared" si="2"/>
@@ -17634,7 +17680,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="3"/>
-        <v>-37065000</v>
+        <v>-37170000</v>
       </c>
       <c r="J57" s="54">
         <f t="shared" si="4"/>
@@ -17642,7 +17688,7 @@
       </c>
       <c r="K57" s="54">
         <f t="shared" si="5"/>
-        <v>-37065000</v>
+        <v>-37170000</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17667,7 +17713,7 @@
       </c>
       <c r="G58" s="37">
         <f t="shared" si="1"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H58" s="37">
         <f t="shared" si="2"/>
@@ -17675,7 +17721,7 @@
       </c>
       <c r="I58" s="11">
         <f t="shared" si="3"/>
-        <v>-21180000</v>
+        <v>-21240000</v>
       </c>
       <c r="J58" s="54">
         <f t="shared" si="4"/>
@@ -17683,7 +17729,7 @@
       </c>
       <c r="K58" s="54">
         <f t="shared" si="5"/>
-        <v>-21180000</v>
+        <v>-21240000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -17708,7 +17754,7 @@
       </c>
       <c r="G59" s="37">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H59" s="37">
         <f t="shared" si="2"/>
@@ -17716,11 +17762,11 @@
       </c>
       <c r="I59" s="11">
         <f t="shared" si="3"/>
-        <v>349000000</v>
+        <v>350000000</v>
       </c>
       <c r="J59" s="54">
         <f t="shared" si="4"/>
-        <v>349000000</v>
+        <v>350000000</v>
       </c>
       <c r="K59" s="54">
         <f t="shared" si="5"/>
@@ -17749,7 +17795,7 @@
       </c>
       <c r="G60" s="37">
         <f t="shared" si="1"/>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H60" s="37">
         <f t="shared" si="2"/>
@@ -17757,11 +17803,11 @@
       </c>
       <c r="I60" s="11">
         <f t="shared" si="3"/>
-        <v>1218000000</v>
+        <v>1221500000</v>
       </c>
       <c r="J60" s="54">
         <f t="shared" si="4"/>
-        <v>1218000000</v>
+        <v>1221500000</v>
       </c>
       <c r="K60" s="54">
         <f t="shared" si="5"/>
@@ -17790,7 +17836,7 @@
       </c>
       <c r="G61" s="37">
         <f t="shared" si="1"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H61" s="37">
         <f t="shared" si="2"/>
@@ -17798,11 +17844,11 @@
       </c>
       <c r="I61" s="11">
         <f t="shared" si="3"/>
-        <v>346000000</v>
+        <v>347000000</v>
       </c>
       <c r="J61" s="54">
         <f t="shared" si="4"/>
-        <v>346000000</v>
+        <v>347000000</v>
       </c>
       <c r="K61" s="54">
         <f t="shared" si="5"/>
@@ -17831,7 +17877,7 @@
       </c>
       <c r="G62" s="37">
         <f t="shared" si="1"/>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H62" s="37">
         <f t="shared" si="2"/>
@@ -17839,11 +17885,11 @@
       </c>
       <c r="I62" s="11">
         <f t="shared" si="3"/>
-        <v>1038000000</v>
+        <v>1041000000</v>
       </c>
       <c r="J62" s="54">
         <f t="shared" si="4"/>
-        <v>1038000000</v>
+        <v>1041000000</v>
       </c>
       <c r="K62" s="54">
         <f t="shared" si="5"/>
@@ -17872,7 +17918,7 @@
       </c>
       <c r="G63" s="37">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H63" s="37">
         <f t="shared" si="2"/>
@@ -17880,7 +17926,7 @@
       </c>
       <c r="I63" s="11">
         <f t="shared" si="3"/>
-        <v>-69000000</v>
+        <v>-69200000</v>
       </c>
       <c r="J63" s="54">
         <f t="shared" si="4"/>
@@ -17888,7 +17934,7 @@
       </c>
       <c r="K63" s="54">
         <f t="shared" si="5"/>
-        <v>-69000000</v>
+        <v>-69200000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -17913,7 +17959,7 @@
       </c>
       <c r="G64" s="37">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H64" s="37">
         <f t="shared" si="2"/>
@@ -17921,7 +17967,7 @@
       </c>
       <c r="I64" s="11">
         <f t="shared" si="3"/>
-        <v>-17000000</v>
+        <v>-17050000</v>
       </c>
       <c r="J64" s="54">
         <f t="shared" si="4"/>
@@ -17929,7 +17975,7 @@
       </c>
       <c r="K64" s="54">
         <f t="shared" si="5"/>
-        <v>-17000000</v>
+        <v>-17050000</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -17954,7 +18000,7 @@
       </c>
       <c r="G65" s="37">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H65" s="37">
         <f t="shared" si="2"/>
@@ -17962,7 +18008,7 @@
       </c>
       <c r="I65" s="11">
         <f t="shared" si="3"/>
-        <v>-67200000</v>
+        <v>-67400000</v>
       </c>
       <c r="J65" s="54">
         <f t="shared" si="4"/>
@@ -17970,7 +18016,7 @@
       </c>
       <c r="K65" s="54">
         <f t="shared" si="5"/>
-        <v>-67200000</v>
+        <v>-67400000</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -17995,7 +18041,7 @@
       </c>
       <c r="G66" s="37">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H66" s="37">
         <f t="shared" si="2"/>
@@ -18003,7 +18049,7 @@
       </c>
       <c r="I66" s="11">
         <f t="shared" si="3"/>
-        <v>-56610000</v>
+        <v>-56780000</v>
       </c>
       <c r="J66" s="54">
         <f t="shared" si="4"/>
@@ -18011,7 +18057,7 @@
       </c>
       <c r="K66" s="54">
         <f t="shared" si="5"/>
-        <v>-56610000</v>
+        <v>-56780000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -18035,24 +18081,24 @@
         <v>18</v>
       </c>
       <c r="G67" s="37">
-        <f t="shared" ref="G67:G128" si="7">G68+F67</f>
-        <v>332</v>
+        <f t="shared" ref="G67:G142" si="7">G68+F67</f>
+        <v>333</v>
       </c>
       <c r="H67" s="37">
-        <f t="shared" ref="H67:H125" si="8">IF(B67&gt;0,1,0)</f>
+        <f t="shared" ref="H67:H130" si="8">IF(B67&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="I67" s="11">
         <f t="shared" ref="I67:I119" si="9">B67*(G67-H67)</f>
-        <v>30228575</v>
+        <v>30319900</v>
       </c>
       <c r="J67" s="54">
-        <f t="shared" ref="J67:J125" si="10">C67*(G67-H67)</f>
-        <v>21754313</v>
+        <f t="shared" ref="J67:J130" si="10">C67*(G67-H67)</f>
+        <v>21820036</v>
       </c>
       <c r="K67" s="54">
-        <f t="shared" ref="K67:K125" si="11">D67*(G67-H67)</f>
-        <v>8474262</v>
+        <f t="shared" ref="K67:K130" si="11">D67*(G67-H67)</f>
+        <v>8499864</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -18077,7 +18123,7 @@
       </c>
       <c r="G68" s="37">
         <f t="shared" si="7"/>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H68" s="37">
         <f t="shared" si="8"/>
@@ -18085,7 +18131,7 @@
       </c>
       <c r="I68" s="11">
         <f t="shared" si="9"/>
-        <v>-45530000</v>
+        <v>-45675000</v>
       </c>
       <c r="J68" s="54">
         <f t="shared" si="10"/>
@@ -18093,7 +18139,7 @@
       </c>
       <c r="K68" s="54">
         <f t="shared" si="11"/>
-        <v>-45530000</v>
+        <v>-45675000</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -18118,7 +18164,7 @@
       </c>
       <c r="G69" s="37">
         <f t="shared" si="7"/>
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H69" s="37">
         <f t="shared" si="8"/>
@@ -18126,7 +18172,7 @@
       </c>
       <c r="I69" s="11">
         <f t="shared" si="9"/>
-        <v>299880000</v>
+        <v>300860000</v>
       </c>
       <c r="J69" s="54">
         <f t="shared" si="10"/>
@@ -18134,7 +18180,7 @@
       </c>
       <c r="K69" s="54">
         <f t="shared" si="11"/>
-        <v>299880000</v>
+        <v>300860000</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -18159,7 +18205,7 @@
       </c>
       <c r="G70" s="37">
         <f t="shared" si="7"/>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H70" s="37">
         <f t="shared" si="8"/>
@@ -18167,7 +18213,7 @@
       </c>
       <c r="I70" s="11">
         <f t="shared" si="9"/>
-        <v>-13984000</v>
+        <v>-14030000</v>
       </c>
       <c r="J70" s="54">
         <f t="shared" si="10"/>
@@ -18175,7 +18221,7 @@
       </c>
       <c r="K70" s="54">
         <f t="shared" si="11"/>
-        <v>-13984000</v>
+        <v>-14030000</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -18200,7 +18246,7 @@
       </c>
       <c r="G71" s="37">
         <f t="shared" si="7"/>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H71" s="37">
         <f t="shared" si="8"/>
@@ -18208,15 +18254,15 @@
       </c>
       <c r="I71" s="11">
         <f t="shared" si="9"/>
-        <v>34716738</v>
+        <v>34832076</v>
       </c>
       <c r="J71" s="54">
         <f t="shared" si="10"/>
-        <v>31247412</v>
+        <v>31351224</v>
       </c>
       <c r="K71" s="54">
         <f t="shared" si="11"/>
-        <v>3469326</v>
+        <v>3480852</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -18241,7 +18287,7 @@
       </c>
       <c r="G72" s="37">
         <f t="shared" si="7"/>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H72" s="37">
         <f t="shared" si="8"/>
@@ -18249,7 +18295,7 @@
       </c>
       <c r="I72" s="11">
         <f t="shared" si="9"/>
-        <v>-45742669</v>
+        <v>-45894638</v>
       </c>
       <c r="J72" s="54">
         <f t="shared" si="10"/>
@@ -18257,7 +18303,7 @@
       </c>
       <c r="K72" s="54">
         <f t="shared" si="11"/>
-        <v>-45742669</v>
+        <v>-45894638</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -18282,7 +18328,7 @@
       </c>
       <c r="G73" s="37">
         <f t="shared" si="7"/>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H73" s="37">
         <f t="shared" si="8"/>
@@ -18290,7 +18336,7 @@
       </c>
       <c r="I73" s="11">
         <f t="shared" si="9"/>
-        <v>-241650000</v>
+        <v>-242455500</v>
       </c>
       <c r="J73" s="54">
         <f t="shared" si="10"/>
@@ -18298,7 +18344,7 @@
       </c>
       <c r="K73" s="54">
         <f t="shared" si="11"/>
-        <v>-241650000</v>
+        <v>-242455500</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -18323,7 +18369,7 @@
       </c>
       <c r="G74" s="37">
         <f t="shared" si="7"/>
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H74" s="37">
         <f t="shared" si="8"/>
@@ -18331,7 +18377,7 @@
       </c>
       <c r="I74" s="11">
         <f t="shared" si="9"/>
-        <v>2042540000</v>
+        <v>2049535000</v>
       </c>
       <c r="J74" s="54">
         <f t="shared" si="10"/>
@@ -18339,7 +18385,7 @@
       </c>
       <c r="K74" s="54">
         <f t="shared" si="11"/>
-        <v>2042540000</v>
+        <v>2049535000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -18364,7 +18410,7 @@
       </c>
       <c r="G75" s="37">
         <f t="shared" si="7"/>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H75" s="37">
         <f t="shared" si="8"/>
@@ -18372,7 +18418,7 @@
       </c>
       <c r="I75" s="11">
         <f t="shared" si="9"/>
-        <v>873000000</v>
+        <v>876000000</v>
       </c>
       <c r="J75" s="54">
         <f t="shared" si="10"/>
@@ -18380,7 +18426,7 @@
       </c>
       <c r="K75" s="54">
         <f t="shared" si="11"/>
-        <v>873000000</v>
+        <v>876000000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -18405,7 +18451,7 @@
       </c>
       <c r="G76" s="37">
         <f t="shared" si="7"/>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H76" s="37">
         <f t="shared" si="8"/>
@@ -18413,7 +18459,7 @@
       </c>
       <c r="I76" s="11">
         <f t="shared" si="9"/>
-        <v>867000000</v>
+        <v>870000000</v>
       </c>
       <c r="J76" s="54">
         <f t="shared" si="10"/>
@@ -18421,7 +18467,7 @@
       </c>
       <c r="K76" s="54">
         <f t="shared" si="11"/>
-        <v>867000000</v>
+        <v>870000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -18446,7 +18492,7 @@
       </c>
       <c r="G77" s="37">
         <f t="shared" si="7"/>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H77" s="37">
         <f t="shared" si="8"/>
@@ -18454,7 +18500,7 @@
       </c>
       <c r="I77" s="11">
         <f t="shared" si="9"/>
-        <v>864000000</v>
+        <v>867000000</v>
       </c>
       <c r="J77" s="54">
         <f t="shared" si="10"/>
@@ -18462,7 +18508,7 @@
       </c>
       <c r="K77" s="54">
         <f t="shared" si="11"/>
-        <v>864000000</v>
+        <v>867000000</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -18487,7 +18533,7 @@
       </c>
       <c r="G78" s="37">
         <f t="shared" si="7"/>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H78" s="37">
         <f t="shared" si="8"/>
@@ -18495,11 +18541,11 @@
       </c>
       <c r="I78" s="11">
         <f t="shared" si="9"/>
-        <v>-921600000</v>
+        <v>-924800000</v>
       </c>
       <c r="J78" s="54">
         <f t="shared" si="10"/>
-        <v>-921600000</v>
+        <v>-924800000</v>
       </c>
       <c r="K78" s="54">
         <f t="shared" si="11"/>
@@ -18528,7 +18574,7 @@
       </c>
       <c r="G79" s="37">
         <f t="shared" si="7"/>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H79" s="37">
         <f t="shared" si="8"/>
@@ -18536,11 +18582,11 @@
       </c>
       <c r="I79" s="11">
         <f t="shared" si="9"/>
-        <v>-229600000</v>
+        <v>-230400000</v>
       </c>
       <c r="J79" s="54">
         <f t="shared" si="10"/>
-        <v>-229600000</v>
+        <v>-230400000</v>
       </c>
       <c r="K79" s="54">
         <f t="shared" si="11"/>
@@ -18569,7 +18615,7 @@
       </c>
       <c r="G80" s="37">
         <f t="shared" si="7"/>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H80" s="37">
         <f t="shared" si="8"/>
@@ -18577,7 +18623,7 @@
       </c>
       <c r="I80" s="11">
         <f t="shared" si="9"/>
-        <v>-13840398</v>
+        <v>-13888791</v>
       </c>
       <c r="J80" s="54">
         <f t="shared" si="10"/>
@@ -18585,7 +18631,7 @@
       </c>
       <c r="K80" s="54">
         <f t="shared" si="11"/>
-        <v>-13840398</v>
+        <v>-13888791</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -18610,7 +18656,7 @@
       </c>
       <c r="G81" s="37">
         <f t="shared" si="7"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H81" s="37">
         <f t="shared" si="8"/>
@@ -18618,7 +18664,7 @@
       </c>
       <c r="I81" s="11">
         <f t="shared" si="9"/>
-        <v>-39900000</v>
+        <v>-40040000</v>
       </c>
       <c r="J81" s="54">
         <f t="shared" si="10"/>
@@ -18626,7 +18672,7 @@
       </c>
       <c r="K81" s="54">
         <f t="shared" si="11"/>
-        <v>-39900000</v>
+        <v>-40040000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -18651,7 +18697,7 @@
       </c>
       <c r="G82" s="37">
         <f t="shared" si="7"/>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H82" s="37">
         <f t="shared" si="8"/>
@@ -18659,7 +18705,7 @@
       </c>
       <c r="I82" s="11">
         <f t="shared" si="9"/>
-        <v>-71000000</v>
+        <v>-71250000</v>
       </c>
       <c r="J82" s="54">
         <f t="shared" si="10"/>
@@ -18667,7 +18713,7 @@
       </c>
       <c r="K82" s="54">
         <f t="shared" si="11"/>
-        <v>-71000000</v>
+        <v>-71250000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -18692,7 +18738,7 @@
       </c>
       <c r="G83" s="37">
         <f t="shared" si="7"/>
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H83" s="37">
         <f t="shared" si="8"/>
@@ -18700,7 +18746,7 @@
       </c>
       <c r="I83" s="11">
         <f t="shared" si="9"/>
-        <v>-56600000</v>
+        <v>-56800000</v>
       </c>
       <c r="J83" s="54">
         <f t="shared" si="10"/>
@@ -18708,7 +18754,7 @@
       </c>
       <c r="K83" s="54">
         <f t="shared" si="11"/>
-        <v>-56600000</v>
+        <v>-56800000</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -18733,7 +18779,7 @@
       </c>
       <c r="G84" s="37">
         <f t="shared" si="7"/>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H84" s="37">
         <f t="shared" si="8"/>
@@ -18741,7 +18787,7 @@
       </c>
       <c r="I84" s="11">
         <f t="shared" si="9"/>
-        <v>456220800</v>
+        <v>457856000</v>
       </c>
       <c r="J84" s="54">
         <f t="shared" si="10"/>
@@ -18749,7 +18795,7 @@
       </c>
       <c r="K84" s="54">
         <f t="shared" si="11"/>
-        <v>456220800</v>
+        <v>457856000</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -18763,7 +18809,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D125" si="12">B85-C85</f>
+        <f t="shared" ref="D85:D126" si="12">B85-C85</f>
         <v>2500000</v>
       </c>
       <c r="E85" s="20" t="s">
@@ -18774,7 +18820,7 @@
       </c>
       <c r="G85" s="37">
         <f t="shared" si="7"/>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H85" s="37">
         <f t="shared" si="8"/>
@@ -18782,7 +18828,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="9"/>
-        <v>687500000</v>
+        <v>690000000</v>
       </c>
       <c r="J85" s="54">
         <f t="shared" si="10"/>
@@ -18790,7 +18836,7 @@
       </c>
       <c r="K85" s="54">
         <f t="shared" si="11"/>
-        <v>687500000</v>
+        <v>690000000</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -18815,7 +18861,7 @@
       </c>
       <c r="G86" s="37">
         <f t="shared" si="7"/>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H86" s="37">
         <f t="shared" si="8"/>
@@ -18823,15 +18869,15 @@
       </c>
       <c r="I86" s="11">
         <f t="shared" si="9"/>
-        <v>50487300</v>
+        <v>50673600</v>
       </c>
       <c r="J86" s="54">
         <f t="shared" si="10"/>
-        <v>23021450</v>
+        <v>23106400</v>
       </c>
       <c r="K86" s="54">
         <f t="shared" si="11"/>
-        <v>27465850</v>
+        <v>27567200</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -18856,7 +18902,7 @@
       </c>
       <c r="G87" s="37">
         <f t="shared" si="7"/>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H87" s="37">
         <f t="shared" si="8"/>
@@ -18864,7 +18910,7 @@
       </c>
       <c r="I87" s="11">
         <f t="shared" si="9"/>
-        <v>-53800000</v>
+        <v>-54000000</v>
       </c>
       <c r="J87" s="54">
         <f t="shared" si="10"/>
@@ -18872,7 +18918,7 @@
       </c>
       <c r="K87" s="54">
         <f t="shared" si="11"/>
-        <v>-53800000</v>
+        <v>-54000000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -18897,7 +18943,7 @@
       </c>
       <c r="G88" s="37">
         <f t="shared" si="7"/>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H88" s="37">
         <f t="shared" si="8"/>
@@ -18905,15 +18951,15 @@
       </c>
       <c r="I88" s="11">
         <f t="shared" si="9"/>
-        <v>-31624000</v>
+        <v>-31742000</v>
       </c>
       <c r="J88" s="54">
         <f t="shared" si="10"/>
-        <v>-18492000</v>
+        <v>-18561000</v>
       </c>
       <c r="K88" s="54">
         <f t="shared" si="11"/>
-        <v>-13132000</v>
+        <v>-13181000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -18938,7 +18984,7 @@
       </c>
       <c r="G89" s="37">
         <f t="shared" si="7"/>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H89" s="37">
         <f t="shared" si="8"/>
@@ -18946,7 +18992,7 @@
       </c>
       <c r="I89" s="11">
         <f t="shared" si="9"/>
-        <v>-832234000</v>
+        <v>-835434900</v>
       </c>
       <c r="J89" s="54">
         <f t="shared" si="10"/>
@@ -18954,7 +19000,7 @@
       </c>
       <c r="K89" s="54">
         <f t="shared" si="11"/>
-        <v>-832234000</v>
+        <v>-835434900</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -18979,7 +19025,7 @@
       </c>
       <c r="G90" s="37">
         <f t="shared" si="7"/>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H90" s="37">
         <f t="shared" si="8"/>
@@ -18987,7 +19033,7 @@
       </c>
       <c r="I90" s="11">
         <f t="shared" si="9"/>
-        <v>-829033100</v>
+        <v>-832234000</v>
       </c>
       <c r="J90" s="54">
         <f t="shared" si="10"/>
@@ -18995,7 +19041,7 @@
       </c>
       <c r="K90" s="54">
         <f t="shared" si="11"/>
-        <v>-829033100</v>
+        <v>-832234000</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -19020,7 +19066,7 @@
       </c>
       <c r="G91" s="37">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H91" s="37">
         <f t="shared" si="8"/>
@@ -19028,7 +19074,7 @@
       </c>
       <c r="I91" s="11">
         <f t="shared" si="9"/>
-        <v>-825832200</v>
+        <v>-829033100</v>
       </c>
       <c r="J91" s="54">
         <f t="shared" si="10"/>
@@ -19036,7 +19082,7 @@
       </c>
       <c r="K91" s="54">
         <f t="shared" si="11"/>
-        <v>-825832200</v>
+        <v>-829033100</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -19061,7 +19107,7 @@
       </c>
       <c r="G92" s="37">
         <f t="shared" si="7"/>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H92" s="37">
         <f t="shared" si="8"/>
@@ -19069,7 +19115,7 @@
       </c>
       <c r="I92" s="11">
         <f t="shared" si="9"/>
-        <v>-822631300</v>
+        <v>-825832200</v>
       </c>
       <c r="J92" s="54">
         <f t="shared" si="10"/>
@@ -19077,7 +19123,7 @@
       </c>
       <c r="K92" s="54">
         <f t="shared" si="11"/>
-        <v>-822631300</v>
+        <v>-825832200</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -19102,7 +19148,7 @@
       </c>
       <c r="G93" s="37">
         <f t="shared" si="7"/>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H93" s="37">
         <f t="shared" si="8"/>
@@ -19110,7 +19156,7 @@
       </c>
       <c r="I93" s="11">
         <f t="shared" si="9"/>
-        <v>-819430400</v>
+        <v>-822631300</v>
       </c>
       <c r="J93" s="54">
         <f t="shared" si="10"/>
@@ -19118,7 +19164,7 @@
       </c>
       <c r="K93" s="54">
         <f t="shared" si="11"/>
-        <v>-819430400</v>
+        <v>-822631300</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -19143,7 +19189,7 @@
       </c>
       <c r="G94" s="37">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H94" s="37">
         <f t="shared" si="8"/>
@@ -19151,7 +19197,7 @@
       </c>
       <c r="I94" s="11">
         <f t="shared" si="9"/>
-        <v>-816229500</v>
+        <v>-819430400</v>
       </c>
       <c r="J94" s="54">
         <f t="shared" si="10"/>
@@ -19159,7 +19205,7 @@
       </c>
       <c r="K94" s="54">
         <f t="shared" si="11"/>
-        <v>-816229500</v>
+        <v>-819430400</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -19184,7 +19230,7 @@
       </c>
       <c r="G95" s="37">
         <f t="shared" si="7"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H95" s="37">
         <f t="shared" si="8"/>
@@ -19192,7 +19238,7 @@
       </c>
       <c r="I95" s="11">
         <f t="shared" si="9"/>
-        <v>-302738788</v>
+        <v>-303935384</v>
       </c>
       <c r="J95" s="54">
         <f t="shared" si="10"/>
@@ -19200,7 +19246,7 @@
       </c>
       <c r="K95" s="54">
         <f t="shared" si="11"/>
-        <v>-302738788</v>
+        <v>-303935384</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -19225,7 +19271,7 @@
       </c>
       <c r="G96" s="37">
         <f t="shared" si="7"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H96" s="37">
         <f t="shared" si="8"/>
@@ -19233,7 +19279,7 @@
       </c>
       <c r="I96" s="11">
         <f t="shared" si="9"/>
-        <v>-48600000</v>
+        <v>-48800000</v>
       </c>
       <c r="J96" s="54">
         <f t="shared" si="10"/>
@@ -19241,7 +19287,7 @@
       </c>
       <c r="K96" s="54">
         <f t="shared" si="11"/>
-        <v>-48600000</v>
+        <v>-48800000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -19266,7 +19312,7 @@
       </c>
       <c r="G97" s="37">
         <f t="shared" si="7"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H97" s="37">
         <f t="shared" si="8"/>
@@ -19274,15 +19320,15 @@
       </c>
       <c r="I97" s="11">
         <f t="shared" si="9"/>
-        <v>38453478</v>
+        <v>38613036</v>
       </c>
       <c r="J97" s="54">
         <f t="shared" si="10"/>
-        <v>16611166</v>
+        <v>16680092</v>
       </c>
       <c r="K97" s="54">
         <f t="shared" si="11"/>
-        <v>21842312</v>
+        <v>21932944</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -19307,7 +19353,7 @@
       </c>
       <c r="G98" s="37">
         <f t="shared" si="7"/>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H98" s="37">
         <f t="shared" si="8"/>
@@ -19315,7 +19361,7 @@
       </c>
       <c r="I98" s="11">
         <f t="shared" si="9"/>
-        <v>26990848</v>
+        <v>27105216</v>
       </c>
       <c r="J98" s="54">
         <f t="shared" si="10"/>
@@ -19323,7 +19369,7 @@
       </c>
       <c r="K98" s="54">
         <f t="shared" si="11"/>
-        <v>26990848</v>
+        <v>27105216</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -19348,7 +19394,7 @@
       </c>
       <c r="G99" s="37">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H99" s="37">
         <f t="shared" si="8"/>
@@ -19356,7 +19402,7 @@
       </c>
       <c r="I99" s="11">
         <f t="shared" si="9"/>
-        <v>-310050000</v>
+        <v>-311375000</v>
       </c>
       <c r="J99" s="54">
         <f t="shared" si="10"/>
@@ -19364,7 +19410,7 @@
       </c>
       <c r="K99" s="54">
         <f t="shared" si="11"/>
-        <v>-310050000</v>
+        <v>-311375000</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -19389,7 +19435,7 @@
       </c>
       <c r="G100" s="37">
         <f t="shared" si="7"/>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H100" s="37">
         <f t="shared" si="8"/>
@@ -19397,7 +19443,7 @@
       </c>
       <c r="I100" s="11">
         <f t="shared" si="9"/>
-        <v>302100000</v>
+        <v>303425000</v>
       </c>
       <c r="J100" s="54">
         <f t="shared" si="10"/>
@@ -19405,7 +19451,7 @@
       </c>
       <c r="K100" s="54">
         <f t="shared" si="11"/>
-        <v>302100000</v>
+        <v>303425000</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -19430,7 +19476,7 @@
       </c>
       <c r="G101" s="37">
         <f t="shared" si="7"/>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H101" s="37">
         <f t="shared" si="8"/>
@@ -19438,11 +19484,11 @@
       </c>
       <c r="I101" s="11">
         <f t="shared" si="9"/>
-        <v>14104295</v>
+        <v>14171140</v>
       </c>
       <c r="J101" s="54">
         <f t="shared" si="10"/>
-        <v>14104295</v>
+        <v>14171140</v>
       </c>
       <c r="K101" s="54">
         <f t="shared" si="11"/>
@@ -19471,7 +19517,7 @@
       </c>
       <c r="G102" s="37">
         <f t="shared" si="7"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H102" s="37">
         <f t="shared" si="8"/>
@@ -19479,7 +19525,7 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" si="9"/>
-        <v>624000000</v>
+        <v>627000000</v>
       </c>
       <c r="J102" s="54">
         <f t="shared" si="10"/>
@@ -19487,7 +19533,7 @@
       </c>
       <c r="K102" s="54">
         <f t="shared" si="11"/>
-        <v>624000000</v>
+        <v>627000000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -19512,7 +19558,7 @@
       </c>
       <c r="G103" s="37">
         <f t="shared" si="7"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H103" s="37">
         <f t="shared" si="8"/>
@@ -19520,11 +19566,11 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="9"/>
-        <v>-202000000</v>
+        <v>-203000000</v>
       </c>
       <c r="J103" s="54">
         <f t="shared" si="10"/>
-        <v>-202000000</v>
+        <v>-203000000</v>
       </c>
       <c r="K103" s="54">
         <f t="shared" si="11"/>
@@ -19553,7 +19599,7 @@
       </c>
       <c r="G104" s="37">
         <f t="shared" si="7"/>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H104" s="37">
         <f t="shared" si="8"/>
@@ -19561,11 +19607,11 @@
       </c>
       <c r="I104" s="11">
         <f t="shared" si="9"/>
-        <v>573000000</v>
+        <v>576000000</v>
       </c>
       <c r="J104" s="54">
         <f t="shared" si="10"/>
-        <v>573000000</v>
+        <v>576000000</v>
       </c>
       <c r="K104" s="54">
         <f t="shared" si="11"/>
@@ -19594,7 +19640,7 @@
       </c>
       <c r="G105" s="37">
         <f t="shared" si="7"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H105" s="37">
         <f t="shared" si="8"/>
@@ -19602,11 +19648,11 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="9"/>
-        <v>212800000</v>
+        <v>213920000</v>
       </c>
       <c r="J105" s="54">
         <f t="shared" si="10"/>
-        <v>212800000</v>
+        <v>213920000</v>
       </c>
       <c r="K105" s="54">
         <f t="shared" si="11"/>
@@ -19635,7 +19681,7 @@
       </c>
       <c r="G106" s="37">
         <f t="shared" si="7"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H106" s="37">
         <f t="shared" si="8"/>
@@ -19643,7 +19689,7 @@
       </c>
       <c r="I106" s="11">
         <f t="shared" si="9"/>
-        <v>-573000000</v>
+        <v>-576000000</v>
       </c>
       <c r="J106" s="54">
         <f t="shared" si="10"/>
@@ -19651,7 +19697,7 @@
       </c>
       <c r="K106" s="54">
         <f t="shared" si="11"/>
-        <v>-573000000</v>
+        <v>-576000000</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -19676,7 +19722,7 @@
       </c>
       <c r="G107" s="37">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H107" s="37">
         <f t="shared" si="8"/>
@@ -19684,15 +19730,15 @@
       </c>
       <c r="I107" s="11">
         <f t="shared" si="9"/>
-        <v>16379414</v>
+        <v>16469908</v>
       </c>
       <c r="J107" s="54">
         <f t="shared" si="10"/>
-        <v>13595815</v>
+        <v>13670930</v>
       </c>
       <c r="K107" s="54">
         <f t="shared" si="11"/>
-        <v>2783599</v>
+        <v>2798978</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -19717,7 +19763,7 @@
       </c>
       <c r="G108" s="37">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H108" s="37">
         <f t="shared" si="8"/>
@@ -19725,7 +19771,7 @@
       </c>
       <c r="I108" s="11">
         <f t="shared" si="9"/>
-        <v>-306126000</v>
+        <v>-307826700</v>
       </c>
       <c r="J108" s="54">
         <f t="shared" si="10"/>
@@ -19733,7 +19779,7 @@
       </c>
       <c r="K108" s="54">
         <f t="shared" si="11"/>
-        <v>-306126000</v>
+        <v>-307826700</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -19758,7 +19804,7 @@
       </c>
       <c r="G109" s="37">
         <f t="shared" si="7"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H109" s="37">
         <f t="shared" si="8"/>
@@ -19766,7 +19812,7 @@
       </c>
       <c r="I109" s="11">
         <f t="shared" si="9"/>
-        <v>-176088000</v>
+        <v>-177088500</v>
       </c>
       <c r="J109" s="54">
         <f t="shared" si="10"/>
@@ -19774,7 +19820,7 @@
       </c>
       <c r="K109" s="54">
         <f t="shared" si="11"/>
-        <v>-176088000</v>
+        <v>-177088500</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -19799,7 +19845,7 @@
       </c>
       <c r="G110" s="37">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H110" s="37">
         <f t="shared" si="8"/>
@@ -19807,7 +19853,7 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="9"/>
-        <v>3440000000</v>
+        <v>3460000000</v>
       </c>
       <c r="J110" s="54">
         <f t="shared" si="10"/>
@@ -19815,7 +19861,7 @@
       </c>
       <c r="K110" s="54">
         <f t="shared" si="11"/>
-        <v>3440000000</v>
+        <v>3460000000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -19840,7 +19886,7 @@
       </c>
       <c r="G111" s="37">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H111" s="37">
         <f t="shared" si="8"/>
@@ -19848,15 +19894,15 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="9"/>
-        <v>26551056</v>
+        <v>26725734</v>
       </c>
       <c r="J111" s="54">
         <f t="shared" si="10"/>
-        <v>13279176</v>
+        <v>13366539</v>
       </c>
       <c r="K111" s="54">
         <f t="shared" si="11"/>
-        <v>13271880</v>
+        <v>13359195</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -19881,7 +19927,7 @@
       </c>
       <c r="G112" s="37">
         <f t="shared" si="7"/>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H112" s="37">
         <f t="shared" si="8"/>
@@ -19889,7 +19935,7 @@
       </c>
       <c r="I112" s="11">
         <f t="shared" si="9"/>
-        <v>-3890800000</v>
+        <v>-3919200000</v>
       </c>
       <c r="J112" s="54">
         <f t="shared" si="10"/>
@@ -19897,7 +19943,7 @@
       </c>
       <c r="K112" s="54">
         <f t="shared" si="11"/>
-        <v>-3890800000</v>
+        <v>-3919200000</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -19922,7 +19968,7 @@
       </c>
       <c r="G113" s="37">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H113" s="37">
         <f t="shared" si="8"/>
@@ -19930,15 +19976,15 @@
       </c>
       <c r="I113" s="11">
         <f t="shared" si="9"/>
-        <v>19727840</v>
+        <v>19890880</v>
       </c>
       <c r="J113" s="54">
         <f t="shared" si="10"/>
-        <v>14823831</v>
+        <v>14946342</v>
       </c>
       <c r="K113" s="54">
         <f t="shared" si="11"/>
-        <v>4904009</v>
+        <v>4944538</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -19963,7 +20009,7 @@
       </c>
       <c r="G114" s="37">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H114" s="37">
         <f t="shared" si="8"/>
@@ -19971,15 +20017,15 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="9"/>
-        <v>-695400</v>
+        <v>-701100</v>
       </c>
       <c r="J114" s="54">
         <f t="shared" si="10"/>
-        <v>-305000</v>
+        <v>-307500</v>
       </c>
       <c r="K114" s="54">
         <f t="shared" si="11"/>
-        <v>-390400</v>
+        <v>-393600</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -20004,7 +20050,7 @@
       </c>
       <c r="G115" s="37">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H115" s="37">
         <f t="shared" si="8"/>
@@ -20016,11 +20062,11 @@
       </c>
       <c r="J115" s="54">
         <f t="shared" si="10"/>
-        <v>54500000</v>
+        <v>55000000</v>
       </c>
       <c r="K115" s="54">
         <f t="shared" si="11"/>
-        <v>-54500000</v>
+        <v>-55000000</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -20045,7 +20091,7 @@
       </c>
       <c r="G116" s="37">
         <f t="shared" si="7"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H116" s="37">
         <f t="shared" si="8"/>
@@ -20053,7 +20099,7 @@
       </c>
       <c r="I116" s="11">
         <f t="shared" si="9"/>
-        <v>-16160000</v>
+        <v>-16320000</v>
       </c>
       <c r="J116" s="54">
         <f t="shared" si="10"/>
@@ -20061,7 +20107,7 @@
       </c>
       <c r="K116" s="54">
         <f t="shared" si="11"/>
-        <v>-16160000</v>
+        <v>-16320000</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -20086,7 +20132,7 @@
       </c>
       <c r="G117" s="37">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H117" s="37">
         <f t="shared" si="8"/>
@@ -20094,15 +20140,15 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="9"/>
-        <v>134680</v>
+        <v>136160</v>
       </c>
       <c r="J117" s="54">
         <f t="shared" si="10"/>
-        <v>9731631</v>
+        <v>9838572</v>
       </c>
       <c r="K117" s="54">
         <f t="shared" si="11"/>
-        <v>-9596951</v>
+        <v>-9702412</v>
       </c>
       <c r="N117" s="3"/>
     </row>
@@ -20128,7 +20174,7 @@
       </c>
       <c r="G118" s="37">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H118" s="37">
         <f t="shared" si="8"/>
@@ -20136,7 +20182,7 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="9"/>
-        <v>2718565500</v>
+        <v>2757965000</v>
       </c>
       <c r="J118" s="54">
         <f t="shared" si="10"/>
@@ -20144,7 +20190,7 @@
       </c>
       <c r="K118" s="54">
         <f t="shared" si="11"/>
-        <v>2718565500</v>
+        <v>2757965000</v>
       </c>
       <c r="O118" s="7"/>
     </row>
@@ -20170,7 +20216,7 @@
       </c>
       <c r="G119" s="37">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H119" s="37">
         <f t="shared" si="8"/>
@@ -20178,15 +20224,15 @@
       </c>
       <c r="I119" s="11">
         <f t="shared" si="9"/>
-        <v>5731260</v>
+        <v>5826781</v>
       </c>
       <c r="J119" s="54">
         <f t="shared" si="10"/>
-        <v>6603240</v>
+        <v>6713294</v>
       </c>
       <c r="K119" s="54">
         <f t="shared" si="11"/>
-        <v>-871980</v>
+        <v>-886513</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -20211,15 +20257,15 @@
       </c>
       <c r="G120" s="37">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H120" s="11">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I120" s="11">
-        <f t="shared" ref="I120:I126" si="13">B120*(G120-H120)</f>
-        <v>112000000</v>
+        <f t="shared" ref="I120:I142" si="13">B120*(G120-H120)</f>
+        <v>114000000</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="10"/>
@@ -20227,7 +20273,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="11"/>
-        <v>112000000</v>
+        <v>114000000</v>
       </c>
       <c r="N120" s="7"/>
     </row>
@@ -20253,7 +20299,7 @@
       </c>
       <c r="G121" s="37">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121" s="11">
         <f t="shared" si="8"/>
@@ -20261,7 +20307,7 @@
       </c>
       <c r="I121" s="11">
         <f t="shared" si="13"/>
-        <v>78000000</v>
+        <v>80600000</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="10"/>
@@ -20269,12 +20315,12 @@
       </c>
       <c r="K121" s="11">
         <f t="shared" si="11"/>
-        <v>78000000</v>
+        <v>80600000</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B122" s="40">
         <v>384551</v>
@@ -20287,14 +20333,14 @@
         <v>273643</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
       </c>
       <c r="G122" s="37">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122" s="11">
         <f t="shared" si="8"/>
@@ -20302,15 +20348,15 @@
       </c>
       <c r="I122" s="11">
         <f t="shared" si="13"/>
-        <v>11151979</v>
+        <v>11536530</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="10"/>
-        <v>3216332</v>
+        <v>3327240</v>
       </c>
       <c r="K122" s="11">
         <f t="shared" si="11"/>
-        <v>7935647</v>
+        <v>8209290</v>
       </c>
       <c r="N122" t="s">
         <v>25</v>
@@ -20318,7 +20364,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B123" s="18">
         <v>0</v>
@@ -20331,14 +20377,14 @@
         <v>-800000</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F123" s="11">
         <v>14</v>
       </c>
       <c r="G123" s="37">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H123" s="11">
         <f t="shared" si="8"/>
@@ -20350,16 +20396,16 @@
       </c>
       <c r="J123" s="11">
         <f t="shared" si="10"/>
-        <v>23200000</v>
+        <v>24000000</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="11"/>
-        <v>-23200000</v>
+        <v>-24000000</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B124" s="18">
         <v>-3000000</v>
@@ -20372,14 +20418,14 @@
         <v>-3000000</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F124" s="11">
         <v>15</v>
       </c>
       <c r="G124" s="37">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H124" s="11">
         <f t="shared" si="8"/>
@@ -20387,7 +20433,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="13"/>
-        <v>-45000000</v>
+        <v>-48000000</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="10"/>
@@ -20395,12 +20441,12 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="11"/>
-        <v>-45000000</v>
+        <v>-48000000</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B125" s="18">
         <v>400710</v>
@@ -20413,14 +20459,14 @@
         <v>281835</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F125" s="11">
         <v>0</v>
       </c>
       <c r="G125" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="11">
         <f t="shared" si="8"/>
@@ -20428,55 +20474,87 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="13"/>
-        <v>-400710</v>
+        <v>0</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="10"/>
-        <v>-118875</v>
+        <v>0</v>
       </c>
       <c r="K125" s="11">
         <f t="shared" si="11"/>
-        <v>-281835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="11"/>
+      <c r="A126" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B126" s="18">
+        <v>42000000</v>
+      </c>
+      <c r="C126" s="18">
+        <v>0</v>
+      </c>
+      <c r="D126" s="18">
+        <f t="shared" si="12"/>
+        <v>42000000</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>513</v>
+      </c>
       <c r="F126" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H126" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H126" s="11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="I126" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
+      <c r="J126" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
       <c r="E127" s="11"/>
-      <c r="F127" s="11">
-        <v>0</v>
-      </c>
+      <c r="F127" s="11"/>
       <c r="G127" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
+      <c r="H127" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
@@ -20484,136 +20562,546 @@
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="11">
-        <v>0</v>
-      </c>
+      <c r="F128" s="11"/>
       <c r="G128" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
+      <c r="H128" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
-      <c r="B129" s="29">
-        <f>SUM(B2:B126)</f>
-        <v>41937108</v>
-      </c>
-      <c r="C129" s="29">
-        <f>SUM(C2:C127)</f>
-        <v>12923301</v>
-      </c>
-      <c r="D129" s="29">
-        <f>SUM(D2:D127)</f>
-        <v>29013807</v>
-      </c>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="29">
-        <f>SUM(I2:I126)</f>
-        <v>8203699269</v>
-      </c>
-      <c r="J129" s="29">
-        <f>SUM(J2:J126)</f>
-        <v>4471776127</v>
-      </c>
-      <c r="K129" s="29">
-        <f>SUM(K2:K126)</f>
-        <v>3731923142</v>
+      <c r="G129" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
-      <c r="B130" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>505</v>
-      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="J130" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="K130" s="11" t="s">
-        <v>503</v>
+      <c r="G130" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
+      <c r="G131" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="11">
+        <f t="shared" ref="H131:H142" si="14">IF(B131&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="11">
+        <f t="shared" ref="J131:J142" si="15">C131*(G131-H131)</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="11">
+        <f t="shared" ref="K131:K142" si="16">D131*(G131-H131)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="3">
-        <f>I129/G2</f>
-        <v>16407398.538000001</v>
-      </c>
-      <c r="J132" s="29">
-        <f>J129/G2</f>
-        <v>8943552.2540000007</v>
-      </c>
-      <c r="K132" s="29">
-        <f>K129/G2</f>
-        <v>7463846.284</v>
+      <c r="G132" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H132" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11" t="s">
+      <c r="G133" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H139" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I140" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11">
+        <v>0</v>
+      </c>
+      <c r="G141" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I141" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11">
+        <v>0</v>
+      </c>
+      <c r="G142" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I142" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="29">
+        <f>SUM(B2:B142)</f>
+        <v>83937108</v>
+      </c>
+      <c r="C143" s="29">
+        <f>SUM(C2:C141)</f>
+        <v>12923301</v>
+      </c>
+      <c r="D143" s="29">
+        <f>SUM(D2:D141)</f>
+        <v>71013807</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="29">
+        <f>SUM(I2:I142)</f>
+        <v>8245636377</v>
+      </c>
+      <c r="J143" s="29">
+        <f>SUM(J2:J142)</f>
+        <v>4484699428</v>
+      </c>
+      <c r="K143" s="29">
+        <f>SUM(K2:K142)</f>
+        <v>3760936949</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="K144" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="3">
+        <f>I143/G2</f>
+        <v>16458356.041916167</v>
+      </c>
+      <c r="J146" s="29">
+        <f>J143/G2</f>
+        <v>8951495.8642714564</v>
+      </c>
+      <c r="K146" s="29">
+        <f>K143/G2</f>
+        <v>7506860.177644711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J147" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="K133" s="11" t="s">
+      <c r="K147" s="11" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J136">
-        <f>J129/I129*1448696</f>
-        <v>789673.53332420066</v>
-      </c>
-      <c r="K136">
-        <f>K129/I129*1448696</f>
-        <v>659022.46667579934</v>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <f>J143/I143*1448696</f>
+        <v>787927.79908027803</v>
+      </c>
+      <c r="K150">
+        <f>K143/I143*1448696</f>
+        <v>660768.20091972197</v>
       </c>
     </row>
   </sheetData>
@@ -25584,7 +26072,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B3" s="40">
         <v>384551</v>
@@ -25597,7 +26085,7 @@
         <v>273643</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -25626,7 +26114,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -25639,7 +26127,7 @@
         <v>-800000</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -25668,7 +26156,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B5" s="18">
         <v>-3000000</v>
@@ -25681,7 +26169,7 @@
         <v>-3000000</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -26529,7 +27017,7 @@
         <v>-65000</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>415</v>
@@ -26556,7 +27044,7 @@
         <v>-28000</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O32">
         <v>31</v>
@@ -26573,7 +27061,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="P33" t="s">
         <v>60</v>
@@ -26587,7 +27075,7 @@
         <v>200000</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
@@ -26595,7 +27083,7 @@
         <v>27470</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.25">
@@ -26603,7 +27091,7 @@
         <v>334000</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
@@ -26611,7 +27099,7 @@
         <v>400000</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.25">
@@ -26619,7 +27107,7 @@
         <v>200000</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.25">
@@ -26663,8 +27151,8 @@
   <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26741,7 +27229,7 @@
       </c>
       <c r="E2" s="11">
         <f>D2+E3</f>
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F2" s="11">
         <f>IF(B2&gt;0,1,0)</f>
@@ -26749,7 +27237,7 @@
       </c>
       <c r="G2" s="11">
         <f>B2*(E2-F2)</f>
-        <v>12250000</v>
+        <v>13300000</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
@@ -26782,8 +27270,8 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E62" si="0">D3+E4</f>
-        <v>242</v>
+        <f t="shared" ref="E3:E66" si="0">D3+E4</f>
+        <v>263</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F38" si="1">IF(B3&gt;0,1,0)</f>
@@ -26791,7 +27279,7 @@
       </c>
       <c r="G3" s="11">
         <f t="shared" ref="G3:G23" si="2">B3*(E3-F3)</f>
-        <v>723000000</v>
+        <v>786000000</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
@@ -26825,7 +27313,7 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
@@ -26833,7 +27321,7 @@
       </c>
       <c r="G4" s="11">
         <f t="shared" si="2"/>
-        <v>720000000</v>
+        <v>783000000</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -26860,7 +27348,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
@@ -26868,7 +27356,7 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>3600000000</v>
+        <v>3915000000</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -26907,7 +27395,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
@@ -26915,7 +27403,7 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" si="2"/>
-        <v>717000000</v>
+        <v>780000000</v>
       </c>
       <c r="K6" t="s">
         <v>288</v>
@@ -26954,7 +27442,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
@@ -26962,7 +27450,7 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>-717000000</v>
+        <v>-780000000</v>
       </c>
       <c r="K7" t="s">
         <v>289</v>
@@ -27004,7 +27492,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
@@ -27012,7 +27500,7 @@
       </c>
       <c r="G8" s="11">
         <f t="shared" si="2"/>
-        <v>-47800000</v>
+        <v>-52000000</v>
       </c>
       <c r="K8" t="s">
         <v>290</v>
@@ -27054,7 +27542,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
@@ -27062,7 +27550,7 @@
       </c>
       <c r="G9" s="11">
         <f>B9*(E9-F9)</f>
-        <v>714000000</v>
+        <v>777000000</v>
       </c>
       <c r="K9" t="s">
         <v>291</v>
@@ -27101,7 +27589,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
@@ -27109,7 +27597,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>711000000</v>
+        <v>774000000</v>
       </c>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -27136,7 +27624,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
@@ -27144,7 +27632,7 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>5925000000</v>
+        <v>6450000000</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -27177,7 +27665,7 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
@@ -27185,7 +27673,7 @@
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>233609220</v>
+        <v>254574150</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -27218,7 +27706,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -27226,7 +27714,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>702000000</v>
+        <v>765000000</v>
       </c>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
@@ -27253,7 +27741,7 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
@@ -27261,7 +27749,7 @@
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>278716464</v>
+        <v>303729480</v>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -27288,7 +27776,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
@@ -27296,7 +27784,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>444000000</v>
+        <v>486000000</v>
       </c>
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
@@ -27319,7 +27807,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
@@ -27327,7 +27815,7 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="2"/>
-        <v>630000000</v>
+        <v>693000000</v>
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
@@ -27350,7 +27838,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
@@ -27358,7 +27846,7 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>627000000</v>
+        <v>690000000</v>
       </c>
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
@@ -27381,7 +27869,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
@@ -27389,7 +27877,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="2"/>
-        <v>395200000</v>
+        <v>435100000</v>
       </c>
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
@@ -27414,7 +27902,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
@@ -27422,7 +27910,7 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
-        <v>155271009</v>
+        <v>172165782</v>
       </c>
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
@@ -27447,7 +27935,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
@@ -27455,7 +27943,7 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>576000000</v>
+        <v>639000000</v>
       </c>
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
@@ -27480,7 +27968,7 @@
       </c>
       <c r="E21" s="11">
         <f>D21+E22</f>
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
@@ -27488,7 +27976,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>93000000</v>
+        <v>103500000</v>
       </c>
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
@@ -27513,7 +28001,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
@@ -27521,7 +28009,7 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>-519000000</v>
+        <v>-582000000</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
@@ -27546,7 +28034,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
@@ -27554,7 +28042,7 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>492000000</v>
+        <v>555000000</v>
       </c>
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
@@ -27579,7 +28067,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
@@ -27587,7 +28075,7 @@
       </c>
       <c r="G24" s="11">
         <f>B24*(E24-F24)</f>
-        <v>103458252</v>
+        <v>116705955</v>
       </c>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
@@ -27612,7 +28100,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
@@ -27620,7 +28108,7 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25:G30" si="3">B25*(E25-F25)</f>
-        <v>-521746700</v>
+        <v>-588965600</v>
       </c>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
@@ -27645,7 +28133,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
@@ -27653,7 +28141,7 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="3"/>
-        <v>-483144900</v>
+        <v>-546163800</v>
       </c>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
@@ -27678,7 +28166,7 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
@@ -27686,7 +28174,7 @@
       </c>
       <c r="G27" s="11">
         <f t="shared" si="3"/>
-        <v>158000000</v>
+        <v>179000000</v>
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
@@ -27711,7 +28199,7 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
@@ -27719,7 +28207,7 @@
       </c>
       <c r="G28" s="11">
         <f t="shared" si="3"/>
-        <v>948000000</v>
+        <v>1074000000</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -27744,7 +28232,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
@@ -27752,7 +28240,7 @@
       </c>
       <c r="G29" s="11">
         <f t="shared" si="3"/>
-        <v>916400000</v>
+        <v>1038200000</v>
       </c>
       <c r="U29" s="25"/>
       <c r="V29" s="28"/>
@@ -27777,7 +28265,7 @@
   